--- a/SharePoint/Docs/MS-VERSS/MS-VERSS_RequirementSpecification.xlsx
+++ b/SharePoint/Docs/MS-VERSS/MS-VERSS_RequirementSpecification.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3018" uniqueCount="919">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3009" uniqueCount="917">
   <si>
     <t>Req ID</t>
   </si>
@@ -1295,9 +1295,6 @@
   </si>
   <si>
     <t>MS-VERSS_R17209</t>
-  </si>
-  <si>
-    <t>MS-VERSS_R17210</t>
   </si>
   <si>
     <t>MS-VERSS_R17211</t>
@@ -2530,9 +2527,6 @@
     <t>[In Appendix B: Product Behavior] Implementation does return error code 0x81020030 to indicate that the fileName element of the DeleteAllVersions element contains invalid character Left angle bracket (&lt;). (SharePoint Foundation 2010 and above follow this behavior.)</t>
   </si>
   <si>
-    <t>[In Appendix B: Product Behavior] Implementation does return error code 0x81020030 to indicate that the fileName element of the DeleteAllVersions element contains invalid character Equal sign (=). (SharePoint Foundation 2010 and above follow this behavior.)</t>
-  </si>
-  <si>
     <t>[In Appendix B: Product Behavior] Implementation does return error code 0x81020030 to indicate that the fileName element of the DeleteAllVersions element contains invalid character Right angle bracket (&gt;). (SharePoint Foundation 2010 and above follow this behavior.)</t>
   </si>
   <si>
@@ -3136,9 +3130,6 @@
     <t>[In Appendix B: Product Behavior] Implementation does return a SOAP exception without an error code if fileName contains equals sign (=). (&lt;4&gt; Section 3.1.4.1.2.2: If fileName contains equals sign (=), SharePoint Foundation 2010 and SharePoint Foundation 2013 return a SOAP exception without an error code.)</t>
   </si>
   <si>
-    <t>Verified by derived requirements: MS-VERSS_R17201, MS-VERSS_R1930101, MS-VERSS_R1930201, MS-VERSS_R1930202, MS-VERSS_R1930203, MS-VERSS_R1930204, MS-VERSS_R1930213, MS-VERSS_R1930214, MS-VERSS_R19302, MS-VERSS_R1930205,MS-VERSS_R1930207,MS-VERSS_R1930208</t>
-  </si>
-  <si>
     <t>MS-VERSS_R17802:i</t>
   </si>
   <si>
@@ -3185,6 +3176,9 @@
   </si>
   <si>
     <t>Verified by derived requirements: MS-VERSS_R17802021,MS-VERSS_R17802022.</t>
+  </si>
+  <si>
+    <t>Verified by derived requirements: MS-VERSS_R17201, MS-VERSS_R1930101, MS-VERSS_R1930201, MS-VERSS_R1930202, MS-VERSS_R1930203, MS-VERSS_R1930204, MS-VERSS_R1930213, MS-VERSS_R1930214, MS-VERSS_R19302, MS-VERSS_R1930205,MS-VERSS_R1930208</t>
   </si>
 </sst>
 </file>
@@ -4623,8 +4617,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I410" tableType="xml" totalsRowShown="0" dataDxfId="16">
-  <autoFilter ref="A19:I410"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I409" tableType="xml" totalsRowShown="0" dataDxfId="16">
+  <autoFilter ref="A19:I409"/>
   <tableColumns count="9">
     <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="15">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
@@ -4992,7 +4986,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L410"/>
+  <dimension ref="A1:L409"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -5012,16 +5006,16 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="9" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="9" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="16"/>
@@ -5034,13 +5028,13 @@
     </row>
     <row r="3" spans="1:10">
       <c r="B3" s="7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C3" s="25">
         <v>5</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="F3" s="41">
         <v>42566</v>
@@ -5051,7 +5045,7 @@
     </row>
     <row r="4" spans="1:10" ht="20.25">
       <c r="A4" s="45" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B4" s="45"/>
       <c r="C4" s="45"/>
@@ -5081,7 +5075,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C6" s="47"/>
       <c r="D6" s="47"/>
@@ -5097,7 +5091,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C7" s="46"/>
       <c r="D7" s="46"/>
@@ -5113,7 +5107,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C8" s="46"/>
       <c r="D8" s="46"/>
@@ -5129,7 +5123,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C9" s="43"/>
       <c r="D9" s="43"/>
@@ -5145,7 +5139,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="50" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C10" s="51"/>
       <c r="D10" s="51"/>
@@ -5161,7 +5155,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="53" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C11" s="53"/>
       <c r="D11" s="53"/>
@@ -5177,7 +5171,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C12" s="29" t="s">
         <v>1</v>
@@ -5216,7 +5210,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D14" s="55"/>
       <c r="E14" s="55"/>
@@ -5234,7 +5228,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D15" s="56"/>
       <c r="E15" s="56"/>
@@ -5246,10 +5240,10 @@
     </row>
     <row r="16" spans="1:10" ht="36.75" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B16" s="57" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C16" s="58"/>
       <c r="D16" s="58"/>
@@ -5265,7 +5259,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="59" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C17" s="60"/>
       <c r="D17" s="60"/>
@@ -5281,7 +5275,7 @@
         <v>6</v>
       </c>
       <c r="B18" s="53" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C18" s="53"/>
       <c r="D18" s="53"/>
@@ -5330,7 +5324,7 @@
         <v>27</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="D20" s="19"/>
       <c r="E20" s="11" t="s">
@@ -5355,7 +5349,7 @@
         <v>27</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="D21" s="19"/>
       <c r="E21" s="11" t="s">
@@ -5380,7 +5374,7 @@
         <v>27</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D22" s="19"/>
       <c r="E22" s="11" t="s">
@@ -5471,7 +5465,7 @@
         <v>18</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="26" spans="1:12" s="12" customFormat="1" ht="45">
@@ -5482,7 +5476,7 @@
         <v>22</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D26" s="19" t="s">
         <v>37</v>
@@ -5500,7 +5494,7 @@
         <v>24</v>
       </c>
       <c r="I26" s="17" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="27" spans="1:12" s="12" customFormat="1" ht="30">
@@ -5536,7 +5530,7 @@
         <v>22</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D28" s="19" t="s">
         <v>355</v>
@@ -5563,7 +5557,7 @@
         <v>22</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D29" s="19" t="s">
         <v>355</v>
@@ -6071,7 +6065,7 @@
         <v>72</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D49" s="19"/>
       <c r="E49" s="11" t="s">
@@ -6096,7 +6090,7 @@
         <v>72</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D50" s="19"/>
       <c r="E50" s="11" t="s">
@@ -6196,7 +6190,7 @@
         <v>79</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D54" s="19"/>
       <c r="E54" s="11" t="s">
@@ -6221,7 +6215,7 @@
         <v>79</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="D55" s="19"/>
       <c r="E55" s="11" t="s">
@@ -6271,7 +6265,7 @@
         <v>79</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="D57" s="19"/>
       <c r="E57" s="11" t="s">
@@ -6315,13 +6309,13 @@
     </row>
     <row r="59" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A59" s="11" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B59" s="17" t="s">
         <v>87</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D59" s="17"/>
       <c r="E59" s="11" t="s">
@@ -6346,7 +6340,7 @@
         <v>87</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D60" s="19"/>
       <c r="E60" s="11" t="s">
@@ -6371,7 +6365,7 @@
         <v>91</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D61" s="19"/>
       <c r="E61" s="11" t="s">
@@ -6396,7 +6390,7 @@
         <v>91</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D62" s="19"/>
       <c r="E62" s="11" t="s">
@@ -6421,7 +6415,7 @@
         <v>91</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D63" s="19"/>
       <c r="E63" s="11" t="s">
@@ -6446,7 +6440,7 @@
         <v>91</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D64" s="19"/>
       <c r="E64" s="11" t="s">
@@ -6471,7 +6465,7 @@
         <v>91</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D65" s="19"/>
       <c r="E65" s="11" t="s">
@@ -6521,7 +6515,7 @@
         <v>96</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D67" s="19"/>
       <c r="E67" s="11" t="s">
@@ -6546,7 +6540,7 @@
         <v>96</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="D68" s="19"/>
       <c r="E68" s="12" t="s">
@@ -6621,7 +6615,7 @@
         <v>96</v>
       </c>
       <c r="C71" s="18" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D71" s="19"/>
       <c r="E71" s="11" t="s">
@@ -6846,7 +6840,7 @@
         <v>118</v>
       </c>
       <c r="C80" s="18" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D80" s="19"/>
       <c r="E80" s="11" t="s">
@@ -6921,7 +6915,7 @@
         <v>124</v>
       </c>
       <c r="C83" s="18" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D83" s="19"/>
       <c r="E83" s="11" t="s">
@@ -7040,13 +7034,13 @@
     </row>
     <row r="88" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A88" s="11" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B88" s="17" t="s">
         <v>124</v>
       </c>
       <c r="C88" s="18" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D88" s="19"/>
       <c r="E88" s="11" t="s">
@@ -7062,7 +7056,7 @@
         <v>18</v>
       </c>
       <c r="I88" s="17" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="89" spans="1:9" s="12" customFormat="1">
@@ -7123,7 +7117,7 @@
         <v>124</v>
       </c>
       <c r="C91" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D91" s="19"/>
       <c r="E91" s="12" t="s">
@@ -7139,7 +7133,7 @@
         <v>18</v>
       </c>
       <c r="I91" s="17" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="92" spans="1:9" s="12" customFormat="1">
@@ -7900,7 +7894,7 @@
         <v>186</v>
       </c>
       <c r="C122" s="18" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D122" s="19"/>
       <c r="E122" s="11" t="s">
@@ -7950,7 +7944,7 @@
         <v>186</v>
       </c>
       <c r="C124" s="18" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D124" s="19"/>
       <c r="E124" s="11" t="s">
@@ -8000,7 +7994,7 @@
         <v>193</v>
       </c>
       <c r="C126" s="18" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D126" s="19"/>
       <c r="E126" s="12" t="s">
@@ -8025,7 +8019,7 @@
         <v>193</v>
       </c>
       <c r="C127" s="18" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D127" s="19"/>
       <c r="E127" s="11" t="s">
@@ -8194,13 +8188,13 @@
     </row>
     <row r="134" spans="1:9" s="12" customFormat="1">
       <c r="A134" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B134" s="17" t="s">
         <v>203</v>
       </c>
       <c r="C134" s="18" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="D134" s="17"/>
       <c r="E134" s="11" t="s">
@@ -8219,13 +8213,13 @@
     </row>
     <row r="135" spans="1:9" s="12" customFormat="1">
       <c r="A135" s="11" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="B135" s="17" t="s">
         <v>203</v>
       </c>
       <c r="C135" s="18" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="D135" s="17"/>
       <c r="E135" s="11" t="s">
@@ -8244,13 +8238,13 @@
     </row>
     <row r="136" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A136" s="11" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B136" s="17" t="s">
         <v>203</v>
       </c>
       <c r="C136" s="23" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="D136" s="17"/>
       <c r="E136" s="11" t="s">
@@ -8275,7 +8269,7 @@
         <v>205</v>
       </c>
       <c r="C137" s="18" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D137" s="19"/>
       <c r="E137" s="11" t="s">
@@ -8319,13 +8313,13 @@
     </row>
     <row r="139" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A139" s="11" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B139" s="17" t="s">
         <v>208</v>
       </c>
       <c r="C139" s="23" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="D139" s="17"/>
       <c r="E139" s="11" t="s">
@@ -8350,7 +8344,7 @@
         <v>208</v>
       </c>
       <c r="C140" s="18" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D140" s="19"/>
       <c r="E140" s="11" t="s">
@@ -8394,13 +8388,13 @@
     </row>
     <row r="142" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A142" s="11" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B142" s="17" t="s">
         <v>208</v>
       </c>
       <c r="C142" s="18" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D142" s="19"/>
       <c r="E142" s="11" t="s">
@@ -8419,13 +8413,13 @@
     </row>
     <row r="143" spans="1:9" s="12" customFormat="1" ht="45">
       <c r="A143" s="11" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B143" s="17" t="s">
         <v>208</v>
       </c>
       <c r="C143" s="18" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D143" s="17"/>
       <c r="E143" s="11" t="s">
@@ -8438,13 +8432,13 @@
         <v>16</v>
       </c>
       <c r="H143" s="11" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="I143" s="17" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" s="12" customFormat="1" ht="195">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" s="12" customFormat="1" ht="180">
       <c r="A144" s="11" t="s">
         <v>210</v>
       </c>
@@ -8452,7 +8446,7 @@
         <v>208</v>
       </c>
       <c r="C144" s="21" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D144" s="19"/>
       <c r="E144" s="12" t="s">
@@ -8468,7 +8462,7 @@
         <v>18</v>
       </c>
       <c r="I144" s="19" t="s">
-        <v>902</v>
+        <v>916</v>
       </c>
     </row>
     <row r="145" spans="1:9" s="12" customFormat="1" ht="75">
@@ -8479,7 +8473,7 @@
         <v>208</v>
       </c>
       <c r="C145" s="18" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D145" s="19"/>
       <c r="E145" s="11" t="s">
@@ -8554,7 +8548,7 @@
         <v>214</v>
       </c>
       <c r="C148" s="18" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D148" s="19"/>
       <c r="E148" s="11" t="s">
@@ -8579,7 +8573,7 @@
         <v>214</v>
       </c>
       <c r="C149" s="18" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D149" s="19"/>
       <c r="E149" s="11" t="s">
@@ -8604,7 +8598,7 @@
         <v>214</v>
       </c>
       <c r="C150" s="18" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D150" s="19"/>
       <c r="E150" s="11" t="s">
@@ -8654,7 +8648,7 @@
         <v>214</v>
       </c>
       <c r="C152" s="18" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D152" s="19"/>
       <c r="E152" s="11" t="s">
@@ -8704,7 +8698,7 @@
         <v>223</v>
       </c>
       <c r="C154" s="23" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D154" s="19"/>
       <c r="E154" s="11" t="s">
@@ -8729,7 +8723,7 @@
         <v>223</v>
       </c>
       <c r="C155" s="23" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D155" s="19"/>
       <c r="E155" s="11" t="s">
@@ -8898,13 +8892,13 @@
     </row>
     <row r="162" spans="1:9" s="12" customFormat="1">
       <c r="A162" s="11" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B162" s="17" t="s">
         <v>236</v>
       </c>
       <c r="C162" s="18" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="D162" s="17"/>
       <c r="E162" s="11" t="s">
@@ -8923,13 +8917,13 @@
     </row>
     <row r="163" spans="1:9" s="12" customFormat="1">
       <c r="A163" s="11" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B163" s="17" t="s">
         <v>236</v>
       </c>
       <c r="C163" s="18" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="D163" s="17"/>
       <c r="E163" s="11" t="s">
@@ -8948,13 +8942,13 @@
     </row>
     <row r="164" spans="1:9" s="12" customFormat="1">
       <c r="A164" s="11" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B164" s="17" t="s">
         <v>238</v>
       </c>
       <c r="C164" s="23" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D164" s="17"/>
       <c r="E164" s="11" t="s">
@@ -8979,7 +8973,7 @@
         <v>238</v>
       </c>
       <c r="C165" s="18" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D165" s="19"/>
       <c r="E165" s="11" t="s">
@@ -9048,13 +9042,13 @@
     </row>
     <row r="168" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A168" s="11" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B168" s="17" t="s">
         <v>238</v>
       </c>
       <c r="C168" s="23" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="D168" s="17"/>
       <c r="E168" s="11" t="s">
@@ -9079,7 +9073,7 @@
         <v>242</v>
       </c>
       <c r="C169" s="18" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D169" s="19"/>
       <c r="E169" s="11" t="s">
@@ -9129,7 +9123,7 @@
         <v>242</v>
       </c>
       <c r="C171" s="18" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D171" s="19"/>
       <c r="E171" s="11" t="s">
@@ -9154,7 +9148,7 @@
         <v>242</v>
       </c>
       <c r="C172" s="20" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D172" s="19"/>
       <c r="E172" s="11" t="s">
@@ -9179,7 +9173,7 @@
         <v>242</v>
       </c>
       <c r="C173" s="18" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D173" s="19"/>
       <c r="E173" s="12" t="s">
@@ -9195,7 +9189,7 @@
         <v>18</v>
       </c>
       <c r="I173" s="17" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="174" spans="1:9" s="12" customFormat="1">
@@ -9256,7 +9250,7 @@
         <v>242</v>
       </c>
       <c r="C176" s="18" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D176" s="19"/>
       <c r="E176" s="12" t="s">
@@ -9272,7 +9266,7 @@
         <v>18</v>
       </c>
       <c r="I176" s="19" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="177" spans="1:9" s="12" customFormat="1" ht="45">
@@ -9283,7 +9277,7 @@
         <v>242</v>
       </c>
       <c r="C177" s="18" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="D177" s="19"/>
       <c r="E177" s="12" t="s">
@@ -9299,7 +9293,7 @@
         <v>18</v>
       </c>
       <c r="I177" s="19" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
     </row>
     <row r="178" spans="1:9" s="12" customFormat="1" ht="45">
@@ -9310,7 +9304,7 @@
         <v>242</v>
       </c>
       <c r="C178" s="18" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="D178" s="19"/>
       <c r="E178" s="12" t="s">
@@ -9326,7 +9320,7 @@
         <v>18</v>
       </c>
       <c r="I178" s="19" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
     </row>
     <row r="179" spans="1:9" s="12" customFormat="1" ht="30">
@@ -9337,7 +9331,7 @@
         <v>255</v>
       </c>
       <c r="C179" s="18" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D179" s="19"/>
       <c r="E179" s="11" t="s">
@@ -9362,7 +9356,7 @@
         <v>255</v>
       </c>
       <c r="C180" s="18" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D180" s="19"/>
       <c r="E180" s="11" t="s">
@@ -9412,7 +9406,7 @@
         <v>255</v>
       </c>
       <c r="C182" s="18" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D182" s="19"/>
       <c r="E182" s="11" t="s">
@@ -9462,7 +9456,7 @@
         <v>261</v>
       </c>
       <c r="C184" s="23" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="D184" s="19"/>
       <c r="E184" s="11" t="s">
@@ -9487,7 +9481,7 @@
         <v>261</v>
       </c>
       <c r="C185" s="23" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="D185" s="19"/>
       <c r="E185" s="11" t="s">
@@ -9537,7 +9531,7 @@
         <v>263</v>
       </c>
       <c r="C187" s="18" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D187" s="19"/>
       <c r="E187" s="11" t="s">
@@ -9656,13 +9650,13 @@
     </row>
     <row r="192" spans="1:9" s="12" customFormat="1">
       <c r="A192" s="11" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="B192" s="17" t="s">
         <v>274</v>
       </c>
       <c r="C192" s="23" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D192" s="17"/>
       <c r="E192" s="11" t="s">
@@ -9681,13 +9675,13 @@
     </row>
     <row r="193" spans="1:9" s="12" customFormat="1">
       <c r="A193" s="11" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B193" s="17" t="s">
         <v>274</v>
       </c>
       <c r="C193" s="23" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="D193" s="17"/>
       <c r="E193" s="11" t="s">
@@ -9706,13 +9700,13 @@
     </row>
     <row r="194" spans="1:9" s="12" customFormat="1">
       <c r="A194" s="11" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B194" s="17" t="s">
         <v>276</v>
       </c>
       <c r="C194" s="23" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="D194" s="17"/>
       <c r="E194" s="11" t="s">
@@ -9737,7 +9731,7 @@
         <v>276</v>
       </c>
       <c r="C195" s="18" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D195" s="19"/>
       <c r="E195" s="11" t="s">
@@ -9781,13 +9775,13 @@
     </row>
     <row r="197" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A197" s="11" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B197" s="17" t="s">
         <v>276</v>
       </c>
       <c r="C197" s="23" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="D197" s="17"/>
       <c r="E197" s="11" t="s">
@@ -9812,7 +9806,7 @@
         <v>279</v>
       </c>
       <c r="C198" s="18" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D198" s="19"/>
       <c r="E198" s="11" t="s">
@@ -9887,7 +9881,7 @@
         <v>279</v>
       </c>
       <c r="C201" s="18" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D201" s="19"/>
       <c r="E201" s="12" t="s">
@@ -9906,13 +9900,13 @@
     </row>
     <row r="202" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A202" s="11" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B202" s="17" t="s">
         <v>279</v>
       </c>
       <c r="C202" s="23" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D202" s="17"/>
       <c r="E202" s="11" t="s">
@@ -9981,13 +9975,13 @@
     </row>
     <row r="205" spans="1:9" s="12" customFormat="1" ht="75">
       <c r="A205" s="11" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B205" s="17" t="s">
         <v>284</v>
       </c>
       <c r="C205" s="18" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D205" s="19"/>
       <c r="E205" s="12" t="s">
@@ -10162,7 +10156,7 @@
         <v>284</v>
       </c>
       <c r="C212" s="18" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D212" s="19"/>
       <c r="E212" s="12" t="s">
@@ -10187,7 +10181,7 @@
         <v>284</v>
       </c>
       <c r="C213" s="18" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D213" s="19"/>
       <c r="E213" s="12" t="s">
@@ -10237,7 +10231,7 @@
         <v>284</v>
       </c>
       <c r="C215" s="18" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D215" s="19"/>
       <c r="E215" s="11" t="s">
@@ -10259,10 +10253,10 @@
         <v>298</v>
       </c>
       <c r="B216" s="17" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C216" s="18" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D216" s="19"/>
       <c r="E216" s="11" t="s">
@@ -10284,10 +10278,10 @@
         <v>406</v>
       </c>
       <c r="B217" s="17" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C217" s="18" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D217" s="19"/>
       <c r="E217" s="11" t="s">
@@ -10309,10 +10303,10 @@
         <v>407</v>
       </c>
       <c r="B218" s="17" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C218" s="18" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D218" s="19"/>
       <c r="E218" s="11" t="s">
@@ -10481,13 +10475,13 @@
     </row>
     <row r="225" spans="1:9" s="12" customFormat="1">
       <c r="A225" s="11" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B225" s="17" t="s">
         <v>311</v>
       </c>
       <c r="C225" s="23" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="D225" s="17"/>
       <c r="E225" s="11" t="s">
@@ -10506,13 +10500,13 @@
     </row>
     <row r="226" spans="1:9" s="12" customFormat="1">
       <c r="A226" s="11" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B226" s="17" t="s">
         <v>311</v>
       </c>
       <c r="C226" s="23" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="D226" s="17"/>
       <c r="E226" s="11" t="s">
@@ -10531,13 +10525,13 @@
     </row>
     <row r="227" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A227" s="11" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B227" s="17" t="s">
         <v>311</v>
       </c>
       <c r="C227" s="23" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="D227" s="17"/>
       <c r="E227" s="11" t="s">
@@ -10562,7 +10556,7 @@
         <v>313</v>
       </c>
       <c r="C228" s="18" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D228" s="19"/>
       <c r="E228" s="11" t="s">
@@ -10631,13 +10625,13 @@
     </row>
     <row r="231" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A231" s="11" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B231" s="17" t="s">
         <v>313</v>
       </c>
       <c r="C231" s="23" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D231" s="17"/>
       <c r="E231" s="11" t="s">
@@ -10662,7 +10656,7 @@
         <v>317</v>
       </c>
       <c r="C232" s="18" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D232" s="19"/>
       <c r="E232" s="11" t="s">
@@ -10687,7 +10681,7 @@
         <v>317</v>
       </c>
       <c r="C233" s="18" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D233" s="19"/>
       <c r="E233" s="11" t="s">
@@ -10712,7 +10706,7 @@
         <v>317</v>
       </c>
       <c r="C234" s="18" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D234" s="19"/>
       <c r="E234" s="11" t="s">
@@ -10731,13 +10725,13 @@
     </row>
     <row r="235" spans="1:9" s="12" customFormat="1" ht="45">
       <c r="A235" s="11" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B235" s="17" t="s">
         <v>317</v>
       </c>
       <c r="C235" s="18" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="D235" s="11"/>
       <c r="E235" s="11" t="s">
@@ -10753,7 +10747,7 @@
         <v>18</v>
       </c>
       <c r="I235" s="17" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="236" spans="1:9" s="12" customFormat="1" ht="75">
@@ -10761,10 +10755,10 @@
         <v>411</v>
       </c>
       <c r="B236" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C236" s="18" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D236" s="19"/>
       <c r="E236" s="11" t="s">
@@ -10789,7 +10783,7 @@
         <v>317</v>
       </c>
       <c r="C237" s="18" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D237" s="19"/>
       <c r="E237" s="12" t="s">
@@ -10805,18 +10799,18 @@
         <v>18</v>
       </c>
       <c r="I237" s="17" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="238" spans="1:9" s="12" customFormat="1">
       <c r="A238" s="11" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B238" s="17" t="s">
         <v>317</v>
       </c>
       <c r="C238" s="18" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D238" s="19"/>
       <c r="E238" s="12" t="s">
@@ -10841,7 +10835,7 @@
         <v>317</v>
       </c>
       <c r="C239" s="18" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D239" s="19"/>
       <c r="E239" s="12" t="s">
@@ -10857,7 +10851,7 @@
         <v>18</v>
       </c>
       <c r="I239" s="17" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="240" spans="1:9" s="12" customFormat="1" ht="45">
@@ -10868,7 +10862,7 @@
         <v>327</v>
       </c>
       <c r="C240" s="20" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="D240" s="19"/>
       <c r="E240" s="11" t="s">
@@ -10893,7 +10887,7 @@
         <v>327</v>
       </c>
       <c r="C241" s="18" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="D241" s="19"/>
       <c r="E241" s="11" t="s">
@@ -10912,16 +10906,16 @@
     </row>
     <row r="242" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A242" s="34" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B242" s="35" t="s">
         <v>327</v>
       </c>
       <c r="C242" s="20" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D242" s="37" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E242" s="34" t="s">
         <v>25</v>
@@ -10936,21 +10930,21 @@
         <v>24</v>
       </c>
       <c r="I242" s="35" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="243" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A243" s="34" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B243" s="35" t="s">
         <v>327</v>
       </c>
       <c r="C243" s="20" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D243" s="37" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E243" s="34" t="s">
         <v>25</v>
@@ -10965,21 +10959,21 @@
         <v>24</v>
       </c>
       <c r="I243" s="35" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="244" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A244" s="34" t="s">
+        <v>676</v>
+      </c>
+      <c r="B244" s="35" t="s">
+        <v>327</v>
+      </c>
+      <c r="C244" s="20" t="s">
+        <v>689</v>
+      </c>
+      <c r="D244" s="37" t="s">
         <v>677</v>
-      </c>
-      <c r="B244" s="35" t="s">
-        <v>327</v>
-      </c>
-      <c r="C244" s="20" t="s">
-        <v>690</v>
-      </c>
-      <c r="D244" s="37" t="s">
-        <v>678</v>
       </c>
       <c r="E244" s="34" t="s">
         <v>25</v>
@@ -10994,21 +10988,21 @@
         <v>24</v>
       </c>
       <c r="I244" s="35" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="245" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A245" s="34" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B245" s="35" t="s">
         <v>327</v>
       </c>
       <c r="C245" s="20" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D245" s="35" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E245" s="34" t="s">
         <v>25</v>
@@ -11023,21 +11017,21 @@
         <v>21</v>
       </c>
       <c r="I245" s="35" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="246" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A246" s="34" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B246" s="35" t="s">
         <v>327</v>
       </c>
       <c r="C246" s="20" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D246" s="35" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E246" s="34" t="s">
         <v>25</v>
@@ -11052,21 +11046,21 @@
         <v>21</v>
       </c>
       <c r="I246" s="35" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="247" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A247" s="34" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B247" s="35" t="s">
         <v>327</v>
       </c>
       <c r="C247" s="20" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="D247" s="35" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E247" s="34" t="s">
         <v>25</v>
@@ -11081,7 +11075,7 @@
         <v>21</v>
       </c>
       <c r="I247" s="35" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="248" spans="1:9" s="36" customFormat="1" ht="60">
@@ -11092,10 +11086,10 @@
         <v>327</v>
       </c>
       <c r="C248" s="22" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="D248" s="37" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E248" s="36" t="s">
         <v>25</v>
@@ -11110,7 +11104,7 @@
         <v>21</v>
       </c>
       <c r="I248" s="35" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="249" spans="1:9" s="36" customFormat="1" ht="45">
@@ -11121,10 +11115,10 @@
         <v>327</v>
       </c>
       <c r="C249" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D249" s="37" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E249" s="36" t="s">
         <v>25</v>
@@ -11148,10 +11142,10 @@
         <v>327</v>
       </c>
       <c r="C250" s="20" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D250" s="37" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E250" s="36" t="s">
         <v>25</v>
@@ -11175,10 +11169,10 @@
         <v>327</v>
       </c>
       <c r="C251" s="20" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D251" s="37" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E251" s="36" t="s">
         <v>25</v>
@@ -11202,10 +11196,10 @@
         <v>327</v>
       </c>
       <c r="C252" s="20" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D252" s="37" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E252" s="36" t="s">
         <v>25</v>
@@ -11229,10 +11223,10 @@
         <v>327</v>
       </c>
       <c r="C253" s="20" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D253" s="37" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E253" s="36" t="s">
         <v>25</v>
@@ -11256,10 +11250,10 @@
         <v>327</v>
       </c>
       <c r="C254" s="20" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D254" s="37" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E254" s="36" t="s">
         <v>25</v>
@@ -11283,10 +11277,10 @@
         <v>327</v>
       </c>
       <c r="C255" s="20" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D255" s="37" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E255" s="36" t="s">
         <v>25</v>
@@ -11297,7 +11291,7 @@
       <c r="G255" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="H255" s="34" t="s">
+      <c r="H255" s="36" t="s">
         <v>21</v>
       </c>
       <c r="I255" s="35"/>
@@ -11310,10 +11304,10 @@
         <v>327</v>
       </c>
       <c r="C256" s="20" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D256" s="37" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E256" s="36" t="s">
         <v>25</v>
@@ -11337,10 +11331,10 @@
         <v>327</v>
       </c>
       <c r="C257" s="20" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D257" s="37" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E257" s="36" t="s">
         <v>25</v>
@@ -11364,10 +11358,10 @@
         <v>327</v>
       </c>
       <c r="C258" s="20" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D258" s="37" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E258" s="36" t="s">
         <v>25</v>
@@ -11391,10 +11385,10 @@
         <v>327</v>
       </c>
       <c r="C259" s="20" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D259" s="37" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E259" s="36" t="s">
         <v>25</v>
@@ -11418,10 +11412,10 @@
         <v>327</v>
       </c>
       <c r="C260" s="20" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D260" s="37" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E260" s="36" t="s">
         <v>25</v>
@@ -11445,10 +11439,10 @@
         <v>327</v>
       </c>
       <c r="C261" s="20" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D261" s="37" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E261" s="36" t="s">
         <v>25</v>
@@ -11466,16 +11460,16 @@
     </row>
     <row r="262" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A262" s="34" t="s">
-        <v>429</v>
+        <v>475</v>
       </c>
       <c r="B262" s="35" t="s">
         <v>327</v>
       </c>
       <c r="C262" s="20" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D262" s="37" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E262" s="36" t="s">
         <v>25</v>
@@ -11491,36 +11485,38 @@
       </c>
       <c r="I262" s="35"/>
     </row>
-    <row r="263" spans="1:9" s="36" customFormat="1" ht="45">
+    <row r="263" spans="1:9" s="36" customFormat="1" ht="75">
       <c r="A263" s="34" t="s">
+        <v>329</v>
+      </c>
+      <c r="B263" s="35" t="s">
+        <v>327</v>
+      </c>
+      <c r="C263" s="37" t="s">
+        <v>718</v>
+      </c>
+      <c r="D263" s="37" t="s">
+        <v>607</v>
+      </c>
+      <c r="E263" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="F263" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="G263" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="H263" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="I263" s="35" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" s="36" customFormat="1" ht="60">
+      <c r="A264" s="34" t="s">
         <v>476</v>
-      </c>
-      <c r="B263" s="35" t="s">
-        <v>327</v>
-      </c>
-      <c r="C263" s="20" t="s">
-        <v>708</v>
-      </c>
-      <c r="D263" s="37" t="s">
-        <v>546</v>
-      </c>
-      <c r="E263" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="F263" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="G263" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="H263" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="I263" s="35"/>
-    </row>
-    <row r="264" spans="1:9" s="36" customFormat="1" ht="75">
-      <c r="A264" s="34" t="s">
-        <v>329</v>
       </c>
       <c r="B264" s="35" t="s">
         <v>327</v>
@@ -11528,8 +11524,8 @@
       <c r="C264" s="37" t="s">
         <v>720</v>
       </c>
-      <c r="D264" s="37" t="s">
-        <v>608</v>
+      <c r="D264" s="35" t="s">
+        <v>549</v>
       </c>
       <c r="E264" s="36" t="s">
         <v>25</v>
@@ -11543,11 +11539,9 @@
       <c r="H264" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="I264" s="35" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9" s="36" customFormat="1" ht="60">
+      <c r="I264" s="35"/>
+    </row>
+    <row r="265" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A265" s="34" t="s">
         <v>477</v>
       </c>
@@ -11555,10 +11549,10 @@
         <v>327</v>
       </c>
       <c r="C265" s="37" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D265" s="35" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E265" s="36" t="s">
         <v>25</v>
@@ -11582,10 +11576,10 @@
         <v>327</v>
       </c>
       <c r="C266" s="37" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D266" s="35" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E266" s="36" t="s">
         <v>25</v>
@@ -11609,10 +11603,10 @@
         <v>327</v>
       </c>
       <c r="C267" s="37" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D267" s="35" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E267" s="36" t="s">
         <v>25</v>
@@ -11636,10 +11630,10 @@
         <v>327</v>
       </c>
       <c r="C268" s="37" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D268" s="35" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E268" s="36" t="s">
         <v>25</v>
@@ -11655,7 +11649,7 @@
       </c>
       <c r="I268" s="35"/>
     </row>
-    <row r="269" spans="1:9" s="36" customFormat="1" ht="45">
+    <row r="269" spans="1:9" s="36" customFormat="1" ht="60">
       <c r="A269" s="34" t="s">
         <v>481</v>
       </c>
@@ -11663,10 +11657,10 @@
         <v>327</v>
       </c>
       <c r="C269" s="37" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D269" s="35" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E269" s="36" t="s">
         <v>25</v>
@@ -11682,7 +11676,7 @@
       </c>
       <c r="I269" s="35"/>
     </row>
-    <row r="270" spans="1:9" s="36" customFormat="1" ht="60">
+    <row r="270" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A270" s="34" t="s">
         <v>482</v>
       </c>
@@ -11690,10 +11684,10 @@
         <v>327</v>
       </c>
       <c r="C270" s="37" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D270" s="35" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E270" s="36" t="s">
         <v>25</v>
@@ -11704,12 +11698,12 @@
       <c r="G270" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="H270" s="36" t="s">
+      <c r="H270" s="34" t="s">
         <v>21</v>
       </c>
       <c r="I270" s="35"/>
     </row>
-    <row r="271" spans="1:9" s="36" customFormat="1" ht="45">
+    <row r="271" spans="1:9" s="36" customFormat="1" ht="60">
       <c r="A271" s="34" t="s">
         <v>483</v>
       </c>
@@ -11717,10 +11711,10 @@
         <v>327</v>
       </c>
       <c r="C271" s="37" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D271" s="35" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E271" s="36" t="s">
         <v>25</v>
@@ -11731,7 +11725,7 @@
       <c r="G271" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="H271" s="34" t="s">
+      <c r="H271" s="36" t="s">
         <v>21</v>
       </c>
       <c r="I271" s="35"/>
@@ -11744,10 +11738,10 @@
         <v>327</v>
       </c>
       <c r="C272" s="37" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D272" s="35" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E272" s="36" t="s">
         <v>25</v>
@@ -11763,7 +11757,7 @@
       </c>
       <c r="I272" s="35"/>
     </row>
-    <row r="273" spans="1:9" s="36" customFormat="1" ht="60">
+    <row r="273" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A273" s="34" t="s">
         <v>485</v>
       </c>
@@ -11771,10 +11765,10 @@
         <v>327</v>
       </c>
       <c r="C273" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D273" s="35" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E273" s="36" t="s">
         <v>25</v>
@@ -11790,7 +11784,7 @@
       </c>
       <c r="I273" s="35"/>
     </row>
-    <row r="274" spans="1:9" s="36" customFormat="1" ht="45">
+    <row r="274" spans="1:9" s="36" customFormat="1" ht="60">
       <c r="A274" s="34" t="s">
         <v>486</v>
       </c>
@@ -11798,10 +11792,10 @@
         <v>327</v>
       </c>
       <c r="C274" s="37" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D274" s="35" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E274" s="36" t="s">
         <v>25</v>
@@ -11817,7 +11811,7 @@
       </c>
       <c r="I274" s="35"/>
     </row>
-    <row r="275" spans="1:9" s="36" customFormat="1" ht="60">
+    <row r="275" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A275" s="34" t="s">
         <v>487</v>
       </c>
@@ -11825,10 +11819,10 @@
         <v>327</v>
       </c>
       <c r="C275" s="37" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D275" s="35" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E275" s="36" t="s">
         <v>25</v>
@@ -11844,7 +11838,7 @@
       </c>
       <c r="I275" s="35"/>
     </row>
-    <row r="276" spans="1:9" s="36" customFormat="1" ht="45">
+    <row r="276" spans="1:9" s="36" customFormat="1" ht="60">
       <c r="A276" s="34" t="s">
         <v>488</v>
       </c>
@@ -11852,10 +11846,10 @@
         <v>327</v>
       </c>
       <c r="C276" s="37" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D276" s="35" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E276" s="36" t="s">
         <v>25</v>
@@ -11879,10 +11873,10 @@
         <v>327</v>
       </c>
       <c r="C277" s="37" t="s">
-        <v>734</v>
+        <v>842</v>
       </c>
       <c r="D277" s="35" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E277" s="36" t="s">
         <v>25</v>
@@ -11900,16 +11894,16 @@
     </row>
     <row r="278" spans="1:9" s="36" customFormat="1" ht="60">
       <c r="A278" s="34" t="s">
-        <v>490</v>
+        <v>608</v>
       </c>
       <c r="B278" s="35" t="s">
         <v>327</v>
       </c>
       <c r="C278" s="37" t="s">
-        <v>844</v>
+        <v>733</v>
       </c>
       <c r="D278" s="35" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E278" s="36" t="s">
         <v>25</v>
@@ -11925,7 +11919,7 @@
       </c>
       <c r="I278" s="35"/>
     </row>
-    <row r="279" spans="1:9" s="36" customFormat="1" ht="60">
+    <row r="279" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A279" s="34" t="s">
         <v>609</v>
       </c>
@@ -11933,10 +11927,10 @@
         <v>327</v>
       </c>
       <c r="C279" s="37" t="s">
-        <v>735</v>
+        <v>707</v>
       </c>
       <c r="D279" s="35" t="s">
-        <v>550</v>
+        <v>607</v>
       </c>
       <c r="E279" s="36" t="s">
         <v>25</v>
@@ -11950,7 +11944,9 @@
       <c r="H279" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="I279" s="35"/>
+      <c r="I279" s="35" t="s">
+        <v>669</v>
+      </c>
     </row>
     <row r="280" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A280" s="34" t="s">
@@ -11960,10 +11956,10 @@
         <v>327</v>
       </c>
       <c r="C280" s="37" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D280" s="35" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E280" s="36" t="s">
         <v>25</v>
@@ -11978,10 +11974,10 @@
         <v>21</v>
       </c>
       <c r="I280" s="35" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="281" spans="1:9" s="36" customFormat="1" ht="45">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" s="36" customFormat="1" ht="60">
       <c r="A281" s="34" t="s">
         <v>611</v>
       </c>
@@ -11989,10 +11985,10 @@
         <v>327</v>
       </c>
       <c r="C281" s="37" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D281" s="35" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E281" s="36" t="s">
         <v>25</v>
@@ -12007,7 +12003,7 @@
         <v>21</v>
       </c>
       <c r="I281" s="35" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="282" spans="1:9" s="36" customFormat="1" ht="60">
@@ -12018,10 +12014,10 @@
         <v>327</v>
       </c>
       <c r="C282" s="37" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D282" s="35" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E282" s="36" t="s">
         <v>25</v>
@@ -12036,7 +12032,7 @@
         <v>21</v>
       </c>
       <c r="I282" s="35" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="283" spans="1:9" s="36" customFormat="1" ht="60">
@@ -12047,10 +12043,10 @@
         <v>327</v>
       </c>
       <c r="C283" s="37" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D283" s="35" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E283" s="36" t="s">
         <v>25</v>
@@ -12065,7 +12061,7 @@
         <v>21</v>
       </c>
       <c r="I283" s="35" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="284" spans="1:9" s="36" customFormat="1" ht="60">
@@ -12076,86 +12072,86 @@
         <v>327</v>
       </c>
       <c r="C284" s="37" t="s">
+        <v>712</v>
+      </c>
+      <c r="D284" s="35" t="s">
+        <v>607</v>
+      </c>
+      <c r="E284" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="F284" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="G284" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="H284" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="I284" s="35" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" s="36" customFormat="1" ht="45">
+      <c r="A285" s="34" t="s">
+        <v>330</v>
+      </c>
+      <c r="B285" s="35" t="s">
+        <v>327</v>
+      </c>
+      <c r="C285" s="37" t="s">
         <v>713</v>
       </c>
-      <c r="D284" s="35" t="s">
-        <v>608</v>
-      </c>
-      <c r="E284" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="F284" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="G284" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="H284" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="I284" s="35" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="285" spans="1:9" s="36" customFormat="1" ht="60">
-      <c r="A285" s="34" t="s">
-        <v>615</v>
-      </c>
-      <c r="B285" s="35" t="s">
-        <v>327</v>
-      </c>
-      <c r="C285" s="37" t="s">
+      <c r="D285" s="35" t="s">
+        <v>607</v>
+      </c>
+      <c r="E285" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="F285" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="G285" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="H285" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="I285" s="37" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" s="36" customFormat="1" ht="60">
+      <c r="A286" s="34" t="s">
+        <v>580</v>
+      </c>
+      <c r="B286" s="35" t="s">
+        <v>327</v>
+      </c>
+      <c r="C286" s="37" t="s">
         <v>714</v>
       </c>
-      <c r="D285" s="35" t="s">
-        <v>608</v>
-      </c>
-      <c r="E285" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="F285" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="G285" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="H285" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="I285" s="35" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="286" spans="1:9" s="36" customFormat="1" ht="45">
-      <c r="A286" s="34" t="s">
-        <v>330</v>
-      </c>
-      <c r="B286" s="35" t="s">
-        <v>327</v>
-      </c>
-      <c r="C286" s="37" t="s">
-        <v>715</v>
-      </c>
       <c r="D286" s="35" t="s">
-        <v>608</v>
-      </c>
-      <c r="E286" s="36" t="s">
+        <v>607</v>
+      </c>
+      <c r="E286" s="34" t="s">
         <v>25</v>
       </c>
       <c r="F286" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="G286" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="H286" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="I286" s="37" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="287" spans="1:9" s="36" customFormat="1" ht="60">
+      <c r="G286" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H286" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="I286" s="35" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A287" s="34" t="s">
         <v>581</v>
       </c>
@@ -12163,10 +12159,10 @@
         <v>327</v>
       </c>
       <c r="C287" s="37" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D287" s="35" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E287" s="34" t="s">
         <v>25</v>
@@ -12178,51 +12174,49 @@
         <v>16</v>
       </c>
       <c r="H287" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="I287" s="35" t="s">
-        <v>670</v>
-      </c>
+        <v>582</v>
+      </c>
+      <c r="I287" s="37"/>
     </row>
     <row r="288" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A288" s="34" t="s">
+        <v>896</v>
+      </c>
+      <c r="B288" s="35" t="s">
+        <v>327</v>
+      </c>
+      <c r="C288" s="37" t="s">
+        <v>898</v>
+      </c>
+      <c r="D288" s="35" t="s">
+        <v>607</v>
+      </c>
+      <c r="E288" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F288" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="G288" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H288" s="34" t="s">
         <v>582</v>
       </c>
-      <c r="B288" s="35" t="s">
-        <v>327</v>
-      </c>
-      <c r="C288" s="37" t="s">
-        <v>717</v>
-      </c>
-      <c r="D288" s="35" t="s">
-        <v>608</v>
-      </c>
-      <c r="E288" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="F288" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="G288" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="H288" s="34" t="s">
-        <v>583</v>
-      </c>
-      <c r="I288" s="37"/>
+      <c r="I288" s="35"/>
     </row>
     <row r="289" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A289" s="34" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B289" s="35" t="s">
         <v>327</v>
       </c>
-      <c r="C289" s="37" t="s">
-        <v>900</v>
+      <c r="C289" s="20" t="s">
+        <v>899</v>
       </c>
       <c r="D289" s="35" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E289" s="34" t="s">
         <v>25</v>
@@ -12237,50 +12231,50 @@
         <v>21</v>
       </c>
       <c r="I289" s="35" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="290" spans="1:9" s="36" customFormat="1" ht="45">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" s="36" customFormat="1" ht="60">
       <c r="A290" s="34" t="s">
-        <v>899</v>
+        <v>246</v>
       </c>
       <c r="B290" s="35" t="s">
         <v>327</v>
       </c>
-      <c r="C290" s="20" t="s">
-        <v>901</v>
-      </c>
-      <c r="D290" s="35" t="s">
-        <v>608</v>
-      </c>
-      <c r="E290" s="34" t="s">
+      <c r="C290" s="22" t="s">
+        <v>716</v>
+      </c>
+      <c r="D290" s="37" t="s">
+        <v>895</v>
+      </c>
+      <c r="E290" s="36" t="s">
         <v>25</v>
       </c>
       <c r="F290" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="G290" s="34" t="s">
+      <c r="G290" s="36" t="s">
         <v>16</v>
       </c>
       <c r="H290" s="34" t="s">
         <v>21</v>
       </c>
       <c r="I290" s="35" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="291" spans="1:9" s="36" customFormat="1" ht="60">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A291" s="34" t="s">
-        <v>246</v>
+        <v>433</v>
       </c>
       <c r="B291" s="35" t="s">
         <v>327</v>
       </c>
-      <c r="C291" s="22" t="s">
-        <v>718</v>
+      <c r="C291" s="20" t="s">
+        <v>734</v>
       </c>
       <c r="D291" s="37" t="s">
-        <v>897</v>
+        <v>546</v>
       </c>
       <c r="E291" s="36" t="s">
         <v>25</v>
@@ -12291,12 +12285,10 @@
       <c r="G291" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="H291" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="I291" s="35" t="s">
-        <v>670</v>
-      </c>
+      <c r="H291" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="I291" s="35"/>
     </row>
     <row r="292" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A292" s="34" t="s">
@@ -12306,10 +12298,10 @@
         <v>327</v>
       </c>
       <c r="C292" s="20" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D292" s="37" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E292" s="36" t="s">
         <v>25</v>
@@ -12333,10 +12325,10 @@
         <v>327</v>
       </c>
       <c r="C293" s="20" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D293" s="37" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E293" s="36" t="s">
         <v>25</v>
@@ -12360,10 +12352,10 @@
         <v>327</v>
       </c>
       <c r="C294" s="20" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D294" s="37" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E294" s="36" t="s">
         <v>25</v>
@@ -12387,10 +12379,10 @@
         <v>327</v>
       </c>
       <c r="C295" s="20" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D295" s="37" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E295" s="36" t="s">
         <v>25</v>
@@ -12414,10 +12406,10 @@
         <v>327</v>
       </c>
       <c r="C296" s="20" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D296" s="37" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E296" s="36" t="s">
         <v>25</v>
@@ -12441,10 +12433,10 @@
         <v>327</v>
       </c>
       <c r="C297" s="20" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D297" s="37" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E297" s="36" t="s">
         <v>25</v>
@@ -12455,7 +12447,7 @@
       <c r="G297" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="H297" s="36" t="s">
+      <c r="H297" s="34" t="s">
         <v>21</v>
       </c>
       <c r="I297" s="35"/>
@@ -12468,10 +12460,10 @@
         <v>327</v>
       </c>
       <c r="C298" s="20" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D298" s="37" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E298" s="36" t="s">
         <v>25</v>
@@ -12482,7 +12474,7 @@
       <c r="G298" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="H298" s="34" t="s">
+      <c r="H298" s="36" t="s">
         <v>21</v>
       </c>
       <c r="I298" s="35"/>
@@ -12495,10 +12487,10 @@
         <v>327</v>
       </c>
       <c r="C299" s="20" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D299" s="37" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E299" s="36" t="s">
         <v>25</v>
@@ -12522,10 +12514,10 @@
         <v>327</v>
       </c>
       <c r="C300" s="20" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D300" s="37" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E300" s="36" t="s">
         <v>25</v>
@@ -12549,10 +12541,10 @@
         <v>327</v>
       </c>
       <c r="C301" s="20" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D301" s="37" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E301" s="36" t="s">
         <v>25</v>
@@ -12570,16 +12562,16 @@
     </row>
     <row r="302" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A302" s="34" t="s">
-        <v>444</v>
+        <v>577</v>
       </c>
       <c r="B302" s="35" t="s">
         <v>327</v>
       </c>
       <c r="C302" s="20" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D302" s="37" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E302" s="36" t="s">
         <v>25</v>
@@ -12597,16 +12589,16 @@
     </row>
     <row r="303" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A303" s="34" t="s">
-        <v>578</v>
+        <v>444</v>
       </c>
       <c r="B303" s="35" t="s">
         <v>327</v>
       </c>
       <c r="C303" s="20" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D303" s="37" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E303" s="36" t="s">
         <v>25</v>
@@ -12630,10 +12622,10 @@
         <v>327</v>
       </c>
       <c r="C304" s="20" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D304" s="37" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E304" s="36" t="s">
         <v>25</v>
@@ -12651,16 +12643,16 @@
     </row>
     <row r="305" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A305" s="34" t="s">
-        <v>446</v>
+        <v>515</v>
       </c>
       <c r="B305" s="35" t="s">
         <v>327</v>
       </c>
       <c r="C305" s="20" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D305" s="37" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E305" s="36" t="s">
         <v>25</v>
@@ -12671,79 +12663,81 @@
       <c r="G305" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="H305" s="36" t="s">
+      <c r="H305" s="34" t="s">
         <v>21</v>
       </c>
       <c r="I305" s="35"/>
     </row>
     <row r="306" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A306" s="34" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="B306" s="35" t="s">
         <v>327</v>
       </c>
       <c r="C306" s="20" t="s">
+        <v>749</v>
+      </c>
+      <c r="D306" s="37" t="s">
+        <v>602</v>
+      </c>
+      <c r="E306" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F306" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="G306" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H306" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="I306" s="35" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" s="36" customFormat="1" ht="75">
+      <c r="A307" s="34" t="s">
+        <v>331</v>
+      </c>
+      <c r="B307" s="35" t="s">
+        <v>327</v>
+      </c>
+      <c r="C307" s="35" t="s">
+        <v>719</v>
+      </c>
+      <c r="D307" s="35" t="s">
+        <v>679</v>
+      </c>
+      <c r="E307" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="F307" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="G307" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="H307" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="I307" s="35" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" s="36" customFormat="1" ht="60">
+      <c r="A308" s="34" t="s">
+        <v>492</v>
+      </c>
+      <c r="B308" s="35" t="s">
+        <v>327</v>
+      </c>
+      <c r="C308" s="35" t="s">
         <v>750</v>
       </c>
-      <c r="D306" s="37" t="s">
-        <v>547</v>
-      </c>
-      <c r="E306" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="F306" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="G306" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="H306" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="I306" s="35"/>
-    </row>
-    <row r="307" spans="1:9" s="36" customFormat="1" ht="45">
-      <c r="A307" s="34" t="s">
-        <v>529</v>
-      </c>
-      <c r="B307" s="35" t="s">
-        <v>327</v>
-      </c>
-      <c r="C307" s="20" t="s">
-        <v>751</v>
-      </c>
-      <c r="D307" s="37" t="s">
-        <v>603</v>
-      </c>
-      <c r="E307" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="F307" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="G307" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="H307" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="I307" s="35" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="308" spans="1:9" s="36" customFormat="1" ht="75">
-      <c r="A308" s="34" t="s">
-        <v>331</v>
-      </c>
-      <c r="B308" s="35" t="s">
-        <v>327</v>
-      </c>
-      <c r="C308" s="35" t="s">
-        <v>721</v>
-      </c>
-      <c r="D308" s="35" t="s">
-        <v>680</v>
+      <c r="D308" s="37" t="s">
+        <v>550</v>
       </c>
       <c r="E308" s="36" t="s">
         <v>25</v>
@@ -12754,14 +12748,12 @@
       <c r="G308" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="H308" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="I308" s="35" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="309" spans="1:9" s="36" customFormat="1" ht="60">
+      <c r="H308" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="I308" s="35"/>
+    </row>
+    <row r="309" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A309" s="34" t="s">
         <v>493</v>
       </c>
@@ -12769,10 +12761,10 @@
         <v>327</v>
       </c>
       <c r="C309" s="35" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D309" s="37" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E309" s="36" t="s">
         <v>25</v>
@@ -12796,10 +12788,10 @@
         <v>327</v>
       </c>
       <c r="C310" s="35" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D310" s="37" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E310" s="36" t="s">
         <v>25</v>
@@ -12823,10 +12815,10 @@
         <v>327</v>
       </c>
       <c r="C311" s="35" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D311" s="37" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E311" s="36" t="s">
         <v>25</v>
@@ -12850,10 +12842,10 @@
         <v>327</v>
       </c>
       <c r="C312" s="35" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D312" s="37" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E312" s="36" t="s">
         <v>25</v>
@@ -12877,10 +12869,10 @@
         <v>327</v>
       </c>
       <c r="C313" s="35" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D313" s="37" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E313" s="36" t="s">
         <v>25</v>
@@ -12904,10 +12896,10 @@
         <v>327</v>
       </c>
       <c r="C314" s="35" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D314" s="37" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E314" s="36" t="s">
         <v>25</v>
@@ -12918,12 +12910,12 @@
       <c r="G314" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="H314" s="36" t="s">
+      <c r="H314" s="34" t="s">
         <v>21</v>
       </c>
       <c r="I314" s="35"/>
     </row>
-    <row r="315" spans="1:9" s="36" customFormat="1" ht="45">
+    <row r="315" spans="1:9" s="36" customFormat="1" ht="60">
       <c r="A315" s="34" t="s">
         <v>499</v>
       </c>
@@ -12931,10 +12923,10 @@
         <v>327</v>
       </c>
       <c r="C315" s="35" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D315" s="37" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E315" s="36" t="s">
         <v>25</v>
@@ -12945,12 +12937,12 @@
       <c r="G315" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="H315" s="34" t="s">
+      <c r="H315" s="36" t="s">
         <v>21</v>
       </c>
       <c r="I315" s="35"/>
     </row>
-    <row r="316" spans="1:9" s="36" customFormat="1" ht="60">
+    <row r="316" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A316" s="34" t="s">
         <v>500</v>
       </c>
@@ -12958,10 +12950,10 @@
         <v>327</v>
       </c>
       <c r="C316" s="35" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D316" s="37" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E316" s="36" t="s">
         <v>25</v>
@@ -12985,10 +12977,10 @@
         <v>327</v>
       </c>
       <c r="C317" s="35" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D317" s="37" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E317" s="36" t="s">
         <v>25</v>
@@ -13012,10 +13004,10 @@
         <v>327</v>
       </c>
       <c r="C318" s="35" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D318" s="37" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E318" s="36" t="s">
         <v>25</v>
@@ -13039,10 +13031,10 @@
         <v>327</v>
       </c>
       <c r="C319" s="35" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D319" s="37" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E319" s="36" t="s">
         <v>25</v>
@@ -13060,43 +13052,43 @@
     </row>
     <row r="320" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A320" s="34" t="s">
+        <v>578</v>
+      </c>
+      <c r="B320" s="35" t="s">
+        <v>327</v>
+      </c>
+      <c r="C320" s="35" t="s">
+        <v>762</v>
+      </c>
+      <c r="D320" s="37" t="s">
+        <v>550</v>
+      </c>
+      <c r="E320" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="F320" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="G320" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="H320" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="I320" s="35"/>
+    </row>
+    <row r="321" spans="1:9" s="36" customFormat="1" ht="60">
+      <c r="A321" s="34" t="s">
         <v>504</v>
       </c>
-      <c r="B320" s="35" t="s">
-        <v>327</v>
-      </c>
-      <c r="C320" s="35" t="s">
+      <c r="B321" s="35" t="s">
+        <v>327</v>
+      </c>
+      <c r="C321" s="35" t="s">
         <v>763</v>
       </c>
-      <c r="D320" s="37" t="s">
-        <v>551</v>
-      </c>
-      <c r="E320" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="F320" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="G320" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="H320" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="I320" s="35"/>
-    </row>
-    <row r="321" spans="1:9" s="36" customFormat="1" ht="45">
-      <c r="A321" s="34" t="s">
-        <v>579</v>
-      </c>
-      <c r="B321" s="35" t="s">
-        <v>327</v>
-      </c>
-      <c r="C321" s="35" t="s">
-        <v>764</v>
-      </c>
       <c r="D321" s="37" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E321" s="36" t="s">
         <v>25</v>
@@ -13120,10 +13112,10 @@
         <v>327</v>
       </c>
       <c r="C322" s="35" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D322" s="37" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E322" s="36" t="s">
         <v>25</v>
@@ -13146,11 +13138,11 @@
       <c r="B323" s="35" t="s">
         <v>327</v>
       </c>
-      <c r="C323" s="35" t="s">
-        <v>766</v>
+      <c r="C323" s="20" t="s">
+        <v>765</v>
       </c>
       <c r="D323" s="37" t="s">
-        <v>551</v>
+        <v>602</v>
       </c>
       <c r="E323" s="36" t="s">
         <v>25</v>
@@ -13164,20 +13156,22 @@
       <c r="H323" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="I323" s="35"/>
-    </row>
-    <row r="324" spans="1:9" s="36" customFormat="1" ht="60">
+      <c r="I323" s="35" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A324" s="34" t="s">
-        <v>507</v>
+        <v>332</v>
       </c>
       <c r="B324" s="35" t="s">
         <v>327</v>
       </c>
-      <c r="C324" s="20" t="s">
+      <c r="C324" s="35" t="s">
         <v>767</v>
       </c>
       <c r="D324" s="37" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="E324" s="36" t="s">
         <v>25</v>
@@ -13192,18 +13186,18 @@
         <v>21</v>
       </c>
       <c r="I324" s="35" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="325" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A325" s="34" t="s">
-        <v>332</v>
+        <v>594</v>
       </c>
       <c r="B325" s="35" t="s">
         <v>327</v>
       </c>
       <c r="C325" s="35" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="D325" s="37" t="s">
         <v>597</v>
@@ -13221,21 +13215,21 @@
         <v>21</v>
       </c>
       <c r="I325" s="35" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="326" spans="1:9" s="36" customFormat="1" ht="45">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" s="36" customFormat="1" ht="60">
       <c r="A326" s="34" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B326" s="35" t="s">
         <v>327</v>
       </c>
-      <c r="C326" s="35" t="s">
+      <c r="C326" s="22" t="s">
         <v>768</v>
       </c>
       <c r="D326" s="37" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E326" s="36" t="s">
         <v>25</v>
@@ -13246,11 +13240,11 @@
       <c r="G326" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="H326" s="36" t="s">
+      <c r="H326" s="34" t="s">
         <v>21</v>
       </c>
       <c r="I326" s="35" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="327" spans="1:9" s="36" customFormat="1" ht="60">
@@ -13261,10 +13255,10 @@
         <v>327</v>
       </c>
       <c r="C327" s="22" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D327" s="37" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E327" s="36" t="s">
         <v>25</v>
@@ -13279,21 +13273,21 @@
         <v>21</v>
       </c>
       <c r="I327" s="35" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="328" spans="1:9" s="36" customFormat="1" ht="60">
       <c r="A328" s="34" t="s">
-        <v>594</v>
+        <v>519</v>
       </c>
       <c r="B328" s="35" t="s">
         <v>327</v>
       </c>
-      <c r="C328" s="22" t="s">
-        <v>771</v>
+      <c r="C328" s="35" t="s">
+        <v>770</v>
       </c>
       <c r="D328" s="37" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E328" s="36" t="s">
         <v>25</v>
@@ -13304,25 +13298,25 @@
       <c r="G328" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="H328" s="34" t="s">
+      <c r="H328" s="36" t="s">
         <v>21</v>
       </c>
       <c r="I328" s="35" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="329" spans="1:9" s="36" customFormat="1" ht="60">
       <c r="A329" s="34" t="s">
-        <v>520</v>
+        <v>598</v>
       </c>
       <c r="B329" s="35" t="s">
         <v>327</v>
       </c>
       <c r="C329" s="35" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D329" s="37" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="E329" s="36" t="s">
         <v>25</v>
@@ -13337,7 +13331,7 @@
         <v>21</v>
       </c>
       <c r="I329" s="35" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="330" spans="1:9" s="36" customFormat="1" ht="60">
@@ -13348,10 +13342,10 @@
         <v>327</v>
       </c>
       <c r="C330" s="35" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D330" s="37" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E330" s="36" t="s">
         <v>25</v>
@@ -13366,7 +13360,7 @@
         <v>21</v>
       </c>
       <c r="I330" s="35" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="331" spans="1:9" s="36" customFormat="1" ht="60">
@@ -13377,10 +13371,10 @@
         <v>327</v>
       </c>
       <c r="C331" s="35" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D331" s="37" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E331" s="36" t="s">
         <v>25</v>
@@ -13395,10 +13389,10 @@
         <v>21</v>
       </c>
       <c r="I331" s="35" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="332" spans="1:9" s="36" customFormat="1" ht="60">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A332" s="34" t="s">
         <v>601</v>
       </c>
@@ -13406,10 +13400,10 @@
         <v>327</v>
       </c>
       <c r="C332" s="35" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D332" s="37" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E332" s="36" t="s">
         <v>25</v>
@@ -13421,24 +13415,21 @@
         <v>16</v>
       </c>
       <c r="H332" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="I332" s="35" t="s">
-        <v>670</v>
+        <v>19</v>
       </c>
     </row>
     <row r="333" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A333" s="34" t="s">
-        <v>602</v>
+        <v>543</v>
       </c>
       <c r="B333" s="35" t="s">
         <v>327</v>
       </c>
-      <c r="C333" s="35" t="s">
-        <v>776</v>
+      <c r="C333" s="20" t="s">
+        <v>775</v>
       </c>
       <c r="D333" s="37" t="s">
-        <v>596</v>
+        <v>900</v>
       </c>
       <c r="E333" s="36" t="s">
         <v>25</v>
@@ -13449,51 +13440,54 @@
       <c r="G333" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="H333" s="36" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="334" spans="1:9" s="36" customFormat="1" ht="45">
+      <c r="H333" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="I333" s="35" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" s="36" customFormat="1" ht="60">
       <c r="A334" s="34" t="s">
-        <v>544</v>
+        <v>333</v>
       </c>
       <c r="B334" s="35" t="s">
         <v>327</v>
       </c>
-      <c r="C334" s="20" t="s">
-        <v>777</v>
+      <c r="C334" s="22" t="s">
+        <v>911</v>
       </c>
       <c r="D334" s="37" t="s">
+        <v>900</v>
+      </c>
+      <c r="E334" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="F334" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="G334" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="H334" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="I334" s="35" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" s="36" customFormat="1" ht="45">
+      <c r="A335" s="34" t="s">
         <v>903</v>
       </c>
-      <c r="E334" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="F334" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="G334" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="H334" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="I334" s="35" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="335" spans="1:9" s="36" customFormat="1" ht="60">
-      <c r="A335" s="34" t="s">
-        <v>333</v>
-      </c>
       <c r="B335" s="35" t="s">
         <v>327</v>
       </c>
-      <c r="C335" s="22" t="s">
-        <v>914</v>
-      </c>
-      <c r="D335" s="37" t="s">
-        <v>903</v>
+      <c r="C335" s="20" t="s">
+        <v>909</v>
+      </c>
+      <c r="D335" s="35" t="s">
+        <v>901</v>
       </c>
       <c r="E335" s="36" t="s">
         <v>25</v>
@@ -13508,79 +13502,79 @@
         <v>21</v>
       </c>
       <c r="I335" s="35" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="336" spans="1:9" s="36" customFormat="1" ht="45">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" s="36" customFormat="1" ht="60">
       <c r="A336" s="34" t="s">
+        <v>904</v>
+      </c>
+      <c r="B336" s="35" t="s">
+        <v>327</v>
+      </c>
+      <c r="C336" s="20" t="s">
+        <v>910</v>
+      </c>
+      <c r="D336" s="35" t="s">
+        <v>901</v>
+      </c>
+      <c r="E336" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="F336" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="G336" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="H336" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="I336" s="35" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" s="36" customFormat="1" ht="45">
+      <c r="A337" s="34" t="s">
+        <v>905</v>
+      </c>
+      <c r="B337" s="35" t="s">
+        <v>327</v>
+      </c>
+      <c r="C337" s="20" t="s">
+        <v>912</v>
+      </c>
+      <c r="D337" s="35" t="s">
+        <v>902</v>
+      </c>
+      <c r="E337" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="F337" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="G337" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="H337" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="I337" s="35" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" s="36" customFormat="1" ht="60">
+      <c r="A338" s="34" t="s">
         <v>906</v>
       </c>
-      <c r="B336" s="35" t="s">
-        <v>327</v>
-      </c>
-      <c r="C336" s="20" t="s">
-        <v>912</v>
-      </c>
-      <c r="D336" s="35" t="s">
-        <v>904</v>
-      </c>
-      <c r="E336" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="F336" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="G336" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="H336" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="I336" s="35" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="337" spans="1:9" s="36" customFormat="1" ht="60">
-      <c r="A337" s="34" t="s">
-        <v>907</v>
-      </c>
-      <c r="B337" s="35" t="s">
-        <v>327</v>
-      </c>
-      <c r="C337" s="20" t="s">
+      <c r="B338" s="35" t="s">
+        <v>327</v>
+      </c>
+      <c r="C338" s="20" t="s">
         <v>913</v>
       </c>
-      <c r="D337" s="35" t="s">
-        <v>904</v>
-      </c>
-      <c r="E337" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="F337" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="G337" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="H337" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="I337" s="35" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="338" spans="1:9" s="36" customFormat="1" ht="45">
-      <c r="A338" s="34" t="s">
-        <v>908</v>
-      </c>
-      <c r="B338" s="35" t="s">
-        <v>327</v>
-      </c>
-      <c r="C338" s="20" t="s">
-        <v>915</v>
-      </c>
       <c r="D338" s="35" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="E338" s="36" t="s">
         <v>25</v>
@@ -13595,36 +13589,36 @@
         <v>21</v>
       </c>
       <c r="I338" s="35" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="339" spans="1:9" s="36" customFormat="1" ht="60">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A339" s="34" t="s">
-        <v>909</v>
+        <v>620</v>
       </c>
       <c r="B339" s="35" t="s">
         <v>327</v>
       </c>
       <c r="C339" s="20" t="s">
-        <v>916</v>
+        <v>854</v>
       </c>
       <c r="D339" s="35" t="s">
-        <v>905</v>
-      </c>
-      <c r="E339" s="36" t="s">
+        <v>623</v>
+      </c>
+      <c r="E339" s="34" t="s">
         <v>25</v>
       </c>
       <c r="F339" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="G339" s="36" t="s">
+      <c r="G339" s="34" t="s">
         <v>16</v>
       </c>
       <c r="H339" s="34" t="s">
         <v>21</v>
       </c>
       <c r="I339" s="35" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="340" spans="1:9" s="36" customFormat="1" ht="45">
@@ -13635,7 +13629,7 @@
         <v>327</v>
       </c>
       <c r="C340" s="20" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D340" s="35" t="s">
         <v>624</v>
@@ -13652,9 +13646,7 @@
       <c r="H340" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="I340" s="35" t="s">
-        <v>670</v>
-      </c>
+      <c r="I340" s="35"/>
     </row>
     <row r="341" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A341" s="34" t="s">
@@ -13664,51 +13656,53 @@
         <v>327</v>
       </c>
       <c r="C341" s="20" t="s">
+        <v>856</v>
+      </c>
+      <c r="D341" s="35" t="s">
+        <v>624</v>
+      </c>
+      <c r="E341" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F341" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="G341" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H341" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="I341" s="35"/>
+    </row>
+    <row r="342" spans="1:9" s="36" customFormat="1" ht="75">
+      <c r="A342" s="34" t="s">
+        <v>625</v>
+      </c>
+      <c r="B342" s="35" t="s">
+        <v>327</v>
+      </c>
+      <c r="C342" s="22" t="s">
         <v>857</v>
       </c>
-      <c r="D341" s="35" t="s">
-        <v>625</v>
-      </c>
-      <c r="E341" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="F341" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="G341" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="H341" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="I341" s="35"/>
-    </row>
-    <row r="342" spans="1:9" s="36" customFormat="1" ht="45">
-      <c r="A342" s="34" t="s">
+      <c r="D342" s="37" t="s">
         <v>623</v>
       </c>
-      <c r="B342" s="35" t="s">
-        <v>327</v>
-      </c>
-      <c r="C342" s="20" t="s">
-        <v>858</v>
-      </c>
-      <c r="D342" s="35" t="s">
-        <v>625</v>
-      </c>
-      <c r="E342" s="34" t="s">
+      <c r="E342" s="36" t="s">
         <v>25</v>
       </c>
       <c r="F342" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="G342" s="34" t="s">
+      <c r="G342" s="36" t="s">
         <v>16</v>
       </c>
       <c r="H342" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="I342" s="35"/>
+      <c r="I342" s="35" t="s">
+        <v>669</v>
+      </c>
     </row>
     <row r="343" spans="1:9" s="36" customFormat="1" ht="75">
       <c r="A343" s="34" t="s">
@@ -13718,10 +13712,10 @@
         <v>327</v>
       </c>
       <c r="C343" s="22" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D343" s="37" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="E343" s="36" t="s">
         <v>25</v>
@@ -13735,9 +13729,7 @@
       <c r="H343" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="I343" s="35" t="s">
-        <v>670</v>
-      </c>
+      <c r="I343" s="37"/>
     </row>
     <row r="344" spans="1:9" s="36" customFormat="1" ht="75">
       <c r="A344" s="34" t="s">
@@ -13747,10 +13739,10 @@
         <v>327</v>
       </c>
       <c r="C344" s="22" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D344" s="37" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E344" s="36" t="s">
         <v>25</v>
@@ -13766,18 +13758,18 @@
       </c>
       <c r="I344" s="37"/>
     </row>
-    <row r="345" spans="1:9" s="36" customFormat="1" ht="75">
+    <row r="345" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A345" s="34" t="s">
-        <v>628</v>
+        <v>321</v>
       </c>
       <c r="B345" s="35" t="s">
         <v>327</v>
       </c>
-      <c r="C345" s="22" t="s">
-        <v>861</v>
-      </c>
-      <c r="D345" s="37" t="s">
-        <v>629</v>
+      <c r="C345" s="20" t="s">
+        <v>776</v>
+      </c>
+      <c r="D345" s="35" t="s">
+        <v>616</v>
       </c>
       <c r="E345" s="36" t="s">
         <v>25</v>
@@ -13791,78 +13783,80 @@
       <c r="H345" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="I345" s="37"/>
+      <c r="I345" s="35" t="s">
+        <v>669</v>
+      </c>
     </row>
     <row r="346" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A346" s="34" t="s">
-        <v>321</v>
+        <v>617</v>
       </c>
       <c r="B346" s="35" t="s">
         <v>327</v>
       </c>
       <c r="C346" s="20" t="s">
+        <v>777</v>
+      </c>
+      <c r="D346" s="35" t="s">
+        <v>616</v>
+      </c>
+      <c r="E346" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="F346" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="G346" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="H346" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="I346" s="35" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" s="36" customFormat="1" ht="60">
+      <c r="A347" s="34" t="s">
+        <v>323</v>
+      </c>
+      <c r="B347" s="35" t="s">
+        <v>327</v>
+      </c>
+      <c r="C347" s="22" t="s">
+        <v>792</v>
+      </c>
+      <c r="D347" s="37" t="s">
+        <v>632</v>
+      </c>
+      <c r="E347" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="F347" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="G347" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="H347" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="I347" s="35" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" s="36" customFormat="1" ht="45">
+      <c r="A348" s="34" t="s">
+        <v>324</v>
+      </c>
+      <c r="B348" s="35" t="s">
+        <v>327</v>
+      </c>
+      <c r="C348" s="22" t="s">
         <v>778</v>
       </c>
-      <c r="D346" s="35" t="s">
-        <v>617</v>
-      </c>
-      <c r="E346" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="F346" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="G346" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="H346" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="I346" s="35" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="347" spans="1:9" s="36" customFormat="1" ht="45">
-      <c r="A347" s="34" t="s">
-        <v>618</v>
-      </c>
-      <c r="B347" s="35" t="s">
-        <v>327</v>
-      </c>
-      <c r="C347" s="20" t="s">
-        <v>779</v>
-      </c>
-      <c r="D347" s="35" t="s">
-        <v>617</v>
-      </c>
-      <c r="E347" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="F347" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="G347" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="H347" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="I347" s="35" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="348" spans="1:9" s="36" customFormat="1" ht="60">
-      <c r="A348" s="34" t="s">
-        <v>323</v>
-      </c>
-      <c r="B348" s="35" t="s">
-        <v>327</v>
-      </c>
-      <c r="C348" s="22" t="s">
-        <v>794</v>
-      </c>
       <c r="D348" s="37" t="s">
-        <v>633</v>
+        <v>547</v>
       </c>
       <c r="E348" s="36" t="s">
         <v>25</v>
@@ -13873,25 +13867,23 @@
       <c r="G348" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="H348" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="I348" s="35" t="s">
-        <v>670</v>
-      </c>
+      <c r="H348" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="I348" s="35"/>
     </row>
     <row r="349" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A349" s="34" t="s">
-        <v>324</v>
+        <v>448</v>
       </c>
       <c r="B349" s="35" t="s">
         <v>327</v>
       </c>
       <c r="C349" s="22" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D349" s="37" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E349" s="36" t="s">
         <v>25</v>
@@ -13915,10 +13907,10 @@
         <v>327</v>
       </c>
       <c r="C350" s="22" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D350" s="37" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E350" s="36" t="s">
         <v>25</v>
@@ -13942,10 +13934,10 @@
         <v>327</v>
       </c>
       <c r="C351" s="22" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D351" s="37" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E351" s="36" t="s">
         <v>25</v>
@@ -13969,10 +13961,10 @@
         <v>327</v>
       </c>
       <c r="C352" s="22" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D352" s="37" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E352" s="36" t="s">
         <v>25</v>
@@ -13996,10 +13988,10 @@
         <v>327</v>
       </c>
       <c r="C353" s="22" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="D353" s="37" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E353" s="36" t="s">
         <v>25</v>
@@ -14023,10 +14015,10 @@
         <v>327</v>
       </c>
       <c r="C354" s="22" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D354" s="37" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E354" s="36" t="s">
         <v>25</v>
@@ -14050,10 +14042,10 @@
         <v>327</v>
       </c>
       <c r="C355" s="22" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="D355" s="37" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E355" s="36" t="s">
         <v>25</v>
@@ -14077,10 +14069,10 @@
         <v>327</v>
       </c>
       <c r="C356" s="22" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D356" s="37" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E356" s="36" t="s">
         <v>25</v>
@@ -14104,37 +14096,37 @@
         <v>327</v>
       </c>
       <c r="C357" s="22" t="s">
+        <v>785</v>
+      </c>
+      <c r="D357" s="37" t="s">
+        <v>547</v>
+      </c>
+      <c r="E357" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="F357" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="G357" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="H357" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="I357" s="35"/>
+    </row>
+    <row r="358" spans="1:9" s="36" customFormat="1" ht="45">
+      <c r="A358" s="38" t="s">
+        <v>633</v>
+      </c>
+      <c r="B358" s="35" t="s">
+        <v>327</v>
+      </c>
+      <c r="C358" s="39" t="s">
         <v>786</v>
       </c>
-      <c r="D357" s="37" t="s">
-        <v>548</v>
-      </c>
-      <c r="E357" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="F357" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="G357" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="H357" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="I357" s="35"/>
-    </row>
-    <row r="358" spans="1:9" s="36" customFormat="1" ht="45">
-      <c r="A358" s="34" t="s">
-        <v>457</v>
-      </c>
-      <c r="B358" s="35" t="s">
-        <v>327</v>
-      </c>
-      <c r="C358" s="22" t="s">
-        <v>787</v>
-      </c>
       <c r="D358" s="37" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E358" s="36" t="s">
         <v>25</v>
@@ -14158,10 +14150,10 @@
         <v>327</v>
       </c>
       <c r="C359" s="39" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="D359" s="37" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E359" s="36" t="s">
         <v>25</v>
@@ -14177,18 +14169,18 @@
       </c>
       <c r="I359" s="35"/>
     </row>
-    <row r="360" spans="1:9" s="36" customFormat="1" ht="45">
-      <c r="A360" s="38" t="s">
-        <v>635</v>
+    <row r="360" spans="1:9" s="36" customFormat="1" ht="60">
+      <c r="A360" s="34" t="s">
+        <v>457</v>
       </c>
       <c r="B360" s="35" t="s">
         <v>327</v>
       </c>
-      <c r="C360" s="39" t="s">
-        <v>791</v>
+      <c r="C360" s="22" t="s">
+        <v>790</v>
       </c>
       <c r="D360" s="37" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E360" s="36" t="s">
         <v>25</v>
@@ -14204,7 +14196,7 @@
       </c>
       <c r="I360" s="35"/>
     </row>
-    <row r="361" spans="1:9" s="36" customFormat="1" ht="60">
+    <row r="361" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A361" s="34" t="s">
         <v>458</v>
       </c>
@@ -14212,93 +14204,93 @@
         <v>327</v>
       </c>
       <c r="C361" s="22" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D361" s="37" t="s">
+        <v>547</v>
+      </c>
+      <c r="E361" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="F361" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="G361" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="H361" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="I361" s="35"/>
+    </row>
+    <row r="362" spans="1:9" s="36" customFormat="1" ht="60">
+      <c r="A362" s="34" t="s">
+        <v>529</v>
+      </c>
+      <c r="B362" s="35" t="s">
+        <v>327</v>
+      </c>
+      <c r="C362" s="20" t="s">
+        <v>806</v>
+      </c>
+      <c r="D362" s="37" t="s">
+        <v>632</v>
+      </c>
+      <c r="E362" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F362" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="G362" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H362" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="I362" s="35" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9" s="36" customFormat="1" ht="45">
+      <c r="A363" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="B363" s="35" t="s">
+        <v>327</v>
+      </c>
+      <c r="C363" s="22" t="s">
+        <v>793</v>
+      </c>
+      <c r="D363" s="37" t="s">
         <v>548</v>
       </c>
-      <c r="E361" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="F361" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="G361" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="H361" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="I361" s="35"/>
-    </row>
-    <row r="362" spans="1:9" s="36" customFormat="1" ht="45">
-      <c r="A362" s="34" t="s">
-        <v>459</v>
-      </c>
-      <c r="B362" s="35" t="s">
-        <v>327</v>
-      </c>
-      <c r="C362" s="22" t="s">
-        <v>793</v>
-      </c>
-      <c r="D362" s="37" t="s">
-        <v>548</v>
-      </c>
-      <c r="E362" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="F362" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="G362" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="H362" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="I362" s="35"/>
-    </row>
-    <row r="363" spans="1:9" s="36" customFormat="1" ht="60">
-      <c r="A363" s="34" t="s">
-        <v>530</v>
-      </c>
-      <c r="B363" s="35" t="s">
-        <v>327</v>
-      </c>
-      <c r="C363" s="20" t="s">
-        <v>808</v>
-      </c>
-      <c r="D363" s="37" t="s">
-        <v>633</v>
-      </c>
-      <c r="E363" s="34" t="s">
+      <c r="E363" s="36" t="s">
         <v>25</v>
       </c>
       <c r="F363" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="G363" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="H363" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="I363" s="35" t="s">
-        <v>670</v>
-      </c>
+      <c r="G363" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="H363" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="I363" s="35"/>
     </row>
     <row r="364" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A364" s="34" t="s">
-        <v>325</v>
+        <v>459</v>
       </c>
       <c r="B364" s="35" t="s">
         <v>327</v>
       </c>
       <c r="C364" s="22" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D364" s="37" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E364" s="36" t="s">
         <v>25</v>
@@ -14322,10 +14314,10 @@
         <v>327</v>
       </c>
       <c r="C365" s="22" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D365" s="37" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E365" s="36" t="s">
         <v>25</v>
@@ -14349,10 +14341,10 @@
         <v>327</v>
       </c>
       <c r="C366" s="22" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D366" s="37" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E366" s="36" t="s">
         <v>25</v>
@@ -14376,10 +14368,10 @@
         <v>327</v>
       </c>
       <c r="C367" s="22" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D367" s="37" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E367" s="36" t="s">
         <v>25</v>
@@ -14403,10 +14395,10 @@
         <v>327</v>
       </c>
       <c r="C368" s="22" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D368" s="37" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E368" s="36" t="s">
         <v>25</v>
@@ -14430,10 +14422,10 @@
         <v>327</v>
       </c>
       <c r="C369" s="22" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D369" s="37" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E369" s="36" t="s">
         <v>25</v>
@@ -14457,10 +14449,10 @@
         <v>327</v>
       </c>
       <c r="C370" s="22" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D370" s="37" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E370" s="36" t="s">
         <v>25</v>
@@ -14484,10 +14476,10 @@
         <v>327</v>
       </c>
       <c r="C371" s="22" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D371" s="37" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E371" s="36" t="s">
         <v>25</v>
@@ -14511,10 +14503,10 @@
         <v>327</v>
       </c>
       <c r="C372" s="22" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D372" s="37" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E372" s="36" t="s">
         <v>25</v>
@@ -14538,10 +14530,10 @@
         <v>327</v>
       </c>
       <c r="C373" s="22" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D373" s="37" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E373" s="36" t="s">
         <v>25</v>
@@ -14559,16 +14551,16 @@
     </row>
     <row r="374" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A374" s="34" t="s">
-        <v>469</v>
+        <v>520</v>
       </c>
       <c r="B374" s="35" t="s">
         <v>327</v>
       </c>
       <c r="C374" s="22" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D374" s="37" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E374" s="36" t="s">
         <v>25</v>
@@ -14586,16 +14578,16 @@
     </row>
     <row r="375" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A375" s="34" t="s">
-        <v>521</v>
+        <v>635</v>
       </c>
       <c r="B375" s="35" t="s">
         <v>327</v>
       </c>
-      <c r="C375" s="22" t="s">
-        <v>806</v>
+      <c r="C375" s="20" t="s">
+        <v>805</v>
       </c>
       <c r="D375" s="37" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E375" s="36" t="s">
         <v>25</v>
@@ -14613,7 +14605,7 @@
     </row>
     <row r="376" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A376" s="34" t="s">
-        <v>636</v>
+        <v>334</v>
       </c>
       <c r="B376" s="35" t="s">
         <v>327</v>
@@ -14622,7 +14614,7 @@
         <v>807</v>
       </c>
       <c r="D376" s="37" t="s">
-        <v>549</v>
+        <v>665</v>
       </c>
       <c r="E376" s="36" t="s">
         <v>25</v>
@@ -14633,23 +14625,23 @@
       <c r="G376" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="H376" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="I376" s="35"/>
+      <c r="H376" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I376" s="37"/>
     </row>
     <row r="377" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A377" s="34" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B377" s="35" t="s">
         <v>327</v>
       </c>
       <c r="C377" s="20" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D377" s="37" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E377" s="36" t="s">
         <v>25</v>
@@ -14667,16 +14659,16 @@
     </row>
     <row r="378" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A378" s="34" t="s">
-        <v>335</v>
+        <v>636</v>
       </c>
       <c r="B378" s="35" t="s">
         <v>327</v>
       </c>
-      <c r="C378" s="20" t="s">
-        <v>810</v>
+      <c r="C378" s="39" t="s">
+        <v>809</v>
       </c>
       <c r="D378" s="37" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E378" s="36" t="s">
         <v>25</v>
@@ -14688,22 +14680,24 @@
         <v>16</v>
       </c>
       <c r="H378" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="I378" s="37"/>
-    </row>
-    <row r="379" spans="1:9" s="36" customFormat="1" ht="45">
+        <v>21</v>
+      </c>
+      <c r="I378" s="35" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9" s="36" customFormat="1" ht="60">
       <c r="A379" s="34" t="s">
         <v>637</v>
       </c>
       <c r="B379" s="35" t="s">
         <v>327</v>
       </c>
-      <c r="C379" s="39" t="s">
-        <v>811</v>
+      <c r="C379" s="40" t="s">
+        <v>810</v>
       </c>
       <c r="D379" s="37" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E379" s="36" t="s">
         <v>25</v>
@@ -14718,10 +14712,10 @@
         <v>21</v>
       </c>
       <c r="I379" s="35" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="380" spans="1:9" s="36" customFormat="1" ht="60">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A380" s="34" t="s">
         <v>638</v>
       </c>
@@ -14729,67 +14723,67 @@
         <v>327</v>
       </c>
       <c r="C380" s="40" t="s">
+        <v>811</v>
+      </c>
+      <c r="D380" s="37" t="s">
+        <v>665</v>
+      </c>
+      <c r="E380" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="F380" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="G380" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="H380" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I380" s="35"/>
+    </row>
+    <row r="381" spans="1:9" s="36" customFormat="1" ht="90">
+      <c r="A381" s="34" t="s">
+        <v>508</v>
+      </c>
+      <c r="B381" s="35" t="s">
+        <v>327</v>
+      </c>
+      <c r="C381" s="20" t="s">
         <v>812</v>
       </c>
-      <c r="D380" s="37" t="s">
+      <c r="D381" s="37" t="s">
+        <v>632</v>
+      </c>
+      <c r="E381" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="F381" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="G381" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="H381" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="I381" s="35" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9" s="36" customFormat="1" ht="75">
+      <c r="A382" s="34" t="s">
+        <v>336</v>
+      </c>
+      <c r="B382" s="35" t="s">
+        <v>327</v>
+      </c>
+      <c r="C382" s="20" t="s">
+        <v>813</v>
+      </c>
+      <c r="D382" s="35" t="s">
         <v>666</v>
       </c>
-      <c r="E380" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="F380" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="G380" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="H380" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="I380" s="35" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="381" spans="1:9" s="36" customFormat="1" ht="45">
-      <c r="A381" s="34" t="s">
-        <v>639</v>
-      </c>
-      <c r="B381" s="35" t="s">
-        <v>327</v>
-      </c>
-      <c r="C381" s="40" t="s">
-        <v>813</v>
-      </c>
-      <c r="D381" s="37" t="s">
-        <v>666</v>
-      </c>
-      <c r="E381" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="F381" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="G381" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="H381" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="I381" s="35"/>
-    </row>
-    <row r="382" spans="1:9" s="36" customFormat="1" ht="90">
-      <c r="A382" s="34" t="s">
-        <v>509</v>
-      </c>
-      <c r="B382" s="35" t="s">
-        <v>327</v>
-      </c>
-      <c r="C382" s="20" t="s">
-        <v>814</v>
-      </c>
-      <c r="D382" s="37" t="s">
-        <v>633</v>
-      </c>
       <c r="E382" s="36" t="s">
         <v>25</v>
       </c>
@@ -14802,22 +14796,20 @@
       <c r="H382" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="I382" s="35" t="s">
-        <v>670</v>
-      </c>
+      <c r="I382" s="35"/>
     </row>
     <row r="383" spans="1:9" s="36" customFormat="1" ht="75">
       <c r="A383" s="34" t="s">
-        <v>336</v>
+        <v>639</v>
       </c>
       <c r="B383" s="35" t="s">
         <v>327</v>
       </c>
       <c r="C383" s="20" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D383" s="35" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E383" s="36" t="s">
         <v>25</v>
@@ -14841,10 +14833,10 @@
         <v>327</v>
       </c>
       <c r="C384" s="20" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D384" s="35" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E384" s="36" t="s">
         <v>25</v>
@@ -14868,10 +14860,10 @@
         <v>327</v>
       </c>
       <c r="C385" s="20" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D385" s="35" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E385" s="36" t="s">
         <v>25</v>
@@ -14895,10 +14887,10 @@
         <v>327</v>
       </c>
       <c r="C386" s="20" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D386" s="35" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E386" s="36" t="s">
         <v>25</v>
@@ -14922,10 +14914,10 @@
         <v>327</v>
       </c>
       <c r="C387" s="20" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D387" s="35" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E387" s="36" t="s">
         <v>25</v>
@@ -14949,10 +14941,10 @@
         <v>327</v>
       </c>
       <c r="C388" s="20" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D388" s="35" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E388" s="36" t="s">
         <v>25</v>
@@ -14976,10 +14968,10 @@
         <v>327</v>
       </c>
       <c r="C389" s="20" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D389" s="35" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E389" s="36" t="s">
         <v>25</v>
@@ -15003,10 +14995,10 @@
         <v>327</v>
       </c>
       <c r="C390" s="20" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D390" s="35" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E390" s="36" t="s">
         <v>25</v>
@@ -15030,10 +15022,10 @@
         <v>327</v>
       </c>
       <c r="C391" s="20" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D391" s="35" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E391" s="36" t="s">
         <v>25</v>
@@ -15057,10 +15049,10 @@
         <v>327</v>
       </c>
       <c r="C392" s="20" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D392" s="35" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E392" s="36" t="s">
         <v>25</v>
@@ -15084,10 +15076,10 @@
         <v>327</v>
       </c>
       <c r="C393" s="20" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D393" s="35" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E393" s="36" t="s">
         <v>25</v>
@@ -15103,7 +15095,7 @@
       </c>
       <c r="I393" s="35"/>
     </row>
-    <row r="394" spans="1:9" s="36" customFormat="1" ht="75">
+    <row r="394" spans="1:9" s="36" customFormat="1" ht="90">
       <c r="A394" s="34" t="s">
         <v>650</v>
       </c>
@@ -15111,10 +15103,10 @@
         <v>327</v>
       </c>
       <c r="C394" s="20" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D394" s="35" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E394" s="36" t="s">
         <v>25</v>
@@ -15138,10 +15130,10 @@
         <v>327</v>
       </c>
       <c r="C395" s="20" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D395" s="35" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E395" s="36" t="s">
         <v>25</v>
@@ -15159,44 +15151,46 @@
     </row>
     <row r="396" spans="1:9" s="36" customFormat="1" ht="90">
       <c r="A396" s="34" t="s">
+        <v>337</v>
+      </c>
+      <c r="B396" s="35" t="s">
+        <v>327</v>
+      </c>
+      <c r="C396" s="20" t="s">
+        <v>840</v>
+      </c>
+      <c r="D396" s="35" t="s">
+        <v>632</v>
+      </c>
+      <c r="E396" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="F396" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="G396" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="H396" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="I396" s="35" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9" s="36" customFormat="1" ht="75">
+      <c r="A397" s="38" t="s">
         <v>652</v>
       </c>
-      <c r="B396" s="35" t="s">
-        <v>327</v>
-      </c>
-      <c r="C396" s="20" t="s">
-        <v>828</v>
-      </c>
-      <c r="D396" s="35" t="s">
+      <c r="B397" s="35" t="s">
+        <v>327</v>
+      </c>
+      <c r="C397" s="39" t="s">
+        <v>827</v>
+      </c>
+      <c r="D397" s="35" t="s">
         <v>667</v>
       </c>
-      <c r="E396" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="F396" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="G396" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="H396" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="I396" s="35"/>
-    </row>
-    <row r="397" spans="1:9" s="36" customFormat="1" ht="90">
-      <c r="A397" s="34" t="s">
-        <v>337</v>
-      </c>
-      <c r="B397" s="35" t="s">
-        <v>327</v>
-      </c>
-      <c r="C397" s="20" t="s">
-        <v>842</v>
-      </c>
-      <c r="D397" s="35" t="s">
-        <v>633</v>
-      </c>
       <c r="E397" s="36" t="s">
         <v>25</v>
       </c>
@@ -15209,9 +15203,7 @@
       <c r="H397" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="I397" s="35" t="s">
-        <v>670</v>
-      </c>
+      <c r="I397" s="35"/>
     </row>
     <row r="398" spans="1:9" s="36" customFormat="1" ht="75">
       <c r="A398" s="38" t="s">
@@ -15221,10 +15213,10 @@
         <v>327</v>
       </c>
       <c r="C398" s="39" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D398" s="35" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E398" s="36" t="s">
         <v>25</v>
@@ -15248,10 +15240,10 @@
         <v>327</v>
       </c>
       <c r="C399" s="39" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D399" s="35" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E399" s="36" t="s">
         <v>25</v>
@@ -15275,10 +15267,10 @@
         <v>327</v>
       </c>
       <c r="C400" s="39" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D400" s="35" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E400" s="36" t="s">
         <v>25</v>
@@ -15302,10 +15294,10 @@
         <v>327</v>
       </c>
       <c r="C401" s="39" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D401" s="35" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E401" s="36" t="s">
         <v>25</v>
@@ -15329,10 +15321,10 @@
         <v>327</v>
       </c>
       <c r="C402" s="39" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D402" s="35" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E402" s="36" t="s">
         <v>25</v>
@@ -15356,10 +15348,10 @@
         <v>327</v>
       </c>
       <c r="C403" s="39" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D403" s="35" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E403" s="36" t="s">
         <v>25</v>
@@ -15383,10 +15375,10 @@
         <v>327</v>
       </c>
       <c r="C404" s="39" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D404" s="35" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E404" s="36" t="s">
         <v>25</v>
@@ -15410,10 +15402,10 @@
         <v>327</v>
       </c>
       <c r="C405" s="39" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D405" s="35" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E405" s="36" t="s">
         <v>25</v>
@@ -15437,10 +15429,10 @@
         <v>327</v>
       </c>
       <c r="C406" s="39" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D406" s="35" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E406" s="36" t="s">
         <v>25</v>
@@ -15456,7 +15448,7 @@
       </c>
       <c r="I406" s="35"/>
     </row>
-    <row r="407" spans="1:9" s="36" customFormat="1" ht="75">
+    <row r="407" spans="1:9" s="36" customFormat="1" ht="90">
       <c r="A407" s="38" t="s">
         <v>662</v>
       </c>
@@ -15464,10 +15456,10 @@
         <v>327</v>
       </c>
       <c r="C407" s="39" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D407" s="35" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E407" s="36" t="s">
         <v>25</v>
@@ -15483,7 +15475,7 @@
       </c>
       <c r="I407" s="35"/>
     </row>
-    <row r="408" spans="1:9" s="36" customFormat="1" ht="90">
+    <row r="408" spans="1:9" s="36" customFormat="1" ht="75">
       <c r="A408" s="38" t="s">
         <v>663</v>
       </c>
@@ -15491,10 +15483,10 @@
         <v>327</v>
       </c>
       <c r="C408" s="39" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D408" s="35" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E408" s="36" t="s">
         <v>25</v>
@@ -15517,11 +15509,11 @@
       <c r="B409" s="35" t="s">
         <v>327</v>
       </c>
-      <c r="C409" s="39" t="s">
-        <v>840</v>
+      <c r="C409" s="40" t="s">
+        <v>839</v>
       </c>
       <c r="D409" s="35" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E409" s="36" t="s">
         <v>25</v>
@@ -15536,33 +15528,6 @@
         <v>21</v>
       </c>
       <c r="I409" s="35"/>
-    </row>
-    <row r="410" spans="1:9" s="36" customFormat="1" ht="75">
-      <c r="A410" s="38" t="s">
-        <v>665</v>
-      </c>
-      <c r="B410" s="35" t="s">
-        <v>327</v>
-      </c>
-      <c r="C410" s="40" t="s">
-        <v>841</v>
-      </c>
-      <c r="D410" s="35" t="s">
-        <v>668</v>
-      </c>
-      <c r="E410" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="F410" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="G410" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="H410" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="I410" s="35"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -15581,7 +15546,7 @@
     <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="C398:C410 F329:F333 F201:F241 F308:F326 B348:B376 F264:F290 F335:F396">
+  <conditionalFormatting sqref="C397:C409 F328:F332 F201:F241 F307:F325 B347:B375 F263:F289 F334:F395">
     <cfRule type="expression" dxfId="140" priority="136">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -15592,7 +15557,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C398:C410 F329:F333 F201:F241 F308:F326 B348:B376 F264:F290 F335:F396">
+  <conditionalFormatting sqref="C397:C409 F328:F332 F201:F241 F307:F325 B347:B375 F263:F289 F334:F395">
     <cfRule type="expression" dxfId="137" priority="133">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -15625,7 +15590,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20 F201:F241 F22:F58 F60:F87 F140:F198 F89:F136 F247:F396">
+  <conditionalFormatting sqref="F20 F201:F241 F22:F58 F60:F87 F140:F198 F89:F136 F247:F395">
     <cfRule type="expression" dxfId="128" priority="122">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
@@ -15663,7 +15628,7 @@
       <formula>(VLOOKUP(F21,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F199 F175 F334 F178 F180 F182 F184 F186 F188 F190:F194 F152 F154 F156 F158 F160 F165 F167:F168 F170 F172 F306:F307 F327 F292 F294 F296 F298 F300 F302 F304 F140 F142 F145 F249 F251 F253 F255 F257 F259 F261 F263 F147 F149:F150">
+  <conditionalFormatting sqref="F199 F175 F333 F178 F180 F182 F184 F186 F188 F190:F194 F152 F154 F156 F158 F160 F165 F167:F168 F170 F172 F305:F306 F326 F291 F293 F295 F297 F299 F301 F303 F140 F142 F145 F249 F251 F253 F256 F258 F260 F262 F147 F149:F150">
     <cfRule type="expression" dxfId="118" priority="108">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -15674,7 +15639,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F199 F175 F334 F178 F180 F182 F184 F186 F188 F190:F194 F152 F154 F156 F158 F160 F165 F167:F168 F170 F172 F306:F307 F327 F292 F294 F296 F298 F300 F302 F304 F140 F142 F145 F249 F251 F253 F255 F257 F259 F261 F263 F147 F149:F150">
+  <conditionalFormatting sqref="F199 F175 F333 F178 F180 F182 F184 F186 F188 F190:F194 F152 F154 F156 F158 F160 F165 F167:F168 F170 F172 F305:F306 F326 F291 F293 F295 F297 F299 F301 F303 F140 F142 F145 F249 F251 F253 F256 F258 F260 F262 F147 F149:F150">
     <cfRule type="expression" dxfId="115" priority="103">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -15693,7 +15658,7 @@
       <formula>(VLOOKUP(F199,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F200 F195:F198 F176:F177 F179 F181 F183 F185 F187 F189 F151 F153 F155 F157 F159 F161:F164 F166 F169 F171 F173:F174 F291 F328 F293 F295 F297 F299 F301 F303 F305 F141 F143:F144 F248 F250 F252 F254 F256 F258 F260 F262 F146 F148">
+  <conditionalFormatting sqref="F200 F195:F198 F176:F177 F179 F181 F183 F185 F187 F189 F151 F153 F155 F157 F159 F161:F164 F166 F169 F171 F173:F174 F290 F327 F292 F294 F296 F298 F300 F302 F304 F141 F143:F144 F248 F250 F252 F254:F255 F257 F259 F261 F146 F148">
     <cfRule type="expression" dxfId="110" priority="100">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -15704,7 +15669,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F200 F195:F198 F176:F177 F179 F181 F183 F185 F187 F189 F151 F153 F155 F157 F159 F161:F164 F166 F169 F171 F173:F174 F291 F328 F293 F295 F297 F299 F301 F303 F305 F141 F143:F144 F248 F250 F252 F254 F256 F258 F260 F262 F146 F148">
+  <conditionalFormatting sqref="F200 F195:F198 F176:F177 F179 F181 F183 F185 F187 F189 F151 F153 F155 F157 F159 F161:F164 F166 F169 F171 F173:F174 F290 F327 F292 F294 F296 F298 F300 F302 F304 F141 F143:F144 F248 F250 F252 F254:F255 F257 F259 F261 F146 F148">
     <cfRule type="expression" dxfId="107" priority="95">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -15723,7 +15688,7 @@
       <formula>(VLOOKUP(F200,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F398:F410">
+  <conditionalFormatting sqref="F397:F409">
     <cfRule type="expression" dxfId="102" priority="92">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -15734,7 +15699,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F398:F410">
+  <conditionalFormatting sqref="F397:F409">
     <cfRule type="expression" dxfId="99" priority="87">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -15745,12 +15710,12 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F398:F410">
+  <conditionalFormatting sqref="F397:F409">
     <cfRule type="expression" dxfId="96" priority="90">
-      <formula>NOT(VLOOKUP(F398,$A$12:$C$15,2,FALSE)="In")</formula>
+      <formula>NOT(VLOOKUP(F397,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="95" priority="91">
-      <formula>(VLOOKUP(F398,$A$12:$C$15,2,FALSE)="In")</formula>
+      <formula>(VLOOKUP(F397,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F137:F139">
@@ -15843,7 +15808,7 @@
       <formula>(VLOOKUP(F88,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F397">
+  <conditionalFormatting sqref="F396">
     <cfRule type="expression" dxfId="70" priority="52">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -15854,7 +15819,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F397">
+  <conditionalFormatting sqref="F396">
     <cfRule type="expression" dxfId="67" priority="47">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -15865,15 +15830,15 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F397">
+  <conditionalFormatting sqref="F396">
     <cfRule type="expression" dxfId="64" priority="50">
-      <formula>NOT(VLOOKUP(F397,$A$12:$C$15,2,FALSE)="In")</formula>
+      <formula>NOT(VLOOKUP(F396,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="63" priority="51">
-      <formula>(VLOOKUP(F397,$A$12:$C$15,2,FALSE)="In")</formula>
+      <formula>(VLOOKUP(F396,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D308">
+  <conditionalFormatting sqref="D307">
     <cfRule type="expression" dxfId="62" priority="44">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -15884,7 +15849,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D308">
+  <conditionalFormatting sqref="D307">
     <cfRule type="expression" dxfId="59" priority="41">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -16046,26 +16011,26 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F348:F396 F89:F142 F291:F324 F248:F279 F236:F241 F145:F234 F398:F410 F20:F87 F334:F339">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F347:F395 F89:F142 F290:F323 F236:F241 F145:F234 F397:F409 F20:F87 F333:F338 F248:F278">
       <formula1>$A$13:$A$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E398:E410 E20:E87 E89:E241 E245:E286 E291:E329 E334:E396">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E397:E409 E20:E87 E89:E241 E290:E328 E333:E395 E245:E285">
       <formula1>"Protocol,Product"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G398:G410 G20:G87 G89:G241 G245:G286 G291:G329 G334:G396">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G397:G409 G20:G87 G89:G241 G290:G328 G333:G395 G245:G285">
       <formula1>"Informative,Normative"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B15">
       <formula1>"In, Out"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H172 H280:H286 H237 H245:H247 H325:H329 H235 H340:H347 H143:H144">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H172 H279:H285 H237 H245:H247 H324:H328 H235 H339:H346 H143:H144">
       <formula1>"Non-testable, Unverified, Adapter, Test Case, Deleted"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H397 H236 H20:H87 H348:H382 H89:H142 H145:H171 H238:H241 H248:H279 H291:H324 H173:H234 H334:H339">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H396 H236 H20:H87 H347:H381 H89:H142 H145:H171 H238:H241 H290:H323 H173:H234 H333:H338 H248:H278">
       <formula1>"Non-testable, Unverified, Adapter, Test Case"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F280:F286 F143:F144 F340:F347 F235 F325:F329 F245:F247">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F279:F285 F143:F144 F339:F346 F235 F324:F328 F245:F247">
       <formula1>$A$14:$A$16</formula1>
     </dataValidation>
   </dataValidations>
@@ -16075,8 +16040,8 @@
     <oddFooter>&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="B339:B410 B19:B338 C3" numberStoredAsText="1"/>
-    <ignoredError sqref="F325:F329" listDataValidation="1"/>
+    <ignoredError sqref="B338:B409 B19:B254 C3 B255:B337" numberStoredAsText="1"/>
+    <ignoredError sqref="F324:F328" listDataValidation="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>

--- a/SharePoint/Docs/MS-VERSS/MS-VERSS_RequirementSpecification.xlsx
+++ b/SharePoint/Docs/MS-VERSS/MS-VERSS_RequirementSpecification.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SHAREPOINT\MS-VERSS\update\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Github\Interop-TestSuites2\SharePoint\Docs\MS-VERSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1867,7 +1867,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1877,7 +1877,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1889,7 +1889,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1899,7 +1899,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1911,7 +1911,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1921,7 +1921,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2043,7 +2043,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2055,7 +2055,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2065,7 +2065,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2077,7 +2077,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2087,7 +2087,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2099,7 +2099,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2109,7 +2109,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2120,7 +2120,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3183,12 +3183,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Verified by derived requirements: MS-VERSS_R17802021.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Verified by derived requirements: MS-VERSS_R17802011.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>Verified by derived requirement: MS-VERSS_R17802011.</t>
+  </si>
+  <si>
+    <t>Verified by derived requirement: MS-VERSS_R17802021.</t>
   </si>
 </sst>
 </file>
@@ -3196,15 +3194,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
-    <numFmt numFmtId="176" formatCode="yyyy\!\-mm\!\-dd"/>
-    <numFmt numFmtId="177" formatCode="0.0"/>
-    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\!\-mm\!\-dd"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3225,7 +3223,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3233,13 +3231,13 @@
       <b/>
       <sz val="16"/>
       <color theme="3" tint="0.39997558519241921"/>
-      <name val="宋体"/>
+      <name val="Cambria"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3252,7 +3250,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3437,7 +3435,7 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3467,12 +3465,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3503,7 +3501,31 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3539,30 +3561,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5000,7 +4998,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
@@ -5014,7 +5012,7 @@
     <col min="10" max="11" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" s="9" t="s">
         <v>573</v>
       </c>
@@ -5023,7 +5021,7 @@
       </c>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="A2" s="9" t="s">
         <v>846</v>
       </c>
@@ -5036,7 +5034,7 @@
       <c r="H2" s="12"/>
       <c r="I2" s="11"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="B3" s="7" t="s">
         <v>538</v>
       </c>
@@ -5053,130 +5051,130 @@
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
     </row>
-    <row r="4" spans="1:10" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="57" t="s">
+    <row r="4" spans="1:10" ht="20.25">
+      <c r="A4" s="45" t="s">
         <v>539</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
       <c r="J5" s="26"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="47" t="s">
         <v>560</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
       <c r="J6" s="26"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10">
       <c r="A7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="46" t="s">
         <v>561</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
       <c r="J7" s="26"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10">
       <c r="A8" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="46" t="s">
         <v>540</v>
       </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
       <c r="J8" s="26"/>
     </row>
-    <row r="9" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="78" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="42" t="s">
         <v>562</v>
       </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="56"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="44"/>
       <c r="J9" s="26"/>
     </row>
-    <row r="10" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="35.25" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="50" t="s">
         <v>563</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="44"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="52"/>
       <c r="J10" s="26"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="53" t="s">
         <v>564</v>
       </c>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
       <c r="J11" s="26"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10">
       <c r="A12" s="30" t="s">
         <v>9</v>
       </c>
@@ -5186,15 +5184,15 @@
       <c r="C12" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
       <c r="J12" s="26"/>
     </row>
-    <row r="13" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="26.25" customHeight="1">
       <c r="A13" s="31" t="s">
         <v>7</v>
       </c>
@@ -5204,15 +5202,15 @@
       <c r="C13" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
       <c r="J13" s="26"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10">
       <c r="A14" s="32" t="s">
         <v>8</v>
       </c>
@@ -5222,15 +5220,15 @@
       <c r="C14" s="15" t="s">
         <v>566</v>
       </c>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
       <c r="J14" s="26"/>
     </row>
-    <row r="15" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10">
       <c r="A15" s="33" t="s">
         <v>4</v>
       </c>
@@ -5240,64 +5238,64 @@
       <c r="C15" s="15" t="s">
         <v>567</v>
       </c>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
       <c r="J15" s="26"/>
     </row>
-    <row r="16" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="36.75" customHeight="1">
       <c r="A16" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="57" t="s">
         <v>569</v>
       </c>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
       <c r="J16" s="26"/>
     </row>
-    <row r="17" spans="1:12" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" ht="95.25" customHeight="1">
       <c r="A17" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="59" t="s">
         <v>570</v>
       </c>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="53"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="61"/>
       <c r="J17" s="26"/>
     </row>
-    <row r="18" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="53" t="s">
         <v>568</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
       <c r="J18" s="26"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" ht="30">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -5326,7 +5324,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" s="12" customFormat="1" ht="30">
       <c r="A20" s="11" t="s">
         <v>26</v>
       </c>
@@ -5351,7 +5349,7 @@
       </c>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="1:12" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" s="12" customFormat="1" ht="30">
       <c r="A21" s="11" t="s">
         <v>28</v>
       </c>
@@ -5376,7 +5374,7 @@
       </c>
       <c r="I21" s="17"/>
     </row>
-    <row r="22" spans="1:12" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" s="12" customFormat="1" ht="30">
       <c r="A22" s="11" t="s">
         <v>29</v>
       </c>
@@ -5401,7 +5399,7 @@
       </c>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="1:12" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" s="12" customFormat="1" ht="30">
       <c r="A23" s="11" t="s">
         <v>30</v>
       </c>
@@ -5426,7 +5424,7 @@
       </c>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" s="12" customFormat="1">
       <c r="A24" s="11" t="s">
         <v>32</v>
       </c>
@@ -5451,7 +5449,7 @@
       </c>
       <c r="I24" s="11"/>
     </row>
-    <row r="25" spans="1:12" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" s="12" customFormat="1" ht="30">
       <c r="A25" s="11" t="s">
         <v>34</v>
       </c>
@@ -5478,7 +5476,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" s="12" customFormat="1" ht="45">
       <c r="A26" s="11" t="s">
         <v>36</v>
       </c>
@@ -5507,7 +5505,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" s="12" customFormat="1" ht="30">
       <c r="A27" s="11" t="s">
         <v>38</v>
       </c>
@@ -5532,7 +5530,7 @@
       </c>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" spans="1:12" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" s="12" customFormat="1">
       <c r="A28" s="11" t="s">
         <v>353</v>
       </c>
@@ -5559,7 +5557,7 @@
       </c>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="1:12" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" s="12" customFormat="1">
       <c r="A29" s="11" t="s">
         <v>354</v>
       </c>
@@ -5586,7 +5584,7 @@
       </c>
       <c r="I29" s="17"/>
     </row>
-    <row r="30" spans="1:12" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" s="12" customFormat="1" ht="30">
       <c r="A30" s="11" t="s">
         <v>39</v>
       </c>
@@ -5611,7 +5609,7 @@
       </c>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="1:12" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:12" s="12" customFormat="1" ht="30">
       <c r="A31" s="11" t="s">
         <v>340</v>
       </c>
@@ -5638,7 +5636,7 @@
       </c>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:12" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:12" s="12" customFormat="1">
       <c r="A32" s="11" t="s">
         <v>341</v>
       </c>
@@ -5665,7 +5663,7 @@
       </c>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9" s="12" customFormat="1">
       <c r="A33" s="11" t="s">
         <v>350</v>
       </c>
@@ -5692,7 +5690,7 @@
       </c>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9" s="12" customFormat="1">
       <c r="A34" s="11" t="s">
         <v>40</v>
       </c>
@@ -5717,7 +5715,7 @@
       </c>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A35" s="11" t="s">
         <v>43</v>
       </c>
@@ -5742,7 +5740,7 @@
       </c>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A36" s="11" t="s">
         <v>44</v>
       </c>
@@ -5767,7 +5765,7 @@
       </c>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:9" s="12" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9" s="12" customFormat="1" ht="45">
       <c r="A37" s="11" t="s">
         <v>47</v>
       </c>
@@ -5792,7 +5790,7 @@
       </c>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9" s="12" customFormat="1">
       <c r="A38" s="11" t="s">
         <v>48</v>
       </c>
@@ -5817,7 +5815,7 @@
       </c>
       <c r="I38" s="19"/>
     </row>
-    <row r="39" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9" s="12" customFormat="1">
       <c r="A39" s="11" t="s">
         <v>50</v>
       </c>
@@ -5842,7 +5840,7 @@
       </c>
       <c r="I39" s="19"/>
     </row>
-    <row r="40" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A40" s="11" t="s">
         <v>52</v>
       </c>
@@ -5867,7 +5865,7 @@
       </c>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A41" s="11" t="s">
         <v>54</v>
       </c>
@@ -5892,7 +5890,7 @@
       </c>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A42" s="11" t="s">
         <v>56</v>
       </c>
@@ -5917,7 +5915,7 @@
       </c>
       <c r="I42" s="19"/>
     </row>
-    <row r="43" spans="1:9" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:9" s="12" customFormat="1" ht="45">
       <c r="A43" s="11" t="s">
         <v>58</v>
       </c>
@@ -5942,7 +5940,7 @@
       </c>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:9" s="12" customFormat="1">
       <c r="A44" s="11" t="s">
         <v>60</v>
       </c>
@@ -5967,7 +5965,7 @@
       </c>
       <c r="I44" s="19"/>
     </row>
-    <row r="45" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:9" s="12" customFormat="1">
       <c r="A45" s="11" t="s">
         <v>62</v>
       </c>
@@ -5992,7 +5990,7 @@
       </c>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A46" s="11" t="s">
         <v>64</v>
       </c>
@@ -6017,7 +6015,7 @@
       </c>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:9" s="12" customFormat="1">
       <c r="A47" s="11" t="s">
         <v>66</v>
       </c>
@@ -6042,7 +6040,7 @@
       </c>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:9" s="12" customFormat="1">
       <c r="A48" s="11" t="s">
         <v>68</v>
       </c>
@@ -6067,7 +6065,7 @@
       </c>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A49" s="11" t="s">
         <v>71</v>
       </c>
@@ -6092,7 +6090,7 @@
       </c>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A50" s="11" t="s">
         <v>73</v>
       </c>
@@ -6117,7 +6115,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:9" s="12" customFormat="1">
       <c r="A51" s="11" t="s">
         <v>74</v>
       </c>
@@ -6142,7 +6140,7 @@
       </c>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:9" s="12" customFormat="1">
       <c r="A52" s="11" t="s">
         <v>76</v>
       </c>
@@ -6167,7 +6165,7 @@
       </c>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:9" s="12" customFormat="1">
       <c r="A53" s="11" t="s">
         <v>78</v>
       </c>
@@ -6192,7 +6190,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A54" s="11" t="s">
         <v>85</v>
       </c>
@@ -6217,7 +6215,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A55" s="11" t="s">
         <v>81</v>
       </c>
@@ -6242,7 +6240,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:9" s="12" customFormat="1">
       <c r="A56" s="11" t="s">
         <v>82</v>
       </c>
@@ -6267,7 +6265,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:9" s="12" customFormat="1" ht="45">
       <c r="A57" s="11" t="s">
         <v>84</v>
       </c>
@@ -6292,7 +6290,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:9" s="12" customFormat="1">
       <c r="A58" s="11" t="s">
         <v>86</v>
       </c>
@@ -6317,7 +6315,7 @@
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A59" s="11" t="s">
         <v>668</v>
       </c>
@@ -6342,7 +6340,7 @@
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A60" s="11" t="s">
         <v>89</v>
       </c>
@@ -6367,7 +6365,7 @@
       </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A61" s="11" t="s">
         <v>90</v>
       </c>
@@ -6392,7 +6390,7 @@
       </c>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A62" s="11" t="s">
         <v>92</v>
       </c>
@@ -6417,7 +6415,7 @@
       </c>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A63" s="11" t="s">
         <v>93</v>
       </c>
@@ -6442,7 +6440,7 @@
       </c>
       <c r="I63" s="17"/>
     </row>
-    <row r="64" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:9" s="12" customFormat="1">
       <c r="A64" s="11" t="s">
         <v>94</v>
       </c>
@@ -6467,7 +6465,7 @@
       </c>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A65" s="11" t="s">
         <v>95</v>
       </c>
@@ -6492,7 +6490,7 @@
       </c>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A66" s="11" t="s">
         <v>97</v>
       </c>
@@ -6517,7 +6515,7 @@
       </c>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" s="12" customFormat="1" ht="310.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:9" s="12" customFormat="1" ht="330">
       <c r="A67" s="11" t="s">
         <v>98</v>
       </c>
@@ -6542,7 +6540,7 @@
       </c>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:9" s="12" customFormat="1">
       <c r="A68" s="11" t="s">
         <v>99</v>
       </c>
@@ -6567,7 +6565,7 @@
       </c>
       <c r="I68" s="19"/>
     </row>
-    <row r="69" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:9" s="12" customFormat="1">
       <c r="A69" s="11" t="s">
         <v>100</v>
       </c>
@@ -6592,7 +6590,7 @@
       </c>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:9" s="12" customFormat="1">
       <c r="A70" s="11" t="s">
         <v>102</v>
       </c>
@@ -6617,7 +6615,7 @@
       </c>
       <c r="I70" s="19"/>
     </row>
-    <row r="71" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:9" s="12" customFormat="1">
       <c r="A71" s="11" t="s">
         <v>104</v>
       </c>
@@ -6642,7 +6640,7 @@
       </c>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:9" s="12" customFormat="1">
       <c r="A72" s="11" t="s">
         <v>105</v>
       </c>
@@ -6667,7 +6665,7 @@
       </c>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:9" s="12" customFormat="1">
       <c r="A73" s="11" t="s">
         <v>107</v>
       </c>
@@ -6692,7 +6690,7 @@
       </c>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:9" s="12" customFormat="1">
       <c r="A74" s="11" t="s">
         <v>109</v>
       </c>
@@ -6717,7 +6715,7 @@
       </c>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:9" s="12" customFormat="1">
       <c r="A75" s="11" t="s">
         <v>110</v>
       </c>
@@ -6742,7 +6740,7 @@
       </c>
       <c r="I75" s="19"/>
     </row>
-    <row r="76" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A76" s="11" t="s">
         <v>112</v>
       </c>
@@ -6767,7 +6765,7 @@
       </c>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:9" s="12" customFormat="1">
       <c r="A77" s="11" t="s">
         <v>113</v>
       </c>
@@ -6792,7 +6790,7 @@
       </c>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:9" s="12" customFormat="1">
       <c r="A78" s="11" t="s">
         <v>115</v>
       </c>
@@ -6817,7 +6815,7 @@
       </c>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:9" s="12" customFormat="1">
       <c r="A79" s="11" t="s">
         <v>117</v>
       </c>
@@ -6842,7 +6840,7 @@
       </c>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" s="12" customFormat="1" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:9" s="12" customFormat="1" ht="150">
       <c r="A80" s="11" t="s">
         <v>119</v>
       </c>
@@ -6867,7 +6865,7 @@
       </c>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:9" s="12" customFormat="1">
       <c r="A81" s="11" t="s">
         <v>120</v>
       </c>
@@ -6892,7 +6890,7 @@
       </c>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:9" s="12" customFormat="1">
       <c r="A82" s="11" t="s">
         <v>122</v>
       </c>
@@ -6917,7 +6915,7 @@
       </c>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" s="12" customFormat="1" ht="162" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:9" s="12" customFormat="1" ht="165">
       <c r="A83" s="11" t="s">
         <v>125</v>
       </c>
@@ -6942,7 +6940,7 @@
       </c>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:9" s="12" customFormat="1">
       <c r="A84" s="11" t="s">
         <v>126</v>
       </c>
@@ -6967,7 +6965,7 @@
       </c>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:9" s="12" customFormat="1">
       <c r="A85" s="11" t="s">
         <v>127</v>
       </c>
@@ -6992,7 +6990,7 @@
       </c>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:9" s="12" customFormat="1">
       <c r="A86" s="11" t="s">
         <v>129</v>
       </c>
@@ -7017,7 +7015,7 @@
       </c>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:9" s="12" customFormat="1" ht="45">
       <c r="A87" s="11" t="s">
         <v>130</v>
       </c>
@@ -7042,7 +7040,7 @@
       </c>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A88" s="11" t="s">
         <v>669</v>
       </c>
@@ -7069,7 +7067,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="89" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:9" s="12" customFormat="1">
       <c r="A89" s="11" t="s">
         <v>131</v>
       </c>
@@ -7094,7 +7092,7 @@
       </c>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A90" s="11" t="s">
         <v>132</v>
       </c>
@@ -7119,7 +7117,7 @@
       </c>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" s="12" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:9" s="12" customFormat="1" ht="45">
       <c r="A91" s="11" t="s">
         <v>134</v>
       </c>
@@ -7146,7 +7144,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="92" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:9" s="12" customFormat="1">
       <c r="A92" s="11" t="s">
         <v>135</v>
       </c>
@@ -7171,7 +7169,7 @@
       </c>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:9" s="12" customFormat="1">
       <c r="A93" s="11" t="s">
         <v>136</v>
       </c>
@@ -7196,7 +7194,7 @@
       </c>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:9" s="12" customFormat="1">
       <c r="A94" s="11" t="s">
         <v>137</v>
       </c>
@@ -7221,7 +7219,7 @@
       </c>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A95" s="11" t="s">
         <v>138</v>
       </c>
@@ -7246,7 +7244,7 @@
       </c>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:9" s="12" customFormat="1">
       <c r="A96" s="11" t="s">
         <v>139</v>
       </c>
@@ -7271,7 +7269,7 @@
       </c>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:9" s="12" customFormat="1">
       <c r="A97" s="11" t="s">
         <v>141</v>
       </c>
@@ -7296,7 +7294,7 @@
       </c>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:9" s="12" customFormat="1">
       <c r="A98" s="11" t="s">
         <v>143</v>
       </c>
@@ -7321,7 +7319,7 @@
       </c>
       <c r="I98" s="17"/>
     </row>
-    <row r="99" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A99" s="11" t="s">
         <v>145</v>
       </c>
@@ -7346,7 +7344,7 @@
       </c>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:9" s="12" customFormat="1">
       <c r="A100" s="11" t="s">
         <v>147</v>
       </c>
@@ -7371,7 +7369,7 @@
       </c>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:9" s="12" customFormat="1">
       <c r="A101" s="11" t="s">
         <v>150</v>
       </c>
@@ -7396,7 +7394,7 @@
       </c>
       <c r="I101" s="17"/>
     </row>
-    <row r="102" spans="1:9" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:9" s="12" customFormat="1" ht="45">
       <c r="A102" s="11" t="s">
         <v>152</v>
       </c>
@@ -7421,7 +7419,7 @@
       </c>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A103" s="11" t="s">
         <v>153</v>
       </c>
@@ -7446,7 +7444,7 @@
       </c>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="1:9" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:9" s="12" customFormat="1" ht="45">
       <c r="A104" s="11" t="s">
         <v>155</v>
       </c>
@@ -7471,7 +7469,7 @@
       </c>
       <c r="I104" s="17"/>
     </row>
-    <row r="105" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A105" s="11" t="s">
         <v>157</v>
       </c>
@@ -7496,7 +7494,7 @@
       </c>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A106" s="11" t="s">
         <v>158</v>
       </c>
@@ -7521,7 +7519,7 @@
       </c>
       <c r="I106" s="17"/>
     </row>
-    <row r="107" spans="1:9" s="12" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:9" s="12" customFormat="1" ht="45">
       <c r="A107" s="11" t="s">
         <v>160</v>
       </c>
@@ -7546,7 +7544,7 @@
       </c>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" spans="1:9" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A108" s="11" t="s">
         <v>162</v>
       </c>
@@ -7571,7 +7569,7 @@
       </c>
       <c r="I108" s="19"/>
     </row>
-    <row r="109" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A109" s="11" t="s">
         <v>164</v>
       </c>
@@ -7596,7 +7594,7 @@
       </c>
       <c r="I109" s="19"/>
     </row>
-    <row r="110" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A110" s="11" t="s">
         <v>166</v>
       </c>
@@ -7621,7 +7619,7 @@
       </c>
       <c r="I110" s="19"/>
     </row>
-    <row r="111" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A111" s="11" t="s">
         <v>168</v>
       </c>
@@ -7646,7 +7644,7 @@
       </c>
       <c r="I111" s="19"/>
     </row>
-    <row r="112" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A112" s="11" t="s">
         <v>171</v>
       </c>
@@ -7671,7 +7669,7 @@
       </c>
       <c r="I112" s="19"/>
     </row>
-    <row r="113" spans="1:9" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A113" s="11" t="s">
         <v>173</v>
       </c>
@@ -7696,7 +7694,7 @@
       </c>
       <c r="I113" s="19"/>
     </row>
-    <row r="114" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A114" s="11" t="s">
         <v>174</v>
       </c>
@@ -7721,7 +7719,7 @@
       </c>
       <c r="I114" s="19"/>
     </row>
-    <row r="115" spans="1:9" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A115" s="11" t="s">
         <v>175</v>
       </c>
@@ -7746,7 +7744,7 @@
       </c>
       <c r="I115" s="17"/>
     </row>
-    <row r="116" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A116" s="11" t="s">
         <v>177</v>
       </c>
@@ -7771,7 +7769,7 @@
       </c>
       <c r="I116" s="17"/>
     </row>
-    <row r="117" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A117" s="11" t="s">
         <v>179</v>
       </c>
@@ -7796,7 +7794,7 @@
       </c>
       <c r="I117" s="17"/>
     </row>
-    <row r="118" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A118" s="11" t="s">
         <v>181</v>
       </c>
@@ -7821,7 +7819,7 @@
       </c>
       <c r="I118" s="17"/>
     </row>
-    <row r="119" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A119" s="11" t="s">
         <v>183</v>
       </c>
@@ -7846,7 +7844,7 @@
       </c>
       <c r="I119" s="17"/>
     </row>
-    <row r="120" spans="1:9" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A120" s="11" t="s">
         <v>185</v>
       </c>
@@ -7871,7 +7869,7 @@
       </c>
       <c r="I120" s="17"/>
     </row>
-    <row r="121" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A121" s="11" t="s">
         <v>187</v>
       </c>
@@ -7896,7 +7894,7 @@
       </c>
       <c r="I121" s="17"/>
     </row>
-    <row r="122" spans="1:9" s="12" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:9" s="12" customFormat="1" ht="75">
       <c r="A122" s="11" t="s">
         <v>188</v>
       </c>
@@ -7921,7 +7919,7 @@
       </c>
       <c r="I122" s="17"/>
     </row>
-    <row r="123" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:9" s="12" customFormat="1">
       <c r="A123" s="11" t="s">
         <v>189</v>
       </c>
@@ -7946,7 +7944,7 @@
       </c>
       <c r="I123" s="17"/>
     </row>
-    <row r="124" spans="1:9" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A124" s="11" t="s">
         <v>191</v>
       </c>
@@ -7971,7 +7969,7 @@
       </c>
       <c r="I124" s="17"/>
     </row>
-    <row r="125" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A125" s="11" t="s">
         <v>192</v>
       </c>
@@ -7996,7 +7994,7 @@
       </c>
       <c r="I125" s="17"/>
     </row>
-    <row r="126" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:9" s="12" customFormat="1">
       <c r="A126" s="11" t="s">
         <v>374</v>
       </c>
@@ -8021,7 +8019,7 @@
       </c>
       <c r="I126" s="17"/>
     </row>
-    <row r="127" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A127" s="11" t="s">
         <v>375</v>
       </c>
@@ -8046,7 +8044,7 @@
       </c>
       <c r="I127" s="17"/>
     </row>
-    <row r="128" spans="1:9" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A128" s="11" t="s">
         <v>194</v>
       </c>
@@ -8071,7 +8069,7 @@
       </c>
       <c r="I128" s="17"/>
     </row>
-    <row r="129" spans="1:9" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A129" s="11" t="s">
         <v>197</v>
       </c>
@@ -8096,7 +8094,7 @@
       </c>
       <c r="I129" s="17"/>
     </row>
-    <row r="130" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:9" s="12" customFormat="1">
       <c r="A130" s="11" t="s">
         <v>198</v>
       </c>
@@ -8121,7 +8119,7 @@
       </c>
       <c r="I130" s="17"/>
     </row>
-    <row r="131" spans="1:9" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A131" s="11" t="s">
         <v>199</v>
       </c>
@@ -8146,7 +8144,7 @@
       </c>
       <c r="I131" s="17"/>
     </row>
-    <row r="132" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:9" s="12" customFormat="1">
       <c r="A132" s="11" t="s">
         <v>201</v>
       </c>
@@ -8171,7 +8169,7 @@
       </c>
       <c r="I132" s="17"/>
     </row>
-    <row r="133" spans="1:9" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A133" s="11" t="s">
         <v>202</v>
       </c>
@@ -8196,7 +8194,7 @@
       </c>
       <c r="I133" s="17"/>
     </row>
-    <row r="134" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:9" s="12" customFormat="1">
       <c r="A134" s="11" t="s">
         <v>859</v>
       </c>
@@ -8221,7 +8219,7 @@
       </c>
       <c r="I134" s="17"/>
     </row>
-    <row r="135" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:9" s="12" customFormat="1">
       <c r="A135" s="11" t="s">
         <v>860</v>
       </c>
@@ -8246,7 +8244,7 @@
       </c>
       <c r="I135" s="17"/>
     </row>
-    <row r="136" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A136" s="11" t="s">
         <v>863</v>
       </c>
@@ -8271,7 +8269,7 @@
       </c>
       <c r="I136" s="17"/>
     </row>
-    <row r="137" spans="1:9" s="12" customFormat="1" ht="108" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:9" s="12" customFormat="1" ht="120">
       <c r="A137" s="11" t="s">
         <v>204</v>
       </c>
@@ -8296,7 +8294,7 @@
       </c>
       <c r="I137" s="17"/>
     </row>
-    <row r="138" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:9" s="12" customFormat="1">
       <c r="A138" s="11" t="s">
         <v>206</v>
       </c>
@@ -8321,7 +8319,7 @@
       </c>
       <c r="I138" s="17"/>
     </row>
-    <row r="139" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A139" s="11" t="s">
         <v>865</v>
       </c>
@@ -8346,7 +8344,7 @@
       </c>
       <c r="I139" s="17"/>
     </row>
-    <row r="140" spans="1:9" s="12" customFormat="1" ht="216" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:9" s="12" customFormat="1" ht="210">
       <c r="A140" s="11" t="s">
         <v>207</v>
       </c>
@@ -8371,7 +8369,7 @@
       </c>
       <c r="I140" s="17"/>
     </row>
-    <row r="141" spans="1:9" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:9" s="12" customFormat="1" ht="45">
       <c r="A141" s="11" t="s">
         <v>209</v>
       </c>
@@ -8396,7 +8394,7 @@
       </c>
       <c r="I141" s="17"/>
     </row>
-    <row r="142" spans="1:9" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A142" s="11" t="s">
         <v>589</v>
       </c>
@@ -8421,7 +8419,7 @@
       </c>
       <c r="I142" s="17"/>
     </row>
-    <row r="143" spans="1:9" s="12" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:9" s="12" customFormat="1" ht="45">
       <c r="A143" s="11" t="s">
         <v>581</v>
       </c>
@@ -8448,7 +8446,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="144" spans="1:9" s="12" customFormat="1" ht="175.5" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:9" s="12" customFormat="1" ht="180">
       <c r="A144" s="11" t="s">
         <v>210</v>
       </c>
@@ -8475,7 +8473,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="145" spans="1:9" s="12" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:9" s="12" customFormat="1" ht="75">
       <c r="A145" s="11" t="s">
         <v>416</v>
       </c>
@@ -8500,7 +8498,7 @@
       </c>
       <c r="I145" s="17"/>
     </row>
-    <row r="146" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:9" s="12" customFormat="1">
       <c r="A146" s="11" t="s">
         <v>213</v>
       </c>
@@ -8525,7 +8523,7 @@
       </c>
       <c r="I146" s="19"/>
     </row>
-    <row r="147" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:9" s="12" customFormat="1">
       <c r="A147" s="11" t="s">
         <v>215</v>
       </c>
@@ -8550,7 +8548,7 @@
       </c>
       <c r="I147" s="19"/>
     </row>
-    <row r="148" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A148" s="11" t="s">
         <v>216</v>
       </c>
@@ -8575,7 +8573,7 @@
       </c>
       <c r="I148" s="17"/>
     </row>
-    <row r="149" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A149" s="11" t="s">
         <v>217</v>
       </c>
@@ -8600,7 +8598,7 @@
       </c>
       <c r="I149" s="17"/>
     </row>
-    <row r="150" spans="1:9" s="12" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:9" s="12" customFormat="1" ht="75">
       <c r="A150" s="11" t="s">
         <v>218</v>
       </c>
@@ -8625,7 +8623,7 @@
       </c>
       <c r="I150" s="17"/>
     </row>
-    <row r="151" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:9" s="12" customFormat="1">
       <c r="A151" s="11" t="s">
         <v>219</v>
       </c>
@@ -8650,7 +8648,7 @@
       </c>
       <c r="I151" s="17"/>
     </row>
-    <row r="152" spans="1:9" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A152" s="11" t="s">
         <v>221</v>
       </c>
@@ -8675,7 +8673,7 @@
       </c>
       <c r="I152" s="17"/>
     </row>
-    <row r="153" spans="1:9" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A153" s="11" t="s">
         <v>222</v>
       </c>
@@ -8700,7 +8698,7 @@
       </c>
       <c r="I153" s="17"/>
     </row>
-    <row r="154" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:9" s="12" customFormat="1">
       <c r="A154" s="11" t="s">
         <v>389</v>
       </c>
@@ -8725,7 +8723,7 @@
       </c>
       <c r="I154" s="17"/>
     </row>
-    <row r="155" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:9" s="12" customFormat="1">
       <c r="A155" s="11" t="s">
         <v>390</v>
       </c>
@@ -8750,7 +8748,7 @@
       </c>
       <c r="I155" s="17"/>
     </row>
-    <row r="156" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A156" s="11" t="s">
         <v>224</v>
       </c>
@@ -8775,7 +8773,7 @@
       </c>
       <c r="I156" s="17"/>
     </row>
-    <row r="157" spans="1:9" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A157" s="11" t="s">
         <v>227</v>
       </c>
@@ -8800,7 +8798,7 @@
       </c>
       <c r="I157" s="17"/>
     </row>
-    <row r="158" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:9" s="12" customFormat="1">
       <c r="A158" s="11" t="s">
         <v>228</v>
       </c>
@@ -8825,7 +8823,7 @@
       </c>
       <c r="I158" s="17"/>
     </row>
-    <row r="159" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A159" s="11" t="s">
         <v>230</v>
       </c>
@@ -8850,7 +8848,7 @@
       </c>
       <c r="I159" s="17"/>
     </row>
-    <row r="160" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:9" s="12" customFormat="1">
       <c r="A160" s="11" t="s">
         <v>233</v>
       </c>
@@ -8875,7 +8873,7 @@
       </c>
       <c r="I160" s="17"/>
     </row>
-    <row r="161" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A161" s="11" t="s">
         <v>235</v>
       </c>
@@ -8900,7 +8898,7 @@
       </c>
       <c r="I161" s="17"/>
     </row>
-    <row r="162" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:9" s="12" customFormat="1">
       <c r="A162" s="11" t="s">
         <v>867</v>
       </c>
@@ -8925,7 +8923,7 @@
       </c>
       <c r="I162" s="17"/>
     </row>
-    <row r="163" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:9" s="12" customFormat="1">
       <c r="A163" s="11" t="s">
         <v>868</v>
       </c>
@@ -8950,7 +8948,7 @@
       </c>
       <c r="I163" s="17"/>
     </row>
-    <row r="164" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:9" s="12" customFormat="1">
       <c r="A164" s="11" t="s">
         <v>871</v>
       </c>
@@ -8975,7 +8973,7 @@
       </c>
       <c r="I164" s="17"/>
     </row>
-    <row r="165" spans="1:9" s="12" customFormat="1" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:9" s="12" customFormat="1" ht="135">
       <c r="A165" s="11" t="s">
         <v>237</v>
       </c>
@@ -9000,7 +8998,7 @@
       </c>
       <c r="I165" s="17"/>
     </row>
-    <row r="166" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:9" s="12" customFormat="1">
       <c r="A166" s="11" t="s">
         <v>239</v>
       </c>
@@ -9025,7 +9023,7 @@
       </c>
       <c r="I166" s="17"/>
     </row>
-    <row r="167" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:9" s="12" customFormat="1">
       <c r="A167" s="11" t="s">
         <v>240</v>
       </c>
@@ -9050,7 +9048,7 @@
       </c>
       <c r="I167" s="17"/>
     </row>
-    <row r="168" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A168" s="11" t="s">
         <v>873</v>
       </c>
@@ -9075,7 +9073,7 @@
       </c>
       <c r="I168" s="17"/>
     </row>
-    <row r="169" spans="1:9" s="12" customFormat="1" ht="216" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:9" s="12" customFormat="1" ht="210">
       <c r="A169" s="11" t="s">
         <v>241</v>
       </c>
@@ -9100,7 +9098,7 @@
       </c>
       <c r="I169" s="17"/>
     </row>
-    <row r="170" spans="1:9" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:9" s="12" customFormat="1" ht="45">
       <c r="A170" s="11" t="s">
         <v>243</v>
       </c>
@@ -9125,7 +9123,7 @@
       </c>
       <c r="I170" s="17"/>
     </row>
-    <row r="171" spans="1:9" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A171" s="11" t="s">
         <v>244</v>
       </c>
@@ -9150,7 +9148,7 @@
       </c>
       <c r="I171" s="17"/>
     </row>
-    <row r="172" spans="1:9" s="12" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:9" s="12" customFormat="1" ht="75">
       <c r="A172" s="11" t="s">
         <v>391</v>
       </c>
@@ -9175,7 +9173,7 @@
       </c>
       <c r="I172" s="17"/>
     </row>
-    <row r="173" spans="1:9" s="12" customFormat="1" ht="175.5" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:9" s="12" customFormat="1" ht="165">
       <c r="A173" s="11" t="s">
         <v>245</v>
       </c>
@@ -9202,7 +9200,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="174" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:9" s="12" customFormat="1">
       <c r="A174" s="11" t="s">
         <v>247</v>
       </c>
@@ -9227,7 +9225,7 @@
       </c>
       <c r="I174" s="19"/>
     </row>
-    <row r="175" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:9" s="12" customFormat="1">
       <c r="A175" s="11" t="s">
         <v>249</v>
       </c>
@@ -9252,7 +9250,7 @@
       </c>
       <c r="I175" s="19"/>
     </row>
-    <row r="176" spans="1:9" s="12" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:9" s="12" customFormat="1" ht="45">
       <c r="A176" s="11" t="s">
         <v>251</v>
       </c>
@@ -9279,7 +9277,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="177" spans="1:9" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A177" s="11" t="s">
         <v>252</v>
       </c>
@@ -9303,10 +9301,10 @@
         <v>18</v>
       </c>
       <c r="I177" s="19" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A178" s="11" t="s">
         <v>253</v>
       </c>
@@ -9330,10 +9328,10 @@
         <v>18</v>
       </c>
       <c r="I178" s="19" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A179" s="11" t="s">
         <v>254</v>
       </c>
@@ -9358,7 +9356,7 @@
       </c>
       <c r="I179" s="17"/>
     </row>
-    <row r="180" spans="1:9" s="12" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:9" s="12" customFormat="1" ht="75">
       <c r="A180" s="11" t="s">
         <v>256</v>
       </c>
@@ -9383,7 +9381,7 @@
       </c>
       <c r="I180" s="17"/>
     </row>
-    <row r="181" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:9" s="12" customFormat="1">
       <c r="A181" s="11" t="s">
         <v>257</v>
       </c>
@@ -9408,7 +9406,7 @@
       </c>
       <c r="I181" s="17"/>
     </row>
-    <row r="182" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A182" s="11" t="s">
         <v>259</v>
       </c>
@@ -9433,7 +9431,7 @@
       </c>
       <c r="I182" s="17"/>
     </row>
-    <row r="183" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A183" s="11" t="s">
         <v>260</v>
       </c>
@@ -9458,7 +9456,7 @@
       </c>
       <c r="I183" s="17"/>
     </row>
-    <row r="184" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A184" s="11" t="s">
         <v>393</v>
       </c>
@@ -9483,7 +9481,7 @@
       </c>
       <c r="I184" s="19"/>
     </row>
-    <row r="185" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A185" s="11" t="s">
         <v>394</v>
       </c>
@@ -9508,7 +9506,7 @@
       </c>
       <c r="I185" s="19"/>
     </row>
-    <row r="186" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A186" s="11" t="s">
         <v>262</v>
       </c>
@@ -9533,7 +9531,7 @@
       </c>
       <c r="I186" s="17"/>
     </row>
-    <row r="187" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A187" s="11" t="s">
         <v>265</v>
       </c>
@@ -9558,7 +9556,7 @@
       </c>
       <c r="I187" s="17"/>
     </row>
-    <row r="188" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:9" s="12" customFormat="1">
       <c r="A188" s="11" t="s">
         <v>266</v>
       </c>
@@ -9583,7 +9581,7 @@
       </c>
       <c r="I188" s="17"/>
     </row>
-    <row r="189" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A189" s="11" t="s">
         <v>268</v>
       </c>
@@ -9608,7 +9606,7 @@
       </c>
       <c r="I189" s="17"/>
     </row>
-    <row r="190" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:9" s="12" customFormat="1">
       <c r="A190" s="11" t="s">
         <v>271</v>
       </c>
@@ -9633,7 +9631,7 @@
       </c>
       <c r="I190" s="17"/>
     </row>
-    <row r="191" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A191" s="11" t="s">
         <v>273</v>
       </c>
@@ -9658,7 +9656,7 @@
       </c>
       <c r="I191" s="17"/>
     </row>
-    <row r="192" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:9" s="12" customFormat="1">
       <c r="A192" s="11" t="s">
         <v>877</v>
       </c>
@@ -9683,7 +9681,7 @@
       </c>
       <c r="I192" s="17"/>
     </row>
-    <row r="193" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:9" s="12" customFormat="1">
       <c r="A193" s="11" t="s">
         <v>878</v>
       </c>
@@ -9708,7 +9706,7 @@
       </c>
       <c r="I193" s="17"/>
     </row>
-    <row r="194" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:9" s="12" customFormat="1">
       <c r="A194" s="11" t="s">
         <v>881</v>
       </c>
@@ -9733,7 +9731,7 @@
       </c>
       <c r="I194" s="17"/>
     </row>
-    <row r="195" spans="1:9" s="12" customFormat="1" ht="108" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:9" s="12" customFormat="1" ht="120">
       <c r="A195" s="11" t="s">
         <v>275</v>
       </c>
@@ -9758,7 +9756,7 @@
       </c>
       <c r="I195" s="17"/>
     </row>
-    <row r="196" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:9" s="12" customFormat="1">
       <c r="A196" s="11" t="s">
         <v>277</v>
       </c>
@@ -9783,7 +9781,7 @@
       </c>
       <c r="I196" s="17"/>
     </row>
-    <row r="197" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A197" s="11" t="s">
         <v>883</v>
       </c>
@@ -9808,7 +9806,7 @@
       </c>
       <c r="I197" s="17"/>
     </row>
-    <row r="198" spans="1:9" s="12" customFormat="1" ht="202.5" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:9" s="12" customFormat="1" ht="210">
       <c r="A198" s="11" t="s">
         <v>278</v>
       </c>
@@ -9833,7 +9831,7 @@
       </c>
       <c r="I198" s="17"/>
     </row>
-    <row r="199" spans="1:9" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:9" s="12" customFormat="1" ht="45">
       <c r="A199" s="11" t="s">
         <v>280</v>
       </c>
@@ -9858,7 +9856,7 @@
       </c>
       <c r="I199" s="17"/>
     </row>
-    <row r="200" spans="1:9" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A200" s="11" t="s">
         <v>281</v>
       </c>
@@ -9883,7 +9881,7 @@
       </c>
       <c r="I200" s="17"/>
     </row>
-    <row r="201" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:9" s="12" customFormat="1">
       <c r="A201" s="11" t="s">
         <v>282</v>
       </c>
@@ -9908,7 +9906,7 @@
       </c>
       <c r="I201" s="17"/>
     </row>
-    <row r="202" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A202" s="11" t="s">
         <v>533</v>
       </c>
@@ -9933,7 +9931,7 @@
       </c>
       <c r="I202" s="17"/>
     </row>
-    <row r="203" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:9" s="12" customFormat="1">
       <c r="A203" s="11" t="s">
         <v>283</v>
       </c>
@@ -9958,7 +9956,7 @@
       </c>
       <c r="I203" s="17"/>
     </row>
-    <row r="204" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A204" s="11" t="s">
         <v>285</v>
       </c>
@@ -9983,7 +9981,7 @@
       </c>
       <c r="I204" s="17"/>
     </row>
-    <row r="205" spans="1:9" s="12" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:9" s="12" customFormat="1" ht="75">
       <c r="A205" s="11" t="s">
         <v>516</v>
       </c>
@@ -10008,7 +10006,7 @@
       </c>
       <c r="I205" s="17"/>
     </row>
-    <row r="206" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:9" s="12" customFormat="1">
       <c r="A206" s="11" t="s">
         <v>286</v>
       </c>
@@ -10033,7 +10031,7 @@
       </c>
       <c r="I206" s="19"/>
     </row>
-    <row r="207" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:9" s="12" customFormat="1">
       <c r="A207" s="11" t="s">
         <v>287</v>
       </c>
@@ -10058,7 +10056,7 @@
       </c>
       <c r="I207" s="19"/>
     </row>
-    <row r="208" spans="1:9" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:9" s="12" customFormat="1" ht="45">
       <c r="A208" s="11" t="s">
         <v>289</v>
       </c>
@@ -10083,7 +10081,7 @@
       </c>
       <c r="I208" s="17"/>
     </row>
-    <row r="209" spans="1:9" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:9" s="12" customFormat="1" ht="45">
       <c r="A209" s="11" t="s">
         <v>290</v>
       </c>
@@ -10108,7 +10106,7 @@
       </c>
       <c r="I209" s="17"/>
     </row>
-    <row r="210" spans="1:9" s="12" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:9" s="12" customFormat="1" ht="60">
       <c r="A210" s="11" t="s">
         <v>291</v>
       </c>
@@ -10133,7 +10131,7 @@
       </c>
       <c r="I210" s="17"/>
     </row>
-    <row r="211" spans="1:9" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A211" s="11" t="s">
         <v>292</v>
       </c>
@@ -10158,7 +10156,7 @@
       </c>
       <c r="I211" s="17"/>
     </row>
-    <row r="212" spans="1:9" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A212" s="11" t="s">
         <v>293</v>
       </c>
@@ -10183,7 +10181,7 @@
       </c>
       <c r="I212" s="17"/>
     </row>
-    <row r="213" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A213" s="11" t="s">
         <v>294</v>
       </c>
@@ -10208,7 +10206,7 @@
       </c>
       <c r="I213" s="17"/>
     </row>
-    <row r="214" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:9" s="12" customFormat="1">
       <c r="A214" s="11" t="s">
         <v>295</v>
       </c>
@@ -10233,7 +10231,7 @@
       </c>
       <c r="I214" s="17"/>
     </row>
-    <row r="215" spans="1:9" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A215" s="11" t="s">
         <v>297</v>
       </c>
@@ -10258,7 +10256,7 @@
       </c>
       <c r="I215" s="17"/>
     </row>
-    <row r="216" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A216" s="11" t="s">
         <v>298</v>
       </c>
@@ -10283,7 +10281,7 @@
       </c>
       <c r="I216" s="17"/>
     </row>
-    <row r="217" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A217" s="11" t="s">
         <v>406</v>
       </c>
@@ -10308,7 +10306,7 @@
       </c>
       <c r="I217" s="17"/>
     </row>
-    <row r="218" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A218" s="11" t="s">
         <v>407</v>
       </c>
@@ -10333,7 +10331,7 @@
       </c>
       <c r="I218" s="17"/>
     </row>
-    <row r="219" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A219" s="11" t="s">
         <v>300</v>
       </c>
@@ -10358,7 +10356,7 @@
       </c>
       <c r="I219" s="17"/>
     </row>
-    <row r="220" spans="1:9" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A220" s="11" t="s">
         <v>302</v>
       </c>
@@ -10383,7 +10381,7 @@
       </c>
       <c r="I220" s="17"/>
     </row>
-    <row r="221" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:9" s="12" customFormat="1">
       <c r="A221" s="11" t="s">
         <v>303</v>
       </c>
@@ -10408,7 +10406,7 @@
       </c>
       <c r="I221" s="17"/>
     </row>
-    <row r="222" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A222" s="11" t="s">
         <v>305</v>
       </c>
@@ -10433,7 +10431,7 @@
       </c>
       <c r="I222" s="17"/>
     </row>
-    <row r="223" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:9" s="12" customFormat="1">
       <c r="A223" s="11" t="s">
         <v>308</v>
       </c>
@@ -10458,7 +10456,7 @@
       </c>
       <c r="I223" s="17"/>
     </row>
-    <row r="224" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A224" s="11" t="s">
         <v>310</v>
       </c>
@@ -10483,7 +10481,7 @@
       </c>
       <c r="I224" s="17"/>
     </row>
-    <row r="225" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:9" s="12" customFormat="1">
       <c r="A225" s="11" t="s">
         <v>885</v>
       </c>
@@ -10508,7 +10506,7 @@
       </c>
       <c r="I225" s="17"/>
     </row>
-    <row r="226" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:9" s="12" customFormat="1">
       <c r="A226" s="11" t="s">
         <v>886</v>
       </c>
@@ -10533,7 +10531,7 @@
       </c>
       <c r="I226" s="17"/>
     </row>
-    <row r="227" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A227" s="11" t="s">
         <v>889</v>
       </c>
@@ -10558,7 +10556,7 @@
       </c>
       <c r="I227" s="17"/>
     </row>
-    <row r="228" spans="1:9" s="12" customFormat="1" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:9" s="12" customFormat="1" ht="135">
       <c r="A228" s="11" t="s">
         <v>312</v>
       </c>
@@ -10583,7 +10581,7 @@
       </c>
       <c r="I228" s="17"/>
     </row>
-    <row r="229" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:9" s="12" customFormat="1">
       <c r="A229" s="11" t="s">
         <v>314</v>
       </c>
@@ -10608,7 +10606,7 @@
       </c>
       <c r="I229" s="17"/>
     </row>
-    <row r="230" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:9" s="12" customFormat="1">
       <c r="A230" s="11" t="s">
         <v>315</v>
       </c>
@@ -10633,7 +10631,7 @@
       </c>
       <c r="I230" s="17"/>
     </row>
-    <row r="231" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A231" s="11" t="s">
         <v>891</v>
       </c>
@@ -10658,7 +10656,7 @@
       </c>
       <c r="I231" s="17"/>
     </row>
-    <row r="232" spans="1:9" s="12" customFormat="1" ht="216" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:9" s="12" customFormat="1" ht="210">
       <c r="A232" s="11" t="s">
         <v>316</v>
       </c>
@@ -10683,7 +10681,7 @@
       </c>
       <c r="I232" s="17"/>
     </row>
-    <row r="233" spans="1:9" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:9" s="12" customFormat="1" ht="45">
       <c r="A233" s="11" t="s">
         <v>318</v>
       </c>
@@ -10708,7 +10706,7 @@
       </c>
       <c r="I233" s="17"/>
     </row>
-    <row r="234" spans="1:9" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:9" s="12" customFormat="1" ht="45">
       <c r="A234" s="11" t="s">
         <v>319</v>
       </c>
@@ -10733,7 +10731,7 @@
       </c>
       <c r="I234" s="17"/>
     </row>
-    <row r="235" spans="1:9" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:9" s="12" customFormat="1" ht="45">
       <c r="A235" s="11" t="s">
         <v>617</v>
       </c>
@@ -10760,7 +10758,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="236" spans="1:9" s="12" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:9" s="12" customFormat="1" ht="75">
       <c r="A236" s="11" t="s">
         <v>411</v>
       </c>
@@ -10785,7 +10783,7 @@
       </c>
       <c r="I236" s="17"/>
     </row>
-    <row r="237" spans="1:9" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:9" s="12" customFormat="1" ht="45">
       <c r="A237" s="11" t="s">
         <v>320</v>
       </c>
@@ -10812,7 +10810,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="238" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:9" s="12" customFormat="1">
       <c r="A238" s="11" t="s">
         <v>469</v>
       </c>
@@ -10837,7 +10835,7 @@
       </c>
       <c r="I238" s="17"/>
     </row>
-    <row r="239" spans="1:9" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:9" s="12" customFormat="1" ht="75">
       <c r="A239" s="11" t="s">
         <v>322</v>
       </c>
@@ -10864,7 +10862,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="240" spans="1:9" s="12" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:9" s="12" customFormat="1" ht="45">
       <c r="A240" s="11" t="s">
         <v>326</v>
       </c>
@@ -10889,7 +10887,7 @@
       </c>
       <c r="I240" s="17"/>
     </row>
-    <row r="241" spans="1:9" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A241" s="11" t="s">
         <v>328</v>
       </c>
@@ -10914,7 +10912,7 @@
       </c>
       <c r="I241" s="17"/>
     </row>
-    <row r="242" spans="1:9" s="36" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A242" s="34" t="s">
         <v>670</v>
       </c>
@@ -10943,7 +10941,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="243" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A243" s="34" t="s">
         <v>673</v>
       </c>
@@ -10972,7 +10970,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="244" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A244" s="34" t="s">
         <v>674</v>
       </c>
@@ -11001,7 +10999,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="245" spans="1:9" s="36" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A245" s="34" t="s">
         <v>583</v>
       </c>
@@ -11030,7 +11028,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="246" spans="1:9" s="36" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A246" s="34" t="s">
         <v>584</v>
       </c>
@@ -11059,7 +11057,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="247" spans="1:9" s="36" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A247" s="34" t="s">
         <v>587</v>
       </c>
@@ -11088,7 +11086,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="248" spans="1:9" s="36" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:9" s="36" customFormat="1" ht="60">
       <c r="A248" s="34" t="s">
         <v>211</v>
       </c>
@@ -11117,7 +11115,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="249" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A249" s="34" t="s">
         <v>212</v>
       </c>
@@ -11144,7 +11142,7 @@
       </c>
       <c r="I249" s="35"/>
     </row>
-    <row r="250" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A250" s="34" t="s">
         <v>417</v>
       </c>
@@ -11171,7 +11169,7 @@
       </c>
       <c r="I250" s="35"/>
     </row>
-    <row r="251" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A251" s="34" t="s">
         <v>418</v>
       </c>
@@ -11198,7 +11196,7 @@
       </c>
       <c r="I251" s="35"/>
     </row>
-    <row r="252" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A252" s="34" t="s">
         <v>419</v>
       </c>
@@ -11225,7 +11223,7 @@
       </c>
       <c r="I252" s="35"/>
     </row>
-    <row r="253" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A253" s="34" t="s">
         <v>420</v>
       </c>
@@ -11252,7 +11250,7 @@
       </c>
       <c r="I253" s="35"/>
     </row>
-    <row r="254" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A254" s="34" t="s">
         <v>421</v>
       </c>
@@ -11279,7 +11277,7 @@
       </c>
       <c r="I254" s="35"/>
     </row>
-    <row r="255" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A255" s="34" t="s">
         <v>422</v>
       </c>
@@ -11306,7 +11304,7 @@
       </c>
       <c r="I255" s="35"/>
     </row>
-    <row r="256" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A256" s="34" t="s">
         <v>423</v>
       </c>
@@ -11333,7 +11331,7 @@
       </c>
       <c r="I256" s="35"/>
     </row>
-    <row r="257" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A257" s="34" t="s">
         <v>424</v>
       </c>
@@ -11360,7 +11358,7 @@
       </c>
       <c r="I257" s="35"/>
     </row>
-    <row r="258" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A258" s="34" t="s">
         <v>425</v>
       </c>
@@ -11387,7 +11385,7 @@
       </c>
       <c r="I258" s="35"/>
     </row>
-    <row r="259" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A259" s="34" t="s">
         <v>426</v>
       </c>
@@ -11414,7 +11412,7 @@
       </c>
       <c r="I259" s="35"/>
     </row>
-    <row r="260" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A260" s="34" t="s">
         <v>427</v>
       </c>
@@ -11441,7 +11439,7 @@
       </c>
       <c r="I260" s="35"/>
     </row>
-    <row r="261" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A261" s="34" t="s">
         <v>428</v>
       </c>
@@ -11468,7 +11466,7 @@
       </c>
       <c r="I261" s="35"/>
     </row>
-    <row r="262" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A262" s="34" t="s">
         <v>475</v>
       </c>
@@ -11495,7 +11493,7 @@
       </c>
       <c r="I262" s="35"/>
     </row>
-    <row r="263" spans="1:9" s="36" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:9" s="36" customFormat="1" ht="75">
       <c r="A263" s="34" t="s">
         <v>329</v>
       </c>
@@ -11524,7 +11522,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="264" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:9" s="36" customFormat="1" ht="60">
       <c r="A264" s="34" t="s">
         <v>476</v>
       </c>
@@ -11551,7 +11549,7 @@
       </c>
       <c r="I264" s="35"/>
     </row>
-    <row r="265" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A265" s="34" t="s">
         <v>477</v>
       </c>
@@ -11578,7 +11576,7 @@
       </c>
       <c r="I265" s="35"/>
     </row>
-    <row r="266" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A266" s="34" t="s">
         <v>478</v>
       </c>
@@ -11605,7 +11603,7 @@
       </c>
       <c r="I266" s="35"/>
     </row>
-    <row r="267" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A267" s="34" t="s">
         <v>479</v>
       </c>
@@ -11632,7 +11630,7 @@
       </c>
       <c r="I267" s="35"/>
     </row>
-    <row r="268" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A268" s="34" t="s">
         <v>480</v>
       </c>
@@ -11659,7 +11657,7 @@
       </c>
       <c r="I268" s="35"/>
     </row>
-    <row r="269" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:9" s="36" customFormat="1" ht="60">
       <c r="A269" s="34" t="s">
         <v>481</v>
       </c>
@@ -11686,7 +11684,7 @@
       </c>
       <c r="I269" s="35"/>
     </row>
-    <row r="270" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A270" s="34" t="s">
         <v>912</v>
       </c>
@@ -11713,7 +11711,7 @@
       </c>
       <c r="I270" s="35"/>
     </row>
-    <row r="271" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:9" s="36" customFormat="1" ht="60">
       <c r="A271" s="34" t="s">
         <v>482</v>
       </c>
@@ -11740,7 +11738,7 @@
       </c>
       <c r="I271" s="35"/>
     </row>
-    <row r="272" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:9" s="36" customFormat="1" ht="60">
       <c r="A272" s="34" t="s">
         <v>483</v>
       </c>
@@ -11767,7 +11765,7 @@
       </c>
       <c r="I272" s="35"/>
     </row>
-    <row r="273" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A273" s="34" t="s">
         <v>484</v>
       </c>
@@ -11794,7 +11792,7 @@
       </c>
       <c r="I273" s="35"/>
     </row>
-    <row r="274" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:9" s="36" customFormat="1" ht="60">
       <c r="A274" s="34" t="s">
         <v>485</v>
       </c>
@@ -11821,7 +11819,7 @@
       </c>
       <c r="I274" s="35"/>
     </row>
-    <row r="275" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A275" s="34" t="s">
         <v>486</v>
       </c>
@@ -11848,7 +11846,7 @@
       </c>
       <c r="I275" s="35"/>
     </row>
-    <row r="276" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:9" s="36" customFormat="1" ht="60">
       <c r="A276" s="34" t="s">
         <v>487</v>
       </c>
@@ -11875,7 +11873,7 @@
       </c>
       <c r="I276" s="35"/>
     </row>
-    <row r="277" spans="1:9" s="36" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:9" s="36" customFormat="1" ht="60">
       <c r="A277" s="34" t="s">
         <v>488</v>
       </c>
@@ -11902,7 +11900,7 @@
       </c>
       <c r="I277" s="35"/>
     </row>
-    <row r="278" spans="1:9" s="36" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:9" s="36" customFormat="1" ht="60">
       <c r="A278" s="34" t="s">
         <v>606</v>
       </c>
@@ -11929,7 +11927,7 @@
       </c>
       <c r="I278" s="35"/>
     </row>
-    <row r="279" spans="1:9" s="36" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A279" s="34" t="s">
         <v>607</v>
       </c>
@@ -11958,7 +11956,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="280" spans="1:9" s="36" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A280" s="34" t="s">
         <v>608</v>
       </c>
@@ -11987,7 +11985,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="281" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:9" s="36" customFormat="1" ht="60">
       <c r="A281" s="34" t="s">
         <v>609</v>
       </c>
@@ -12016,7 +12014,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="282" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:9" s="36" customFormat="1" ht="60">
       <c r="A282" s="34" t="s">
         <v>610</v>
       </c>
@@ -12045,7 +12043,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="283" spans="1:9" s="36" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:9" s="36" customFormat="1" ht="60">
       <c r="A283" s="34" t="s">
         <v>611</v>
       </c>
@@ -12074,7 +12072,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="284" spans="1:9" s="36" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:9" s="36" customFormat="1" ht="60">
       <c r="A284" s="34" t="s">
         <v>612</v>
       </c>
@@ -12103,7 +12101,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="285" spans="1:9" s="36" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A285" s="34" t="s">
         <v>330</v>
       </c>
@@ -12132,7 +12130,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="286" spans="1:9" s="36" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:9" s="36" customFormat="1" ht="60">
       <c r="A286" s="34" t="s">
         <v>578</v>
       </c>
@@ -12161,7 +12159,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="287" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A287" s="34" t="s">
         <v>579</v>
       </c>
@@ -12188,7 +12186,7 @@
       </c>
       <c r="I287" s="37"/>
     </row>
-    <row r="288" spans="1:9" s="36" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A288" s="34" t="s">
         <v>894</v>
       </c>
@@ -12215,7 +12213,7 @@
       </c>
       <c r="I288" s="35"/>
     </row>
-    <row r="289" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A289" s="34" t="s">
         <v>895</v>
       </c>
@@ -12244,7 +12242,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="290" spans="1:9" s="36" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:9" s="36" customFormat="1" ht="60">
       <c r="A290" s="34" t="s">
         <v>246</v>
       </c>
@@ -12273,7 +12271,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="291" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A291" s="34" t="s">
         <v>433</v>
       </c>
@@ -12300,7 +12298,7 @@
       </c>
       <c r="I291" s="35"/>
     </row>
-    <row r="292" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A292" s="34" t="s">
         <v>434</v>
       </c>
@@ -12327,7 +12325,7 @@
       </c>
       <c r="I292" s="35"/>
     </row>
-    <row r="293" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A293" s="34" t="s">
         <v>435</v>
       </c>
@@ -12354,7 +12352,7 @@
       </c>
       <c r="I293" s="35"/>
     </row>
-    <row r="294" spans="1:9" s="36" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A294" s="34" t="s">
         <v>436</v>
       </c>
@@ -12381,7 +12379,7 @@
       </c>
       <c r="I294" s="35"/>
     </row>
-    <row r="295" spans="1:9" s="36" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A295" s="34" t="s">
         <v>437</v>
       </c>
@@ -12408,7 +12406,7 @@
       </c>
       <c r="I295" s="35"/>
     </row>
-    <row r="296" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A296" s="34" t="s">
         <v>438</v>
       </c>
@@ -12435,7 +12433,7 @@
       </c>
       <c r="I296" s="35"/>
     </row>
-    <row r="297" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A297" s="34" t="s">
         <v>439</v>
       </c>
@@ -12462,7 +12460,7 @@
       </c>
       <c r="I297" s="35"/>
     </row>
-    <row r="298" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A298" s="34" t="s">
         <v>440</v>
       </c>
@@ -12489,7 +12487,7 @@
       </c>
       <c r="I298" s="35"/>
     </row>
-    <row r="299" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A299" s="34" t="s">
         <v>441</v>
       </c>
@@ -12516,7 +12514,7 @@
       </c>
       <c r="I299" s="35"/>
     </row>
-    <row r="300" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A300" s="34" t="s">
         <v>442</v>
       </c>
@@ -12543,7 +12541,7 @@
       </c>
       <c r="I300" s="35"/>
     </row>
-    <row r="301" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A301" s="34" t="s">
         <v>443</v>
       </c>
@@ -12570,7 +12568,7 @@
       </c>
       <c r="I301" s="35"/>
     </row>
-    <row r="302" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A302" s="34" t="s">
         <v>575</v>
       </c>
@@ -12597,7 +12595,7 @@
       </c>
       <c r="I302" s="35"/>
     </row>
-    <row r="303" spans="1:9" s="36" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A303" s="34" t="s">
         <v>444</v>
       </c>
@@ -12624,7 +12622,7 @@
       </c>
       <c r="I303" s="35"/>
     </row>
-    <row r="304" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A304" s="34" t="s">
         <v>445</v>
       </c>
@@ -12651,7 +12649,7 @@
       </c>
       <c r="I304" s="35"/>
     </row>
-    <row r="305" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A305" s="34" t="s">
         <v>513</v>
       </c>
@@ -12678,7 +12676,7 @@
       </c>
       <c r="I305" s="35"/>
     </row>
-    <row r="306" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A306" s="34" t="s">
         <v>526</v>
       </c>
@@ -12707,7 +12705,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="307" spans="1:9" s="36" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:9" s="36" customFormat="1" ht="75">
       <c r="A307" s="34" t="s">
         <v>331</v>
       </c>
@@ -12736,7 +12734,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="308" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:9" s="36" customFormat="1" ht="60">
       <c r="A308" s="34" t="s">
         <v>491</v>
       </c>
@@ -12763,7 +12761,7 @@
       </c>
       <c r="I308" s="35"/>
     </row>
-    <row r="309" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A309" s="34" t="s">
         <v>492</v>
       </c>
@@ -12790,7 +12788,7 @@
       </c>
       <c r="I309" s="35"/>
     </row>
-    <row r="310" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A310" s="34" t="s">
         <v>493</v>
       </c>
@@ -12817,7 +12815,7 @@
       </c>
       <c r="I310" s="35"/>
     </row>
-    <row r="311" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A311" s="34" t="s">
         <v>494</v>
       </c>
@@ -12844,7 +12842,7 @@
       </c>
       <c r="I311" s="35"/>
     </row>
-    <row r="312" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A312" s="34" t="s">
         <v>495</v>
       </c>
@@ -12871,7 +12869,7 @@
       </c>
       <c r="I312" s="35"/>
     </row>
-    <row r="313" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A313" s="34" t="s">
         <v>496</v>
       </c>
@@ -12898,7 +12896,7 @@
       </c>
       <c r="I313" s="35"/>
     </row>
-    <row r="314" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A314" s="34" t="s">
         <v>911</v>
       </c>
@@ -12925,7 +12923,7 @@
       </c>
       <c r="I314" s="35"/>
     </row>
-    <row r="315" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:9" s="36" customFormat="1" ht="60">
       <c r="A315" s="34" t="s">
         <v>497</v>
       </c>
@@ -12952,7 +12950,7 @@
       </c>
       <c r="I315" s="35"/>
     </row>
-    <row r="316" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A316" s="34" t="s">
         <v>498</v>
       </c>
@@ -12979,7 +12977,7 @@
       </c>
       <c r="I316" s="35"/>
     </row>
-    <row r="317" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A317" s="34" t="s">
         <v>499</v>
       </c>
@@ -13006,7 +13004,7 @@
       </c>
       <c r="I317" s="35"/>
     </row>
-    <row r="318" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A318" s="34" t="s">
         <v>500</v>
       </c>
@@ -13033,7 +13031,7 @@
       </c>
       <c r="I318" s="35"/>
     </row>
-    <row r="319" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A319" s="34" t="s">
         <v>501</v>
       </c>
@@ -13060,7 +13058,7 @@
       </c>
       <c r="I319" s="35"/>
     </row>
-    <row r="320" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A320" s="34" t="s">
         <v>576</v>
       </c>
@@ -13087,7 +13085,7 @@
       </c>
       <c r="I320" s="35"/>
     </row>
-    <row r="321" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:9" s="36" customFormat="1" ht="60">
       <c r="A321" s="34" t="s">
         <v>502</v>
       </c>
@@ -13114,7 +13112,7 @@
       </c>
       <c r="I321" s="35"/>
     </row>
-    <row r="322" spans="1:9" s="36" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:9" s="36" customFormat="1" ht="60">
       <c r="A322" s="34" t="s">
         <v>503</v>
       </c>
@@ -13141,7 +13139,7 @@
       </c>
       <c r="I322" s="35"/>
     </row>
-    <row r="323" spans="1:9" s="36" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:9" s="36" customFormat="1" ht="60">
       <c r="A323" s="34" t="s">
         <v>504</v>
       </c>
@@ -13170,7 +13168,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="324" spans="1:9" s="36" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A324" s="34" t="s">
         <v>332</v>
       </c>
@@ -13199,7 +13197,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="325" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A325" s="34" t="s">
         <v>592</v>
       </c>
@@ -13228,7 +13226,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="326" spans="1:9" s="36" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:9" s="36" customFormat="1" ht="60">
       <c r="A326" s="34" t="s">
         <v>590</v>
       </c>
@@ -13257,7 +13255,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="327" spans="1:9" s="36" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:9" s="36" customFormat="1" ht="60">
       <c r="A327" s="34" t="s">
         <v>591</v>
       </c>
@@ -13286,7 +13284,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="328" spans="1:9" s="36" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:9" s="36" customFormat="1" ht="60">
       <c r="A328" s="34" t="s">
         <v>517</v>
       </c>
@@ -13315,7 +13313,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="329" spans="1:9" s="36" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:9" s="36" customFormat="1" ht="60">
       <c r="A329" s="34" t="s">
         <v>596</v>
       </c>
@@ -13344,7 +13342,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="330" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:9" s="36" customFormat="1" ht="60">
       <c r="A330" s="34" t="s">
         <v>597</v>
       </c>
@@ -13373,7 +13371,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="331" spans="1:9" s="36" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:9" s="36" customFormat="1" ht="60">
       <c r="A331" s="34" t="s">
         <v>598</v>
       </c>
@@ -13402,7 +13400,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="332" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A332" s="34" t="s">
         <v>599</v>
       </c>
@@ -13428,7 +13426,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="333" spans="1:9" s="36" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A333" s="34" t="s">
         <v>541</v>
       </c>
@@ -13457,7 +13455,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="334" spans="1:9" s="36" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:9" s="36" customFormat="1" ht="60">
       <c r="A334" s="34" t="s">
         <v>333</v>
       </c>
@@ -13486,7 +13484,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="335" spans="1:9" s="36" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A335" s="34" t="s">
         <v>901</v>
       </c>
@@ -13515,7 +13513,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="336" spans="1:9" s="36" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:9" s="36" customFormat="1" ht="60">
       <c r="A336" s="34" t="s">
         <v>914</v>
       </c>
@@ -13542,7 +13540,7 @@
       </c>
       <c r="I336" s="35"/>
     </row>
-    <row r="337" spans="1:9" s="36" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A337" s="34" t="s">
         <v>902</v>
       </c>
@@ -13571,7 +13569,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="338" spans="1:9" s="36" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:9" s="36" customFormat="1" ht="60">
       <c r="A338" s="34" t="s">
         <v>915</v>
       </c>
@@ -13598,7 +13596,7 @@
       </c>
       <c r="I338" s="35"/>
     </row>
-    <row r="339" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A339" s="34" t="s">
         <v>618</v>
       </c>
@@ -13627,7 +13625,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="340" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A340" s="34" t="s">
         <v>619</v>
       </c>
@@ -13654,7 +13652,7 @@
       </c>
       <c r="I340" s="35"/>
     </row>
-    <row r="341" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A341" s="34" t="s">
         <v>620</v>
       </c>
@@ -13681,7 +13679,7 @@
       </c>
       <c r="I341" s="35"/>
     </row>
-    <row r="342" spans="1:9" s="36" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:9" s="36" customFormat="1" ht="75">
       <c r="A342" s="34" t="s">
         <v>623</v>
       </c>
@@ -13710,7 +13708,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="343" spans="1:9" s="36" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:9" s="36" customFormat="1" ht="75">
       <c r="A343" s="34" t="s">
         <v>624</v>
       </c>
@@ -13737,7 +13735,7 @@
       </c>
       <c r="I343" s="37"/>
     </row>
-    <row r="344" spans="1:9" s="36" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:9" s="36" customFormat="1" ht="75">
       <c r="A344" s="34" t="s">
         <v>625</v>
       </c>
@@ -13764,7 +13762,7 @@
       </c>
       <c r="I344" s="37"/>
     </row>
-    <row r="345" spans="1:9" s="36" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A345" s="34" t="s">
         <v>321</v>
       </c>
@@ -13793,7 +13791,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="346" spans="1:9" s="36" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A346" s="34" t="s">
         <v>615</v>
       </c>
@@ -13822,7 +13820,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="347" spans="1:9" s="36" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:9" s="36" customFormat="1" ht="60">
       <c r="A347" s="34" t="s">
         <v>323</v>
       </c>
@@ -13851,7 +13849,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="348" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A348" s="34" t="s">
         <v>324</v>
       </c>
@@ -13878,7 +13876,7 @@
       </c>
       <c r="I348" s="35"/>
     </row>
-    <row r="349" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A349" s="34" t="s">
         <v>448</v>
       </c>
@@ -13905,7 +13903,7 @@
       </c>
       <c r="I349" s="35"/>
     </row>
-    <row r="350" spans="1:9" s="36" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A350" s="34" t="s">
         <v>449</v>
       </c>
@@ -13932,7 +13930,7 @@
       </c>
       <c r="I350" s="35"/>
     </row>
-    <row r="351" spans="1:9" s="36" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A351" s="34" t="s">
         <v>450</v>
       </c>
@@ -13959,7 +13957,7 @@
       </c>
       <c r="I351" s="35"/>
     </row>
-    <row r="352" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A352" s="34" t="s">
         <v>451</v>
       </c>
@@ -13986,7 +13984,7 @@
       </c>
       <c r="I352" s="35"/>
     </row>
-    <row r="353" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A353" s="34" t="s">
         <v>452</v>
       </c>
@@ -14013,7 +14011,7 @@
       </c>
       <c r="I353" s="35"/>
     </row>
-    <row r="354" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A354" s="34" t="s">
         <v>453</v>
       </c>
@@ -14040,7 +14038,7 @@
       </c>
       <c r="I354" s="35"/>
     </row>
-    <row r="355" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A355" s="34" t="s">
         <v>454</v>
       </c>
@@ -14067,7 +14065,7 @@
       </c>
       <c r="I355" s="35"/>
     </row>
-    <row r="356" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A356" s="34" t="s">
         <v>455</v>
       </c>
@@ -14094,7 +14092,7 @@
       </c>
       <c r="I356" s="35"/>
     </row>
-    <row r="357" spans="1:9" s="36" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A357" s="34" t="s">
         <v>456</v>
       </c>
@@ -14121,7 +14119,7 @@
       </c>
       <c r="I357" s="35"/>
     </row>
-    <row r="358" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A358" s="38" t="s">
         <v>631</v>
       </c>
@@ -14148,7 +14146,7 @@
       </c>
       <c r="I358" s="35"/>
     </row>
-    <row r="359" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A359" s="38" t="s">
         <v>632</v>
       </c>
@@ -14175,7 +14173,7 @@
       </c>
       <c r="I359" s="35"/>
     </row>
-    <row r="360" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:9" s="36" customFormat="1" ht="60">
       <c r="A360" s="34" t="s">
         <v>457</v>
       </c>
@@ -14202,7 +14200,7 @@
       </c>
       <c r="I360" s="35"/>
     </row>
-    <row r="361" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A361" s="34" t="s">
         <v>458</v>
       </c>
@@ -14229,7 +14227,7 @@
       </c>
       <c r="I361" s="35"/>
     </row>
-    <row r="362" spans="1:9" s="36" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:9" s="36" customFormat="1" ht="60">
       <c r="A362" s="34" t="s">
         <v>527</v>
       </c>
@@ -14258,7 +14256,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="363" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A363" s="34" t="s">
         <v>325</v>
       </c>
@@ -14285,7 +14283,7 @@
       </c>
       <c r="I363" s="35"/>
     </row>
-    <row r="364" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A364" s="34" t="s">
         <v>459</v>
       </c>
@@ -14312,7 +14310,7 @@
       </c>
       <c r="I364" s="35"/>
     </row>
-    <row r="365" spans="1:9" s="36" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A365" s="34" t="s">
         <v>460</v>
       </c>
@@ -14339,7 +14337,7 @@
       </c>
       <c r="I365" s="35"/>
     </row>
-    <row r="366" spans="1:9" s="36" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A366" s="34" t="s">
         <v>461</v>
       </c>
@@ -14366,7 +14364,7 @@
       </c>
       <c r="I366" s="35"/>
     </row>
-    <row r="367" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A367" s="34" t="s">
         <v>462</v>
       </c>
@@ -14393,7 +14391,7 @@
       </c>
       <c r="I367" s="35"/>
     </row>
-    <row r="368" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A368" s="34" t="s">
         <v>463</v>
       </c>
@@ -14420,7 +14418,7 @@
       </c>
       <c r="I368" s="35"/>
     </row>
-    <row r="369" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A369" s="34" t="s">
         <v>464</v>
       </c>
@@ -14447,7 +14445,7 @@
       </c>
       <c r="I369" s="35"/>
     </row>
-    <row r="370" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A370" s="34" t="s">
         <v>465</v>
       </c>
@@ -14474,7 +14472,7 @@
       </c>
       <c r="I370" s="35"/>
     </row>
-    <row r="371" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A371" s="34" t="s">
         <v>466</v>
       </c>
@@ -14501,7 +14499,7 @@
       </c>
       <c r="I371" s="35"/>
     </row>
-    <row r="372" spans="1:9" s="36" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A372" s="34" t="s">
         <v>467</v>
       </c>
@@ -14528,7 +14526,7 @@
       </c>
       <c r="I372" s="35"/>
     </row>
-    <row r="373" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A373" s="34" t="s">
         <v>468</v>
       </c>
@@ -14555,7 +14553,7 @@
       </c>
       <c r="I373" s="35"/>
     </row>
-    <row r="374" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A374" s="34" t="s">
         <v>518</v>
       </c>
@@ -14582,7 +14580,7 @@
       </c>
       <c r="I374" s="35"/>
     </row>
-    <row r="375" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A375" s="34" t="s">
         <v>633</v>
       </c>
@@ -14609,7 +14607,7 @@
       </c>
       <c r="I375" s="35"/>
     </row>
-    <row r="376" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A376" s="34" t="s">
         <v>334</v>
       </c>
@@ -14636,7 +14634,7 @@
       </c>
       <c r="I376" s="37"/>
     </row>
-    <row r="377" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A377" s="34" t="s">
         <v>335</v>
       </c>
@@ -14663,7 +14661,7 @@
       </c>
       <c r="I377" s="37"/>
     </row>
-    <row r="378" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A378" s="34" t="s">
         <v>634</v>
       </c>
@@ -14692,7 +14690,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="379" spans="1:9" s="36" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:9" s="36" customFormat="1" ht="60">
       <c r="A379" s="34" t="s">
         <v>635</v>
       </c>
@@ -14721,7 +14719,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="380" spans="1:9" s="36" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:9" s="36" customFormat="1" ht="45">
       <c r="A380" s="34" t="s">
         <v>636</v>
       </c>
@@ -14748,7 +14746,7 @@
       </c>
       <c r="I380" s="35"/>
     </row>
-    <row r="381" spans="1:9" s="36" customFormat="1" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:9" s="36" customFormat="1" ht="90">
       <c r="A381" s="34" t="s">
         <v>506</v>
       </c>
@@ -14777,7 +14775,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="382" spans="1:9" s="36" customFormat="1" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:9" s="36" customFormat="1" ht="75">
       <c r="A382" s="34" t="s">
         <v>336</v>
       </c>
@@ -14804,7 +14802,7 @@
       </c>
       <c r="I382" s="35"/>
     </row>
-    <row r="383" spans="1:9" s="36" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:9" s="36" customFormat="1" ht="75">
       <c r="A383" s="34" t="s">
         <v>637</v>
       </c>
@@ -14831,7 +14829,7 @@
       </c>
       <c r="I383" s="35"/>
     </row>
-    <row r="384" spans="1:9" s="36" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:9" s="36" customFormat="1" ht="75">
       <c r="A384" s="34" t="s">
         <v>638</v>
       </c>
@@ -14858,7 +14856,7 @@
       </c>
       <c r="I384" s="35"/>
     </row>
-    <row r="385" spans="1:9" s="36" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:9" s="36" customFormat="1" ht="75">
       <c r="A385" s="34" t="s">
         <v>639</v>
       </c>
@@ -14885,7 +14883,7 @@
       </c>
       <c r="I385" s="35"/>
     </row>
-    <row r="386" spans="1:9" s="36" customFormat="1" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:9" s="36" customFormat="1" ht="75">
       <c r="A386" s="34" t="s">
         <v>640</v>
       </c>
@@ -14912,7 +14910,7 @@
       </c>
       <c r="I386" s="35"/>
     </row>
-    <row r="387" spans="1:9" s="36" customFormat="1" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:9" s="36" customFormat="1" ht="75">
       <c r="A387" s="34" t="s">
         <v>641</v>
       </c>
@@ -14939,7 +14937,7 @@
       </c>
       <c r="I387" s="35"/>
     </row>
-    <row r="388" spans="1:9" s="36" customFormat="1" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:9" s="36" customFormat="1" ht="75">
       <c r="A388" s="34" t="s">
         <v>642</v>
       </c>
@@ -14966,7 +14964,7 @@
       </c>
       <c r="I388" s="35"/>
     </row>
-    <row r="389" spans="1:9" s="36" customFormat="1" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:9" s="36" customFormat="1" ht="75">
       <c r="A389" s="34" t="s">
         <v>643</v>
       </c>
@@ -14993,7 +14991,7 @@
       </c>
       <c r="I389" s="35"/>
     </row>
-    <row r="390" spans="1:9" s="36" customFormat="1" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:9" s="36" customFormat="1" ht="75">
       <c r="A390" s="34" t="s">
         <v>644</v>
       </c>
@@ -15020,7 +15018,7 @@
       </c>
       <c r="I390" s="35"/>
     </row>
-    <row r="391" spans="1:9" s="36" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:9" s="36" customFormat="1" ht="75">
       <c r="A391" s="34" t="s">
         <v>645</v>
       </c>
@@ -15047,7 +15045,7 @@
       </c>
       <c r="I391" s="35"/>
     </row>
-    <row r="392" spans="1:9" s="36" customFormat="1" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:9" s="36" customFormat="1" ht="75">
       <c r="A392" s="34" t="s">
         <v>646</v>
       </c>
@@ -15074,7 +15072,7 @@
       </c>
       <c r="I392" s="35"/>
     </row>
-    <row r="393" spans="1:9" s="36" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:9" s="36" customFormat="1" ht="75">
       <c r="A393" s="34" t="s">
         <v>647</v>
       </c>
@@ -15101,7 +15099,7 @@
       </c>
       <c r="I393" s="35"/>
     </row>
-    <row r="394" spans="1:9" s="36" customFormat="1" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:9" s="36" customFormat="1" ht="90">
       <c r="A394" s="34" t="s">
         <v>648</v>
       </c>
@@ -15128,7 +15126,7 @@
       </c>
       <c r="I394" s="35"/>
     </row>
-    <row r="395" spans="1:9" s="36" customFormat="1" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:9" s="36" customFormat="1" ht="90">
       <c r="A395" s="34" t="s">
         <v>649</v>
       </c>
@@ -15155,7 +15153,7 @@
       </c>
       <c r="I395" s="35"/>
     </row>
-    <row r="396" spans="1:9" s="36" customFormat="1" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:9" s="36" customFormat="1" ht="90">
       <c r="A396" s="34" t="s">
         <v>337</v>
       </c>
@@ -15184,7 +15182,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="397" spans="1:9" s="36" customFormat="1" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:9" s="36" customFormat="1" ht="75">
       <c r="A397" s="38" t="s">
         <v>650</v>
       </c>
@@ -15211,7 +15209,7 @@
       </c>
       <c r="I397" s="35"/>
     </row>
-    <row r="398" spans="1:9" s="36" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:9" s="36" customFormat="1" ht="75">
       <c r="A398" s="38" t="s">
         <v>651</v>
       </c>
@@ -15238,7 +15236,7 @@
       </c>
       <c r="I398" s="35"/>
     </row>
-    <row r="399" spans="1:9" s="36" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:9" s="36" customFormat="1" ht="75">
       <c r="A399" s="38" t="s">
         <v>652</v>
       </c>
@@ -15265,7 +15263,7 @@
       </c>
       <c r="I399" s="35"/>
     </row>
-    <row r="400" spans="1:9" s="36" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:9" s="36" customFormat="1" ht="75">
       <c r="A400" s="38" t="s">
         <v>653</v>
       </c>
@@ -15292,7 +15290,7 @@
       </c>
       <c r="I400" s="35"/>
     </row>
-    <row r="401" spans="1:9" s="36" customFormat="1" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:9" s="36" customFormat="1" ht="75">
       <c r="A401" s="38" t="s">
         <v>654</v>
       </c>
@@ -15319,7 +15317,7 @@
       </c>
       <c r="I401" s="35"/>
     </row>
-    <row r="402" spans="1:9" s="36" customFormat="1" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:9" s="36" customFormat="1" ht="75">
       <c r="A402" s="38" t="s">
         <v>655</v>
       </c>
@@ -15346,7 +15344,7 @@
       </c>
       <c r="I402" s="35"/>
     </row>
-    <row r="403" spans="1:9" s="36" customFormat="1" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:9" s="36" customFormat="1" ht="75">
       <c r="A403" s="38" t="s">
         <v>656</v>
       </c>
@@ -15373,7 +15371,7 @@
       </c>
       <c r="I403" s="35"/>
     </row>
-    <row r="404" spans="1:9" s="36" customFormat="1" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:9" s="36" customFormat="1" ht="75">
       <c r="A404" s="38" t="s">
         <v>657</v>
       </c>
@@ -15400,7 +15398,7 @@
       </c>
       <c r="I404" s="35"/>
     </row>
-    <row r="405" spans="1:9" s="36" customFormat="1" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:9" s="36" customFormat="1" ht="75">
       <c r="A405" s="38" t="s">
         <v>658</v>
       </c>
@@ -15427,7 +15425,7 @@
       </c>
       <c r="I405" s="35"/>
     </row>
-    <row r="406" spans="1:9" s="36" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:9" s="36" customFormat="1" ht="75">
       <c r="A406" s="38" t="s">
         <v>659</v>
       </c>
@@ -15454,7 +15452,7 @@
       </c>
       <c r="I406" s="35"/>
     </row>
-    <row r="407" spans="1:9" s="36" customFormat="1" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:9" s="36" customFormat="1" ht="90">
       <c r="A407" s="38" t="s">
         <v>660</v>
       </c>
@@ -15481,7 +15479,7 @@
       </c>
       <c r="I407" s="35"/>
     </row>
-    <row r="408" spans="1:9" s="36" customFormat="1" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:9" s="36" customFormat="1" ht="75">
       <c r="A408" s="38" t="s">
         <v>661</v>
       </c>
@@ -15508,7 +15506,7 @@
       </c>
       <c r="I408" s="35"/>
     </row>
-    <row r="409" spans="1:9" s="36" customFormat="1" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:9" s="36" customFormat="1" ht="75">
       <c r="A409" s="38" t="s">
         <v>662</v>
       </c>
@@ -15538,18 +15536,18 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="12">
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="D12:I15"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B17:I17"/>
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="B8:I8"/>
     <mergeCell ref="B7:I7"/>
     <mergeCell ref="B6:I6"/>
     <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="D12:I15"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B17:I17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C397:C409 F328:F332 F201:F241 F307:F325 B347:B375 F263:F289 F334:F395">
@@ -16066,12 +16064,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -16120,6 +16112,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
   <ds:schemaRefs>
@@ -16129,20 +16127,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16155,4 +16139,18 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SharePoint/Docs/MS-VERSS/MS-VERSS_RequirementSpecification.xlsx
+++ b/SharePoint/Docs/MS-VERSS/MS-VERSS_RequirementSpecification.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Interop-TestSuites-1\SharePoint\Docs\MS-VERSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D59160B-EE23-4E29-9FB4-89471466D207}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB244F0B-4AAA-495E-B076-D08F74A068D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -492,9 +492,6 @@
   </si>
   <si>
     <t>MS-VERSS_R71</t>
-  </si>
-  <si>
-    <t>[In Protocol Details] This protocol allows protocol servers to provide additional details for SOAP faults by including either a detail element as specified in [SOAP1.1] section 4.4 or a Detail element as specified in [SOAP1.2/1] section 5.4.5.</t>
   </si>
   <si>
     <t>MS-VERSS_R72</t>
@@ -3151,9 +3148,6 @@
     <t>[In Appendix B: Product Behavior] Implementation does return a SOAP exception. (&lt;4&gt; Section 3.1.4.1.2.2:  [Windows SharePoint Services truncates all characters after the first "?" in the file name. ] If the truncated file name does not exist on the server, SharePoint Foundation 2010, SharePoint Foundation 2013 and SharePoint Server 2016 returns a SOAP server exception.)</t>
   </si>
   <si>
-    <t>[In Appendix B: Product Behavior] Implementation does not return an error to indicate that the tab (\t) character is at the end of the fileName. (&lt;4&gt; Section 3.1.4.1.2.2: The tab (\t) character is ignored at the end of the fileName on Windows SharePoint Services 3.0, SharePoint Foundation 2010, and SharePoint Foundation 2013.)</t>
-  </si>
-  <si>
     <t>[In Appendix B: Product Behavior] Implementation does return a SOAP exception without an error code if fileName contains equals sign (=). (&lt;4&gt; Section 3.1.4.1.2.2: If fileName contains equals sign (=), SharePoint Foundation 2010, SharePoint Foundation 2013 and SharePoint Server 2016 return a SOAP exception without an error code.)</t>
   </si>
   <si>
@@ -3200,6 +3194,12 @@
   </si>
   <si>
     <t>[In Appendix B: Product Behavior] Unless otherwise specified, the term "MAY" implies that the product does not follow the prescription.</t>
+  </si>
+  <si>
+    <t>[In Protocol Details] This protocol allows protocol servers to provide additional details for SOAP faults by including either a detail element as specified in [SOAP1.1] section 4.4 or a Detail element as specified in [SOAP1.2-1/2007] section 5.4.5.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does not return an error to indicate that the tab (\t) character is at the end of the fileName. (&lt;4&gt; Section 3.1.4.1.2.2: The tab (\t) character is ignored at the end of the fileName on Windows SharePoint Services 3.0, SharePoint Foundation 2010, SharePoint Foundation 2013 and SharePoint Server 2016.)</t>
   </si>
 </sst>
 </file>
@@ -3509,6 +3509,30 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3545,35 +3569,266 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="141">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4250,261 +4505,6 @@
         <strike/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4610,34 +4610,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Requirement" displayName="Requirement" ref="A19:I411" tableType="xml" totalsRowShown="0" dataDxfId="140">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Requirement" displayName="Requirement" ref="A19:I411" tableType="xml" totalsRowShown="0" dataDxfId="16">
   <autoFilter ref="A19:I411" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="139">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="15">
       <xmlColumnPr mapId="14" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="138">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="14">
       <xmlColumnPr mapId="14" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="ns1:Description" name="Description" dataDxfId="137">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="ns1:Description" name="Description" dataDxfId="13">
       <xmlColumnPr mapId="14" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="ns1:Derived" name="Derived" dataDxfId="136">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="ns1:Derived" name="Derived" dataDxfId="12">
       <xmlColumnPr mapId="14" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="135">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="11">
       <xmlColumnPr mapId="14" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="ns1:Scope" name="Scope" dataDxfId="134">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="ns1:Scope" name="Scope" dataDxfId="10">
       <xmlColumnPr mapId="14" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="133">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="9">
       <xmlColumnPr mapId="14" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="ns1:Verification" name="Verification" dataDxfId="132">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="ns1:Verification" name="Verification" dataDxfId="8">
       <xmlColumnPr mapId="14" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="131">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="7">
       <xmlColumnPr mapId="14" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -4646,12 +4646,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="130" headerRowBorderDxfId="129" tableBorderDxfId="128" totalsRowBorderDxfId="127">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="A12:C15" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Scope" dataDxfId="126"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Test" dataDxfId="125"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="124"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Scope" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Test" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4981,8 +4981,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L411"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A333" sqref="A333:A334"/>
+    <sheetView tabSelected="1" topLeftCell="A280" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C286" sqref="C286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5001,16 +5001,16 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="9" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="9" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="16"/>
@@ -5023,13 +5023,13 @@
     </row>
     <row r="3" spans="1:10">
       <c r="B3" s="7" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C3" s="24">
         <v>8</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="F3" s="39">
         <v>43634</v>
@@ -5039,126 +5039,126 @@
       <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:10" ht="20.25">
-      <c r="A4" s="55" t="s">
-        <v>534</v>
-      </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
+      <c r="A4" s="43" t="s">
+        <v>533</v>
+      </c>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
       <c r="J5" s="25"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="57" t="s">
-        <v>555</v>
-      </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
+      <c r="B6" s="45" t="s">
+        <v>554</v>
+      </c>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
       <c r="J6" s="25"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="56" t="s">
-        <v>556</v>
-      </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
+      <c r="B7" s="44" t="s">
+        <v>555</v>
+      </c>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
       <c r="J7" s="25"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="56" t="s">
-        <v>535</v>
-      </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
+      <c r="B8" s="44" t="s">
+        <v>534</v>
+      </c>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
       <c r="J8" s="25"/>
     </row>
     <row r="9" spans="1:10" ht="78" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="52" t="s">
-        <v>557</v>
-      </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="54"/>
+      <c r="B9" s="40" t="s">
+        <v>556</v>
+      </c>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="42"/>
       <c r="J9" s="25"/>
     </row>
     <row r="10" spans="1:10" ht="35.25" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="40" t="s">
-        <v>558</v>
-      </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="42"/>
+      <c r="B10" s="48" t="s">
+        <v>557</v>
+      </c>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="50"/>
       <c r="J10" s="25"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="43" t="s">
-        <v>559</v>
-      </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
+      <c r="B11" s="51" t="s">
+        <v>558</v>
+      </c>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
       <c r="J11" s="25"/>
     </row>
     <row r="12" spans="1:10">
@@ -5166,17 +5166,17 @@
         <v>9</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C12" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
       <c r="J12" s="25"/>
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1">
@@ -5189,12 +5189,12 @@
       <c r="C13" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
       <c r="J13" s="25"/>
     </row>
     <row r="14" spans="1:10">
@@ -5205,14 +5205,14 @@
         <v>12</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>561</v>
-      </c>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
+        <v>560</v>
+      </c>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
       <c r="J14" s="25"/>
     </row>
     <row r="15" spans="1:10">
@@ -5223,62 +5223,62 @@
         <v>10</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>562</v>
-      </c>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
+        <v>561</v>
+      </c>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
       <c r="J15" s="25"/>
     </row>
     <row r="16" spans="1:10" ht="36.75" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>546</v>
-      </c>
-      <c r="B16" s="47" t="s">
-        <v>564</v>
-      </c>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
+        <v>545</v>
+      </c>
+      <c r="B16" s="55" t="s">
+        <v>563</v>
+      </c>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
       <c r="J16" s="25"/>
     </row>
     <row r="17" spans="1:12" ht="95.25" customHeight="1">
       <c r="A17" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="49" t="s">
-        <v>565</v>
-      </c>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="51"/>
+      <c r="B17" s="57" t="s">
+        <v>564</v>
+      </c>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="59"/>
       <c r="J17" s="25"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="43" t="s">
-        <v>563</v>
-      </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
+      <c r="B18" s="51" t="s">
+        <v>562</v>
+      </c>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
       <c r="J18" s="25"/>
       <c r="L18" s="3"/>
     </row>
@@ -5319,7 +5319,7 @@
         <v>27</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="11" t="s">
@@ -5344,7 +5344,7 @@
         <v>27</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="11" t="s">
@@ -5369,7 +5369,7 @@
         <v>27</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="11" t="s">
@@ -5460,7 +5460,7 @@
         <v>18</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="26" spans="1:12" s="12" customFormat="1" ht="45">
@@ -5471,7 +5471,7 @@
         <v>22</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D26" s="17" t="s">
         <v>37</v>
@@ -5489,7 +5489,7 @@
         <v>24</v>
       </c>
       <c r="I26" s="17" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="27" spans="1:12" s="12" customFormat="1" ht="30">
@@ -5500,7 +5500,7 @@
         <v>22</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="11" t="s">
@@ -5519,16 +5519,16 @@
     </row>
     <row r="28" spans="1:12" s="12" customFormat="1">
       <c r="A28" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B28" s="17" t="s">
         <v>22</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>20</v>
@@ -5546,16 +5546,16 @@
     </row>
     <row r="29" spans="1:12" s="12" customFormat="1" ht="30">
       <c r="A29" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B29" s="17" t="s">
         <v>22</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>20</v>
@@ -5579,7 +5579,7 @@
         <v>22</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D30" s="17"/>
       <c r="E30" s="11" t="s">
@@ -5598,16 +5598,16 @@
     </row>
     <row r="31" spans="1:12" s="12" customFormat="1" ht="30">
       <c r="A31" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B31" s="17" t="s">
         <v>22</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>20</v>
@@ -5625,16 +5625,16 @@
     </row>
     <row r="32" spans="1:12" s="12" customFormat="1" ht="30">
       <c r="A32" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B32" s="17" t="s">
         <v>22</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>20</v>
@@ -5652,16 +5652,16 @@
     </row>
     <row r="33" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A33" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B33" s="17" t="s">
         <v>22</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>20</v>
@@ -5710,7 +5710,7 @@
         <v>41</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D35" s="17"/>
       <c r="E35" s="11" t="s">
@@ -5760,7 +5760,7 @@
         <v>45</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D37" s="17"/>
       <c r="E37" s="11" t="s">
@@ -5910,7 +5910,7 @@
         <v>45</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D43" s="17"/>
       <c r="E43" s="11" t="s">
@@ -6060,7 +6060,7 @@
         <v>71</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D49" s="17"/>
       <c r="E49" s="11" t="s">
@@ -6085,7 +6085,7 @@
         <v>71</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D50" s="17"/>
       <c r="E50" s="11" t="s">
@@ -6185,7 +6185,7 @@
         <v>78</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D54" s="17"/>
       <c r="E54" s="11" t="s">
@@ -6210,7 +6210,7 @@
         <v>78</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D55" s="17"/>
       <c r="E55" s="11" t="s">
@@ -6260,7 +6260,7 @@
         <v>78</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D57" s="17"/>
       <c r="E57" s="11" t="s">
@@ -6304,13 +6304,13 @@
     </row>
     <row r="59" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A59" s="11" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B59" s="17" t="s">
         <v>86</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D59" s="17"/>
       <c r="E59" s="11" t="s">
@@ -6335,7 +6335,7 @@
         <v>86</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D60" s="17"/>
       <c r="E60" s="11" t="s">
@@ -6360,7 +6360,7 @@
         <v>90</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D61" s="17"/>
       <c r="E61" s="11" t="s">
@@ -6385,7 +6385,7 @@
         <v>90</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D62" s="17"/>
       <c r="E62" s="11" t="s">
@@ -6410,7 +6410,7 @@
         <v>90</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D63" s="17"/>
       <c r="E63" s="11" t="s">
@@ -6435,7 +6435,7 @@
         <v>90</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D64" s="17"/>
       <c r="E64" s="11" t="s">
@@ -6460,7 +6460,7 @@
         <v>90</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D65" s="17"/>
       <c r="E65" s="11" t="s">
@@ -6485,7 +6485,7 @@
         <v>95</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D66" s="17"/>
       <c r="E66" s="11" t="s">
@@ -6510,7 +6510,7 @@
         <v>95</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D67" s="17"/>
       <c r="E67" s="11" t="s">
@@ -6535,7 +6535,7 @@
         <v>95</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D68" s="17"/>
       <c r="E68" s="11" t="s">
@@ -6610,7 +6610,7 @@
         <v>95</v>
       </c>
       <c r="C71" s="18" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D71" s="17"/>
       <c r="E71" s="11" t="s">
@@ -6685,7 +6685,7 @@
         <v>95</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D74" s="17"/>
       <c r="E74" s="11" t="s">
@@ -6735,7 +6735,7 @@
         <v>95</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D76" s="17"/>
       <c r="E76" s="11" t="s">
@@ -6810,7 +6810,7 @@
         <v>95</v>
       </c>
       <c r="C79" s="18" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D79" s="17"/>
       <c r="E79" s="11" t="s">
@@ -6835,7 +6835,7 @@
         <v>117</v>
       </c>
       <c r="C80" s="18" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D80" s="17"/>
       <c r="E80" s="11" t="s">
@@ -6910,7 +6910,7 @@
         <v>123</v>
       </c>
       <c r="C83" s="18" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D83" s="17"/>
       <c r="E83" s="11" t="s">
@@ -6935,7 +6935,7 @@
         <v>123</v>
       </c>
       <c r="C84" s="18" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D84" s="17"/>
       <c r="E84" s="11" t="s">
@@ -6985,7 +6985,7 @@
         <v>123</v>
       </c>
       <c r="C86" s="18" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D86" s="17"/>
       <c r="E86" s="11" t="s">
@@ -7010,7 +7010,7 @@
         <v>123</v>
       </c>
       <c r="C87" s="18" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D87" s="17"/>
       <c r="E87" s="11" t="s">
@@ -7029,13 +7029,13 @@
     </row>
     <row r="88" spans="1:9" s="12" customFormat="1" ht="45">
       <c r="A88" s="11" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B88" s="17" t="s">
         <v>123</v>
       </c>
       <c r="C88" s="18" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D88" s="17"/>
       <c r="E88" s="11" t="s">
@@ -7051,7 +7051,7 @@
         <v>18</v>
       </c>
       <c r="I88" s="17" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="89" spans="1:9" s="12" customFormat="1">
@@ -7062,7 +7062,7 @@
         <v>123</v>
       </c>
       <c r="C89" s="18" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D89" s="17"/>
       <c r="E89" s="11" t="s">
@@ -7112,7 +7112,7 @@
         <v>123</v>
       </c>
       <c r="C91" s="18" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D91" s="17"/>
       <c r="E91" s="11" t="s">
@@ -7128,7 +7128,7 @@
         <v>18</v>
       </c>
       <c r="I91" s="17" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="92" spans="1:9" s="12" customFormat="1">
@@ -7139,7 +7139,7 @@
         <v>123</v>
       </c>
       <c r="C92" s="18" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D92" s="17"/>
       <c r="E92" s="11" t="s">
@@ -7164,7 +7164,7 @@
         <v>123</v>
       </c>
       <c r="C93" s="18" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D93" s="17"/>
       <c r="E93" s="11" t="s">
@@ -7189,7 +7189,7 @@
         <v>123</v>
       </c>
       <c r="C94" s="18" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D94" s="17"/>
       <c r="E94" s="11" t="s">
@@ -7214,7 +7214,7 @@
         <v>123</v>
       </c>
       <c r="C95" s="18" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D95" s="17"/>
       <c r="E95" s="11" t="s">
@@ -7239,7 +7239,7 @@
         <v>139</v>
       </c>
       <c r="C96" s="18" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D96" s="17"/>
       <c r="E96" s="11" t="s">
@@ -7264,7 +7264,7 @@
         <v>141</v>
       </c>
       <c r="C97" s="18" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D97" s="17"/>
       <c r="E97" s="11" t="s">
@@ -7289,7 +7289,7 @@
         <v>143</v>
       </c>
       <c r="C98" s="18" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D98" s="17"/>
       <c r="E98" s="11" t="s">
@@ -7314,7 +7314,7 @@
         <v>145</v>
       </c>
       <c r="C99" s="18" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D99" s="17"/>
       <c r="E99" s="11" t="s">
@@ -7389,7 +7389,7 @@
         <v>147</v>
       </c>
       <c r="C102" s="18" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D102" s="17"/>
       <c r="E102" s="11" t="s">
@@ -7439,7 +7439,7 @@
         <v>147</v>
       </c>
       <c r="C104" s="18" t="s">
-        <v>155</v>
+        <v>920</v>
       </c>
       <c r="D104" s="17"/>
       <c r="E104" s="11" t="s">
@@ -7458,13 +7458,13 @@
     </row>
     <row r="105" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A105" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B105" s="17" t="s">
         <v>147</v>
       </c>
       <c r="C105" s="18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D105" s="17"/>
       <c r="E105" s="11" t="s">
@@ -7483,13 +7483,13 @@
     </row>
     <row r="106" spans="1:9" s="12" customFormat="1" ht="45">
       <c r="A106" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B106" s="17" t="s">
         <v>147</v>
       </c>
       <c r="C106" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D106" s="17"/>
       <c r="E106" s="11" t="s">
@@ -7508,13 +7508,13 @@
     </row>
     <row r="107" spans="1:9" s="12" customFormat="1" ht="45">
       <c r="A107" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B107" s="17" t="s">
         <v>147</v>
       </c>
       <c r="C107" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D107" s="17"/>
       <c r="E107" s="11" t="s">
@@ -7533,13 +7533,13 @@
     </row>
     <row r="108" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A108" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B108" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C108" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D108" s="17"/>
       <c r="E108" s="11" t="s">
@@ -7558,13 +7558,13 @@
     </row>
     <row r="109" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A109" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B109" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C109" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D109" s="17"/>
       <c r="E109" s="11" t="s">
@@ -7583,13 +7583,13 @@
     </row>
     <row r="110" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A110" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B110" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C110" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D110" s="17"/>
       <c r="E110" s="11" t="s">
@@ -7608,13 +7608,13 @@
     </row>
     <row r="111" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A111" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B111" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="B111" s="17" t="s">
+      <c r="C111" s="18" t="s">
         <v>168</v>
-      </c>
-      <c r="C111" s="18" t="s">
-        <v>169</v>
       </c>
       <c r="D111" s="17"/>
       <c r="E111" s="11" t="s">
@@ -7633,13 +7633,13 @@
     </row>
     <row r="112" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A112" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="B112" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="C112" s="18" t="s">
         <v>170</v>
-      </c>
-      <c r="B112" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="C112" s="18" t="s">
-        <v>171</v>
       </c>
       <c r="D112" s="17"/>
       <c r="E112" s="11" t="s">
@@ -7658,13 +7658,13 @@
     </row>
     <row r="113" spans="1:9" s="12" customFormat="1" ht="45">
       <c r="A113" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B113" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C113" s="18" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D113" s="17"/>
       <c r="E113" s="11" t="s">
@@ -7683,13 +7683,13 @@
     </row>
     <row r="114" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A114" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B114" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C114" s="18" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D114" s="17"/>
       <c r="E114" s="11" t="s">
@@ -7708,13 +7708,13 @@
     </row>
     <row r="115" spans="1:9" s="12" customFormat="1" ht="45">
       <c r="A115" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="B115" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="B115" s="17" t="s">
-        <v>175</v>
-      </c>
       <c r="C115" s="18" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D115" s="17"/>
       <c r="E115" s="11" t="s">
@@ -7733,13 +7733,13 @@
     </row>
     <row r="116" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A116" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="B116" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C116" s="18" t="s">
         <v>176</v>
-      </c>
-      <c r="B116" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="C116" s="18" t="s">
-        <v>177</v>
       </c>
       <c r="D116" s="17"/>
       <c r="E116" s="11" t="s">
@@ -7758,13 +7758,13 @@
     </row>
     <row r="117" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A117" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="B117" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C117" s="18" t="s">
         <v>178</v>
-      </c>
-      <c r="B117" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="C117" s="18" t="s">
-        <v>179</v>
       </c>
       <c r="D117" s="17"/>
       <c r="E117" s="11" t="s">
@@ -7783,13 +7783,13 @@
     </row>
     <row r="118" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A118" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="B118" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C118" s="18" t="s">
         <v>180</v>
-      </c>
-      <c r="B118" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="C118" s="18" t="s">
-        <v>181</v>
       </c>
       <c r="D118" s="17"/>
       <c r="E118" s="11" t="s">
@@ -7808,13 +7808,13 @@
     </row>
     <row r="119" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A119" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="B119" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C119" s="18" t="s">
         <v>182</v>
-      </c>
-      <c r="B119" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="C119" s="18" t="s">
-        <v>183</v>
       </c>
       <c r="D119" s="17"/>
       <c r="E119" s="11" t="s">
@@ -7833,13 +7833,13 @@
     </row>
     <row r="120" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A120" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B120" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="B120" s="17" t="s">
-        <v>185</v>
-      </c>
       <c r="C120" s="18" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D120" s="17"/>
       <c r="E120" s="11" t="s">
@@ -7858,13 +7858,13 @@
     </row>
     <row r="121" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A121" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B121" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C121" s="18" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D121" s="17"/>
       <c r="E121" s="11" t="s">
@@ -7883,13 +7883,13 @@
     </row>
     <row r="122" spans="1:9" s="12" customFormat="1" ht="75">
       <c r="A122" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B122" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C122" s="18" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D122" s="17"/>
       <c r="E122" s="11" t="s">
@@ -7908,13 +7908,13 @@
     </row>
     <row r="123" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A123" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B123" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="C123" s="18" t="s">
         <v>188</v>
-      </c>
-      <c r="B123" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="C123" s="18" t="s">
-        <v>189</v>
       </c>
       <c r="D123" s="17"/>
       <c r="E123" s="11" t="s">
@@ -7933,13 +7933,13 @@
     </row>
     <row r="124" spans="1:9" s="12" customFormat="1" ht="45">
       <c r="A124" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B124" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C124" s="18" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D124" s="17"/>
       <c r="E124" s="11" t="s">
@@ -7958,13 +7958,13 @@
     </row>
     <row r="125" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A125" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="B125" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="B125" s="17" t="s">
-        <v>192</v>
-      </c>
       <c r="C125" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D125" s="17"/>
       <c r="E125" s="11" t="s">
@@ -7983,13 +7983,13 @@
     </row>
     <row r="126" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A126" s="11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B126" s="17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C126" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D126" s="17"/>
       <c r="E126" s="11" t="s">
@@ -8008,13 +8008,13 @@
     </row>
     <row r="127" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A127" s="11" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B127" s="17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C127" s="18" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D127" s="17"/>
       <c r="E127" s="11" t="s">
@@ -8033,13 +8033,13 @@
     </row>
     <row r="128" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A128" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="B128" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="B128" s="17" t="s">
+      <c r="C128" s="18" t="s">
         <v>194</v>
-      </c>
-      <c r="C128" s="18" t="s">
-        <v>195</v>
       </c>
       <c r="D128" s="17"/>
       <c r="E128" s="11" t="s">
@@ -8058,13 +8058,13 @@
     </row>
     <row r="129" spans="1:9" s="12" customFormat="1" ht="45">
       <c r="A129" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B129" s="17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C129" s="18" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D129" s="17"/>
       <c r="E129" s="11" t="s">
@@ -8083,13 +8083,13 @@
     </row>
     <row r="130" spans="1:9" s="12" customFormat="1">
       <c r="A130" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B130" s="17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C130" s="18" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D130" s="17"/>
       <c r="E130" s="11" t="s">
@@ -8108,13 +8108,13 @@
     </row>
     <row r="131" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A131" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="B131" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="B131" s="17" t="s">
-        <v>199</v>
-      </c>
       <c r="C131" s="18" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D131" s="17"/>
       <c r="E131" s="11" t="s">
@@ -8133,13 +8133,13 @@
     </row>
     <row r="132" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A132" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B132" s="17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C132" s="18" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D132" s="17"/>
       <c r="E132" s="11" t="s">
@@ -8158,13 +8158,13 @@
     </row>
     <row r="133" spans="1:9" s="12" customFormat="1" ht="45">
       <c r="A133" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B133" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="B133" s="17" t="s">
-        <v>202</v>
-      </c>
       <c r="C133" s="18" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D133" s="17"/>
       <c r="E133" s="11" t="s">
@@ -8183,13 +8183,13 @@
     </row>
     <row r="134" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A134" s="11" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B134" s="17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C134" s="18" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D134" s="17"/>
       <c r="E134" s="11" t="s">
@@ -8208,13 +8208,13 @@
     </row>
     <row r="135" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A135" s="11" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B135" s="17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C135" s="18" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D135" s="17"/>
       <c r="E135" s="11" t="s">
@@ -8233,13 +8233,13 @@
     </row>
     <row r="136" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A136" s="11" t="s">
+        <v>843</v>
+      </c>
+      <c r="B136" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="C136" s="22" t="s">
         <v>844</v>
-      </c>
-      <c r="B136" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="C136" s="22" t="s">
-        <v>845</v>
       </c>
       <c r="D136" s="17"/>
       <c r="E136" s="11" t="s">
@@ -8258,13 +8258,13 @@
     </row>
     <row r="137" spans="1:9" s="12" customFormat="1" ht="120">
       <c r="A137" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B137" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="B137" s="17" t="s">
-        <v>204</v>
-      </c>
       <c r="C137" s="18" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D137" s="17"/>
       <c r="E137" s="11" t="s">
@@ -8283,13 +8283,13 @@
     </row>
     <row r="138" spans="1:9" s="12" customFormat="1">
       <c r="A138" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B138" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C138" s="18" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D138" s="17"/>
       <c r="E138" s="11" t="s">
@@ -8308,13 +8308,13 @@
     </row>
     <row r="139" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A139" s="11" t="s">
+        <v>845</v>
+      </c>
+      <c r="B139" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="C139" s="22" t="s">
         <v>846</v>
-      </c>
-      <c r="B139" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="C139" s="22" t="s">
-        <v>847</v>
       </c>
       <c r="D139" s="17"/>
       <c r="E139" s="11" t="s">
@@ -8333,13 +8333,13 @@
     </row>
     <row r="140" spans="1:9" s="12" customFormat="1" ht="225">
       <c r="A140" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="B140" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="B140" s="17" t="s">
-        <v>207</v>
-      </c>
       <c r="C140" s="18" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D140" s="17"/>
       <c r="E140" s="11" t="s">
@@ -8358,13 +8358,13 @@
     </row>
     <row r="141" spans="1:9" s="12" customFormat="1" ht="45">
       <c r="A141" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B141" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C141" s="19" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D141" s="17"/>
       <c r="E141" s="11" t="s">
@@ -8383,13 +8383,13 @@
     </row>
     <row r="142" spans="1:9" s="12" customFormat="1" ht="45">
       <c r="A142" s="11" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B142" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C142" s="18" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D142" s="17"/>
       <c r="E142" s="11" t="s">
@@ -8408,13 +8408,13 @@
     </row>
     <row r="143" spans="1:9" s="12" customFormat="1" ht="75">
       <c r="A143" s="11" t="s">
+        <v>575</v>
+      </c>
+      <c r="B143" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="C143" s="18" t="s">
         <v>576</v>
-      </c>
-      <c r="B143" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="C143" s="18" t="s">
-        <v>577</v>
       </c>
       <c r="D143" s="17"/>
       <c r="E143" s="11" t="s">
@@ -8427,21 +8427,21 @@
         <v>16</v>
       </c>
       <c r="H143" s="11" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="I143" s="17" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="144" spans="1:9" s="12" customFormat="1" ht="195">
       <c r="A144" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B144" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C144" s="20" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D144" s="17"/>
       <c r="E144" s="11" t="s">
@@ -8457,18 +8457,18 @@
         <v>18</v>
       </c>
       <c r="I144" s="17" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="145" spans="1:9" s="12" customFormat="1" ht="75">
       <c r="A145" s="11" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B145" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C145" s="18" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D145" s="17"/>
       <c r="E145" s="11" t="s">
@@ -8487,13 +8487,13 @@
     </row>
     <row r="146" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A146" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="B146" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="B146" s="17" t="s">
-        <v>213</v>
-      </c>
       <c r="C146" s="18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D146" s="17"/>
       <c r="E146" s="11" t="s">
@@ -8512,13 +8512,13 @@
     </row>
     <row r="147" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A147" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B147" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C147" s="18" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D147" s="17"/>
       <c r="E147" s="11" t="s">
@@ -8537,13 +8537,13 @@
     </row>
     <row r="148" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A148" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B148" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C148" s="18" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D148" s="17"/>
       <c r="E148" s="11" t="s">
@@ -8562,13 +8562,13 @@
     </row>
     <row r="149" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A149" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B149" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C149" s="18" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D149" s="17"/>
       <c r="E149" s="11" t="s">
@@ -8587,13 +8587,13 @@
     </row>
     <row r="150" spans="1:9" s="12" customFormat="1" ht="75">
       <c r="A150" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B150" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C150" s="18" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D150" s="17"/>
       <c r="E150" s="11" t="s">
@@ -8612,13 +8612,13 @@
     </row>
     <row r="151" spans="1:9" s="12" customFormat="1">
       <c r="A151" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="B151" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="C151" s="18" t="s">
         <v>218</v>
-      </c>
-      <c r="B151" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="C151" s="18" t="s">
-        <v>219</v>
       </c>
       <c r="D151" s="17"/>
       <c r="E151" s="11" t="s">
@@ -8637,13 +8637,13 @@
     </row>
     <row r="152" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A152" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B152" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C152" s="18" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D152" s="17"/>
       <c r="E152" s="11" t="s">
@@ -8662,13 +8662,13 @@
     </row>
     <row r="153" spans="1:9" s="12" customFormat="1" ht="45">
       <c r="A153" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="B153" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="B153" s="17" t="s">
-        <v>222</v>
-      </c>
       <c r="C153" s="18" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D153" s="17"/>
       <c r="E153" s="11" t="s">
@@ -8687,13 +8687,13 @@
     </row>
     <row r="154" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A154" s="11" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B154" s="17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C154" s="22" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D154" s="17"/>
       <c r="E154" s="11" t="s">
@@ -8712,13 +8712,13 @@
     </row>
     <row r="155" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A155" s="11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B155" s="17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C155" s="22" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D155" s="17"/>
       <c r="E155" s="11" t="s">
@@ -8737,13 +8737,13 @@
     </row>
     <row r="156" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A156" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="B156" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="B156" s="17" t="s">
+      <c r="C156" s="18" t="s">
         <v>224</v>
-      </c>
-      <c r="C156" s="18" t="s">
-        <v>225</v>
       </c>
       <c r="D156" s="17"/>
       <c r="E156" s="11" t="s">
@@ -8762,13 +8762,13 @@
     </row>
     <row r="157" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A157" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B157" s="17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C157" s="18" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D157" s="17"/>
       <c r="E157" s="11" t="s">
@@ -8787,13 +8787,13 @@
     </row>
     <row r="158" spans="1:9" s="12" customFormat="1">
       <c r="A158" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="B158" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="C158" s="18" t="s">
         <v>227</v>
-      </c>
-      <c r="B158" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="C158" s="18" t="s">
-        <v>228</v>
       </c>
       <c r="D158" s="17"/>
       <c r="E158" s="11" t="s">
@@ -8812,13 +8812,13 @@
     </row>
     <row r="159" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A159" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="B159" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="B159" s="17" t="s">
+      <c r="C159" s="18" t="s">
         <v>230</v>
-      </c>
-      <c r="C159" s="18" t="s">
-        <v>231</v>
       </c>
       <c r="D159" s="17"/>
       <c r="E159" s="11" t="s">
@@ -8837,13 +8837,13 @@
     </row>
     <row r="160" spans="1:9" s="12" customFormat="1">
       <c r="A160" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="B160" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="C160" s="18" t="s">
         <v>232</v>
-      </c>
-      <c r="B160" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="C160" s="18" t="s">
-        <v>233</v>
       </c>
       <c r="D160" s="17"/>
       <c r="E160" s="11" t="s">
@@ -8862,13 +8862,13 @@
     </row>
     <row r="161" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A161" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="B161" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="B161" s="17" t="s">
-        <v>235</v>
-      </c>
       <c r="C161" s="18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D161" s="17"/>
       <c r="E161" s="11" t="s">
@@ -8887,13 +8887,13 @@
     </row>
     <row r="162" spans="1:9" s="12" customFormat="1">
       <c r="A162" s="11" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B162" s="17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C162" s="18" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D162" s="17"/>
       <c r="E162" s="11" t="s">
@@ -8912,13 +8912,13 @@
     </row>
     <row r="163" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A163" s="11" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B163" s="17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C163" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D163" s="17"/>
       <c r="E163" s="11" t="s">
@@ -8937,13 +8937,13 @@
     </row>
     <row r="164" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A164" s="11" t="s">
+        <v>851</v>
+      </c>
+      <c r="B164" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="C164" s="22" t="s">
         <v>852</v>
-      </c>
-      <c r="B164" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="C164" s="22" t="s">
-        <v>853</v>
       </c>
       <c r="D164" s="17"/>
       <c r="E164" s="11" t="s">
@@ -8962,13 +8962,13 @@
     </row>
     <row r="165" spans="1:9" s="12" customFormat="1" ht="135">
       <c r="A165" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="B165" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="B165" s="17" t="s">
-        <v>237</v>
-      </c>
       <c r="C165" s="18" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D165" s="17"/>
       <c r="E165" s="11" t="s">
@@ -8987,13 +8987,13 @@
     </row>
     <row r="166" spans="1:9" s="12" customFormat="1">
       <c r="A166" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B166" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C166" s="18" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D166" s="17"/>
       <c r="E166" s="11" t="s">
@@ -9012,13 +9012,13 @@
     </row>
     <row r="167" spans="1:9" s="12" customFormat="1">
       <c r="A167" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B167" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C167" s="18" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D167" s="17"/>
       <c r="E167" s="11" t="s">
@@ -9037,13 +9037,13 @@
     </row>
     <row r="168" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A168" s="11" t="s">
+        <v>853</v>
+      </c>
+      <c r="B168" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="C168" s="22" t="s">
         <v>854</v>
-      </c>
-      <c r="B168" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="C168" s="22" t="s">
-        <v>855</v>
       </c>
       <c r="D168" s="17"/>
       <c r="E168" s="11" t="s">
@@ -9062,13 +9062,13 @@
     </row>
     <row r="169" spans="1:9" s="12" customFormat="1" ht="210">
       <c r="A169" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="B169" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="B169" s="17" t="s">
-        <v>241</v>
-      </c>
       <c r="C169" s="18" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D169" s="17"/>
       <c r="E169" s="11" t="s">
@@ -9087,13 +9087,13 @@
     </row>
     <row r="170" spans="1:9" s="12" customFormat="1" ht="45">
       <c r="A170" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B170" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C170" s="19" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D170" s="17"/>
       <c r="E170" s="11" t="s">
@@ -9112,13 +9112,13 @@
     </row>
     <row r="171" spans="1:9" s="12" customFormat="1" ht="45">
       <c r="A171" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B171" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C171" s="18" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D171" s="17"/>
       <c r="E171" s="11" t="s">
@@ -9137,13 +9137,13 @@
     </row>
     <row r="172" spans="1:9" s="12" customFormat="1" ht="90">
       <c r="A172" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B172" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C172" s="19" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D172" s="17"/>
       <c r="E172" s="11" t="s">
@@ -9162,13 +9162,13 @@
     </row>
     <row r="173" spans="1:9" s="12" customFormat="1" ht="210">
       <c r="A173" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B173" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C173" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D173" s="17"/>
       <c r="E173" s="11" t="s">
@@ -9184,18 +9184,18 @@
         <v>18</v>
       </c>
       <c r="I173" s="17" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="174" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A174" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="B174" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="C174" s="18" t="s">
         <v>246</v>
-      </c>
-      <c r="B174" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="C174" s="18" t="s">
-        <v>247</v>
       </c>
       <c r="D174" s="17"/>
       <c r="E174" s="11" t="s">
@@ -9214,13 +9214,13 @@
     </row>
     <row r="175" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A175" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="B175" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="C175" s="18" t="s">
         <v>248</v>
-      </c>
-      <c r="B175" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="C175" s="18" t="s">
-        <v>249</v>
       </c>
       <c r="D175" s="17"/>
       <c r="E175" s="11" t="s">
@@ -9239,13 +9239,13 @@
     </row>
     <row r="176" spans="1:9" s="12" customFormat="1" ht="60">
       <c r="A176" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B176" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C176" s="18" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D176" s="17"/>
       <c r="E176" s="11" t="s">
@@ -9261,18 +9261,18 @@
         <v>18</v>
       </c>
       <c r="I176" s="17" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="177" spans="1:9" s="12" customFormat="1" ht="45">
       <c r="A177" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B177" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C177" s="18" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D177" s="17"/>
       <c r="E177" s="11" t="s">
@@ -9288,18 +9288,18 @@
         <v>18</v>
       </c>
       <c r="I177" s="17" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="178" spans="1:9" s="12" customFormat="1" ht="45">
       <c r="A178" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B178" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C178" s="18" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D178" s="17"/>
       <c r="E178" s="11" t="s">
@@ -9315,18 +9315,18 @@
         <v>18</v>
       </c>
       <c r="I178" s="17" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="179" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A179" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="B179" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="B179" s="17" t="s">
-        <v>254</v>
-      </c>
       <c r="C179" s="18" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D179" s="17"/>
       <c r="E179" s="11" t="s">
@@ -9345,13 +9345,13 @@
     </row>
     <row r="180" spans="1:9" s="12" customFormat="1" ht="75">
       <c r="A180" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B180" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C180" s="18" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D180" s="17"/>
       <c r="E180" s="11" t="s">
@@ -9370,13 +9370,13 @@
     </row>
     <row r="181" spans="1:9" s="12" customFormat="1">
       <c r="A181" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="B181" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="C181" s="18" t="s">
         <v>256</v>
-      </c>
-      <c r="B181" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="C181" s="18" t="s">
-        <v>257</v>
       </c>
       <c r="D181" s="17"/>
       <c r="E181" s="11" t="s">
@@ -9395,13 +9395,13 @@
     </row>
     <row r="182" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A182" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B182" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C182" s="18" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D182" s="17"/>
       <c r="E182" s="11" t="s">
@@ -9420,13 +9420,13 @@
     </row>
     <row r="183" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A183" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="B183" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="B183" s="17" t="s">
-        <v>260</v>
-      </c>
       <c r="C183" s="18" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D183" s="17"/>
       <c r="E183" s="11" t="s">
@@ -9445,13 +9445,13 @@
     </row>
     <row r="184" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A184" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B184" s="17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C184" s="22" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D184" s="17"/>
       <c r="E184" s="11" t="s">
@@ -9470,13 +9470,13 @@
     </row>
     <row r="185" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A185" s="11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B185" s="17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C185" s="22" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D185" s="17"/>
       <c r="E185" s="11" t="s">
@@ -9495,13 +9495,13 @@
     </row>
     <row r="186" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A186" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="B186" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="B186" s="17" t="s">
+      <c r="C186" s="18" t="s">
         <v>262</v>
-      </c>
-      <c r="C186" s="18" t="s">
-        <v>263</v>
       </c>
       <c r="D186" s="17"/>
       <c r="E186" s="11" t="s">
@@ -9520,13 +9520,13 @@
     </row>
     <row r="187" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A187" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B187" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C187" s="18" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D187" s="17"/>
       <c r="E187" s="11" t="s">
@@ -9545,13 +9545,13 @@
     </row>
     <row r="188" spans="1:9" s="12" customFormat="1">
       <c r="A188" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="B188" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="C188" s="18" t="s">
         <v>265</v>
-      </c>
-      <c r="B188" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="C188" s="18" t="s">
-        <v>266</v>
       </c>
       <c r="D188" s="17"/>
       <c r="E188" s="11" t="s">
@@ -9570,13 +9570,13 @@
     </row>
     <row r="189" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A189" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="B189" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="B189" s="17" t="s">
+      <c r="C189" s="18" t="s">
         <v>268</v>
-      </c>
-      <c r="C189" s="18" t="s">
-        <v>269</v>
       </c>
       <c r="D189" s="17"/>
       <c r="E189" s="11" t="s">
@@ -9595,13 +9595,13 @@
     </row>
     <row r="190" spans="1:9" s="12" customFormat="1">
       <c r="A190" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="B190" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="C190" s="18" t="s">
         <v>270</v>
-      </c>
-      <c r="B190" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="C190" s="18" t="s">
-        <v>271</v>
       </c>
       <c r="D190" s="17"/>
       <c r="E190" s="11" t="s">
@@ -9620,13 +9620,13 @@
     </row>
     <row r="191" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A191" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="B191" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="B191" s="17" t="s">
-        <v>273</v>
-      </c>
       <c r="C191" s="18" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D191" s="17"/>
       <c r="E191" s="11" t="s">
@@ -9645,13 +9645,13 @@
     </row>
     <row r="192" spans="1:9" s="12" customFormat="1">
       <c r="A192" s="11" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B192" s="17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C192" s="22" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D192" s="17"/>
       <c r="E192" s="11" t="s">
@@ -9670,13 +9670,13 @@
     </row>
     <row r="193" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A193" s="11" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B193" s="17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C193" s="22" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D193" s="17"/>
       <c r="E193" s="11" t="s">
@@ -9695,13 +9695,13 @@
     </row>
     <row r="194" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A194" s="11" t="s">
+        <v>861</v>
+      </c>
+      <c r="B194" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="C194" s="22" t="s">
         <v>862</v>
-      </c>
-      <c r="B194" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="C194" s="22" t="s">
-        <v>863</v>
       </c>
       <c r="D194" s="17"/>
       <c r="E194" s="11" t="s">
@@ -9720,13 +9720,13 @@
     </row>
     <row r="195" spans="1:9" s="12" customFormat="1" ht="120">
       <c r="A195" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="B195" s="17" t="s">
         <v>274</v>
       </c>
-      <c r="B195" s="17" t="s">
-        <v>275</v>
-      </c>
       <c r="C195" s="18" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D195" s="17"/>
       <c r="E195" s="11" t="s">
@@ -9745,13 +9745,13 @@
     </row>
     <row r="196" spans="1:9" s="12" customFormat="1">
       <c r="A196" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B196" s="17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C196" s="18" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D196" s="17"/>
       <c r="E196" s="11" t="s">
@@ -9770,13 +9770,13 @@
     </row>
     <row r="197" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A197" s="11" t="s">
+        <v>863</v>
+      </c>
+      <c r="B197" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="C197" s="22" t="s">
         <v>864</v>
-      </c>
-      <c r="B197" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="C197" s="22" t="s">
-        <v>865</v>
       </c>
       <c r="D197" s="17"/>
       <c r="E197" s="11" t="s">
@@ -9795,13 +9795,13 @@
     </row>
     <row r="198" spans="1:9" s="12" customFormat="1" ht="210">
       <c r="A198" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="B198" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="B198" s="17" t="s">
-        <v>278</v>
-      </c>
       <c r="C198" s="18" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D198" s="17"/>
       <c r="E198" s="11" t="s">
@@ -9820,13 +9820,13 @@
     </row>
     <row r="199" spans="1:9" s="12" customFormat="1" ht="45">
       <c r="A199" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B199" s="17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C199" s="21" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D199" s="17"/>
       <c r="E199" s="11" t="s">
@@ -9845,13 +9845,13 @@
     </row>
     <row r="200" spans="1:9" s="12" customFormat="1" ht="45">
       <c r="A200" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B200" s="17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C200" s="18" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D200" s="17"/>
       <c r="E200" s="11" t="s">
@@ -9870,13 +9870,13 @@
     </row>
     <row r="201" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A201" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B201" s="17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C201" s="18" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D201" s="17"/>
       <c r="E201" s="11" t="s">
@@ -9895,13 +9895,13 @@
     </row>
     <row r="202" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A202" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="B202" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="C202" s="22" t="s">
         <v>528</v>
-      </c>
-      <c r="B202" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="C202" s="22" t="s">
-        <v>529</v>
       </c>
       <c r="D202" s="17"/>
       <c r="E202" s="11" t="s">
@@ -9920,13 +9920,13 @@
     </row>
     <row r="203" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A203" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="B203" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="B203" s="17" t="s">
-        <v>283</v>
-      </c>
       <c r="C203" s="18" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D203" s="17"/>
       <c r="E203" s="11" t="s">
@@ -9945,13 +9945,13 @@
     </row>
     <row r="204" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A204" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B204" s="17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C204" s="18" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D204" s="17"/>
       <c r="E204" s="11" t="s">
@@ -9970,13 +9970,13 @@
     </row>
     <row r="205" spans="1:9" s="12" customFormat="1" ht="75">
       <c r="A205" s="11" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B205" s="17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C205" s="18" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D205" s="17"/>
       <c r="E205" s="11" t="s">
@@ -9995,13 +9995,13 @@
     </row>
     <row r="206" spans="1:9" s="12" customFormat="1">
       <c r="A206" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B206" s="17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C206" s="18" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D206" s="17"/>
       <c r="E206" s="11" t="s">
@@ -10020,13 +10020,13 @@
     </row>
     <row r="207" spans="1:9" s="12" customFormat="1">
       <c r="A207" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="B207" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="C207" s="18" t="s">
         <v>286</v>
-      </c>
-      <c r="B207" s="17" t="s">
-        <v>283</v>
-      </c>
-      <c r="C207" s="18" t="s">
-        <v>287</v>
       </c>
       <c r="D207" s="17"/>
       <c r="E207" s="11" t="s">
@@ -10045,13 +10045,13 @@
     </row>
     <row r="208" spans="1:9" s="12" customFormat="1" ht="45">
       <c r="A208" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B208" s="17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C208" s="19" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D208" s="17"/>
       <c r="E208" s="11" t="s">
@@ -10070,13 +10070,13 @@
     </row>
     <row r="209" spans="1:9" s="12" customFormat="1" ht="45">
       <c r="A209" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B209" s="17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C209" s="19" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D209" s="17"/>
       <c r="E209" s="11" t="s">
@@ -10095,13 +10095,13 @@
     </row>
     <row r="210" spans="1:9" s="12" customFormat="1" ht="75">
       <c r="A210" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B210" s="17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C210" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D210" s="17"/>
       <c r="E210" s="11" t="s">
@@ -10120,13 +10120,13 @@
     </row>
     <row r="211" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A211" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B211" s="17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C211" s="18" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D211" s="17"/>
       <c r="E211" s="11" t="s">
@@ -10145,13 +10145,13 @@
     </row>
     <row r="212" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A212" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B212" s="17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C212" s="18" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D212" s="17"/>
       <c r="E212" s="11" t="s">
@@ -10170,13 +10170,13 @@
     </row>
     <row r="213" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A213" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B213" s="17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C213" s="18" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D213" s="17"/>
       <c r="E213" s="11" t="s">
@@ -10195,13 +10195,13 @@
     </row>
     <row r="214" spans="1:9" s="12" customFormat="1">
       <c r="A214" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="B214" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="C214" s="18" t="s">
         <v>294</v>
-      </c>
-      <c r="B214" s="17" t="s">
-        <v>283</v>
-      </c>
-      <c r="C214" s="18" t="s">
-        <v>295</v>
       </c>
       <c r="D214" s="17"/>
       <c r="E214" s="11" t="s">
@@ -10220,13 +10220,13 @@
     </row>
     <row r="215" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A215" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B215" s="17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C215" s="18" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D215" s="17"/>
       <c r="E215" s="11" t="s">
@@ -10245,13 +10245,13 @@
     </row>
     <row r="216" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A216" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B216" s="17" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C216" s="18" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D216" s="17"/>
       <c r="E216" s="11" t="s">
@@ -10270,13 +10270,13 @@
     </row>
     <row r="217" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A217" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B217" s="17" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C217" s="18" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D217" s="17"/>
       <c r="E217" s="11" t="s">
@@ -10295,13 +10295,13 @@
     </row>
     <row r="218" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A218" s="11" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B218" s="17" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C218" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D218" s="17"/>
       <c r="E218" s="11" t="s">
@@ -10320,13 +10320,13 @@
     </row>
     <row r="219" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A219" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="B219" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="C219" s="18" t="s">
         <v>299</v>
-      </c>
-      <c r="B219" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="C219" s="18" t="s">
-        <v>300</v>
       </c>
       <c r="D219" s="17"/>
       <c r="E219" s="11" t="s">
@@ -10345,13 +10345,13 @@
     </row>
     <row r="220" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A220" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B220" s="17" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C220" s="18" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D220" s="17"/>
       <c r="E220" s="11" t="s">
@@ -10370,13 +10370,13 @@
     </row>
     <row r="221" spans="1:9" s="12" customFormat="1">
       <c r="A221" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="B221" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="C221" s="18" t="s">
         <v>302</v>
-      </c>
-      <c r="B221" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="C221" s="18" t="s">
-        <v>303</v>
       </c>
       <c r="D221" s="17"/>
       <c r="E221" s="11" t="s">
@@ -10395,13 +10395,13 @@
     </row>
     <row r="222" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A222" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="B222" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="B222" s="17" t="s">
+      <c r="C222" s="18" t="s">
         <v>305</v>
-      </c>
-      <c r="C222" s="18" t="s">
-        <v>306</v>
       </c>
       <c r="D222" s="17"/>
       <c r="E222" s="11" t="s">
@@ -10420,13 +10420,13 @@
     </row>
     <row r="223" spans="1:9" s="12" customFormat="1">
       <c r="A223" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="B223" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="C223" s="18" t="s">
         <v>307</v>
-      </c>
-      <c r="B223" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="C223" s="18" t="s">
-        <v>308</v>
       </c>
       <c r="D223" s="17"/>
       <c r="E223" s="11" t="s">
@@ -10445,13 +10445,13 @@
     </row>
     <row r="224" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A224" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="B224" s="17" t="s">
         <v>309</v>
       </c>
-      <c r="B224" s="17" t="s">
-        <v>310</v>
-      </c>
       <c r="C224" s="18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D224" s="17"/>
       <c r="E224" s="11" t="s">
@@ -10470,13 +10470,13 @@
     </row>
     <row r="225" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A225" s="11" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B225" s="17" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C225" s="22" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D225" s="17"/>
       <c r="E225" s="11" t="s">
@@ -10495,13 +10495,13 @@
     </row>
     <row r="226" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A226" s="11" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B226" s="17" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C226" s="22" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D226" s="17"/>
       <c r="E226" s="11" t="s">
@@ -10520,13 +10520,13 @@
     </row>
     <row r="227" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A227" s="11" t="s">
+        <v>869</v>
+      </c>
+      <c r="B227" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="C227" s="22" t="s">
         <v>870</v>
-      </c>
-      <c r="B227" s="17" t="s">
-        <v>310</v>
-      </c>
-      <c r="C227" s="22" t="s">
-        <v>871</v>
       </c>
       <c r="D227" s="17"/>
       <c r="E227" s="11" t="s">
@@ -10545,13 +10545,13 @@
     </row>
     <row r="228" spans="1:9" s="12" customFormat="1" ht="135">
       <c r="A228" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="B228" s="17" t="s">
         <v>311</v>
       </c>
-      <c r="B228" s="17" t="s">
-        <v>312</v>
-      </c>
       <c r="C228" s="18" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D228" s="17"/>
       <c r="E228" s="11" t="s">
@@ -10570,13 +10570,13 @@
     </row>
     <row r="229" spans="1:9" s="12" customFormat="1">
       <c r="A229" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B229" s="17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C229" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D229" s="17"/>
       <c r="E229" s="11" t="s">
@@ -10595,13 +10595,13 @@
     </row>
     <row r="230" spans="1:9" s="12" customFormat="1">
       <c r="A230" s="11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B230" s="17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C230" s="18" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D230" s="17"/>
       <c r="E230" s="11" t="s">
@@ -10620,13 +10620,13 @@
     </row>
     <row r="231" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A231" s="11" t="s">
+        <v>871</v>
+      </c>
+      <c r="B231" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="C231" s="22" t="s">
         <v>872</v>
-      </c>
-      <c r="B231" s="17" t="s">
-        <v>312</v>
-      </c>
-      <c r="C231" s="22" t="s">
-        <v>873</v>
       </c>
       <c r="D231" s="17"/>
       <c r="E231" s="11" t="s">
@@ -10645,13 +10645,13 @@
     </row>
     <row r="232" spans="1:9" s="12" customFormat="1" ht="225">
       <c r="A232" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="B232" s="17" t="s">
         <v>315</v>
       </c>
-      <c r="B232" s="17" t="s">
-        <v>316</v>
-      </c>
       <c r="C232" s="18" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D232" s="17"/>
       <c r="E232" s="11" t="s">
@@ -10670,13 +10670,13 @@
     </row>
     <row r="233" spans="1:9" s="12" customFormat="1" ht="45">
       <c r="A233" s="11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B233" s="17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C233" s="18" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D233" s="17"/>
       <c r="E233" s="11" t="s">
@@ -10695,13 +10695,13 @@
     </row>
     <row r="234" spans="1:9" s="12" customFormat="1" ht="45">
       <c r="A234" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B234" s="17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C234" s="18" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D234" s="17"/>
       <c r="E234" s="11" t="s">
@@ -10720,13 +10720,13 @@
     </row>
     <row r="235" spans="1:9" s="12" customFormat="1" ht="60">
       <c r="A235" s="11" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B235" s="17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C235" s="18" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D235" s="11"/>
       <c r="E235" s="11" t="s">
@@ -10742,18 +10742,18 @@
         <v>18</v>
       </c>
       <c r="I235" s="17" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="236" spans="1:9" s="12" customFormat="1" ht="75">
       <c r="A236" s="11" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B236" s="17" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C236" s="18" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D236" s="17"/>
       <c r="E236" s="11" t="s">
@@ -10772,13 +10772,13 @@
     </row>
     <row r="237" spans="1:9" s="12" customFormat="1" ht="60">
       <c r="A237" s="11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B237" s="17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C237" s="18" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D237" s="17"/>
       <c r="E237" s="11" t="s">
@@ -10794,18 +10794,18 @@
         <v>18</v>
       </c>
       <c r="I237" s="17" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="238" spans="1:9" s="12" customFormat="1">
       <c r="A238" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="B238" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="C238" s="18" t="s">
         <v>465</v>
-      </c>
-      <c r="B238" s="17" t="s">
-        <v>316</v>
-      </c>
-      <c r="C238" s="18" t="s">
-        <v>466</v>
       </c>
       <c r="D238" s="17"/>
       <c r="E238" s="11" t="s">
@@ -10824,13 +10824,13 @@
     </row>
     <row r="239" spans="1:9" s="12" customFormat="1" ht="105">
       <c r="A239" s="11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B239" s="17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C239" s="18" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D239" s="17"/>
       <c r="E239" s="11" t="s">
@@ -10846,18 +10846,18 @@
         <v>18</v>
       </c>
       <c r="I239" s="17" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="240" spans="1:9" s="12" customFormat="1" ht="45">
       <c r="A240" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B240" s="17" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C240" s="19" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="D240" s="17"/>
       <c r="E240" s="11" t="s">
@@ -10876,13 +10876,13 @@
     </row>
     <row r="241" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A241" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B241" s="17" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C241" s="18" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="D241" s="17"/>
       <c r="E241" s="11" t="s">
@@ -10901,16 +10901,16 @@
     </row>
     <row r="242" spans="1:9" s="35" customFormat="1" ht="45">
       <c r="A242" s="33" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B242" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C242" s="19" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D242" s="34" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E242" s="33" t="s">
         <v>25</v>
@@ -10925,21 +10925,21 @@
         <v>24</v>
       </c>
       <c r="I242" s="34" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="243" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A243" s="33" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B243" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C243" s="19" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D243" s="34" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E243" s="33" t="s">
         <v>25</v>
@@ -10954,21 +10954,21 @@
         <v>24</v>
       </c>
       <c r="I243" s="34" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="244" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A244" s="33" t="s">
+        <v>668</v>
+      </c>
+      <c r="B244" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C244" s="19" t="s">
+        <v>681</v>
+      </c>
+      <c r="D244" s="34" t="s">
         <v>669</v>
-      </c>
-      <c r="B244" s="34" t="s">
-        <v>326</v>
-      </c>
-      <c r="C244" s="19" t="s">
-        <v>682</v>
-      </c>
-      <c r="D244" s="34" t="s">
-        <v>670</v>
       </c>
       <c r="E244" s="33" t="s">
         <v>25</v>
@@ -10983,21 +10983,21 @@
         <v>24</v>
       </c>
       <c r="I244" s="34" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="245" spans="1:9" s="35" customFormat="1" ht="45">
       <c r="A245" s="33" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B245" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C245" s="19" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D245" s="34" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E245" s="33" t="s">
         <v>25</v>
@@ -11012,21 +11012,21 @@
         <v>21</v>
       </c>
       <c r="I245" s="34" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="246" spans="1:9" s="35" customFormat="1" ht="45">
       <c r="A246" s="33" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B246" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C246" s="19" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D246" s="34" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E246" s="33" t="s">
         <v>25</v>
@@ -11041,21 +11041,21 @@
         <v>21</v>
       </c>
       <c r="I246" s="34" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="247" spans="1:9" s="35" customFormat="1" ht="45">
       <c r="A247" s="33" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B247" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C247" s="19" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D247" s="34" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E247" s="33" t="s">
         <v>25</v>
@@ -11070,21 +11070,21 @@
         <v>21</v>
       </c>
       <c r="I247" s="34" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="248" spans="1:9" s="35" customFormat="1" ht="75">
       <c r="A248" s="33" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B248" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C248" s="21" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D248" s="34" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E248" s="33" t="s">
         <v>25</v>
@@ -11099,21 +11099,21 @@
         <v>21</v>
       </c>
       <c r="I248" s="34" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="249" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A249" s="33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B249" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C249" s="19" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D249" s="34" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E249" s="33" t="s">
         <v>25</v>
@@ -11131,16 +11131,16 @@
     </row>
     <row r="250" spans="1:9" s="35" customFormat="1" ht="45">
       <c r="A250" s="33" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B250" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C250" s="19" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D250" s="34" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E250" s="33" t="s">
         <v>25</v>
@@ -11158,16 +11158,16 @@
     </row>
     <row r="251" spans="1:9" s="35" customFormat="1" ht="45">
       <c r="A251" s="33" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B251" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C251" s="19" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D251" s="34" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E251" s="33" t="s">
         <v>25</v>
@@ -11185,16 +11185,16 @@
     </row>
     <row r="252" spans="1:9" s="35" customFormat="1" ht="45">
       <c r="A252" s="33" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B252" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C252" s="19" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D252" s="34" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E252" s="33" t="s">
         <v>25</v>
@@ -11212,16 +11212,16 @@
     </row>
     <row r="253" spans="1:9" s="35" customFormat="1" ht="45">
       <c r="A253" s="33" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B253" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C253" s="19" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D253" s="34" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E253" s="33" t="s">
         <v>25</v>
@@ -11239,16 +11239,16 @@
     </row>
     <row r="254" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A254" s="33" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B254" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C254" s="19" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D254" s="34" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E254" s="33" t="s">
         <v>25</v>
@@ -11266,16 +11266,16 @@
     </row>
     <row r="255" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A255" s="33" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B255" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C255" s="19" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D255" s="34" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E255" s="33" t="s">
         <v>25</v>
@@ -11293,16 +11293,16 @@
     </row>
     <row r="256" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A256" s="33" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B256" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C256" s="19" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D256" s="34" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E256" s="33" t="s">
         <v>25</v>
@@ -11320,16 +11320,16 @@
     </row>
     <row r="257" spans="1:9" s="35" customFormat="1" ht="45">
       <c r="A257" s="33" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B257" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C257" s="19" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D257" s="34" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E257" s="33" t="s">
         <v>25</v>
@@ -11347,16 +11347,16 @@
     </row>
     <row r="258" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A258" s="33" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B258" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C258" s="19" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D258" s="34" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E258" s="33" t="s">
         <v>25</v>
@@ -11374,16 +11374,16 @@
     </row>
     <row r="259" spans="1:9" s="35" customFormat="1" ht="45">
       <c r="A259" s="33" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B259" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C259" s="19" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D259" s="34" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E259" s="33" t="s">
         <v>25</v>
@@ -11401,16 +11401,16 @@
     </row>
     <row r="260" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A260" s="33" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B260" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C260" s="19" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D260" s="34" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E260" s="33" t="s">
         <v>25</v>
@@ -11428,16 +11428,16 @@
     </row>
     <row r="261" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A261" s="33" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B261" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C261" s="19" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D261" s="34" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E261" s="33" t="s">
         <v>25</v>
@@ -11455,16 +11455,16 @@
     </row>
     <row r="262" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A262" s="33" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B262" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C262" s="19" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D262" s="34" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E262" s="33" t="s">
         <v>25</v>
@@ -11482,16 +11482,16 @@
     </row>
     <row r="263" spans="1:9" s="35" customFormat="1" ht="75">
       <c r="A263" s="33" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B263" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C263" s="34" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D263" s="34" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E263" s="33" t="s">
         <v>25</v>
@@ -11506,21 +11506,21 @@
         <v>21</v>
       </c>
       <c r="I263" s="34" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="264" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A264" s="33" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B264" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C264" s="34" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D264" s="34" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E264" s="33" t="s">
         <v>25</v>
@@ -11538,16 +11538,16 @@
     </row>
     <row r="265" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A265" s="33" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B265" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C265" s="34" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D265" s="34" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E265" s="33" t="s">
         <v>25</v>
@@ -11565,16 +11565,16 @@
     </row>
     <row r="266" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A266" s="33" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B266" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C266" s="34" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D266" s="34" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E266" s="33" t="s">
         <v>25</v>
@@ -11592,16 +11592,16 @@
     </row>
     <row r="267" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A267" s="33" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B267" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C267" s="34" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D267" s="34" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E267" s="33" t="s">
         <v>25</v>
@@ -11619,16 +11619,16 @@
     </row>
     <row r="268" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A268" s="33" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B268" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C268" s="34" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D268" s="34" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E268" s="33" t="s">
         <v>25</v>
@@ -11646,16 +11646,16 @@
     </row>
     <row r="269" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A269" s="33" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B269" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C269" s="34" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D269" s="34" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E269" s="33" t="s">
         <v>25</v>
@@ -11673,43 +11673,43 @@
     </row>
     <row r="270" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A270" s="33" t="s">
+        <v>891</v>
+      </c>
+      <c r="B270" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C270" s="34" t="s">
+        <v>714</v>
+      </c>
+      <c r="D270" s="34" t="s">
+        <v>541</v>
+      </c>
+      <c r="E270" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F270" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G270" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H270" s="33" t="s">
         <v>892</v>
-      </c>
-      <c r="B270" s="34" t="s">
-        <v>326</v>
-      </c>
-      <c r="C270" s="34" t="s">
-        <v>715</v>
-      </c>
-      <c r="D270" s="34" t="s">
-        <v>542</v>
-      </c>
-      <c r="E270" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F270" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G270" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H270" s="33" t="s">
-        <v>893</v>
       </c>
       <c r="I270" s="34"/>
     </row>
     <row r="271" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A271" s="33" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B271" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C271" s="34" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D271" s="34" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E271" s="33" t="s">
         <v>25</v>
@@ -11727,16 +11727,16 @@
     </row>
     <row r="272" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A272" s="33" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B272" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C272" s="34" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D272" s="34" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E272" s="33" t="s">
         <v>25</v>
@@ -11754,16 +11754,16 @@
     </row>
     <row r="273" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A273" s="33" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B273" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C273" s="34" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D273" s="34" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E273" s="33" t="s">
         <v>25</v>
@@ -11781,16 +11781,16 @@
     </row>
     <row r="274" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A274" s="33" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B274" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C274" s="34" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D274" s="34" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E274" s="33" t="s">
         <v>25</v>
@@ -11808,16 +11808,16 @@
     </row>
     <row r="275" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A275" s="33" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B275" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C275" s="34" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D275" s="34" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E275" s="33" t="s">
         <v>25</v>
@@ -11835,16 +11835,16 @@
     </row>
     <row r="276" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A276" s="33" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B276" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C276" s="34" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D276" s="34" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E276" s="33" t="s">
         <v>25</v>
@@ -11862,16 +11862,16 @@
     </row>
     <row r="277" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A277" s="33" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B277" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C277" s="34" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D277" s="34" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E277" s="33" t="s">
         <v>25</v>
@@ -11889,16 +11889,16 @@
     </row>
     <row r="278" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A278" s="33" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B278" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C278" s="34" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D278" s="34" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E278" s="33" t="s">
         <v>25</v>
@@ -11916,16 +11916,16 @@
     </row>
     <row r="279" spans="1:9" s="35" customFormat="1" ht="45">
       <c r="A279" s="33" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B279" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C279" s="34" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D279" s="34" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E279" s="33" t="s">
         <v>25</v>
@@ -11940,21 +11940,21 @@
         <v>21</v>
       </c>
       <c r="I279" s="34" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="280" spans="1:9" s="35" customFormat="1" ht="45">
       <c r="A280" s="33" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B280" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C280" s="34" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D280" s="34" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E280" s="33" t="s">
         <v>25</v>
@@ -11969,21 +11969,21 @@
         <v>21</v>
       </c>
       <c r="I280" s="34" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="281" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A281" s="33" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B281" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C281" s="34" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D281" s="34" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E281" s="33" t="s">
         <v>25</v>
@@ -11998,21 +11998,21 @@
         <v>21</v>
       </c>
       <c r="I281" s="34" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="282" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A282" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B282" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C282" s="34" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D282" s="34" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E282" s="33" t="s">
         <v>25</v>
@@ -12027,21 +12027,21 @@
         <v>21</v>
       </c>
       <c r="I282" s="34" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="283" spans="1:9" s="35" customFormat="1" ht="75">
       <c r="A283" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B283" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C283" s="34" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D283" s="34" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E283" s="33" t="s">
         <v>25</v>
@@ -12056,21 +12056,21 @@
         <v>21</v>
       </c>
       <c r="I283" s="34" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="284" spans="1:9" s="35" customFormat="1" ht="75">
       <c r="A284" s="33" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B284" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C284" s="34" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D284" s="34" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E284" s="33" t="s">
         <v>25</v>
@@ -12085,21 +12085,21 @@
         <v>21</v>
       </c>
       <c r="I284" s="34" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="285" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A285" s="33" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B285" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C285" s="34" t="s">
-        <v>905</v>
+        <v>921</v>
       </c>
       <c r="D285" s="34" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E285" s="33" t="s">
         <v>25</v>
@@ -12114,21 +12114,21 @@
         <v>21</v>
       </c>
       <c r="I285" s="34" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="286" spans="1:9" s="35" customFormat="1" ht="75">
       <c r="A286" s="33" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B286" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C286" s="34" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="D286" s="34" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E286" s="33" t="s">
         <v>25</v>
@@ -12143,48 +12143,48 @@
         <v>21</v>
       </c>
       <c r="I286" s="34" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="287" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A287" s="33" t="s">
+        <v>573</v>
+      </c>
+      <c r="B287" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C287" s="34" t="s">
+        <v>703</v>
+      </c>
+      <c r="D287" s="34" t="s">
+        <v>599</v>
+      </c>
+      <c r="E287" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F287" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G287" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H287" s="33" t="s">
         <v>574</v>
-      </c>
-      <c r="B287" s="34" t="s">
-        <v>326</v>
-      </c>
-      <c r="C287" s="34" t="s">
-        <v>704</v>
-      </c>
-      <c r="D287" s="34" t="s">
-        <v>600</v>
-      </c>
-      <c r="E287" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F287" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G287" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H287" s="33" t="s">
-        <v>575</v>
       </c>
       <c r="I287" s="34"/>
     </row>
     <row r="288" spans="1:9" s="35" customFormat="1" ht="45">
       <c r="A288" s="33" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B288" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C288" s="34" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D288" s="34" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E288" s="33" t="s">
         <v>25</v>
@@ -12196,22 +12196,22 @@
         <v>16</v>
       </c>
       <c r="H288" s="33" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I288" s="34"/>
     </row>
     <row r="289" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A289" s="33" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B289" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C289" s="19" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="D289" s="34" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E289" s="33" t="s">
         <v>25</v>
@@ -12226,21 +12226,21 @@
         <v>21</v>
       </c>
       <c r="I289" s="34" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="290" spans="1:9" s="35" customFormat="1" ht="75">
       <c r="A290" s="33" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B290" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C290" s="21" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D290" s="34" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E290" s="33" t="s">
         <v>25</v>
@@ -12255,21 +12255,21 @@
         <v>21</v>
       </c>
       <c r="I290" s="34" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="291" spans="1:9" s="35" customFormat="1" ht="45">
       <c r="A291" s="33" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B291" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C291" s="19" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D291" s="34" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E291" s="33" t="s">
         <v>25</v>
@@ -12287,16 +12287,16 @@
     </row>
     <row r="292" spans="1:9" s="35" customFormat="1" ht="45">
       <c r="A292" s="33" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B292" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C292" s="19" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D292" s="34" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E292" s="33" t="s">
         <v>25</v>
@@ -12314,16 +12314,16 @@
     </row>
     <row r="293" spans="1:9" s="35" customFormat="1" ht="45">
       <c r="A293" s="33" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B293" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C293" s="19" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D293" s="34" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E293" s="33" t="s">
         <v>25</v>
@@ -12341,16 +12341,16 @@
     </row>
     <row r="294" spans="1:9" s="35" customFormat="1" ht="45">
       <c r="A294" s="33" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B294" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C294" s="19" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D294" s="34" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E294" s="33" t="s">
         <v>25</v>
@@ -12368,16 +12368,16 @@
     </row>
     <row r="295" spans="1:9" s="35" customFormat="1" ht="45">
       <c r="A295" s="33" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B295" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C295" s="19" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D295" s="34" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E295" s="33" t="s">
         <v>25</v>
@@ -12395,16 +12395,16 @@
     </row>
     <row r="296" spans="1:9" s="35" customFormat="1" ht="45">
       <c r="A296" s="33" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B296" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C296" s="19" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D296" s="34" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E296" s="33" t="s">
         <v>25</v>
@@ -12422,16 +12422,16 @@
     </row>
     <row r="297" spans="1:9" s="35" customFormat="1" ht="45">
       <c r="A297" s="33" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B297" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C297" s="19" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D297" s="34" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E297" s="33" t="s">
         <v>25</v>
@@ -12449,16 +12449,16 @@
     </row>
     <row r="298" spans="1:9" s="35" customFormat="1" ht="45">
       <c r="A298" s="33" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B298" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C298" s="19" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D298" s="34" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E298" s="33" t="s">
         <v>25</v>
@@ -12476,16 +12476,16 @@
     </row>
     <row r="299" spans="1:9" s="35" customFormat="1" ht="45">
       <c r="A299" s="33" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B299" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C299" s="19" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D299" s="34" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E299" s="33" t="s">
         <v>25</v>
@@ -12503,16 +12503,16 @@
     </row>
     <row r="300" spans="1:9" s="35" customFormat="1" ht="45">
       <c r="A300" s="33" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B300" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C300" s="19" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D300" s="34" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E300" s="33" t="s">
         <v>25</v>
@@ -12530,16 +12530,16 @@
     </row>
     <row r="301" spans="1:9" s="35" customFormat="1" ht="45">
       <c r="A301" s="33" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B301" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C301" s="19" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D301" s="34" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E301" s="33" t="s">
         <v>25</v>
@@ -12557,16 +12557,16 @@
     </row>
     <row r="302" spans="1:9" s="35" customFormat="1" ht="45">
       <c r="A302" s="33" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B302" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C302" s="19" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D302" s="34" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E302" s="33" t="s">
         <v>25</v>
@@ -12584,16 +12584,16 @@
     </row>
     <row r="303" spans="1:9" s="35" customFormat="1" ht="45">
       <c r="A303" s="33" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B303" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C303" s="19" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D303" s="34" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E303" s="33" t="s">
         <v>25</v>
@@ -12611,16 +12611,16 @@
     </row>
     <row r="304" spans="1:9" s="35" customFormat="1" ht="45">
       <c r="A304" s="33" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B304" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C304" s="19" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D304" s="34" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E304" s="33" t="s">
         <v>25</v>
@@ -12638,16 +12638,16 @@
     </row>
     <row r="305" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A305" s="33" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B305" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C305" s="19" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D305" s="34" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E305" s="33" t="s">
         <v>25</v>
@@ -12665,16 +12665,16 @@
     </row>
     <row r="306" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A306" s="33" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B306" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C306" s="19" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D306" s="34" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E306" s="33" t="s">
         <v>25</v>
@@ -12689,21 +12689,21 @@
         <v>21</v>
       </c>
       <c r="I306" s="34" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="307" spans="1:9" s="35" customFormat="1" ht="75">
       <c r="A307" s="33" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B307" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C307" s="34" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D307" s="34" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E307" s="33" t="s">
         <v>25</v>
@@ -12718,21 +12718,21 @@
         <v>21</v>
       </c>
       <c r="I307" s="34" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="308" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A308" s="33" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B308" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C308" s="34" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D308" s="34" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E308" s="33" t="s">
         <v>25</v>
@@ -12750,16 +12750,16 @@
     </row>
     <row r="309" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A309" s="33" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B309" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C309" s="34" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D309" s="34" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E309" s="33" t="s">
         <v>25</v>
@@ -12777,16 +12777,16 @@
     </row>
     <row r="310" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A310" s="33" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B310" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C310" s="34" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D310" s="34" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E310" s="33" t="s">
         <v>25</v>
@@ -12804,16 +12804,16 @@
     </row>
     <row r="311" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A311" s="33" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B311" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C311" s="34" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D311" s="34" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E311" s="33" t="s">
         <v>25</v>
@@ -12831,16 +12831,16 @@
     </row>
     <row r="312" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A312" s="33" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B312" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C312" s="34" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D312" s="34" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E312" s="33" t="s">
         <v>25</v>
@@ -12858,16 +12858,16 @@
     </row>
     <row r="313" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A313" s="33" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B313" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C313" s="34" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D313" s="34" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E313" s="33" t="s">
         <v>25</v>
@@ -12885,16 +12885,16 @@
     </row>
     <row r="314" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A314" s="33" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B314" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C314" s="34" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D314" s="34" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E314" s="33" t="s">
         <v>25</v>
@@ -12906,22 +12906,22 @@
         <v>16</v>
       </c>
       <c r="H314" s="33" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I314" s="34"/>
     </row>
     <row r="315" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A315" s="33" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B315" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C315" s="34" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D315" s="34" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E315" s="33" t="s">
         <v>25</v>
@@ -12939,16 +12939,16 @@
     </row>
     <row r="316" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A316" s="33" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B316" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C316" s="34" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D316" s="34" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E316" s="33" t="s">
         <v>25</v>
@@ -12966,16 +12966,16 @@
     </row>
     <row r="317" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A317" s="33" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B317" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C317" s="34" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D317" s="34" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E317" s="33" t="s">
         <v>25</v>
@@ -12993,16 +12993,16 @@
     </row>
     <row r="318" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A318" s="33" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B318" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C318" s="34" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D318" s="34" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E318" s="33" t="s">
         <v>25</v>
@@ -13020,16 +13020,16 @@
     </row>
     <row r="319" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A319" s="33" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B319" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C319" s="34" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D319" s="34" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E319" s="33" t="s">
         <v>25</v>
@@ -13047,16 +13047,16 @@
     </row>
     <row r="320" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A320" s="33" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B320" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C320" s="34" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D320" s="34" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E320" s="33" t="s">
         <v>25</v>
@@ -13074,16 +13074,16 @@
     </row>
     <row r="321" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A321" s="33" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B321" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C321" s="34" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D321" s="34" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E321" s="33" t="s">
         <v>25</v>
@@ -13101,16 +13101,16 @@
     </row>
     <row r="322" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A322" s="33" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B322" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C322" s="34" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D322" s="34" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E322" s="33" t="s">
         <v>25</v>
@@ -13128,16 +13128,16 @@
     </row>
     <row r="323" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A323" s="33" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B323" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C323" s="19" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D323" s="34" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E323" s="33" t="s">
         <v>25</v>
@@ -13152,21 +13152,21 @@
         <v>21</v>
       </c>
       <c r="I323" s="34" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="324" spans="1:9" s="35" customFormat="1" ht="45">
       <c r="A324" s="33" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B324" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C324" s="34" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D324" s="34" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E324" s="33" t="s">
         <v>25</v>
@@ -13181,21 +13181,21 @@
         <v>21</v>
       </c>
       <c r="I324" s="34" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="325" spans="1:9" s="35" customFormat="1" ht="45">
       <c r="A325" s="33" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B325" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C325" s="34" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D325" s="34" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E325" s="33" t="s">
         <v>25</v>
@@ -13210,21 +13210,21 @@
         <v>21</v>
       </c>
       <c r="I325" s="34" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="326" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A326" s="33" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B326" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C326" s="21" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D326" s="34" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E326" s="33" t="s">
         <v>25</v>
@@ -13239,21 +13239,21 @@
         <v>21</v>
       </c>
       <c r="I326" s="34" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="327" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A327" s="33" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B327" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C327" s="21" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D327" s="34" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E327" s="33" t="s">
         <v>25</v>
@@ -13268,21 +13268,21 @@
         <v>21</v>
       </c>
       <c r="I327" s="34" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="328" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A328" s="33" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B328" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C328" s="34" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D328" s="34" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E328" s="33" t="s">
         <v>25</v>
@@ -13297,21 +13297,21 @@
         <v>21</v>
       </c>
       <c r="I328" s="34" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="329" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A329" s="33" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B329" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C329" s="34" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D329" s="34" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E329" s="33" t="s">
         <v>25</v>
@@ -13326,21 +13326,21 @@
         <v>21</v>
       </c>
       <c r="I329" s="34" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="330" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A330" s="33" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B330" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C330" s="34" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="D330" s="34" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E330" s="33" t="s">
         <v>25</v>
@@ -13355,21 +13355,21 @@
         <v>21</v>
       </c>
       <c r="I330" s="34" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="331" spans="1:9" s="35" customFormat="1" ht="75">
       <c r="A331" s="33" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B331" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C331" s="34" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="D331" s="34" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E331" s="33" t="s">
         <v>25</v>
@@ -13384,21 +13384,21 @@
         <v>21</v>
       </c>
       <c r="I331" s="34" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="332" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A332" s="33" t="s">
+        <v>593</v>
+      </c>
+      <c r="B332" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C332" s="34" t="s">
+        <v>908</v>
+      </c>
+      <c r="D332" s="34" t="s">
         <v>594</v>
-      </c>
-      <c r="B332" s="34" t="s">
-        <v>326</v>
-      </c>
-      <c r="C332" s="34" t="s">
-        <v>910</v>
-      </c>
-      <c r="D332" s="34" t="s">
-        <v>595</v>
       </c>
       <c r="E332" s="33" t="s">
         <v>25</v>
@@ -13416,16 +13416,16 @@
     </row>
     <row r="333" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A333" s="33" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="B333" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C333" s="19" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="D333" s="34" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E333" s="33" t="s">
         <v>25</v>
@@ -13440,21 +13440,21 @@
         <v>21</v>
       </c>
       <c r="I333" s="34" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="334" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A334" s="33" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="B334" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C334" s="19" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D334" s="34" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E334" s="33" t="s">
         <v>25</v>
@@ -13469,21 +13469,21 @@
         <v>21</v>
       </c>
       <c r="I334" s="34" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="335" spans="1:9" s="35" customFormat="1" ht="45">
       <c r="A335" s="33" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B335" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C335" s="19" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D335" s="34" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E335" s="33" t="s">
         <v>25</v>
@@ -13498,21 +13498,21 @@
         <v>21</v>
       </c>
       <c r="I335" s="34" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="336" spans="1:9" s="35" customFormat="1" ht="75">
       <c r="A336" s="33" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B336" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C336" s="21" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D336" s="34" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E336" s="33" t="s">
         <v>25</v>
@@ -13527,21 +13527,21 @@
         <v>21</v>
       </c>
       <c r="I336" s="34" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="337" spans="1:9" s="35" customFormat="1" ht="45">
       <c r="A337" s="33" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B337" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C337" s="19" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D337" s="34" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E337" s="33" t="s">
         <v>25</v>
@@ -13556,21 +13556,21 @@
         <v>21</v>
       </c>
       <c r="I337" s="34" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="338" spans="1:9" s="35" customFormat="1" ht="75">
       <c r="A338" s="33" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B338" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C338" s="19" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D338" s="34" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E338" s="33" t="s">
         <v>25</v>
@@ -13582,22 +13582,22 @@
         <v>16</v>
       </c>
       <c r="H338" s="33" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I338" s="34"/>
     </row>
     <row r="339" spans="1:9" s="35" customFormat="1" ht="45">
       <c r="A339" s="33" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B339" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C339" s="19" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D339" s="34" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E339" s="33" t="s">
         <v>25</v>
@@ -13612,21 +13612,21 @@
         <v>21</v>
       </c>
       <c r="I339" s="34" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="340" spans="1:9" s="35" customFormat="1" ht="75">
       <c r="A340" s="33" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B340" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C340" s="19" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D340" s="34" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E340" s="33" t="s">
         <v>25</v>
@@ -13638,22 +13638,22 @@
         <v>16</v>
       </c>
       <c r="H340" s="33" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I340" s="34"/>
     </row>
     <row r="341" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A341" s="33" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B341" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C341" s="19" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D341" s="34" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E341" s="33" t="s">
         <v>25</v>
@@ -13668,21 +13668,21 @@
         <v>21</v>
       </c>
       <c r="I341" s="34" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="342" spans="1:9" s="35" customFormat="1" ht="45">
       <c r="A342" s="33" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B342" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C342" s="19" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D342" s="34" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E342" s="33" t="s">
         <v>25</v>
@@ -13700,16 +13700,16 @@
     </row>
     <row r="343" spans="1:9" s="35" customFormat="1" ht="45">
       <c r="A343" s="33" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B343" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C343" s="19" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D343" s="34" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E343" s="33" t="s">
         <v>25</v>
@@ -13727,16 +13727,16 @@
     </row>
     <row r="344" spans="1:9" s="35" customFormat="1" ht="90">
       <c r="A344" s="33" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B344" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C344" s="21" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D344" s="34" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E344" s="33" t="s">
         <v>25</v>
@@ -13751,21 +13751,21 @@
         <v>21</v>
       </c>
       <c r="I344" s="34" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="345" spans="1:9" s="35" customFormat="1" ht="75">
       <c r="A345" s="33" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B345" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C345" s="21" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D345" s="34" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E345" s="33" t="s">
         <v>25</v>
@@ -13783,16 +13783,16 @@
     </row>
     <row r="346" spans="1:9" s="35" customFormat="1" ht="75">
       <c r="A346" s="33" t="s">
+        <v>619</v>
+      </c>
+      <c r="B346" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C346" s="21" t="s">
+        <v>837</v>
+      </c>
+      <c r="D346" s="34" t="s">
         <v>620</v>
-      </c>
-      <c r="B346" s="34" t="s">
-        <v>326</v>
-      </c>
-      <c r="C346" s="21" t="s">
-        <v>838</v>
-      </c>
-      <c r="D346" s="34" t="s">
-        <v>621</v>
       </c>
       <c r="E346" s="33" t="s">
         <v>25</v>
@@ -13810,16 +13810,16 @@
     </row>
     <row r="347" spans="1:9" s="35" customFormat="1" ht="45">
       <c r="A347" s="33" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B347" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C347" s="19" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D347" s="34" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E347" s="33" t="s">
         <v>25</v>
@@ -13834,21 +13834,21 @@
         <v>21</v>
       </c>
       <c r="I347" s="34" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="348" spans="1:9" s="35" customFormat="1" ht="45">
       <c r="A348" s="33" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B348" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C348" s="19" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D348" s="34" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E348" s="33" t="s">
         <v>25</v>
@@ -13863,21 +13863,21 @@
         <v>21</v>
       </c>
       <c r="I348" s="34" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="349" spans="1:9" s="35" customFormat="1" ht="75">
       <c r="A349" s="33" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B349" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C349" s="21" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D349" s="34" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E349" s="33" t="s">
         <v>25</v>
@@ -13892,21 +13892,21 @@
         <v>21</v>
       </c>
       <c r="I349" s="34" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="350" spans="1:9" s="35" customFormat="1" ht="45">
       <c r="A350" s="33" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B350" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C350" s="21" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D350" s="34" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E350" s="33" t="s">
         <v>25</v>
@@ -13924,16 +13924,16 @@
     </row>
     <row r="351" spans="1:9" s="35" customFormat="1" ht="45">
       <c r="A351" s="33" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B351" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C351" s="21" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D351" s="34" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E351" s="33" t="s">
         <v>25</v>
@@ -13951,16 +13951,16 @@
     </row>
     <row r="352" spans="1:9" s="35" customFormat="1" ht="45">
       <c r="A352" s="33" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B352" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C352" s="21" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D352" s="34" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E352" s="33" t="s">
         <v>25</v>
@@ -13978,16 +13978,16 @@
     </row>
     <row r="353" spans="1:9" s="35" customFormat="1" ht="45">
       <c r="A353" s="33" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B353" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C353" s="21" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D353" s="34" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E353" s="33" t="s">
         <v>25</v>
@@ -14005,16 +14005,16 @@
     </row>
     <row r="354" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A354" s="33" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B354" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C354" s="21" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D354" s="34" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E354" s="33" t="s">
         <v>25</v>
@@ -14032,16 +14032,16 @@
     </row>
     <row r="355" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A355" s="33" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B355" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C355" s="21" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D355" s="34" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E355" s="33" t="s">
         <v>25</v>
@@ -14059,16 +14059,16 @@
     </row>
     <row r="356" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A356" s="33" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B356" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C356" s="21" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D356" s="34" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E356" s="33" t="s">
         <v>25</v>
@@ -14086,16 +14086,16 @@
     </row>
     <row r="357" spans="1:9" s="35" customFormat="1" ht="45">
       <c r="A357" s="33" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B357" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C357" s="21" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D357" s="34" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E357" s="33" t="s">
         <v>25</v>
@@ -14113,16 +14113,16 @@
     </row>
     <row r="358" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A358" s="33" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B358" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C358" s="21" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D358" s="34" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E358" s="33" t="s">
         <v>25</v>
@@ -14140,16 +14140,16 @@
     </row>
     <row r="359" spans="1:9" s="35" customFormat="1" ht="45">
       <c r="A359" s="33" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B359" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C359" s="21" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D359" s="34" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E359" s="33" t="s">
         <v>25</v>
@@ -14167,16 +14167,16 @@
     </row>
     <row r="360" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A360" s="36" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B360" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C360" s="37" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D360" s="34" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E360" s="33" t="s">
         <v>25</v>
@@ -14194,16 +14194,16 @@
     </row>
     <row r="361" spans="1:9" s="35" customFormat="1" ht="45">
       <c r="A361" s="36" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B361" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C361" s="37" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D361" s="34" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E361" s="33" t="s">
         <v>25</v>
@@ -14221,16 +14221,16 @@
     </row>
     <row r="362" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A362" s="33" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B362" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C362" s="21" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D362" s="34" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E362" s="33" t="s">
         <v>25</v>
@@ -14248,16 +14248,16 @@
     </row>
     <row r="363" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A363" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B363" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C363" s="21" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D363" s="34" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E363" s="33" t="s">
         <v>25</v>
@@ -14275,16 +14275,16 @@
     </row>
     <row r="364" spans="1:9" s="35" customFormat="1" ht="75">
       <c r="A364" s="33" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B364" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C364" s="19" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D364" s="34" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E364" s="33" t="s">
         <v>25</v>
@@ -14299,21 +14299,21 @@
         <v>21</v>
       </c>
       <c r="I364" s="34" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="365" spans="1:9" s="35" customFormat="1" ht="45">
       <c r="A365" s="33" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B365" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C365" s="21" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D365" s="34" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E365" s="33" t="s">
         <v>25</v>
@@ -14331,16 +14331,16 @@
     </row>
     <row r="366" spans="1:9" s="35" customFormat="1" ht="45">
       <c r="A366" s="33" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B366" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C366" s="21" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D366" s="34" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E366" s="33" t="s">
         <v>25</v>
@@ -14358,16 +14358,16 @@
     </row>
     <row r="367" spans="1:9" s="35" customFormat="1" ht="45">
       <c r="A367" s="33" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B367" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C367" s="21" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D367" s="34" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E367" s="33" t="s">
         <v>25</v>
@@ -14385,16 +14385,16 @@
     </row>
     <row r="368" spans="1:9" s="35" customFormat="1" ht="45">
       <c r="A368" s="33" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B368" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C368" s="21" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D368" s="34" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E368" s="33" t="s">
         <v>25</v>
@@ -14412,16 +14412,16 @@
     </row>
     <row r="369" spans="1:9" s="35" customFormat="1" ht="45">
       <c r="A369" s="33" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B369" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C369" s="21" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D369" s="34" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E369" s="33" t="s">
         <v>25</v>
@@ -14439,16 +14439,16 @@
     </row>
     <row r="370" spans="1:9" s="35" customFormat="1" ht="45">
       <c r="A370" s="33" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B370" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C370" s="21" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D370" s="34" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E370" s="33" t="s">
         <v>25</v>
@@ -14466,16 +14466,16 @@
     </row>
     <row r="371" spans="1:9" s="35" customFormat="1" ht="45">
       <c r="A371" s="33" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B371" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C371" s="21" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D371" s="34" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E371" s="33" t="s">
         <v>25</v>
@@ -14493,16 +14493,16 @@
     </row>
     <row r="372" spans="1:9" s="35" customFormat="1" ht="45">
       <c r="A372" s="33" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B372" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C372" s="21" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D372" s="34" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E372" s="33" t="s">
         <v>25</v>
@@ -14520,16 +14520,16 @@
     </row>
     <row r="373" spans="1:9" s="35" customFormat="1" ht="45">
       <c r="A373" s="33" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B373" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C373" s="21" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D373" s="34" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E373" s="33" t="s">
         <v>25</v>
@@ -14547,16 +14547,16 @@
     </row>
     <row r="374" spans="1:9" s="35" customFormat="1" ht="45">
       <c r="A374" s="33" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B374" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C374" s="21" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D374" s="34" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E374" s="33" t="s">
         <v>25</v>
@@ -14574,16 +14574,16 @@
     </row>
     <row r="375" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A375" s="33" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B375" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C375" s="21" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D375" s="34" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E375" s="33" t="s">
         <v>25</v>
@@ -14601,16 +14601,16 @@
     </row>
     <row r="376" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A376" s="33" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B376" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C376" s="21" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D376" s="34" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E376" s="33" t="s">
         <v>25</v>
@@ -14628,16 +14628,16 @@
     </row>
     <row r="377" spans="1:9" s="35" customFormat="1" ht="45">
       <c r="A377" s="33" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B377" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C377" s="19" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D377" s="34" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E377" s="33" t="s">
         <v>25</v>
@@ -14655,16 +14655,16 @@
     </row>
     <row r="378" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A378" s="33" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B378" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C378" s="19" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="D378" s="34" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E378" s="33" t="s">
         <v>25</v>
@@ -14682,16 +14682,16 @@
     </row>
     <row r="379" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A379" s="33" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B379" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C379" s="19" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="D379" s="34" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E379" s="33" t="s">
         <v>25</v>
@@ -14709,16 +14709,16 @@
     </row>
     <row r="380" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A380" s="33" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B380" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C380" s="37" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="D380" s="34" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E380" s="33" t="s">
         <v>25</v>
@@ -14733,21 +14733,21 @@
         <v>21</v>
       </c>
       <c r="I380" s="34" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="381" spans="1:9" s="35" customFormat="1" ht="75">
       <c r="A381" s="33" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B381" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C381" s="38" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D381" s="34" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E381" s="33" t="s">
         <v>25</v>
@@ -14762,21 +14762,21 @@
         <v>21</v>
       </c>
       <c r="I381" s="34" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="382" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A382" s="33" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B382" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C382" s="38" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="D382" s="34" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E382" s="33" t="s">
         <v>25</v>
@@ -14794,16 +14794,16 @@
     </row>
     <row r="383" spans="1:9" s="35" customFormat="1" ht="120">
       <c r="A383" s="33" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B383" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C383" s="19" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D383" s="34" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E383" s="33" t="s">
         <v>25</v>
@@ -14818,21 +14818,21 @@
         <v>21</v>
       </c>
       <c r="I383" s="34" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="384" spans="1:9" s="35" customFormat="1" ht="90">
       <c r="A384" s="33" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B384" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C384" s="19" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D384" s="34" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E384" s="33" t="s">
         <v>25</v>
@@ -14850,16 +14850,16 @@
     </row>
     <row r="385" spans="1:9" s="35" customFormat="1" ht="90">
       <c r="A385" s="33" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B385" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C385" s="19" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D385" s="34" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E385" s="33" t="s">
         <v>25</v>
@@ -14877,16 +14877,16 @@
     </row>
     <row r="386" spans="1:9" s="35" customFormat="1" ht="90">
       <c r="A386" s="33" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B386" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C386" s="19" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D386" s="34" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E386" s="33" t="s">
         <v>25</v>
@@ -14904,16 +14904,16 @@
     </row>
     <row r="387" spans="1:9" s="35" customFormat="1" ht="90">
       <c r="A387" s="33" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B387" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C387" s="19" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D387" s="34" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E387" s="33" t="s">
         <v>25</v>
@@ -14931,16 +14931,16 @@
     </row>
     <row r="388" spans="1:9" s="35" customFormat="1" ht="90">
       <c r="A388" s="33" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B388" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C388" s="19" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D388" s="34" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E388" s="33" t="s">
         <v>25</v>
@@ -14958,16 +14958,16 @@
     </row>
     <row r="389" spans="1:9" s="35" customFormat="1" ht="90">
       <c r="A389" s="33" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B389" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C389" s="19" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D389" s="34" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E389" s="33" t="s">
         <v>25</v>
@@ -14985,16 +14985,16 @@
     </row>
     <row r="390" spans="1:9" s="35" customFormat="1" ht="90">
       <c r="A390" s="33" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B390" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C390" s="19" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D390" s="34" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E390" s="33" t="s">
         <v>25</v>
@@ -15012,16 +15012,16 @@
     </row>
     <row r="391" spans="1:9" s="35" customFormat="1" ht="90">
       <c r="A391" s="33" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B391" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C391" s="19" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D391" s="34" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E391" s="33" t="s">
         <v>25</v>
@@ -15039,16 +15039,16 @@
     </row>
     <row r="392" spans="1:9" s="35" customFormat="1" ht="90">
       <c r="A392" s="33" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B392" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C392" s="19" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D392" s="34" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E392" s="33" t="s">
         <v>25</v>
@@ -15066,16 +15066,16 @@
     </row>
     <row r="393" spans="1:9" s="35" customFormat="1" ht="90">
       <c r="A393" s="33" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B393" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C393" s="19" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D393" s="34" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E393" s="33" t="s">
         <v>25</v>
@@ -15093,16 +15093,16 @@
     </row>
     <row r="394" spans="1:9" s="35" customFormat="1" ht="90">
       <c r="A394" s="33" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B394" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C394" s="19" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D394" s="34" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E394" s="33" t="s">
         <v>25</v>
@@ -15120,16 +15120,16 @@
     </row>
     <row r="395" spans="1:9" s="35" customFormat="1" ht="90">
       <c r="A395" s="33" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B395" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C395" s="19" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D395" s="34" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E395" s="33" t="s">
         <v>25</v>
@@ -15147,16 +15147,16 @@
     </row>
     <row r="396" spans="1:9" s="35" customFormat="1" ht="105">
       <c r="A396" s="33" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B396" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C396" s="19" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D396" s="34" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E396" s="33" t="s">
         <v>25</v>
@@ -15174,16 +15174,16 @@
     </row>
     <row r="397" spans="1:9" s="35" customFormat="1" ht="105">
       <c r="A397" s="33" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B397" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C397" s="19" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D397" s="34" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E397" s="33" t="s">
         <v>25</v>
@@ -15201,16 +15201,16 @@
     </row>
     <row r="398" spans="1:9" s="35" customFormat="1" ht="105">
       <c r="A398" s="33" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B398" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C398" s="19" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D398" s="34" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E398" s="33" t="s">
         <v>25</v>
@@ -15225,21 +15225,21 @@
         <v>21</v>
       </c>
       <c r="I398" s="34" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="399" spans="1:9" s="35" customFormat="1" ht="90">
       <c r="A399" s="36" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B399" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C399" s="37" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D399" s="34" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E399" s="33" t="s">
         <v>25</v>
@@ -15257,16 +15257,16 @@
     </row>
     <row r="400" spans="1:9" s="35" customFormat="1" ht="90">
       <c r="A400" s="36" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B400" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C400" s="37" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D400" s="34" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E400" s="33" t="s">
         <v>25</v>
@@ -15284,16 +15284,16 @@
     </row>
     <row r="401" spans="1:9" s="35" customFormat="1" ht="90">
       <c r="A401" s="36" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B401" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C401" s="37" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D401" s="34" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E401" s="33" t="s">
         <v>25</v>
@@ -15311,16 +15311,16 @@
     </row>
     <row r="402" spans="1:9" s="35" customFormat="1" ht="90">
       <c r="A402" s="36" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B402" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C402" s="37" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D402" s="34" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E402" s="33" t="s">
         <v>25</v>
@@ -15338,16 +15338,16 @@
     </row>
     <row r="403" spans="1:9" s="35" customFormat="1" ht="90">
       <c r="A403" s="36" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B403" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C403" s="37" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D403" s="34" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E403" s="33" t="s">
         <v>25</v>
@@ -15365,16 +15365,16 @@
     </row>
     <row r="404" spans="1:9" s="35" customFormat="1" ht="90">
       <c r="A404" s="36" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B404" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C404" s="37" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D404" s="34" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E404" s="33" t="s">
         <v>25</v>
@@ -15392,16 +15392,16 @@
     </row>
     <row r="405" spans="1:9" s="35" customFormat="1" ht="90">
       <c r="A405" s="36" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B405" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C405" s="37" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D405" s="34" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E405" s="33" t="s">
         <v>25</v>
@@ -15419,16 +15419,16 @@
     </row>
     <row r="406" spans="1:9" s="35" customFormat="1" ht="90">
       <c r="A406" s="36" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B406" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C406" s="37" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D406" s="34" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E406" s="33" t="s">
         <v>25</v>
@@ -15446,16 +15446,16 @@
     </row>
     <row r="407" spans="1:9" s="35" customFormat="1" ht="90">
       <c r="A407" s="36" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B407" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C407" s="37" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D407" s="34" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E407" s="33" t="s">
         <v>25</v>
@@ -15473,16 +15473,16 @@
     </row>
     <row r="408" spans="1:9" s="35" customFormat="1" ht="90">
       <c r="A408" s="36" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B408" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C408" s="37" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D408" s="34" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E408" s="33" t="s">
         <v>25</v>
@@ -15500,16 +15500,16 @@
     </row>
     <row r="409" spans="1:9" s="35" customFormat="1" ht="105">
       <c r="A409" s="36" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B409" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C409" s="37" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D409" s="34" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E409" s="33" t="s">
         <v>25</v>
@@ -15527,16 +15527,16 @@
     </row>
     <row r="410" spans="1:9" s="35" customFormat="1" ht="90">
       <c r="A410" s="36" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B410" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C410" s="37" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D410" s="34" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E410" s="33" t="s">
         <v>25</v>
@@ -15554,16 +15554,16 @@
     </row>
     <row r="411" spans="1:9" s="35" customFormat="1" ht="90">
       <c r="A411" s="36" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B411" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C411" s="38" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D411" s="34" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E411" s="33" t="s">
         <v>25</v>
@@ -15582,481 +15582,481 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="12">
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="D12:I15"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B17:I17"/>
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="B8:I8"/>
     <mergeCell ref="B7:I7"/>
     <mergeCell ref="B6:I6"/>
     <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="D12:I15"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B17:I17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C399:C411 F201:F241 F307:F325 B349:B377 F263:F289 F336:F397 F328:F334">
-    <cfRule type="expression" dxfId="123" priority="136">
+    <cfRule type="expression" dxfId="140" priority="136">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="137">
+    <cfRule type="expression" dxfId="139" priority="137">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="138">
+    <cfRule type="expression" dxfId="138" priority="138">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C399:C411 F201:F241 F307:F325 B349:B377 F263:F289 F336:F397 F328:F334">
-    <cfRule type="expression" dxfId="120" priority="133">
+    <cfRule type="expression" dxfId="137" priority="133">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="134">
+    <cfRule type="expression" dxfId="136" priority="134">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="135">
+    <cfRule type="expression" dxfId="135" priority="135">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20 F22 F24 F26 F28 F30 F32 F34 F36 F38 F40 F42 F44 F46 F48 F50 F52 F54 F56 F58 F61 F63 F65 F67 F69 F71 F73 F75 F77 F79 F81 F83 F85 F87 F90 F92 F94 F96 F98 F100 F102 F104 F106 F108 F110 F112 F114 F116 F118 F120 F122 F124 F126 F128 F130 F132">
-    <cfRule type="expression" dxfId="117" priority="124">
+    <cfRule type="expression" dxfId="134" priority="124">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="125">
+    <cfRule type="expression" dxfId="133" priority="125">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="126">
+    <cfRule type="expression" dxfId="132" priority="126">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20 F22 F24 F26 F28 F30 F32 F34 F36 F38 F40 F42 F44 F46 F48 F50 F52 F54 F56 F58 F61 F63 F65 F67 F69 F71 F73 F75 F77 F79 F81 F83 F85 F87 F90 F92 F94 F96 F98 F100 F102 F104 F106 F108 F110 F112 F114 F116 F118 F120 F122 F124 F126 F128 F130 F132">
-    <cfRule type="expression" dxfId="114" priority="119">
+    <cfRule type="expression" dxfId="131" priority="119">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="120">
+    <cfRule type="expression" dxfId="130" priority="120">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="121">
+    <cfRule type="expression" dxfId="129" priority="121">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20 F201:F241 F22:F58 F60:F87 F140:F198 F89:F136 F247:F397">
-    <cfRule type="expression" dxfId="111" priority="122">
+    <cfRule type="expression" dxfId="128" priority="122">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="123">
+    <cfRule type="expression" dxfId="127" priority="123">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21 F23 F25 F27 F29 F31 F33 F35 F37 F39 F41 F43 F45 F47 F49 F51 F53 F55 F57 F60 F62 F64 F66 F68 F70 F72 F74 F76 F78 F80 F82 F84 F86 F89 F91 F93 F95 F97 F99 F101 F103 F105 F107 F109 F111 F113 F115 F117 F119 F121 F123 F125 F127 F129 F131 F133:F136">
-    <cfRule type="expression" dxfId="109" priority="116">
+    <cfRule type="expression" dxfId="126" priority="116">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="117">
+    <cfRule type="expression" dxfId="125" priority="117">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="118">
+    <cfRule type="expression" dxfId="124" priority="118">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21 F23 F25 F27 F29 F31 F33 F35 F37 F39 F41 F43 F45 F47 F49 F51 F53 F55 F57 F60 F62 F64 F66 F68 F70 F72 F74 F76 F78 F80 F82 F84 F86 F89 F91 F93 F95 F97 F99 F101 F103 F105 F107 F109 F111 F113 F115 F117 F119 F121 F123 F125 F127 F129 F131 F133:F136">
-    <cfRule type="expression" dxfId="106" priority="111">
+    <cfRule type="expression" dxfId="123" priority="111">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="112">
+    <cfRule type="expression" dxfId="122" priority="112">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="113">
+    <cfRule type="expression" dxfId="121" priority="113">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="expression" dxfId="103" priority="114">
+    <cfRule type="expression" dxfId="120" priority="114">
       <formula>NOT(VLOOKUP(F21,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="115">
+    <cfRule type="expression" dxfId="119" priority="115">
       <formula>(VLOOKUP(F21,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F199 F175 F335 F178 F180 F182 F184 F186 F188 F190:F194 F152 F154 F156 F158 F160 F165 F167:F168 F170 F172 F305:F306 F326 F291 F293 F295 F297 F299 F301 F303 F140 F142 F145 F249 F251 F253 F256 F258 F260 F262 F147 F149:F150">
-    <cfRule type="expression" dxfId="101" priority="108">
+    <cfRule type="expression" dxfId="118" priority="108">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="109">
+    <cfRule type="expression" dxfId="117" priority="109">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="110">
+    <cfRule type="expression" dxfId="116" priority="110">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F199 F175 F335 F178 F180 F182 F184 F186 F188 F190:F194 F152 F154 F156 F158 F160 F165 F167:F168 F170 F172 F305:F306 F326 F291 F293 F295 F297 F299 F301 F303 F140 F142 F145 F249 F251 F253 F256 F258 F260 F262 F147 F149:F150">
-    <cfRule type="expression" dxfId="98" priority="103">
+    <cfRule type="expression" dxfId="115" priority="103">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="104">
+    <cfRule type="expression" dxfId="114" priority="104">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="105">
+    <cfRule type="expression" dxfId="113" priority="105">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F199">
-    <cfRule type="expression" dxfId="95" priority="106">
+    <cfRule type="expression" dxfId="112" priority="106">
       <formula>NOT(VLOOKUP(F199,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="107">
+    <cfRule type="expression" dxfId="111" priority="107">
       <formula>(VLOOKUP(F199,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F200 F195:F198 F176:F177 F179 F181 F183 F185 F187 F189 F151 F153 F155 F157 F159 F161:F164 F166 F169 F171 F173:F174 F290 F327 F292 F294 F296 F298 F300 F302 F304 F141 F143:F144 F248 F250 F252 F254:F255 F257 F259 F261 F146 F148">
-    <cfRule type="expression" dxfId="93" priority="100">
+    <cfRule type="expression" dxfId="110" priority="100">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="101">
+    <cfRule type="expression" dxfId="109" priority="101">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="102">
+    <cfRule type="expression" dxfId="108" priority="102">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F200 F195:F198 F176:F177 F179 F181 F183 F185 F187 F189 F151 F153 F155 F157 F159 F161:F164 F166 F169 F171 F173:F174 F290 F327 F292 F294 F296 F298 F300 F302 F304 F141 F143:F144 F248 F250 F252 F254:F255 F257 F259 F261 F146 F148">
-    <cfRule type="expression" dxfId="90" priority="95">
+    <cfRule type="expression" dxfId="107" priority="95">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="96">
+    <cfRule type="expression" dxfId="106" priority="96">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="97">
+    <cfRule type="expression" dxfId="105" priority="97">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F200">
-    <cfRule type="expression" dxfId="87" priority="98">
+    <cfRule type="expression" dxfId="104" priority="98">
       <formula>NOT(VLOOKUP(F200,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="99">
+    <cfRule type="expression" dxfId="103" priority="99">
       <formula>(VLOOKUP(F200,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F399:F411">
-    <cfRule type="expression" dxfId="85" priority="92">
+    <cfRule type="expression" dxfId="102" priority="92">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="93">
+    <cfRule type="expression" dxfId="101" priority="93">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="94">
+    <cfRule type="expression" dxfId="100" priority="94">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F399:F411">
-    <cfRule type="expression" dxfId="82" priority="87">
+    <cfRule type="expression" dxfId="99" priority="87">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="88">
+    <cfRule type="expression" dxfId="98" priority="88">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="89">
+    <cfRule type="expression" dxfId="97" priority="89">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F399:F411">
-    <cfRule type="expression" dxfId="79" priority="90">
+    <cfRule type="expression" dxfId="96" priority="90">
       <formula>NOT(VLOOKUP(F399,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="91">
+    <cfRule type="expression" dxfId="95" priority="91">
       <formula>(VLOOKUP(F399,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F137:F139">
-    <cfRule type="expression" dxfId="77" priority="84">
+    <cfRule type="expression" dxfId="94" priority="84">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="85">
+    <cfRule type="expression" dxfId="93" priority="85">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="86">
+    <cfRule type="expression" dxfId="92" priority="86">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F137:F139">
-    <cfRule type="expression" dxfId="74" priority="79">
+    <cfRule type="expression" dxfId="91" priority="79">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="80">
+    <cfRule type="expression" dxfId="90" priority="80">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="81">
+    <cfRule type="expression" dxfId="89" priority="81">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F137:F139">
-    <cfRule type="expression" dxfId="71" priority="82">
+    <cfRule type="expression" dxfId="88" priority="82">
       <formula>NOT(VLOOKUP(F137,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="83">
+    <cfRule type="expression" dxfId="87" priority="83">
       <formula>(VLOOKUP(F137,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="expression" dxfId="69" priority="76">
+    <cfRule type="expression" dxfId="86" priority="76">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="77">
+    <cfRule type="expression" dxfId="85" priority="77">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="78">
+    <cfRule type="expression" dxfId="84" priority="78">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="expression" dxfId="66" priority="71">
+    <cfRule type="expression" dxfId="83" priority="71">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="72">
+    <cfRule type="expression" dxfId="82" priority="72">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="73">
+    <cfRule type="expression" dxfId="81" priority="73">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="expression" dxfId="63" priority="74">
+    <cfRule type="expression" dxfId="80" priority="74">
       <formula>NOT(VLOOKUP(F59,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="75">
+    <cfRule type="expression" dxfId="79" priority="75">
       <formula>(VLOOKUP(F59,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F88">
-    <cfRule type="expression" dxfId="61" priority="68">
+    <cfRule type="expression" dxfId="78" priority="68">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="69">
+    <cfRule type="expression" dxfId="77" priority="69">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="70">
+    <cfRule type="expression" dxfId="76" priority="70">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F88">
-    <cfRule type="expression" dxfId="58" priority="63">
+    <cfRule type="expression" dxfId="75" priority="63">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="64">
+    <cfRule type="expression" dxfId="74" priority="64">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="65">
+    <cfRule type="expression" dxfId="73" priority="65">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F88">
-    <cfRule type="expression" dxfId="55" priority="66">
+    <cfRule type="expression" dxfId="72" priority="66">
       <formula>NOT(VLOOKUP(F88,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="67">
+    <cfRule type="expression" dxfId="71" priority="67">
       <formula>(VLOOKUP(F88,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F398">
-    <cfRule type="expression" dxfId="53" priority="52">
+    <cfRule type="expression" dxfId="70" priority="52">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="53">
+    <cfRule type="expression" dxfId="69" priority="53">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="54">
+    <cfRule type="expression" dxfId="68" priority="54">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F398">
-    <cfRule type="expression" dxfId="50" priority="47">
+    <cfRule type="expression" dxfId="67" priority="47">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="48">
+    <cfRule type="expression" dxfId="66" priority="48">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="49">
+    <cfRule type="expression" dxfId="65" priority="49">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F398">
-    <cfRule type="expression" dxfId="47" priority="50">
+    <cfRule type="expression" dxfId="64" priority="50">
       <formula>NOT(VLOOKUP(F398,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="51">
+    <cfRule type="expression" dxfId="63" priority="51">
       <formula>(VLOOKUP(F398,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D307">
-    <cfRule type="expression" dxfId="45" priority="44">
+    <cfRule type="expression" dxfId="62" priority="44">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="45">
+    <cfRule type="expression" dxfId="61" priority="45">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="46">
+    <cfRule type="expression" dxfId="60" priority="46">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D307">
-    <cfRule type="expression" dxfId="42" priority="41">
+    <cfRule type="expression" dxfId="59" priority="41">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="42">
+    <cfRule type="expression" dxfId="58" priority="42">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="43">
+    <cfRule type="expression" dxfId="57" priority="43">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F242">
-    <cfRule type="expression" dxfId="39" priority="38">
+    <cfRule type="expression" dxfId="56" priority="38">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="39">
+    <cfRule type="expression" dxfId="55" priority="39">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="40">
+    <cfRule type="expression" dxfId="54" priority="40">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F242">
-    <cfRule type="expression" dxfId="36" priority="33">
+    <cfRule type="expression" dxfId="53" priority="33">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="34">
+    <cfRule type="expression" dxfId="52" priority="34">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="35">
+    <cfRule type="expression" dxfId="51" priority="35">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F242">
-    <cfRule type="expression" dxfId="33" priority="36">
+    <cfRule type="expression" dxfId="50" priority="36">
       <formula>NOT(VLOOKUP(F242,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="37">
+    <cfRule type="expression" dxfId="49" priority="37">
       <formula>(VLOOKUP(F242,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F243">
-    <cfRule type="expression" dxfId="31" priority="30">
+    <cfRule type="expression" dxfId="48" priority="30">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="31">
+    <cfRule type="expression" dxfId="47" priority="31">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="32">
+    <cfRule type="expression" dxfId="46" priority="32">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F243">
-    <cfRule type="expression" dxfId="28" priority="25">
+    <cfRule type="expression" dxfId="45" priority="25">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="26">
+    <cfRule type="expression" dxfId="44" priority="26">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="27">
+    <cfRule type="expression" dxfId="43" priority="27">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F243">
-    <cfRule type="expression" dxfId="25" priority="28">
+    <cfRule type="expression" dxfId="42" priority="28">
       <formula>NOT(VLOOKUP(F243,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="29">
+    <cfRule type="expression" dxfId="41" priority="29">
       <formula>(VLOOKUP(F243,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F244">
-    <cfRule type="expression" dxfId="23" priority="22">
+    <cfRule type="expression" dxfId="40" priority="22">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="23">
+    <cfRule type="expression" dxfId="39" priority="23">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="24">
+    <cfRule type="expression" dxfId="38" priority="24">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F244">
-    <cfRule type="expression" dxfId="20" priority="17">
+    <cfRule type="expression" dxfId="37" priority="17">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="18">
+    <cfRule type="expression" dxfId="36" priority="18">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="19">
+    <cfRule type="expression" dxfId="35" priority="19">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F244">
-    <cfRule type="expression" dxfId="17" priority="20">
+    <cfRule type="expression" dxfId="34" priority="20">
       <formula>NOT(VLOOKUP(F244,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="21">
+    <cfRule type="expression" dxfId="33" priority="21">
       <formula>(VLOOKUP(F244,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F245 F247">
-    <cfRule type="expression" dxfId="15" priority="14">
+    <cfRule type="expression" dxfId="32" priority="14">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="15">
+    <cfRule type="expression" dxfId="31" priority="15">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="16">
+    <cfRule type="expression" dxfId="30" priority="16">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F245 F247">
-    <cfRule type="expression" dxfId="12" priority="9">
+    <cfRule type="expression" dxfId="29" priority="9">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="10">
+    <cfRule type="expression" dxfId="28" priority="10">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="27" priority="11">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F245">
-    <cfRule type="expression" dxfId="9" priority="12">
+    <cfRule type="expression" dxfId="26" priority="12">
       <formula>NOT(VLOOKUP(F245,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="13">
+    <cfRule type="expression" dxfId="25" priority="13">
       <formula>(VLOOKUP(F245,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F246">
-    <cfRule type="expression" dxfId="7" priority="6">
+    <cfRule type="expression" dxfId="24" priority="6">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="23" priority="7">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="8">
+    <cfRule type="expression" dxfId="22" priority="8">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F246">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="21" priority="1">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="20" priority="2">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="19" priority="3">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F246">
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="18" priority="4">
       <formula>NOT(VLOOKUP(F246,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="5">
+    <cfRule type="expression" dxfId="17" priority="5">
       <formula>(VLOOKUP(F246,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16101,9 +16101,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16156,24 +16159,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -16194,9 +16188,15 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SharePoint/Docs/MS-VERSS/MS-VERSS_RequirementSpecification.xlsx
+++ b/SharePoint/Docs/MS-VERSS/MS-VERSS_RequirementSpecification.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Interop-TestSuites-1\SharePoint\Docs\MS-VERSS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\v-hujia1.FAREAST\Source\Repos\Interop-TestSuites-1\SharePoint\Docs\MS-VERSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB244F0B-4AAA-495E-B076-D08F74A068D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6DFA08-8EA6-4DF8-B50D-8705A2427E7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3025" uniqueCount="922">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3024" uniqueCount="922">
   <si>
     <t>Req ID</t>
   </si>
@@ -3151,15 +3151,6 @@
     <t>[In Appendix B: Product Behavior] Implementation does return a SOAP exception without an error code if fileName contains equals sign (=). (&lt;4&gt; Section 3.1.4.1.2.2: If fileName contains equals sign (=), SharePoint Foundation 2010, SharePoint Foundation 2013 and SharePoint Server 2016 return a SOAP exception without an error code.)</t>
   </si>
   <si>
-    <t>[In Appendix B: Product Behavior] Implementation does not return an error to indicate that the tab (\t) character is at the end of the fileName. (&lt;6&gt; Section 3.1.4.2.2.2: The tab (\t) character is ignored at the end of the fileName on Windows SharePoint Services 3.0, SharePoint Foundation 2010,SharePoint Foundation 2013 and SharePoint Server 2016.)</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] Implementation does not return an error to indicate that the backward slash (\) character is at the end of the fileName. (&lt;6&gt; Section 3.1.4.2.2.2: The backward slash (\) character is ignored at the end of the fileName on Windows SharePoint Services 3.0, SharePoint Foundation 2010, SharePoint Foundation 2013 and SharePoint Server 2016.)</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] Implementation does not return an error to indicate that the backward slash (\) character is at the end of the fileName. (&lt;4&gt; Section 3.1.4.1.2.2: The backward slash (\) character is ignored at the end of the fileName on Windows SharePoint Services 3.0, SharePoint Foundation 2010, SharePoint Foundation 2013 and SharePoint Server 2016.)</t>
-  </si>
-  <si>
     <t>[In Appendix B: Product Behavior] Implementation does return different error. (&lt;6&gt; Section 3.1.4.2.2.2: Windows SharePoint Services 3.0, SharePoint Foundation 2010, SharePoint Foundation 2013 and SharePoint Server 2016 return different error codes depending on where the backward slash (\) occurs in the file name.)</t>
   </si>
   <si>
@@ -3199,7 +3190,16 @@
     <t>[In Protocol Details] This protocol allows protocol servers to provide additional details for SOAP faults by including either a detail element as specified in [SOAP1.1] section 4.4 or a Detail element as specified in [SOAP1.2-1/2007] section 5.4.5.</t>
   </si>
   <si>
-    <t>[In Appendix B: Product Behavior] Implementation does not return an error to indicate that the tab (\t) character is at the end of the fileName. (&lt;4&gt; Section 3.1.4.1.2.2: The tab (\t) character is ignored at the end of the fileName on Windows SharePoint Services 3.0, SharePoint Foundation 2010, SharePoint Foundation 2013 and SharePoint Server 2016.)</t>
+    <t>[In Appendix B: Product Behavior] Implementation does not return an error to indicate that the backward slash (\) character is at the end of the fileName. (&lt;4&gt; Section 3.1.4.1.2.2: The tab (\t) character and the backward slash(\) are ignored at the end of the fileName on Windows SharePoint Services 3.0, SharePoint Foundation 2010, SharePoint Foundation 2013, and SharePoint Server 2016. )</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does not return an error to indicate that the tab (\t) character is at the end of the fileName. (&lt;4&gt; Section 3.1.4.1.2.2: The tab (\t) character and the backward slash(\) ignored at the end of the fileName on Windows SharePoint Services 3.0, SharePoint Foundation 2010, SharePoint Foundation 2013, and SharePoint Server 2016.)</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does not return an error to indicate that the tab (\t) character is at the end of the fileName.(&lt;6&gt; Section 3.1.4.2.2.2: The tab (\t) character and the backward slash (\) character are ignored at the end of the fileName on Windows SharePoint Services 3.0, SharePoint Foundation 2010, SharePoint Foundation 2013 and SharePoint Server 2016.)</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does not return an error to indicate that the backward slash (\) character is at the end of the fileName.  (&lt;6&gt; Section 3.1.4.2.2.2: The tab (\t) character and the backward slash (\) character are ignored at the end of the fileName on Windows SharePoint Services 3.0, SharePoint Foundation 2010, SharePoint Foundation 2013, and SharePoint Server 2016.)</t>
   </si>
 </sst>
 </file>
@@ -4981,8 +4981,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L411"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A280" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C286" sqref="C286"/>
+    <sheetView tabSelected="1" topLeftCell="A304" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C331" sqref="C331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7439,7 +7439,7 @@
         <v>147</v>
       </c>
       <c r="C104" s="18" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="D104" s="17"/>
       <c r="E104" s="11" t="s">
@@ -10857,7 +10857,7 @@
         <v>325</v>
       </c>
       <c r="C240" s="19" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="D240" s="17"/>
       <c r="E240" s="11" t="s">
@@ -10882,7 +10882,7 @@
         <v>325</v>
       </c>
       <c r="C241" s="18" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="D241" s="17"/>
       <c r="E241" s="11" t="s">
@@ -12088,7 +12088,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="285" spans="1:9" s="35" customFormat="1" ht="60">
+    <row r="285" spans="1:9" s="35" customFormat="1" ht="75">
       <c r="A285" s="33" t="s">
         <v>328</v>
       </c>
@@ -12096,7 +12096,7 @@
         <v>325</v>
       </c>
       <c r="C285" s="34" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="D285" s="34" t="s">
         <v>599</v>
@@ -12125,7 +12125,7 @@
         <v>325</v>
       </c>
       <c r="C286" s="34" t="s">
-        <v>907</v>
+        <v>918</v>
       </c>
       <c r="D286" s="34" t="s">
         <v>599</v>
@@ -13329,7 +13329,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="330" spans="1:9" s="35" customFormat="1" ht="60">
+    <row r="330" spans="1:9" s="35" customFormat="1" ht="75">
       <c r="A330" s="33" t="s">
         <v>591</v>
       </c>
@@ -13337,7 +13337,7 @@
         <v>325</v>
       </c>
       <c r="C330" s="34" t="s">
-        <v>905</v>
+        <v>920</v>
       </c>
       <c r="D330" s="34" t="s">
         <v>587</v>
@@ -13366,7 +13366,7 @@
         <v>325</v>
       </c>
       <c r="C331" s="34" t="s">
-        <v>906</v>
+        <v>921</v>
       </c>
       <c r="D331" s="34" t="s">
         <v>587</v>
@@ -13395,7 +13395,7 @@
         <v>325</v>
       </c>
       <c r="C332" s="34" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D332" s="34" t="s">
         <v>594</v>
@@ -13416,13 +13416,13 @@
     </row>
     <row r="333" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A333" s="33" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="B333" s="34" t="s">
         <v>325</v>
       </c>
       <c r="C333" s="19" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="D333" s="34" t="s">
         <v>594</v>
@@ -13445,13 +13445,13 @@
     </row>
     <row r="334" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A334" s="33" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="B334" s="34" t="s">
         <v>325</v>
       </c>
       <c r="C334" s="19" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D334" s="34" t="s">
         <v>594</v>
@@ -13466,11 +13466,9 @@
         <v>16</v>
       </c>
       <c r="H334" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I334" s="34" t="s">
-        <v>661</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="I334" s="34"/>
     </row>
     <row r="335" spans="1:9" s="35" customFormat="1" ht="45">
       <c r="A335" s="33" t="s">
@@ -14661,7 +14659,7 @@
         <v>325</v>
       </c>
       <c r="C378" s="19" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="D378" s="34" t="s">
         <v>657</v>
@@ -14688,7 +14686,7 @@
         <v>325</v>
       </c>
       <c r="C379" s="19" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="D379" s="34" t="s">
         <v>657</v>
@@ -14715,7 +14713,7 @@
         <v>325</v>
       </c>
       <c r="C380" s="37" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="D380" s="34" t="s">
         <v>657</v>
@@ -14744,7 +14742,7 @@
         <v>325</v>
       </c>
       <c r="C381" s="38" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="D381" s="34" t="s">
         <v>657</v>
@@ -14773,7 +14771,7 @@
         <v>325</v>
       </c>
       <c r="C382" s="38" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="D382" s="34" t="s">
         <v>657</v>

--- a/SharePoint/Docs/MS-VERSS/MS-VERSS_RequirementSpecification.xlsx
+++ b/SharePoint/Docs/MS-VERSS/MS-VERSS_RequirementSpecification.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\v-hujia1.FAREAST\Source\Repos\Interop-TestSuites-1\SharePoint\Docs\MS-VERSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6DFA08-8EA6-4DF8-B50D-8705A2427E7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A782599-847F-4C1B-A033-13702F79001A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3509,30 +3509,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3568,6 +3544,30 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4981,8 +4981,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L411"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A304" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C331" sqref="C331"/>
+    <sheetView tabSelected="1" topLeftCell="A325" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C329" sqref="C329"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5039,126 +5039,126 @@
       <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:10" ht="20.25">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="55" t="s">
         <v>533</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
       <c r="J5" s="25"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="57" t="s">
         <v>554</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
       <c r="J6" s="25"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="56" t="s">
         <v>555</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
       <c r="J7" s="25"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="56" t="s">
         <v>534</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
       <c r="J8" s="25"/>
     </row>
     <row r="9" spans="1:10" ht="78" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="52" t="s">
         <v>556</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="42"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="54"/>
       <c r="J9" s="25"/>
     </row>
     <row r="10" spans="1:10" ht="35.25" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="40" t="s">
         <v>557</v>
       </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="50"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="42"/>
       <c r="J10" s="25"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="43" t="s">
         <v>558</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
       <c r="J11" s="25"/>
     </row>
     <row r="12" spans="1:10">
@@ -5171,12 +5171,12 @@
       <c r="C12" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
       <c r="J12" s="25"/>
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1">
@@ -5189,12 +5189,12 @@
       <c r="C13" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
       <c r="J13" s="25"/>
     </row>
     <row r="14" spans="1:10">
@@ -5207,12 +5207,12 @@
       <c r="C14" s="15" t="s">
         <v>560</v>
       </c>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
       <c r="J14" s="25"/>
     </row>
     <row r="15" spans="1:10">
@@ -5225,60 +5225,60 @@
       <c r="C15" s="15" t="s">
         <v>561</v>
       </c>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
       <c r="J15" s="25"/>
     </row>
     <row r="16" spans="1:10" ht="36.75" customHeight="1">
       <c r="A16" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="47" t="s">
         <v>563</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
       <c r="J16" s="25"/>
     </row>
     <row r="17" spans="1:12" ht="95.25" customHeight="1">
       <c r="A17" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="57" t="s">
+      <c r="B17" s="49" t="s">
         <v>564</v>
       </c>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="59"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="51"/>
       <c r="J17" s="25"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="43" t="s">
         <v>562</v>
       </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
       <c r="J18" s="25"/>
       <c r="L18" s="3"/>
     </row>
@@ -15580,18 +15580,18 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="12">
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
     <mergeCell ref="B18:I18"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C399:C411 F201:F241 F307:F325 B349:B377 F263:F289 F336:F397 F328:F334">
@@ -16099,15 +16099,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -16156,6 +16147,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement/>
@@ -16163,14 +16163,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16181,6 +16173,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/SharePoint/Docs/MS-VERSS/MS-VERSS_RequirementSpecification.xlsx
+++ b/SharePoint/Docs/MS-VERSS/MS-VERSS_RequirementSpecification.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\v-hujia1.FAREAST\Source\Repos\Interop-TestSuites-1\SharePoint\Docs\MS-VERSS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Disk D\Interop-TestSuites\SharePoint\Docs\MS-VERSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A782599-847F-4C1B-A033-13702F79001A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D888803-A5FF-4793-A6C3-541BCFDB03AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3024" uniqueCount="922">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3282" uniqueCount="989">
   <si>
     <t>Req ID</t>
   </si>
@@ -2893,9 +2893,6 @@
     <t>[In Appendix B: Product Behavior] Implementation does return error code 0x81070970 indicate that the folder name of the RestoreVersion element contains invalid characters, invalid character contains (%),(&amp;),(*),(:),(&lt;),(&gt;),({),(|),(}),(~),("),(..) and Any character that has a value less than 32 or greater than 126. (&lt;11&gt; Section 3.1.4.4.2.2: Windows SharePoint Services 3.0 returns error code 0x81070970 for invalid characters with the description, "The file or folder name fileName contains invalid characters. Please use a different name. Common invalid characters include the following: # % &amp;amp; *: &amp;lt; &amp;gt; ? / { | }".)</t>
   </si>
   <si>
-    <t>Verified by derived requirements: MS-VERSS_R17600, MS-VERSS_R17601, MS-VERSS_R17602, MS-VERSS_R17621, MS-VERSS_R19602, MS-VERSS_R19620, MS-VERSS_R197, MS-VERSS_R19702, MS-VERSS_R19701, MS-VERSS_R19703, MS-VERSS_R19704, MS-VERSS_R19705</t>
-  </si>
-  <si>
     <t>[In Appendix B: Product Behavior] Implementation does return error code 0x81070905 to indicate that the fileName element of the DeleteAllVersions element contains invalid character that has a value less than 32 or greater than 126. (&lt;3&gt; Section 3.1.4.1.2.2: Windows SharePoint Services 3.0 returns the 0x81070905 error code for invalid characters.)</t>
   </si>
   <si>
@@ -3095,9 +3092,6 @@
   </si>
   <si>
     <t>[In Appendix B: Product Behavior] Implementation does not return an error code element but does return an error string of "Object reference not set to an instance of an object." when the file does not exist. (&lt;7&gt; Section 3.1.4.2.2.2:  Windows SharePoint Services 3.0 does not return an error code element but does return an error string of "Object reference not set to an instance of an object.")</t>
-  </si>
-  <si>
-    <t>Verified by derived requirements: MS-VERSS_R17201, MS-VERSS_R1930101, MS-VERSS_R1930201, MS-VERSS_R1930202, MS-VERSS_R1930203, MS-VERSS_R1930204, MS-VERSS_R1930213, MS-VERSS_R1930214, MS-VERSS_R19302, MS-VERSS_R1930205,MS-VERSS_R1930208</t>
   </si>
   <si>
     <t>MS-VERSS_R19610</t>
@@ -3178,9 +3172,6 @@
     <t>[In Appendix B: Product Behavior] Implementation does return different error. (&lt;10&gt; Section 3.1.4.4.2.2: Windows SharePoint Services 3.0, SharePoint Foundation 2010, SharePoint Foundation 2013 and SharePoint Server 2016 return different error codes depending on where the forward slash (/) occurs in the file specification.)</t>
   </si>
   <si>
-    <t>[In Appendix B: Product Behavior] Implementation does not return an error to indicate that two consecutive dots (..) is at the end of the fileName. (&lt;10&gt; Section 3.1.4.4.2.2: In Windows SharePoint Services 3.0, SharePoint Foundation 2010, SharePoint Foundation 2013 and SharePoint Server 2016, two consecutive dots (..) are ignored at the end of the fileName.)</t>
-  </si>
-  <si>
     <t>[In Appendix B: Product Behavior] Unless otherwise specified, any statement of optional behavior in this specification that is prescribed using the terms "SHOULD" or "SHOULD NOT" implies product behavior in accordance with the SHOULD or SHOULD NOT prescription.</t>
   </si>
   <si>
@@ -3200,6 +3191,217 @@
   </si>
   <si>
     <t>[In Appendix B: Product Behavior] Implementation does not return an error to indicate that the backward slash (\) character is at the end of the fileName.  (&lt;6&gt; Section 3.1.4.2.2.2: The tab (\t) character and the backward slash (\) character are ignored at the end of the fileName on Windows SharePoint Services 3.0, SharePoint Foundation 2010, SharePoint Foundation 2013, and SharePoint Server 2016.)</t>
+  </si>
+  <si>
+    <t>Verified by derived requirements: MS-VERSS_R17201, MS-VERSS_R1930101, MS-VERSS_R1931101, MS-VERSS_R1930201, MS-VERSS_R1930202, MS-VERSS_R1930203, MS-VERSS_R1930204, MS-VERSS_R1930213, MS-VERSS_R1930214, MS-VERSS_R19302, MS-VERSS_R1930205,MS-VERSS_R1930208</t>
+  </si>
+  <si>
+    <t>MS-VERSS_R1931101</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does return error code 0x81070905 to indicate that the fileName element of the DeleteAllVersions element contains invalid characters, invalid character contains ("),(%),(&amp;),(*),(:),(&lt;),(=),(&gt;),({),(|),(}),(~),(\t),(..) and Any character that has a value less than 32 or greater than 126. (&lt;3&gt; Section 3.1.4.1.2.2: SharePoint Server 2019 return a SOAP exception without an error code.)</t>
+  </si>
+  <si>
+    <t>MS-VERSS_R1931103</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does return error code 0x81070905 to indicate that the fileName element of the DeleteAllVersions element contains invalid character Double quotation mark ("). (&lt;3&gt; Section 3.1.4.1.2.2: SharePoint Server 2019 return a SOAP exception without an error code.)</t>
+  </si>
+  <si>
+    <t>MS-VERSS_R1931101:c</t>
+  </si>
+  <si>
+    <t>MS-VERSS_R1931105</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does return error code 0x81070905 to indicate that the fileName element of the DeleteAllVersions element contains invalid character Percent sign (%). (&lt;3&gt; Section 3.1.4.1.2.2: SharePoint Server 2019 return a SOAP exception without an error code.)</t>
+  </si>
+  <si>
+    <t>MS-VERSS_R1931106</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does return error code 0x81070905 to indicate that the fileName element of the DeleteAllVersions element contains invalid character Ampersand (&amp;). (&lt;3&gt; Section 3.1.4.1.2.2: SharePoint Server 2019 return a SOAP exception without an error code.)</t>
+  </si>
+  <si>
+    <t>MS-VERSS_R1931107</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does return error code 0x81070905 to indicate that the fileName element of the DeleteAllVersions element contains invalid character Asterisk (*). (&lt;3&gt; Section 3.1.4.1.2.2: SharePoint Server 2019 return a SOAP exception without an error code.)</t>
+  </si>
+  <si>
+    <t>MS-VERSS_R1931108</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does return error code 0x81070905 to indicate that the fileName element of the DeleteAllVersions element contains invalid character Colon (:). (&lt;3&gt; Section 3.1.4.1.2.2: SharePoint Server 2019 return a SOAP exception without an error code.)</t>
+  </si>
+  <si>
+    <t>MS-VERSS_R1931109</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does return error code 0x81070905 to indicate that the fileName element of the DeleteAllVersions element contains invalid character Left angle bracket (&lt;). (&lt;3&gt; Section 3.1.4.1.2.2: SharePoint Server 2019 return a SOAP exception without an error code.)</t>
+  </si>
+  <si>
+    <t>MS-VERSS_R1931110</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does return error code 0x81070905 to indicate that the fileName element of the DeleteAllVersions element contains invalid character Equal sign (=). (&lt;3&gt; Section 3.1.4.1.2.2: SharePoint Server 2019 return a SOAP exception without an error code.)</t>
+  </si>
+  <si>
+    <t>Unverified</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS-VERSS_R1931111</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does return error code 0x81070905 to indicate that the fileName element of the DeleteAllVersions element contains invalid character Right angle bracket (&gt;). (&lt;3&gt; Section 3.1.4.1.2.2: SharePoint Server 2019 return a SOAP exception without an error code.)</t>
+  </si>
+  <si>
+    <t>MS-VERSS_R1931114</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does return error code 0x81070905 to indicate that the fileName element of the DeleteAllVersions element contains invalid character Left curly bracket ({). (&lt;3&gt; Section 3.1.4.1.2.2: SharePoint Server 2019 return a SOAP exception without an error code.)</t>
+  </si>
+  <si>
+    <t>MS-VERSS_R1931116</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does return error code 0x81070905 to indicate that the fileName element of the DeleteAllVersions element contains invalid character Vertical bar (|). (&lt;3&gt; Section 3.1.4.1.2.2: SharePoint Server 2019 return a SOAP exception without an error code.)</t>
+  </si>
+  <si>
+    <t>MS-VERSS_R1931117</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does return error code 0x81070905 to indicate that the fileName element of the DeleteAllVersions element contains invalid character Right curly bracket (}). (&lt;3&gt; Section 3.1.4.1.2.2: SharePoint Server 2019 return a SOAP exception without an error code.)</t>
+  </si>
+  <si>
+    <t>MS-VERSS_R1931118</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does return error code 0x81070905 to indicate that the fileName element of the DeleteAllVersions element contains invalid character Tilde (~). (&lt;3&gt; Section 3.1.4.1.2.2: SharePoint Server 2019 return a SOAP exception without an error code.)</t>
+  </si>
+  <si>
+    <t>MS-VERSS_R1931119</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does return error code 0x81070905 to indicate that the fileName element of the DeleteAllVersions element contains invalid character Two consecutive dots (..). (&lt;3&gt; Section 3.1.4.1.2.2: SharePoint Server 2019 return a SOAP exception without an error code.)</t>
+  </si>
+  <si>
+    <t>MS-VERSS_R1931120</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does return error code 0x81070905 to indicate that the fileName element of the DeleteAllVersions element contains invalid character that has a value less than 32 or greater than 126. (&lt;3&gt; Section 3.1.4.1.2.2: SharePoint Server 2019 return a SOAP exception without an error code.)</t>
+  </si>
+  <si>
+    <t>MS-VERSS_R1931113</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does return error code 0x81070905 to indicate that the fileName element of the DeleteAllVersions element contains invalid character Tab (\t), it is not at the end of the fileName. (&lt;3&gt; Section 3.1.4.1.2.2: SharePoint Server 2019 return a SOAP exception without an error code.)</t>
+  </si>
+  <si>
+    <t>MS-VERSS_R1960102</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does return error code 0x81070970 to indicate that the fileName element of the DeleteVersion element contains invalid characters, invalid character contains ("),(%),(&amp;),(*),(:),(&lt;),(=)(&gt;),({),(|),(}),(~),(/),(..) and Any character that has a value less than 32 or greater than 126. (&lt;5&gt; Section 3.1.4.2.2.2:  SharePoint Server 2019 returns 0x80131600 error code for invalid characters.)</t>
+  </si>
+  <si>
+    <t>MS-VERSS_R1960103</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does return error code 0x81070970 to indicate that the fileName element of the DeleteVersion element contains invalid character Double quotation mark ("). (&lt;5&gt; Section 3.1.4.2.2.2:  SharePoint Server 2019 returns 0x80131600 error code for invalid characters.)</t>
+  </si>
+  <si>
+    <t>MS-VERSS_R1960102:c</t>
+  </si>
+  <si>
+    <t>MS-VERSS_R1960105</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does return error code 0x81070970 to indicate that the fileName element of the DeleteVersion element contains invalid character Percent sign (%). (&lt;5&gt; Section 3.1.4.2.2.2:  SharePoint Server 2019 returns 0x80131600 error code for invalid characters.)</t>
+  </si>
+  <si>
+    <t>MS-VERSS_R1960106</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does return error code 0x81070970 to indicate that the fileName element of the DeleteVersion element contains invalid character Ampersand (&amp;). (&lt;5&gt; Section 3.1.4.2.2.2:  SharePoint Server 2019 returns 0x80131600 error code for invalid characters.)</t>
+  </si>
+  <si>
+    <t>MS-VERSS_R1960107</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does return error code 0x81070970 to indicate that the fileName element of the DeleteVersion element contains invalid character Asterisk (*). (&lt;5&gt; Section 3.1.4.2.2.2:  SharePoint Server 2019 returns 0x80131600 error code for invalid characters.)</t>
+  </si>
+  <si>
+    <t>MS-VERSS_R1960108</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does return error code 0x81070970 to indicate that the fileName element of the DeleteVersion element contains invalid character Colon (:). (&lt;5&gt; Section 3.1.4.2.2.2:  SharePoint Server 2019 returns 0x80131600 error code for invalid characters.)</t>
+  </si>
+  <si>
+    <t>MS-VERSS_R1960109</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does return error code 0x81070970 to indicate that the fileName element of the DeleteVersion element contains invalid character Left angle bracket (&lt;). (&lt;5&gt; Section 3.1.4.2.2.2:  SharePoint Server 2019 returns 0x80131600 error code for invalid characters.)</t>
+  </si>
+  <si>
+    <t>MS-VERSS_R1960110</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does return error code 0x81070970 to indicate that the fileName element of the DeleteVersion element contains invalid character Equal sign (=). (&lt;5&gt; Section 3.1.4.2.2.2:  SharePoint Server 2019 returns 0x80131600 error code for invalid characters.)</t>
+  </si>
+  <si>
+    <t>MS-VERSS_R1960111</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does return error code 0x81070970 to indicate that the fileName element of the DeleteVersion element contains invalid character Right angle bracket (&gt;). (&lt;5&gt; Section 3.1.4.2.2.2:  SharePoint Server 2019 returns 0x80131600 error code for invalid characters.)</t>
+  </si>
+  <si>
+    <t>MS-VERSS_R1960114</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does return error code 0x81070970 to indicate that the fileName element of the DeleteVersion element contains invalid character Left curly bracket ({). (&lt;5&gt; Section 3.1.4.2.2.2:  SharePoint Server 2019 returns 0x80131600 error code for invalid characters.)</t>
+  </si>
+  <si>
+    <t>MS-VERSS_R1960115</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does return error code 0x81070970 to indicate that the fileName element of the DeleteVersion element contains invalid character Vertical bar (|). (&lt;5&gt; Section 3.1.4.2.2.2:  SharePoint Server 2019 returns 0x80131600 error code for invalid characters.)</t>
+  </si>
+  <si>
+    <t>MS-VERSS_R1960116</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does return error code 0x81070970 to indicate that the fileName element of the DeleteVersion element contains invalid character Right curly bracket (}). (&lt;5&gt; Section 3.1.4.2.2.2:  SharePoint Server 2019 returns 0x80131600 error code for invalid characters.)</t>
+  </si>
+  <si>
+    <t>MS-VERSS_R1960117</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does return error code 0x81070970 to indicate that the fileName element of the DeleteVersion element contains invalid character Tilde (~). (&lt;5&gt; Section 3.1.4.2.2.2:  SharePoint Server 2019 returns 0x80131600 error code for invalid characters.)</t>
+  </si>
+  <si>
+    <t>MS-VERSS_R1960104</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does return error code 0x81070970 to indicate that the fileName element of the DeleteVersion element contains invalid character Forward slash (/). (&lt;5&gt; Section 3.1.4.2.2.2:  SharePoint Server 2019 returns 0x80131600 error code for invalid characters.)</t>
+  </si>
+  <si>
+    <t>MS-VERSS_R1960118</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does return error code 0x81070970 to indicate that the fileName element of the DeleteVersion element contains invalid character Two consecutive dots (..). (&lt;5&gt; Section 3.1.4.2.2.2:  SharePoint Server 2019 returns 0x80131600 error code for invalid characters.)</t>
+  </si>
+  <si>
+    <t>MS-VERSS_R1960119</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does return error code 0x81070970 to indicate that the fileName element of the DeleteVersion element contains invalid character that has a value less than 32 or greater than 126. (&lt;5&gt; Section 3.1.4.2.2.2:  SharePoint Server 2019 returns 0x80131600 error code for invalid characters.)</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does not return an error to indicate that two consecutive dots (..) is at the end of the fileName. (&lt;10&gt; Section 3.1.4.4.2.2: In Windows SharePoint Services 3.0, SharePoint Foundation 2010, SharePoint Foundation 2013, SharePoint Server 2016 and SharePoint Server 2019 two consecutive dots (..) are ignored at the end of the fileName.)</t>
+  </si>
+  <si>
+    <t>Verified by derived requirements: MS-VERSS_R17600, MS-VERSS_R17601, MS-VERSS_R17602, MS-VERSS_R17621, MS-VERSS_R19602, MS-VERSS_R1960102, MS-VERSS_R19620, MS-VERSS_R197, MS-VERSS_R19702, MS-VERSS_R19701, MS-VERSS_R19703, MS-VERSS_R19704, MS-VERSS_R19705</t>
   </si>
 </sst>
 </file>
@@ -3428,7 +3630,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3509,6 +3711,30 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3545,289 +3771,133 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="141">
+  <dxfs count="163">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
+        <strike/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
+        <strike/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
+        <strike/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
+        <strike/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <strike/>
       </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <strike/>
+      </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
     </dxf>
     <dxf>
       <fill>
@@ -4505,6 +4575,261 @@
         <strike/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4610,34 +4935,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Requirement" displayName="Requirement" ref="A19:I411" tableType="xml" totalsRowShown="0" dataDxfId="16">
-  <autoFilter ref="A19:I411" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Requirement" displayName="Requirement" ref="A19:I443" tableType="xml" totalsRowShown="0" dataDxfId="162">
+  <autoFilter ref="A19:I443" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="15">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="161">
       <xmlColumnPr mapId="14" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="14">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="160">
       <xmlColumnPr mapId="14" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="ns1:Description" name="Description" dataDxfId="13">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="ns1:Description" name="Description" dataDxfId="159">
       <xmlColumnPr mapId="14" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="ns1:Derived" name="Derived" dataDxfId="12">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="ns1:Derived" name="Derived" dataDxfId="158">
       <xmlColumnPr mapId="14" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="11">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="157">
       <xmlColumnPr mapId="14" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="ns1:Scope" name="Scope" dataDxfId="10">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="ns1:Scope" name="Scope" dataDxfId="156">
       <xmlColumnPr mapId="14" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="9">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="155">
       <xmlColumnPr mapId="14" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="ns1:Verification" name="Verification" dataDxfId="8">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="ns1:Verification" name="Verification" dataDxfId="154">
       <xmlColumnPr mapId="14" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="7">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="153">
       <xmlColumnPr mapId="14" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -4646,12 +4971,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="152" headerRowBorderDxfId="151" tableBorderDxfId="150" totalsRowBorderDxfId="149">
   <autoFilter ref="A12:C15" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Scope" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Test" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Scope" dataDxfId="148"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Test" dataDxfId="147"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="146"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4979,10 +5304,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L411"/>
+  <dimension ref="A1:L443"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A325" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C329" sqref="C329"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5010,7 +5335,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="9" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="16"/>
@@ -5026,139 +5351,139 @@
         <v>532</v>
       </c>
       <c r="C3" s="24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F3" s="39">
-        <v>43634</v>
+        <v>44397</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:10" ht="20.25">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="43" t="s">
         <v>533</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
       <c r="J5" s="25"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="45" t="s">
         <v>554</v>
       </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
       <c r="J6" s="25"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="44" t="s">
         <v>555</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
       <c r="J7" s="25"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="44" t="s">
         <v>534</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
       <c r="J8" s="25"/>
     </row>
     <row r="9" spans="1:10" ht="78" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="40" t="s">
         <v>556</v>
       </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="54"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="42"/>
       <c r="J9" s="25"/>
     </row>
     <row r="10" spans="1:10" ht="35.25" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="48" t="s">
         <v>557</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="42"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="50"/>
       <c r="J10" s="25"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="51" t="s">
         <v>558</v>
       </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
       <c r="J11" s="25"/>
     </row>
     <row r="12" spans="1:10">
@@ -5171,12 +5496,12 @@
       <c r="C12" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
       <c r="J12" s="25"/>
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1">
@@ -5189,12 +5514,12 @@
       <c r="C13" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
       <c r="J13" s="25"/>
     </row>
     <row r="14" spans="1:10">
@@ -5207,12 +5532,12 @@
       <c r="C14" s="15" t="s">
         <v>560</v>
       </c>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
       <c r="J14" s="25"/>
     </row>
     <row r="15" spans="1:10">
@@ -5225,60 +5550,60 @@
       <c r="C15" s="15" t="s">
         <v>561</v>
       </c>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
       <c r="J15" s="25"/>
     </row>
     <row r="16" spans="1:10" ht="36.75" customHeight="1">
       <c r="A16" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="55" t="s">
         <v>563</v>
       </c>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
       <c r="J16" s="25"/>
     </row>
     <row r="17" spans="1:12" ht="95.25" customHeight="1">
       <c r="A17" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="57" t="s">
         <v>564</v>
       </c>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="51"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="59"/>
       <c r="J17" s="25"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="51" t="s">
         <v>562</v>
       </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
       <c r="J18" s="25"/>
       <c r="L18" s="3"/>
     </row>
@@ -5319,7 +5644,7 @@
         <v>27</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="11" t="s">
@@ -5344,7 +5669,7 @@
         <v>27</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="11" t="s">
@@ -5500,7 +5825,7 @@
         <v>22</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="11" t="s">
@@ -5552,7 +5877,7 @@
         <v>22</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="D29" s="17" t="s">
         <v>350</v>
@@ -5579,7 +5904,7 @@
         <v>22</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="D30" s="17"/>
       <c r="E30" s="11" t="s">
@@ -5658,7 +5983,7 @@
         <v>22</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="D33" s="17" t="s">
         <v>338</v>
@@ -5910,7 +6235,7 @@
         <v>45</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="D43" s="17"/>
       <c r="E43" s="11" t="s">
@@ -6210,7 +6535,7 @@
         <v>78</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D55" s="17"/>
       <c r="E55" s="11" t="s">
@@ -6260,7 +6585,7 @@
         <v>78</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D57" s="17"/>
       <c r="E57" s="11" t="s">
@@ -6535,7 +6860,7 @@
         <v>95</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D68" s="17"/>
       <c r="E68" s="11" t="s">
@@ -7439,7 +7764,7 @@
         <v>147</v>
       </c>
       <c r="C104" s="18" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="D104" s="17"/>
       <c r="E104" s="11" t="s">
@@ -8183,13 +8508,13 @@
     </row>
     <row r="134" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A134" s="11" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B134" s="17" t="s">
         <v>201</v>
       </c>
       <c r="C134" s="18" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D134" s="17"/>
       <c r="E134" s="11" t="s">
@@ -8208,13 +8533,13 @@
     </row>
     <row r="135" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A135" s="11" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B135" s="17" t="s">
         <v>201</v>
       </c>
       <c r="C135" s="18" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D135" s="17"/>
       <c r="E135" s="11" t="s">
@@ -8233,13 +8558,13 @@
     </row>
     <row r="136" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A136" s="11" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B136" s="17" t="s">
         <v>201</v>
       </c>
       <c r="C136" s="22" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D136" s="17"/>
       <c r="E136" s="11" t="s">
@@ -8308,13 +8633,13 @@
     </row>
     <row r="139" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A139" s="11" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B139" s="17" t="s">
         <v>206</v>
       </c>
       <c r="C139" s="22" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D139" s="17"/>
       <c r="E139" s="11" t="s">
@@ -8433,7 +8758,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="144" spans="1:9" s="12" customFormat="1" ht="195">
+    <row r="144" spans="1:9" s="12" customFormat="1" ht="210">
       <c r="A144" s="11" t="s">
         <v>208</v>
       </c>
@@ -8457,7 +8782,7 @@
         <v>18</v>
       </c>
       <c r="I144" s="17" t="s">
-        <v>889</v>
+        <v>919</v>
       </c>
     </row>
     <row r="145" spans="1:9" s="12" customFormat="1" ht="75">
@@ -8887,13 +9212,13 @@
     </row>
     <row r="162" spans="1:9" s="12" customFormat="1">
       <c r="A162" s="11" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B162" s="17" t="s">
         <v>234</v>
       </c>
       <c r="C162" s="18" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D162" s="17"/>
       <c r="E162" s="11" t="s">
@@ -8912,13 +9237,13 @@
     </row>
     <row r="163" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A163" s="11" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B163" s="17" t="s">
         <v>234</v>
       </c>
       <c r="C163" s="18" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D163" s="17"/>
       <c r="E163" s="11" t="s">
@@ -8937,13 +9262,13 @@
     </row>
     <row r="164" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A164" s="11" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B164" s="17" t="s">
         <v>236</v>
       </c>
       <c r="C164" s="22" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D164" s="17"/>
       <c r="E164" s="11" t="s">
@@ -9037,13 +9362,13 @@
     </row>
     <row r="168" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A168" s="11" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B168" s="17" t="s">
         <v>236</v>
       </c>
       <c r="C168" s="22" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D168" s="17"/>
       <c r="E168" s="11" t="s">
@@ -9160,7 +9485,7 @@
       </c>
       <c r="I172" s="17"/>
     </row>
-    <row r="173" spans="1:9" s="12" customFormat="1" ht="210">
+    <row r="173" spans="1:9" s="12" customFormat="1" ht="225">
       <c r="A173" s="11" t="s">
         <v>243</v>
       </c>
@@ -9184,7 +9509,7 @@
         <v>18</v>
       </c>
       <c r="I173" s="17" t="s">
-        <v>821</v>
+        <v>988</v>
       </c>
     </row>
     <row r="174" spans="1:9" s="12" customFormat="1" ht="30">
@@ -9272,7 +9597,7 @@
         <v>240</v>
       </c>
       <c r="C177" s="18" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D177" s="17"/>
       <c r="E177" s="11" t="s">
@@ -9288,7 +9613,7 @@
         <v>18</v>
       </c>
       <c r="I177" s="17" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="178" spans="1:9" s="12" customFormat="1" ht="45">
@@ -9299,7 +9624,7 @@
         <v>240</v>
       </c>
       <c r="C178" s="18" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D178" s="17"/>
       <c r="E178" s="11" t="s">
@@ -9315,7 +9640,7 @@
         <v>18</v>
       </c>
       <c r="I178" s="17" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="179" spans="1:9" s="12" customFormat="1" ht="30">
@@ -9451,7 +9776,7 @@
         <v>259</v>
       </c>
       <c r="C184" s="22" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D184" s="17"/>
       <c r="E184" s="11" t="s">
@@ -9476,7 +9801,7 @@
         <v>259</v>
       </c>
       <c r="C185" s="22" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D185" s="17"/>
       <c r="E185" s="11" t="s">
@@ -9645,13 +9970,13 @@
     </row>
     <row r="192" spans="1:9" s="12" customFormat="1">
       <c r="A192" s="11" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B192" s="17" t="s">
         <v>272</v>
       </c>
       <c r="C192" s="22" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D192" s="17"/>
       <c r="E192" s="11" t="s">
@@ -9670,13 +9995,13 @@
     </row>
     <row r="193" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A193" s="11" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B193" s="17" t="s">
         <v>272</v>
       </c>
       <c r="C193" s="22" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D193" s="17"/>
       <c r="E193" s="11" t="s">
@@ -9695,13 +10020,13 @@
     </row>
     <row r="194" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A194" s="11" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B194" s="17" t="s">
         <v>274</v>
       </c>
       <c r="C194" s="22" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D194" s="17"/>
       <c r="E194" s="11" t="s">
@@ -9770,13 +10095,13 @@
     </row>
     <row r="197" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A197" s="11" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B197" s="17" t="s">
         <v>274</v>
       </c>
       <c r="C197" s="22" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D197" s="17"/>
       <c r="E197" s="11" t="s">
@@ -10470,13 +10795,13 @@
     </row>
     <row r="225" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A225" s="11" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B225" s="17" t="s">
         <v>309</v>
       </c>
       <c r="C225" s="22" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D225" s="17"/>
       <c r="E225" s="11" t="s">
@@ -10495,13 +10820,13 @@
     </row>
     <row r="226" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A226" s="11" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B226" s="17" t="s">
         <v>309</v>
       </c>
       <c r="C226" s="22" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D226" s="17"/>
       <c r="E226" s="11" t="s">
@@ -10520,13 +10845,13 @@
     </row>
     <row r="227" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A227" s="11" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B227" s="17" t="s">
         <v>309</v>
       </c>
       <c r="C227" s="22" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D227" s="17"/>
       <c r="E227" s="11" t="s">
@@ -10620,13 +10945,13 @@
     </row>
     <row r="231" spans="1:9" s="12" customFormat="1" ht="30">
       <c r="A231" s="11" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B231" s="17" t="s">
         <v>311</v>
       </c>
       <c r="C231" s="22" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D231" s="17"/>
       <c r="E231" s="11" t="s">
@@ -10726,7 +11051,7 @@
         <v>315</v>
       </c>
       <c r="C235" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D235" s="11"/>
       <c r="E235" s="11" t="s">
@@ -10846,7 +11171,7 @@
         <v>18</v>
       </c>
       <c r="I239" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="240" spans="1:9" s="12" customFormat="1" ht="45">
@@ -10857,7 +11182,7 @@
         <v>325</v>
       </c>
       <c r="C240" s="19" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="D240" s="17"/>
       <c r="E240" s="11" t="s">
@@ -10882,7 +11207,7 @@
         <v>325</v>
       </c>
       <c r="C241" s="18" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="D241" s="17"/>
       <c r="E241" s="11" t="s">
@@ -11052,7 +11377,7 @@
         <v>325</v>
       </c>
       <c r="C247" s="19" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D247" s="34" t="s">
         <v>580</v>
@@ -11673,7 +11998,7 @@
     </row>
     <row r="270" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A270" s="33" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B270" s="34" t="s">
         <v>325</v>
@@ -11694,7 +12019,7 @@
         <v>16</v>
       </c>
       <c r="H270" s="33" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="I270" s="34"/>
     </row>
@@ -11868,7 +12193,7 @@
         <v>325</v>
       </c>
       <c r="C277" s="34" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D277" s="34" t="s">
         <v>541</v>
@@ -11914,470 +12239,452 @@
       </c>
       <c r="I278" s="34"/>
     </row>
-    <row r="279" spans="1:9" s="35" customFormat="1" ht="45">
-      <c r="A279" s="33" t="s">
-        <v>601</v>
-      </c>
-      <c r="B279" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C279" s="34" t="s">
-        <v>699</v>
-      </c>
-      <c r="D279" s="34" t="s">
+    <row r="279" spans="1:9" s="62" customFormat="1" ht="60" customHeight="1">
+      <c r="A279" s="60" t="s">
+        <v>920</v>
+      </c>
+      <c r="B279" s="61" t="s">
+        <v>325</v>
+      </c>
+      <c r="C279" s="61" t="s">
+        <v>921</v>
+      </c>
+      <c r="D279" s="61" t="s">
         <v>599</v>
       </c>
-      <c r="E279" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F279" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G279" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H279" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I279" s="34" t="s">
+      <c r="E279" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F279" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="G279" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="H279" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="I279" s="61" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="280" spans="1:9" s="35" customFormat="1" ht="45">
-      <c r="A280" s="33" t="s">
-        <v>602</v>
-      </c>
-      <c r="B280" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C280" s="34" t="s">
-        <v>700</v>
-      </c>
-      <c r="D280" s="34" t="s">
-        <v>599</v>
-      </c>
-      <c r="E280" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F280" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G280" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H280" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I280" s="34" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="281" spans="1:9" s="35" customFormat="1" ht="60">
-      <c r="A281" s="33" t="s">
-        <v>603</v>
-      </c>
-      <c r="B281" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C281" s="34" t="s">
-        <v>701</v>
-      </c>
-      <c r="D281" s="34" t="s">
-        <v>599</v>
-      </c>
-      <c r="E281" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F281" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G281" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H281" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I281" s="34" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="282" spans="1:9" s="35" customFormat="1" ht="60">
-      <c r="A282" s="33" t="s">
-        <v>604</v>
-      </c>
-      <c r="B282" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C282" s="34" t="s">
-        <v>702</v>
-      </c>
-      <c r="D282" s="34" t="s">
-        <v>599</v>
-      </c>
-      <c r="E282" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F282" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G282" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H282" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I282" s="34" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="283" spans="1:9" s="35" customFormat="1" ht="75">
-      <c r="A283" s="33" t="s">
-        <v>605</v>
-      </c>
-      <c r="B283" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C283" s="34" t="s">
-        <v>902</v>
-      </c>
-      <c r="D283" s="34" t="s">
-        <v>599</v>
-      </c>
-      <c r="E283" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F283" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G283" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H283" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I283" s="34" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="284" spans="1:9" s="35" customFormat="1" ht="75">
-      <c r="A284" s="33" t="s">
-        <v>606</v>
-      </c>
-      <c r="B284" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C284" s="34" t="s">
-        <v>903</v>
-      </c>
-      <c r="D284" s="34" t="s">
-        <v>599</v>
-      </c>
-      <c r="E284" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F284" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G284" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H284" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I284" s="34" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="285" spans="1:9" s="35" customFormat="1" ht="75">
-      <c r="A285" s="33" t="s">
-        <v>328</v>
-      </c>
-      <c r="B285" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C285" s="34" t="s">
-        <v>919</v>
-      </c>
-      <c r="D285" s="34" t="s">
-        <v>599</v>
-      </c>
-      <c r="E285" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F285" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G285" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H285" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I285" s="34" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="286" spans="1:9" s="35" customFormat="1" ht="75">
-      <c r="A286" s="33" t="s">
-        <v>572</v>
-      </c>
-      <c r="B286" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C286" s="34" t="s">
-        <v>918</v>
-      </c>
-      <c r="D286" s="34" t="s">
-        <v>599</v>
-      </c>
-      <c r="E286" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F286" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G286" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H286" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I286" s="34" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="287" spans="1:9" s="35" customFormat="1" ht="60">
-      <c r="A287" s="33" t="s">
-        <v>573</v>
-      </c>
-      <c r="B287" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C287" s="34" t="s">
-        <v>703</v>
-      </c>
-      <c r="D287" s="34" t="s">
-        <v>599</v>
-      </c>
-      <c r="E287" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F287" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G287" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H287" s="33" t="s">
-        <v>574</v>
-      </c>
-      <c r="I287" s="34"/>
-    </row>
-    <row r="288" spans="1:9" s="35" customFormat="1" ht="45">
-      <c r="A288" s="33" t="s">
-        <v>874</v>
-      </c>
-      <c r="B288" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C288" s="34" t="s">
-        <v>876</v>
-      </c>
-      <c r="D288" s="34" t="s">
-        <v>599</v>
-      </c>
-      <c r="E288" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F288" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G288" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H288" s="33" t="s">
-        <v>574</v>
-      </c>
-      <c r="I288" s="34"/>
-    </row>
-    <row r="289" spans="1:9" s="35" customFormat="1" ht="60">
-      <c r="A289" s="33" t="s">
-        <v>875</v>
-      </c>
-      <c r="B289" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C289" s="19" t="s">
-        <v>904</v>
-      </c>
-      <c r="D289" s="34" t="s">
-        <v>599</v>
-      </c>
-      <c r="E289" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F289" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G289" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H289" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I289" s="34" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="290" spans="1:9" s="35" customFormat="1" ht="75">
-      <c r="A290" s="33" t="s">
-        <v>244</v>
-      </c>
-      <c r="B290" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C290" s="21" t="s">
-        <v>704</v>
-      </c>
-      <c r="D290" s="34" t="s">
-        <v>873</v>
-      </c>
-      <c r="E290" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F290" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G290" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H290" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I290" s="34" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="291" spans="1:9" s="35" customFormat="1" ht="45">
-      <c r="A291" s="33" t="s">
-        <v>428</v>
-      </c>
-      <c r="B291" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C291" s="19" t="s">
-        <v>722</v>
-      </c>
-      <c r="D291" s="34" t="s">
-        <v>538</v>
-      </c>
-      <c r="E291" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F291" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G291" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H291" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I291" s="34"/>
-    </row>
-    <row r="292" spans="1:9" s="35" customFormat="1" ht="45">
-      <c r="A292" s="33" t="s">
-        <v>429</v>
-      </c>
-      <c r="B292" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C292" s="19" t="s">
-        <v>723</v>
-      </c>
-      <c r="D292" s="34" t="s">
-        <v>538</v>
-      </c>
-      <c r="E292" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F292" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G292" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H292" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I292" s="34"/>
-    </row>
-    <row r="293" spans="1:9" s="35" customFormat="1" ht="45">
-      <c r="A293" s="33" t="s">
-        <v>430</v>
-      </c>
-      <c r="B293" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C293" s="19" t="s">
-        <v>724</v>
-      </c>
-      <c r="D293" s="34" t="s">
-        <v>538</v>
-      </c>
-      <c r="E293" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F293" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G293" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H293" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I293" s="34"/>
-    </row>
-    <row r="294" spans="1:9" s="35" customFormat="1" ht="45">
-      <c r="A294" s="33" t="s">
-        <v>431</v>
-      </c>
-      <c r="B294" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C294" s="19" t="s">
-        <v>725</v>
-      </c>
-      <c r="D294" s="34" t="s">
-        <v>538</v>
-      </c>
-      <c r="E294" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F294" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G294" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H294" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I294" s="34"/>
+    <row r="280" spans="1:9" s="62" customFormat="1" ht="49.5" customHeight="1">
+      <c r="A280" s="60" t="s">
+        <v>922</v>
+      </c>
+      <c r="B280" s="61" t="s">
+        <v>325</v>
+      </c>
+      <c r="C280" s="61" t="s">
+        <v>923</v>
+      </c>
+      <c r="D280" s="61" t="s">
+        <v>924</v>
+      </c>
+      <c r="E280" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F280" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="G280" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="H280" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="I280" s="61"/>
+    </row>
+    <row r="281" spans="1:9" s="62" customFormat="1" ht="49.5" customHeight="1">
+      <c r="A281" s="60" t="s">
+        <v>925</v>
+      </c>
+      <c r="B281" s="61" t="s">
+        <v>325</v>
+      </c>
+      <c r="C281" s="61" t="s">
+        <v>926</v>
+      </c>
+      <c r="D281" s="61" t="s">
+        <v>924</v>
+      </c>
+      <c r="E281" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F281" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="G281" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="H281" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="I281" s="61"/>
+    </row>
+    <row r="282" spans="1:9" s="62" customFormat="1" ht="46.5" customHeight="1">
+      <c r="A282" s="60" t="s">
+        <v>927</v>
+      </c>
+      <c r="B282" s="61" t="s">
+        <v>325</v>
+      </c>
+      <c r="C282" s="61" t="s">
+        <v>928</v>
+      </c>
+      <c r="D282" s="61" t="s">
+        <v>924</v>
+      </c>
+      <c r="E282" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F282" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="G282" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="H282" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="I282" s="61"/>
+    </row>
+    <row r="283" spans="1:9" s="62" customFormat="1" ht="48.75" customHeight="1">
+      <c r="A283" s="60" t="s">
+        <v>929</v>
+      </c>
+      <c r="B283" s="61" t="s">
+        <v>325</v>
+      </c>
+      <c r="C283" s="61" t="s">
+        <v>930</v>
+      </c>
+      <c r="D283" s="61" t="s">
+        <v>924</v>
+      </c>
+      <c r="E283" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F283" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="G283" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="H283" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="I283" s="61"/>
+    </row>
+    <row r="284" spans="1:9" s="62" customFormat="1" ht="52.5" customHeight="1">
+      <c r="A284" s="60" t="s">
+        <v>931</v>
+      </c>
+      <c r="B284" s="61" t="s">
+        <v>325</v>
+      </c>
+      <c r="C284" s="61" t="s">
+        <v>932</v>
+      </c>
+      <c r="D284" s="61" t="s">
+        <v>924</v>
+      </c>
+      <c r="E284" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F284" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="G284" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="H284" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="I284" s="61"/>
+    </row>
+    <row r="285" spans="1:9" s="62" customFormat="1" ht="48.75" customHeight="1">
+      <c r="A285" s="60" t="s">
+        <v>933</v>
+      </c>
+      <c r="B285" s="61" t="s">
+        <v>325</v>
+      </c>
+      <c r="C285" s="61" t="s">
+        <v>934</v>
+      </c>
+      <c r="D285" s="61" t="s">
+        <v>924</v>
+      </c>
+      <c r="E285" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F285" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="G285" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="H285" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="I285" s="61"/>
+    </row>
+    <row r="286" spans="1:9" s="62" customFormat="1" ht="42" customHeight="1">
+      <c r="A286" s="60" t="s">
+        <v>935</v>
+      </c>
+      <c r="B286" s="61" t="s">
+        <v>325</v>
+      </c>
+      <c r="C286" s="61" t="s">
+        <v>936</v>
+      </c>
+      <c r="D286" s="61" t="s">
+        <v>924</v>
+      </c>
+      <c r="E286" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F286" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="G286" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="H286" s="60" t="s">
+        <v>937</v>
+      </c>
+      <c r="I286" s="61"/>
+    </row>
+    <row r="287" spans="1:9" s="62" customFormat="1" ht="51" customHeight="1">
+      <c r="A287" s="60" t="s">
+        <v>938</v>
+      </c>
+      <c r="B287" s="61" t="s">
+        <v>325</v>
+      </c>
+      <c r="C287" s="61" t="s">
+        <v>939</v>
+      </c>
+      <c r="D287" s="61" t="s">
+        <v>924</v>
+      </c>
+      <c r="E287" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F287" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="G287" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="H287" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="I287" s="61"/>
+    </row>
+    <row r="288" spans="1:9" s="62" customFormat="1" ht="49.5" customHeight="1">
+      <c r="A288" s="60" t="s">
+        <v>940</v>
+      </c>
+      <c r="B288" s="61" t="s">
+        <v>325</v>
+      </c>
+      <c r="C288" s="61" t="s">
+        <v>941</v>
+      </c>
+      <c r="D288" s="61" t="s">
+        <v>924</v>
+      </c>
+      <c r="E288" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F288" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="G288" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="H288" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="I288" s="61"/>
+    </row>
+    <row r="289" spans="1:9" s="62" customFormat="1" ht="49.5" customHeight="1">
+      <c r="A289" s="60" t="s">
+        <v>942</v>
+      </c>
+      <c r="B289" s="61" t="s">
+        <v>325</v>
+      </c>
+      <c r="C289" s="61" t="s">
+        <v>943</v>
+      </c>
+      <c r="D289" s="61" t="s">
+        <v>924</v>
+      </c>
+      <c r="E289" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F289" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="G289" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="H289" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="I289" s="61"/>
+    </row>
+    <row r="290" spans="1:9" s="62" customFormat="1" ht="43.5" customHeight="1">
+      <c r="A290" s="60" t="s">
+        <v>944</v>
+      </c>
+      <c r="B290" s="61" t="s">
+        <v>325</v>
+      </c>
+      <c r="C290" s="61" t="s">
+        <v>945</v>
+      </c>
+      <c r="D290" s="61" t="s">
+        <v>924</v>
+      </c>
+      <c r="E290" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F290" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="G290" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="H290" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="I290" s="61"/>
+    </row>
+    <row r="291" spans="1:9" s="62" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A291" s="60" t="s">
+        <v>946</v>
+      </c>
+      <c r="B291" s="61" t="s">
+        <v>325</v>
+      </c>
+      <c r="C291" s="61" t="s">
+        <v>947</v>
+      </c>
+      <c r="D291" s="61" t="s">
+        <v>924</v>
+      </c>
+      <c r="E291" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F291" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="G291" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="H291" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="I291" s="61"/>
+    </row>
+    <row r="292" spans="1:9" s="62" customFormat="1" ht="50.25" customHeight="1">
+      <c r="A292" s="60" t="s">
+        <v>948</v>
+      </c>
+      <c r="B292" s="61" t="s">
+        <v>325</v>
+      </c>
+      <c r="C292" s="61" t="s">
+        <v>949</v>
+      </c>
+      <c r="D292" s="61" t="s">
+        <v>924</v>
+      </c>
+      <c r="E292" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F292" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="G292" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="H292" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="I292" s="61"/>
+    </row>
+    <row r="293" spans="1:9" s="62" customFormat="1" ht="60.75" customHeight="1">
+      <c r="A293" s="60" t="s">
+        <v>950</v>
+      </c>
+      <c r="B293" s="61" t="s">
+        <v>325</v>
+      </c>
+      <c r="C293" s="61" t="s">
+        <v>951</v>
+      </c>
+      <c r="D293" s="61" t="s">
+        <v>924</v>
+      </c>
+      <c r="E293" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F293" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="G293" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="H293" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="I293" s="61"/>
+    </row>
+    <row r="294" spans="1:9" s="62" customFormat="1" ht="63" customHeight="1">
+      <c r="A294" s="60" t="s">
+        <v>952</v>
+      </c>
+      <c r="B294" s="61" t="s">
+        <v>325</v>
+      </c>
+      <c r="C294" s="61" t="s">
+        <v>953</v>
+      </c>
+      <c r="D294" s="61" t="s">
+        <v>924</v>
+      </c>
+      <c r="E294" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F294" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="G294" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="H294" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="I294" s="61"/>
     </row>
     <row r="295" spans="1:9" s="35" customFormat="1" ht="45">
       <c r="A295" s="33" t="s">
-        <v>432</v>
+        <v>601</v>
       </c>
       <c r="B295" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="C295" s="19" t="s">
-        <v>726</v>
+      <c r="C295" s="34" t="s">
+        <v>699</v>
       </c>
       <c r="D295" s="34" t="s">
-        <v>538</v>
+        <v>599</v>
       </c>
       <c r="E295" s="33" t="s">
         <v>25</v>
@@ -12391,20 +12698,22 @@
       <c r="H295" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="I295" s="34"/>
+      <c r="I295" s="34" t="s">
+        <v>661</v>
+      </c>
     </row>
     <row r="296" spans="1:9" s="35" customFormat="1" ht="45">
       <c r="A296" s="33" t="s">
-        <v>433</v>
+        <v>602</v>
       </c>
       <c r="B296" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="C296" s="19" t="s">
-        <v>727</v>
+      <c r="C296" s="34" t="s">
+        <v>700</v>
       </c>
       <c r="D296" s="34" t="s">
-        <v>538</v>
+        <v>599</v>
       </c>
       <c r="E296" s="33" t="s">
         <v>25</v>
@@ -12418,20 +12727,22 @@
       <c r="H296" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="I296" s="34"/>
-    </row>
-    <row r="297" spans="1:9" s="35" customFormat="1" ht="45">
+      <c r="I296" s="34" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A297" s="33" t="s">
-        <v>434</v>
+        <v>603</v>
       </c>
       <c r="B297" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="C297" s="19" t="s">
-        <v>728</v>
+      <c r="C297" s="34" t="s">
+        <v>701</v>
       </c>
       <c r="D297" s="34" t="s">
-        <v>538</v>
+        <v>599</v>
       </c>
       <c r="E297" s="33" t="s">
         <v>25</v>
@@ -12445,20 +12756,22 @@
       <c r="H297" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="I297" s="34"/>
-    </row>
-    <row r="298" spans="1:9" s="35" customFormat="1" ht="45">
+      <c r="I297" s="34" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A298" s="33" t="s">
-        <v>435</v>
+        <v>604</v>
       </c>
       <c r="B298" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="C298" s="19" t="s">
-        <v>729</v>
+      <c r="C298" s="34" t="s">
+        <v>702</v>
       </c>
       <c r="D298" s="34" t="s">
-        <v>538</v>
+        <v>599</v>
       </c>
       <c r="E298" s="33" t="s">
         <v>25</v>
@@ -12472,20 +12785,22 @@
       <c r="H298" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="I298" s="34"/>
-    </row>
-    <row r="299" spans="1:9" s="35" customFormat="1" ht="45">
+      <c r="I298" s="34" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" s="35" customFormat="1" ht="75">
       <c r="A299" s="33" t="s">
-        <v>436</v>
+        <v>605</v>
       </c>
       <c r="B299" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="C299" s="19" t="s">
-        <v>730</v>
+      <c r="C299" s="34" t="s">
+        <v>900</v>
       </c>
       <c r="D299" s="34" t="s">
-        <v>538</v>
+        <v>599</v>
       </c>
       <c r="E299" s="33" t="s">
         <v>25</v>
@@ -12499,20 +12814,22 @@
       <c r="H299" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="I299" s="34"/>
-    </row>
-    <row r="300" spans="1:9" s="35" customFormat="1" ht="45">
+      <c r="I299" s="34" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" s="35" customFormat="1" ht="75">
       <c r="A300" s="33" t="s">
-        <v>437</v>
+        <v>606</v>
       </c>
       <c r="B300" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="C300" s="19" t="s">
-        <v>731</v>
+      <c r="C300" s="34" t="s">
+        <v>901</v>
       </c>
       <c r="D300" s="34" t="s">
-        <v>538</v>
+        <v>599</v>
       </c>
       <c r="E300" s="33" t="s">
         <v>25</v>
@@ -12526,20 +12843,22 @@
       <c r="H300" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="I300" s="34"/>
-    </row>
-    <row r="301" spans="1:9" s="35" customFormat="1" ht="45">
+      <c r="I300" s="34" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" s="35" customFormat="1" ht="75">
       <c r="A301" s="33" t="s">
-        <v>438</v>
+        <v>328</v>
       </c>
       <c r="B301" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="C301" s="19" t="s">
-        <v>732</v>
+      <c r="C301" s="34" t="s">
+        <v>916</v>
       </c>
       <c r="D301" s="34" t="s">
-        <v>538</v>
+        <v>599</v>
       </c>
       <c r="E301" s="33" t="s">
         <v>25</v>
@@ -12553,20 +12872,22 @@
       <c r="H301" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="I301" s="34"/>
-    </row>
-    <row r="302" spans="1:9" s="35" customFormat="1" ht="45">
+      <c r="I301" s="34" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" s="35" customFormat="1" ht="75">
       <c r="A302" s="33" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="B302" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="C302" s="19" t="s">
-        <v>733</v>
+      <c r="C302" s="34" t="s">
+        <v>915</v>
       </c>
       <c r="D302" s="34" t="s">
-        <v>538</v>
+        <v>599</v>
       </c>
       <c r="E302" s="33" t="s">
         <v>25</v>
@@ -12580,20 +12901,22 @@
       <c r="H302" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="I302" s="34"/>
-    </row>
-    <row r="303" spans="1:9" s="35" customFormat="1" ht="45">
+      <c r="I302" s="34" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A303" s="33" t="s">
-        <v>439</v>
+        <v>573</v>
       </c>
       <c r="B303" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="C303" s="19" t="s">
-        <v>734</v>
+      <c r="C303" s="34" t="s">
+        <v>703</v>
       </c>
       <c r="D303" s="34" t="s">
-        <v>538</v>
+        <v>599</v>
       </c>
       <c r="E303" s="33" t="s">
         <v>25</v>
@@ -12605,22 +12928,22 @@
         <v>16</v>
       </c>
       <c r="H303" s="33" t="s">
-        <v>21</v>
+        <v>574</v>
       </c>
       <c r="I303" s="34"/>
     </row>
     <row r="304" spans="1:9" s="35" customFormat="1" ht="45">
       <c r="A304" s="33" t="s">
-        <v>440</v>
+        <v>873</v>
       </c>
       <c r="B304" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="C304" s="19" t="s">
-        <v>735</v>
+      <c r="C304" s="34" t="s">
+        <v>875</v>
       </c>
       <c r="D304" s="34" t="s">
-        <v>538</v>
+        <v>599</v>
       </c>
       <c r="E304" s="33" t="s">
         <v>25</v>
@@ -12632,22 +12955,22 @@
         <v>16</v>
       </c>
       <c r="H304" s="33" t="s">
-        <v>21</v>
+        <v>574</v>
       </c>
       <c r="I304" s="34"/>
     </row>
     <row r="305" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A305" s="33" t="s">
-        <v>507</v>
+        <v>874</v>
       </c>
       <c r="B305" s="34" t="s">
         <v>325</v>
       </c>
       <c r="C305" s="19" t="s">
-        <v>736</v>
+        <v>902</v>
       </c>
       <c r="D305" s="34" t="s">
-        <v>538</v>
+        <v>599</v>
       </c>
       <c r="E305" s="33" t="s">
         <v>25</v>
@@ -12661,20 +12984,22 @@
       <c r="H305" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="I305" s="34"/>
-    </row>
-    <row r="306" spans="1:9" s="35" customFormat="1" ht="60">
+      <c r="I305" s="34" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" s="35" customFormat="1" ht="75">
       <c r="A306" s="33" t="s">
-        <v>520</v>
+        <v>244</v>
       </c>
       <c r="B306" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="C306" s="19" t="s">
-        <v>737</v>
+      <c r="C306" s="21" t="s">
+        <v>704</v>
       </c>
       <c r="D306" s="34" t="s">
-        <v>594</v>
+        <v>872</v>
       </c>
       <c r="E306" s="33" t="s">
         <v>25</v>
@@ -12692,18 +13017,18 @@
         <v>661</v>
       </c>
     </row>
-    <row r="307" spans="1:9" s="35" customFormat="1" ht="75">
+    <row r="307" spans="1:9" s="35" customFormat="1" ht="45">
       <c r="A307" s="33" t="s">
-        <v>329</v>
+        <v>428</v>
       </c>
       <c r="B307" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="C307" s="34" t="s">
-        <v>707</v>
+      <c r="C307" s="19" t="s">
+        <v>722</v>
       </c>
       <c r="D307" s="34" t="s">
-        <v>671</v>
+        <v>538</v>
       </c>
       <c r="E307" s="33" t="s">
         <v>25</v>
@@ -12717,22 +13042,20 @@
       <c r="H307" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="I307" s="34" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="308" spans="1:9" s="35" customFormat="1" ht="60">
+      <c r="I307" s="34"/>
+    </row>
+    <row r="308" spans="1:9" s="35" customFormat="1" ht="45">
       <c r="A308" s="33" t="s">
-        <v>485</v>
+        <v>429</v>
       </c>
       <c r="B308" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="C308" s="34" t="s">
-        <v>738</v>
+      <c r="C308" s="19" t="s">
+        <v>723</v>
       </c>
       <c r="D308" s="34" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="E308" s="33" t="s">
         <v>25</v>
@@ -12748,18 +13071,18 @@
       </c>
       <c r="I308" s="34"/>
     </row>
-    <row r="309" spans="1:9" s="35" customFormat="1" ht="60">
+    <row r="309" spans="1:9" s="35" customFormat="1" ht="45">
       <c r="A309" s="33" t="s">
-        <v>486</v>
+        <v>430</v>
       </c>
       <c r="B309" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="C309" s="34" t="s">
-        <v>739</v>
+      <c r="C309" s="19" t="s">
+        <v>724</v>
       </c>
       <c r="D309" s="34" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="E309" s="33" t="s">
         <v>25</v>
@@ -12775,18 +13098,18 @@
       </c>
       <c r="I309" s="34"/>
     </row>
-    <row r="310" spans="1:9" s="35" customFormat="1" ht="60">
+    <row r="310" spans="1:9" s="35" customFormat="1" ht="45">
       <c r="A310" s="33" t="s">
-        <v>487</v>
+        <v>431</v>
       </c>
       <c r="B310" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="C310" s="34" t="s">
-        <v>740</v>
+      <c r="C310" s="19" t="s">
+        <v>725</v>
       </c>
       <c r="D310" s="34" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="E310" s="33" t="s">
         <v>25</v>
@@ -12802,18 +13125,18 @@
       </c>
       <c r="I310" s="34"/>
     </row>
-    <row r="311" spans="1:9" s="35" customFormat="1" ht="60">
+    <row r="311" spans="1:9" s="35" customFormat="1" ht="45">
       <c r="A311" s="33" t="s">
-        <v>488</v>
+        <v>432</v>
       </c>
       <c r="B311" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="C311" s="34" t="s">
-        <v>741</v>
+      <c r="C311" s="19" t="s">
+        <v>726</v>
       </c>
       <c r="D311" s="34" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="E311" s="33" t="s">
         <v>25</v>
@@ -12829,18 +13152,18 @@
       </c>
       <c r="I311" s="34"/>
     </row>
-    <row r="312" spans="1:9" s="35" customFormat="1" ht="60">
+    <row r="312" spans="1:9" s="35" customFormat="1" ht="45">
       <c r="A312" s="33" t="s">
-        <v>489</v>
+        <v>433</v>
       </c>
       <c r="B312" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="C312" s="34" t="s">
-        <v>742</v>
+      <c r="C312" s="19" t="s">
+        <v>727</v>
       </c>
       <c r="D312" s="34" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="E312" s="33" t="s">
         <v>25</v>
@@ -12856,18 +13179,18 @@
       </c>
       <c r="I312" s="34"/>
     </row>
-    <row r="313" spans="1:9" s="35" customFormat="1" ht="60">
+    <row r="313" spans="1:9" s="35" customFormat="1" ht="45">
       <c r="A313" s="33" t="s">
-        <v>490</v>
+        <v>434</v>
       </c>
       <c r="B313" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="C313" s="34" t="s">
-        <v>743</v>
+      <c r="C313" s="19" t="s">
+        <v>728</v>
       </c>
       <c r="D313" s="34" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="E313" s="33" t="s">
         <v>25</v>
@@ -12883,18 +13206,18 @@
       </c>
       <c r="I313" s="34"/>
     </row>
-    <row r="314" spans="1:9" s="35" customFormat="1" ht="60">
+    <row r="314" spans="1:9" s="35" customFormat="1" ht="45">
       <c r="A314" s="33" t="s">
-        <v>890</v>
+        <v>435</v>
       </c>
       <c r="B314" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="C314" s="34" t="s">
-        <v>744</v>
+      <c r="C314" s="19" t="s">
+        <v>729</v>
       </c>
       <c r="D314" s="34" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="E314" s="33" t="s">
         <v>25</v>
@@ -12906,22 +13229,22 @@
         <v>16</v>
       </c>
       <c r="H314" s="33" t="s">
-        <v>574</v>
+        <v>21</v>
       </c>
       <c r="I314" s="34"/>
     </row>
-    <row r="315" spans="1:9" s="35" customFormat="1" ht="60">
+    <row r="315" spans="1:9" s="35" customFormat="1" ht="45">
       <c r="A315" s="33" t="s">
-        <v>491</v>
+        <v>436</v>
       </c>
       <c r="B315" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="C315" s="34" t="s">
-        <v>745</v>
+      <c r="C315" s="19" t="s">
+        <v>730</v>
       </c>
       <c r="D315" s="34" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="E315" s="33" t="s">
         <v>25</v>
@@ -12937,18 +13260,18 @@
       </c>
       <c r="I315" s="34"/>
     </row>
-    <row r="316" spans="1:9" s="35" customFormat="1" ht="60">
+    <row r="316" spans="1:9" s="35" customFormat="1" ht="45">
       <c r="A316" s="33" t="s">
-        <v>492</v>
+        <v>437</v>
       </c>
       <c r="B316" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="C316" s="34" t="s">
-        <v>746</v>
+      <c r="C316" s="19" t="s">
+        <v>731</v>
       </c>
       <c r="D316" s="34" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="E316" s="33" t="s">
         <v>25</v>
@@ -12964,18 +13287,18 @@
       </c>
       <c r="I316" s="34"/>
     </row>
-    <row r="317" spans="1:9" s="35" customFormat="1" ht="60">
+    <row r="317" spans="1:9" s="35" customFormat="1" ht="45">
       <c r="A317" s="33" t="s">
-        <v>493</v>
+        <v>438</v>
       </c>
       <c r="B317" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="C317" s="34" t="s">
-        <v>747</v>
+      <c r="C317" s="19" t="s">
+        <v>732</v>
       </c>
       <c r="D317" s="34" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="E317" s="33" t="s">
         <v>25</v>
@@ -12991,18 +13314,18 @@
       </c>
       <c r="I317" s="34"/>
     </row>
-    <row r="318" spans="1:9" s="35" customFormat="1" ht="60">
+    <row r="318" spans="1:9" s="35" customFormat="1" ht="45">
       <c r="A318" s="33" t="s">
-        <v>494</v>
+        <v>569</v>
       </c>
       <c r="B318" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="C318" s="34" t="s">
-        <v>748</v>
+      <c r="C318" s="19" t="s">
+        <v>733</v>
       </c>
       <c r="D318" s="34" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="E318" s="33" t="s">
         <v>25</v>
@@ -13018,18 +13341,18 @@
       </c>
       <c r="I318" s="34"/>
     </row>
-    <row r="319" spans="1:9" s="35" customFormat="1" ht="60">
+    <row r="319" spans="1:9" s="35" customFormat="1" ht="45">
       <c r="A319" s="33" t="s">
-        <v>495</v>
+        <v>439</v>
       </c>
       <c r="B319" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="C319" s="34" t="s">
-        <v>749</v>
+      <c r="C319" s="19" t="s">
+        <v>734</v>
       </c>
       <c r="D319" s="34" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="E319" s="33" t="s">
         <v>25</v>
@@ -13045,18 +13368,18 @@
       </c>
       <c r="I319" s="34"/>
     </row>
-    <row r="320" spans="1:9" s="35" customFormat="1" ht="60">
+    <row r="320" spans="1:9" s="35" customFormat="1" ht="45">
       <c r="A320" s="33" t="s">
-        <v>570</v>
+        <v>440</v>
       </c>
       <c r="B320" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="C320" s="34" t="s">
-        <v>750</v>
+      <c r="C320" s="19" t="s">
+        <v>735</v>
       </c>
       <c r="D320" s="34" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="E320" s="33" t="s">
         <v>25</v>
@@ -13074,16 +13397,16 @@
     </row>
     <row r="321" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A321" s="33" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
       <c r="B321" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="C321" s="34" t="s">
-        <v>751</v>
+      <c r="C321" s="19" t="s">
+        <v>736</v>
       </c>
       <c r="D321" s="34" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="E321" s="33" t="s">
         <v>25</v>
@@ -13101,16 +13424,16 @@
     </row>
     <row r="322" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A322" s="33" t="s">
-        <v>497</v>
+        <v>520</v>
       </c>
       <c r="B322" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="C322" s="34" t="s">
-        <v>752</v>
+      <c r="C322" s="19" t="s">
+        <v>737</v>
       </c>
       <c r="D322" s="34" t="s">
-        <v>542</v>
+        <v>594</v>
       </c>
       <c r="E322" s="33" t="s">
         <v>25</v>
@@ -13124,20 +13447,22 @@
       <c r="H322" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="I322" s="34"/>
-    </row>
-    <row r="323" spans="1:9" s="35" customFormat="1" ht="60">
+      <c r="I322" s="34" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" s="35" customFormat="1" ht="75">
       <c r="A323" s="33" t="s">
-        <v>498</v>
+        <v>329</v>
       </c>
       <c r="B323" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="C323" s="19" t="s">
-        <v>753</v>
+      <c r="C323" s="34" t="s">
+        <v>707</v>
       </c>
       <c r="D323" s="34" t="s">
-        <v>594</v>
+        <v>671</v>
       </c>
       <c r="E323" s="33" t="s">
         <v>25</v>
@@ -13155,18 +13480,18 @@
         <v>661</v>
       </c>
     </row>
-    <row r="324" spans="1:9" s="35" customFormat="1" ht="45">
+    <row r="324" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A324" s="33" t="s">
-        <v>330</v>
+        <v>485</v>
       </c>
       <c r="B324" s="34" t="s">
         <v>325</v>
       </c>
       <c r="C324" s="34" t="s">
-        <v>755</v>
+        <v>738</v>
       </c>
       <c r="D324" s="34" t="s">
-        <v>588</v>
+        <v>542</v>
       </c>
       <c r="E324" s="33" t="s">
         <v>25</v>
@@ -13180,22 +13505,20 @@
       <c r="H324" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="I324" s="34" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="325" spans="1:9" s="35" customFormat="1" ht="45">
+      <c r="I324" s="34"/>
+    </row>
+    <row r="325" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A325" s="33" t="s">
-        <v>586</v>
+        <v>486</v>
       </c>
       <c r="B325" s="34" t="s">
         <v>325</v>
       </c>
       <c r="C325" s="34" t="s">
-        <v>754</v>
+        <v>739</v>
       </c>
       <c r="D325" s="34" t="s">
-        <v>589</v>
+        <v>542</v>
       </c>
       <c r="E325" s="33" t="s">
         <v>25</v>
@@ -13209,22 +13532,20 @@
       <c r="H325" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="I325" s="34" t="s">
-        <v>661</v>
-      </c>
+      <c r="I325" s="34"/>
     </row>
     <row r="326" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A326" s="33" t="s">
-        <v>584</v>
+        <v>487</v>
       </c>
       <c r="B326" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="C326" s="21" t="s">
-        <v>756</v>
+      <c r="C326" s="34" t="s">
+        <v>740</v>
       </c>
       <c r="D326" s="34" t="s">
-        <v>589</v>
+        <v>542</v>
       </c>
       <c r="E326" s="33" t="s">
         <v>25</v>
@@ -13238,22 +13559,20 @@
       <c r="H326" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="I326" s="34" t="s">
-        <v>661</v>
-      </c>
+      <c r="I326" s="34"/>
     </row>
     <row r="327" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A327" s="33" t="s">
-        <v>585</v>
+        <v>488</v>
       </c>
       <c r="B327" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="C327" s="21" t="s">
-        <v>757</v>
+      <c r="C327" s="34" t="s">
+        <v>741</v>
       </c>
       <c r="D327" s="34" t="s">
-        <v>589</v>
+        <v>542</v>
       </c>
       <c r="E327" s="33" t="s">
         <v>25</v>
@@ -13267,22 +13586,20 @@
       <c r="H327" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="I327" s="34" t="s">
-        <v>661</v>
-      </c>
+      <c r="I327" s="34"/>
     </row>
     <row r="328" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A328" s="33" t="s">
-        <v>511</v>
+        <v>489</v>
       </c>
       <c r="B328" s="34" t="s">
         <v>325</v>
       </c>
       <c r="C328" s="34" t="s">
-        <v>758</v>
+        <v>742</v>
       </c>
       <c r="D328" s="34" t="s">
-        <v>589</v>
+        <v>542</v>
       </c>
       <c r="E328" s="33" t="s">
         <v>25</v>
@@ -13296,22 +13613,20 @@
       <c r="H328" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="I328" s="34" t="s">
-        <v>661</v>
-      </c>
+      <c r="I328" s="34"/>
     </row>
     <row r="329" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A329" s="33" t="s">
-        <v>590</v>
+        <v>490</v>
       </c>
       <c r="B329" s="34" t="s">
         <v>325</v>
       </c>
       <c r="C329" s="34" t="s">
-        <v>759</v>
+        <v>743</v>
       </c>
       <c r="D329" s="34" t="s">
-        <v>587</v>
+        <v>542</v>
       </c>
       <c r="E329" s="33" t="s">
         <v>25</v>
@@ -13325,22 +13640,20 @@
       <c r="H329" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="I329" s="34" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="330" spans="1:9" s="35" customFormat="1" ht="75">
+      <c r="I329" s="34"/>
+    </row>
+    <row r="330" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A330" s="33" t="s">
-        <v>591</v>
+        <v>888</v>
       </c>
       <c r="B330" s="34" t="s">
         <v>325</v>
       </c>
       <c r="C330" s="34" t="s">
-        <v>920</v>
+        <v>744</v>
       </c>
       <c r="D330" s="34" t="s">
-        <v>587</v>
+        <v>542</v>
       </c>
       <c r="E330" s="33" t="s">
         <v>25</v>
@@ -13352,24 +13665,22 @@
         <v>16</v>
       </c>
       <c r="H330" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I330" s="34" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="331" spans="1:9" s="35" customFormat="1" ht="75">
+        <v>574</v>
+      </c>
+      <c r="I330" s="34"/>
+    </row>
+    <row r="331" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A331" s="33" t="s">
-        <v>592</v>
+        <v>491</v>
       </c>
       <c r="B331" s="34" t="s">
         <v>325</v>
       </c>
       <c r="C331" s="34" t="s">
-        <v>921</v>
+        <v>745</v>
       </c>
       <c r="D331" s="34" t="s">
-        <v>587</v>
+        <v>542</v>
       </c>
       <c r="E331" s="33" t="s">
         <v>25</v>
@@ -13383,22 +13694,20 @@
       <c r="H331" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="I331" s="34" t="s">
-        <v>661</v>
-      </c>
+      <c r="I331" s="34"/>
     </row>
     <row r="332" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A332" s="33" t="s">
-        <v>593</v>
+        <v>492</v>
       </c>
       <c r="B332" s="34" t="s">
         <v>325</v>
       </c>
       <c r="C332" s="34" t="s">
-        <v>905</v>
+        <v>746</v>
       </c>
       <c r="D332" s="34" t="s">
-        <v>594</v>
+        <v>542</v>
       </c>
       <c r="E332" s="33" t="s">
         <v>25</v>
@@ -13410,22 +13719,22 @@
         <v>16</v>
       </c>
       <c r="H332" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="I332" s="33"/>
+        <v>21</v>
+      </c>
+      <c r="I332" s="34"/>
     </row>
     <row r="333" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A333" s="33" t="s">
-        <v>907</v>
+        <v>493</v>
       </c>
       <c r="B333" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="C333" s="19" t="s">
-        <v>908</v>
+      <c r="C333" s="34" t="s">
+        <v>747</v>
       </c>
       <c r="D333" s="34" t="s">
-        <v>594</v>
+        <v>542</v>
       </c>
       <c r="E333" s="33" t="s">
         <v>25</v>
@@ -13439,163 +13748,155 @@
       <c r="H333" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="I333" s="34" t="s">
-        <v>661</v>
-      </c>
+      <c r="I333" s="34"/>
     </row>
     <row r="334" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A334" s="33" t="s">
-        <v>909</v>
+        <v>494</v>
       </c>
       <c r="B334" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="C334" s="19" t="s">
-        <v>910</v>
+      <c r="C334" s="34" t="s">
+        <v>748</v>
       </c>
       <c r="D334" s="34" t="s">
+        <v>542</v>
+      </c>
+      <c r="E334" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F334" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G334" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H334" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I334" s="34"/>
+    </row>
+    <row r="335" spans="1:9" s="35" customFormat="1" ht="60">
+      <c r="A335" s="33" t="s">
+        <v>495</v>
+      </c>
+      <c r="B335" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C335" s="34" t="s">
+        <v>749</v>
+      </c>
+      <c r="D335" s="34" t="s">
+        <v>542</v>
+      </c>
+      <c r="E335" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F335" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G335" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H335" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I335" s="34"/>
+    </row>
+    <row r="336" spans="1:9" s="35" customFormat="1" ht="60">
+      <c r="A336" s="33" t="s">
+        <v>570</v>
+      </c>
+      <c r="B336" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C336" s="34" t="s">
+        <v>750</v>
+      </c>
+      <c r="D336" s="34" t="s">
+        <v>542</v>
+      </c>
+      <c r="E336" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F336" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G336" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H336" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I336" s="34"/>
+    </row>
+    <row r="337" spans="1:9" s="35" customFormat="1" ht="60">
+      <c r="A337" s="33" t="s">
+        <v>496</v>
+      </c>
+      <c r="B337" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C337" s="34" t="s">
+        <v>751</v>
+      </c>
+      <c r="D337" s="34" t="s">
+        <v>542</v>
+      </c>
+      <c r="E337" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F337" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G337" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H337" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I337" s="34"/>
+    </row>
+    <row r="338" spans="1:9" s="35" customFormat="1" ht="60">
+      <c r="A338" s="33" t="s">
+        <v>497</v>
+      </c>
+      <c r="B338" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C338" s="34" t="s">
+        <v>752</v>
+      </c>
+      <c r="D338" s="34" t="s">
+        <v>542</v>
+      </c>
+      <c r="E338" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F338" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G338" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H338" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I338" s="34"/>
+    </row>
+    <row r="339" spans="1:9" s="35" customFormat="1" ht="60">
+      <c r="A339" s="33" t="s">
+        <v>498</v>
+      </c>
+      <c r="B339" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C339" s="19" t="s">
+        <v>753</v>
+      </c>
+      <c r="D339" s="34" t="s">
         <v>594</v>
-      </c>
-      <c r="E334" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F334" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G334" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H334" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="I334" s="34"/>
-    </row>
-    <row r="335" spans="1:9" s="35" customFormat="1" ht="45">
-      <c r="A335" s="33" t="s">
-        <v>535</v>
-      </c>
-      <c r="B335" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C335" s="19" t="s">
-        <v>760</v>
-      </c>
-      <c r="D335" s="34" t="s">
-        <v>877</v>
-      </c>
-      <c r="E335" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F335" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G335" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H335" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I335" s="34" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="336" spans="1:9" s="35" customFormat="1" ht="75">
-      <c r="A336" s="33" t="s">
-        <v>331</v>
-      </c>
-      <c r="B336" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C336" s="21" t="s">
-        <v>886</v>
-      </c>
-      <c r="D336" s="34" t="s">
-        <v>877</v>
-      </c>
-      <c r="E336" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F336" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G336" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H336" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I336" s="34" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="337" spans="1:9" s="35" customFormat="1" ht="45">
-      <c r="A337" s="33" t="s">
-        <v>880</v>
-      </c>
-      <c r="B337" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C337" s="19" t="s">
-        <v>884</v>
-      </c>
-      <c r="D337" s="34" t="s">
-        <v>878</v>
-      </c>
-      <c r="E337" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F337" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G337" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H337" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I337" s="34" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="338" spans="1:9" s="35" customFormat="1" ht="75">
-      <c r="A338" s="33" t="s">
-        <v>893</v>
-      </c>
-      <c r="B338" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C338" s="19" t="s">
-        <v>885</v>
-      </c>
-      <c r="D338" s="34" t="s">
-        <v>878</v>
-      </c>
-      <c r="E338" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F338" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G338" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H338" s="33" t="s">
-        <v>574</v>
-      </c>
-      <c r="I338" s="34"/>
-    </row>
-    <row r="339" spans="1:9" s="35" customFormat="1" ht="45">
-      <c r="A339" s="33" t="s">
-        <v>881</v>
-      </c>
-      <c r="B339" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C339" s="19" t="s">
-        <v>887</v>
-      </c>
-      <c r="D339" s="34" t="s">
-        <v>879</v>
       </c>
       <c r="E339" s="33" t="s">
         <v>25</v>
@@ -13613,487 +13914,481 @@
         <v>661</v>
       </c>
     </row>
-    <row r="340" spans="1:9" s="35" customFormat="1" ht="75">
-      <c r="A340" s="33" t="s">
-        <v>894</v>
+    <row r="340" spans="1:9" s="62" customFormat="1" ht="75">
+      <c r="A340" s="60" t="s">
+        <v>954</v>
       </c>
       <c r="B340" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="C340" s="19" t="s">
-        <v>888</v>
-      </c>
-      <c r="D340" s="34" t="s">
-        <v>879</v>
-      </c>
-      <c r="E340" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F340" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G340" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H340" s="33" t="s">
-        <v>574</v>
-      </c>
-      <c r="I340" s="34"/>
-    </row>
-    <row r="341" spans="1:9" s="35" customFormat="1" ht="60">
-      <c r="A341" s="33" t="s">
-        <v>612</v>
+      <c r="C340" s="61" t="s">
+        <v>955</v>
+      </c>
+      <c r="D340" s="61" t="s">
+        <v>671</v>
+      </c>
+      <c r="E340" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F340" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="G340" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="H340" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="I340" s="61" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" s="62" customFormat="1" ht="60">
+      <c r="A341" s="60" t="s">
+        <v>956</v>
       </c>
       <c r="B341" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="C341" s="19" t="s">
-        <v>832</v>
-      </c>
-      <c r="D341" s="34" t="s">
-        <v>615</v>
-      </c>
-      <c r="E341" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F341" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G341" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H341" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I341" s="34" t="s">
+      <c r="C341" s="61" t="s">
+        <v>957</v>
+      </c>
+      <c r="D341" s="61" t="s">
+        <v>958</v>
+      </c>
+      <c r="E341" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F341" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="G341" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="H341" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="I341" s="61"/>
+    </row>
+    <row r="342" spans="1:9" s="62" customFormat="1" ht="60">
+      <c r="A342" s="60" t="s">
+        <v>959</v>
+      </c>
+      <c r="B342" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C342" s="61" t="s">
+        <v>960</v>
+      </c>
+      <c r="D342" s="61" t="s">
+        <v>958</v>
+      </c>
+      <c r="E342" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F342" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="G342" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="H342" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="I342" s="61"/>
+    </row>
+    <row r="343" spans="1:9" s="62" customFormat="1" ht="60">
+      <c r="A343" s="60" t="s">
+        <v>961</v>
+      </c>
+      <c r="B343" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C343" s="61" t="s">
+        <v>962</v>
+      </c>
+      <c r="D343" s="61" t="s">
+        <v>958</v>
+      </c>
+      <c r="E343" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F343" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="G343" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="H343" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="I343" s="61"/>
+    </row>
+    <row r="344" spans="1:9" s="62" customFormat="1" ht="60">
+      <c r="A344" s="60" t="s">
+        <v>963</v>
+      </c>
+      <c r="B344" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C344" s="61" t="s">
+        <v>964</v>
+      </c>
+      <c r="D344" s="61" t="s">
+        <v>958</v>
+      </c>
+      <c r="E344" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F344" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="G344" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="H344" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="I344" s="61"/>
+    </row>
+    <row r="345" spans="1:9" s="62" customFormat="1" ht="60">
+      <c r="A345" s="60" t="s">
+        <v>965</v>
+      </c>
+      <c r="B345" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C345" s="61" t="s">
+        <v>966</v>
+      </c>
+      <c r="D345" s="61" t="s">
+        <v>958</v>
+      </c>
+      <c r="E345" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F345" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="G345" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="H345" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="I345" s="61"/>
+    </row>
+    <row r="346" spans="1:9" s="62" customFormat="1" ht="60">
+      <c r="A346" s="60" t="s">
+        <v>967</v>
+      </c>
+      <c r="B346" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C346" s="61" t="s">
+        <v>968</v>
+      </c>
+      <c r="D346" s="61" t="s">
+        <v>958</v>
+      </c>
+      <c r="E346" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F346" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="G346" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="H346" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="I346" s="61"/>
+    </row>
+    <row r="347" spans="1:9" s="62" customFormat="1" ht="60">
+      <c r="A347" s="60" t="s">
+        <v>969</v>
+      </c>
+      <c r="B347" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C347" s="61" t="s">
+        <v>970</v>
+      </c>
+      <c r="D347" s="61" t="s">
+        <v>958</v>
+      </c>
+      <c r="E347" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F347" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="G347" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="H347" s="60" t="s">
+        <v>937</v>
+      </c>
+      <c r="I347" s="61"/>
+    </row>
+    <row r="348" spans="1:9" s="62" customFormat="1" ht="60">
+      <c r="A348" s="60" t="s">
+        <v>971</v>
+      </c>
+      <c r="B348" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C348" s="61" t="s">
+        <v>972</v>
+      </c>
+      <c r="D348" s="61" t="s">
+        <v>958</v>
+      </c>
+      <c r="E348" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F348" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="G348" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="H348" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="I348" s="61"/>
+    </row>
+    <row r="349" spans="1:9" s="62" customFormat="1" ht="60">
+      <c r="A349" s="60" t="s">
+        <v>973</v>
+      </c>
+      <c r="B349" s="61" t="s">
+        <v>325</v>
+      </c>
+      <c r="C349" s="61" t="s">
+        <v>974</v>
+      </c>
+      <c r="D349" s="61" t="s">
+        <v>958</v>
+      </c>
+      <c r="E349" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F349" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="G349" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="H349" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="I349" s="61"/>
+    </row>
+    <row r="350" spans="1:9" s="62" customFormat="1" ht="60">
+      <c r="A350" s="60" t="s">
+        <v>975</v>
+      </c>
+      <c r="B350" s="61" t="s">
+        <v>325</v>
+      </c>
+      <c r="C350" s="61" t="s">
+        <v>976</v>
+      </c>
+      <c r="D350" s="61" t="s">
+        <v>958</v>
+      </c>
+      <c r="E350" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F350" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="G350" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="H350" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="I350" s="61"/>
+    </row>
+    <row r="351" spans="1:9" s="62" customFormat="1" ht="60">
+      <c r="A351" s="60" t="s">
+        <v>977</v>
+      </c>
+      <c r="B351" s="61" t="s">
+        <v>325</v>
+      </c>
+      <c r="C351" s="61" t="s">
+        <v>978</v>
+      </c>
+      <c r="D351" s="61" t="s">
+        <v>958</v>
+      </c>
+      <c r="E351" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F351" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="G351" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="H351" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="I351" s="61"/>
+    </row>
+    <row r="352" spans="1:9" s="62" customFormat="1" ht="60">
+      <c r="A352" s="60" t="s">
+        <v>979</v>
+      </c>
+      <c r="B352" s="61" t="s">
+        <v>325</v>
+      </c>
+      <c r="C352" s="61" t="s">
+        <v>980</v>
+      </c>
+      <c r="D352" s="61" t="s">
+        <v>958</v>
+      </c>
+      <c r="E352" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F352" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="G352" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="H352" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="I352" s="61"/>
+    </row>
+    <row r="353" spans="1:9" s="62" customFormat="1" ht="60">
+      <c r="A353" s="60" t="s">
+        <v>981</v>
+      </c>
+      <c r="B353" s="61" t="s">
+        <v>325</v>
+      </c>
+      <c r="C353" s="61" t="s">
+        <v>982</v>
+      </c>
+      <c r="D353" s="61" t="s">
+        <v>958</v>
+      </c>
+      <c r="E353" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F353" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="G353" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="H353" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="I353" s="61"/>
+    </row>
+    <row r="354" spans="1:9" s="62" customFormat="1" ht="60">
+      <c r="A354" s="60" t="s">
+        <v>983</v>
+      </c>
+      <c r="B354" s="61" t="s">
+        <v>325</v>
+      </c>
+      <c r="C354" s="61" t="s">
+        <v>984</v>
+      </c>
+      <c r="D354" s="61" t="s">
+        <v>958</v>
+      </c>
+      <c r="E354" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F354" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="G354" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="H354" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="I354" s="61"/>
+    </row>
+    <row r="355" spans="1:9" s="62" customFormat="1" ht="60">
+      <c r="A355" s="60" t="s">
+        <v>985</v>
+      </c>
+      <c r="B355" s="61" t="s">
+        <v>325</v>
+      </c>
+      <c r="C355" s="61" t="s">
+        <v>986</v>
+      </c>
+      <c r="D355" s="61" t="s">
+        <v>958</v>
+      </c>
+      <c r="E355" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F355" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="G355" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="H355" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="I355" s="61"/>
+    </row>
+    <row r="356" spans="1:9" s="35" customFormat="1" ht="45">
+      <c r="A356" s="33" t="s">
+        <v>330</v>
+      </c>
+      <c r="B356" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C356" s="34" t="s">
+        <v>755</v>
+      </c>
+      <c r="D356" s="34" t="s">
+        <v>588</v>
+      </c>
+      <c r="E356" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F356" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G356" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H356" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I356" s="34" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="342" spans="1:9" s="35" customFormat="1" ht="45">
-      <c r="A342" s="33" t="s">
-        <v>613</v>
-      </c>
-      <c r="B342" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C342" s="19" t="s">
-        <v>833</v>
-      </c>
-      <c r="D342" s="34" t="s">
-        <v>616</v>
-      </c>
-      <c r="E342" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F342" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G342" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H342" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I342" s="34"/>
-    </row>
-    <row r="343" spans="1:9" s="35" customFormat="1" ht="45">
-      <c r="A343" s="33" t="s">
-        <v>614</v>
-      </c>
-      <c r="B343" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C343" s="19" t="s">
-        <v>834</v>
-      </c>
-      <c r="D343" s="34" t="s">
-        <v>616</v>
-      </c>
-      <c r="E343" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F343" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G343" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H343" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I343" s="34"/>
-    </row>
-    <row r="344" spans="1:9" s="35" customFormat="1" ht="90">
-      <c r="A344" s="33" t="s">
-        <v>617</v>
-      </c>
-      <c r="B344" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C344" s="21" t="s">
-        <v>835</v>
-      </c>
-      <c r="D344" s="34" t="s">
-        <v>615</v>
-      </c>
-      <c r="E344" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F344" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G344" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H344" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I344" s="34" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="345" spans="1:9" s="35" customFormat="1" ht="75">
-      <c r="A345" s="33" t="s">
-        <v>618</v>
-      </c>
-      <c r="B345" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C345" s="21" t="s">
-        <v>836</v>
-      </c>
-      <c r="D345" s="34" t="s">
-        <v>620</v>
-      </c>
-      <c r="E345" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F345" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G345" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H345" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I345" s="34"/>
-    </row>
-    <row r="346" spans="1:9" s="35" customFormat="1" ht="75">
-      <c r="A346" s="33" t="s">
-        <v>619</v>
-      </c>
-      <c r="B346" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C346" s="21" t="s">
-        <v>837</v>
-      </c>
-      <c r="D346" s="34" t="s">
-        <v>620</v>
-      </c>
-      <c r="E346" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F346" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G346" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H346" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I346" s="34"/>
-    </row>
-    <row r="347" spans="1:9" s="35" customFormat="1" ht="45">
-      <c r="A347" s="33" t="s">
-        <v>319</v>
-      </c>
-      <c r="B347" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C347" s="19" t="s">
-        <v>761</v>
-      </c>
-      <c r="D347" s="34" t="s">
-        <v>608</v>
-      </c>
-      <c r="E347" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F347" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G347" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H347" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I347" s="34" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="348" spans="1:9" s="35" customFormat="1" ht="45">
-      <c r="A348" s="33" t="s">
-        <v>609</v>
-      </c>
-      <c r="B348" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C348" s="19" t="s">
-        <v>762</v>
-      </c>
-      <c r="D348" s="34" t="s">
-        <v>608</v>
-      </c>
-      <c r="E348" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F348" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G348" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H348" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I348" s="34" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="349" spans="1:9" s="35" customFormat="1" ht="75">
-      <c r="A349" s="33" t="s">
-        <v>321</v>
-      </c>
-      <c r="B349" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C349" s="21" t="s">
-        <v>777</v>
-      </c>
-      <c r="D349" s="34" t="s">
-        <v>624</v>
-      </c>
-      <c r="E349" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F349" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G349" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H349" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I349" s="34" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="350" spans="1:9" s="35" customFormat="1" ht="45">
-      <c r="A350" s="33" t="s">
-        <v>322</v>
-      </c>
-      <c r="B350" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C350" s="21" t="s">
-        <v>763</v>
-      </c>
-      <c r="D350" s="34" t="s">
-        <v>539</v>
-      </c>
-      <c r="E350" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F350" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G350" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H350" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I350" s="34"/>
-    </row>
-    <row r="351" spans="1:9" s="35" customFormat="1" ht="45">
-      <c r="A351" s="33" t="s">
-        <v>443</v>
-      </c>
-      <c r="B351" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C351" s="21" t="s">
-        <v>764</v>
-      </c>
-      <c r="D351" s="34" t="s">
-        <v>539</v>
-      </c>
-      <c r="E351" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F351" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G351" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H351" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I351" s="34"/>
-    </row>
-    <row r="352" spans="1:9" s="35" customFormat="1" ht="45">
-      <c r="A352" s="33" t="s">
-        <v>444</v>
-      </c>
-      <c r="B352" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C352" s="21" t="s">
-        <v>765</v>
-      </c>
-      <c r="D352" s="34" t="s">
-        <v>539</v>
-      </c>
-      <c r="E352" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F352" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G352" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H352" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I352" s="34"/>
-    </row>
-    <row r="353" spans="1:9" s="35" customFormat="1" ht="45">
-      <c r="A353" s="33" t="s">
-        <v>445</v>
-      </c>
-      <c r="B353" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C353" s="21" t="s">
-        <v>766</v>
-      </c>
-      <c r="D353" s="34" t="s">
-        <v>539</v>
-      </c>
-      <c r="E353" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F353" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G353" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H353" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I353" s="34"/>
-    </row>
-    <row r="354" spans="1:9" s="35" customFormat="1" ht="60">
-      <c r="A354" s="33" t="s">
-        <v>446</v>
-      </c>
-      <c r="B354" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C354" s="21" t="s">
-        <v>767</v>
-      </c>
-      <c r="D354" s="34" t="s">
-        <v>539</v>
-      </c>
-      <c r="E354" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F354" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G354" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H354" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I354" s="34"/>
-    </row>
-    <row r="355" spans="1:9" s="35" customFormat="1" ht="60">
-      <c r="A355" s="33" t="s">
-        <v>447</v>
-      </c>
-      <c r="B355" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C355" s="21" t="s">
-        <v>772</v>
-      </c>
-      <c r="D355" s="34" t="s">
-        <v>539</v>
-      </c>
-      <c r="E355" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F355" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G355" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H355" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I355" s="34"/>
-    </row>
-    <row r="356" spans="1:9" s="35" customFormat="1" ht="60">
-      <c r="A356" s="33" t="s">
-        <v>448</v>
-      </c>
-      <c r="B356" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C356" s="21" t="s">
-        <v>773</v>
-      </c>
-      <c r="D356" s="34" t="s">
-        <v>539</v>
-      </c>
-      <c r="E356" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F356" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G356" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H356" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I356" s="34"/>
     </row>
     <row r="357" spans="1:9" s="35" customFormat="1" ht="45">
       <c r="A357" s="33" t="s">
-        <v>449</v>
+        <v>586</v>
       </c>
       <c r="B357" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="C357" s="21" t="s">
-        <v>768</v>
+      <c r="C357" s="34" t="s">
+        <v>754</v>
       </c>
       <c r="D357" s="34" t="s">
-        <v>539</v>
+        <v>589</v>
       </c>
       <c r="E357" s="33" t="s">
         <v>25</v>
@@ -14107,20 +14402,22 @@
       <c r="H357" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="I357" s="34"/>
+      <c r="I357" s="34" t="s">
+        <v>661</v>
+      </c>
     </row>
     <row r="358" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A358" s="33" t="s">
-        <v>450</v>
+        <v>584</v>
       </c>
       <c r="B358" s="34" t="s">
         <v>325</v>
       </c>
       <c r="C358" s="21" t="s">
-        <v>769</v>
+        <v>756</v>
       </c>
       <c r="D358" s="34" t="s">
-        <v>539</v>
+        <v>589</v>
       </c>
       <c r="E358" s="33" t="s">
         <v>25</v>
@@ -14134,20 +14431,22 @@
       <c r="H358" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="I358" s="34"/>
-    </row>
-    <row r="359" spans="1:9" s="35" customFormat="1" ht="45">
+      <c r="I358" s="34" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A359" s="33" t="s">
-        <v>451</v>
+        <v>585</v>
       </c>
       <c r="B359" s="34" t="s">
         <v>325</v>
       </c>
       <c r="C359" s="21" t="s">
-        <v>770</v>
+        <v>757</v>
       </c>
       <c r="D359" s="34" t="s">
-        <v>539</v>
+        <v>589</v>
       </c>
       <c r="E359" s="33" t="s">
         <v>25</v>
@@ -14161,20 +14460,22 @@
       <c r="H359" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="I359" s="34"/>
+      <c r="I359" s="34" t="s">
+        <v>661</v>
+      </c>
     </row>
     <row r="360" spans="1:9" s="35" customFormat="1" ht="60">
-      <c r="A360" s="36" t="s">
-        <v>625</v>
+      <c r="A360" s="33" t="s">
+        <v>511</v>
       </c>
       <c r="B360" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="C360" s="37" t="s">
-        <v>771</v>
+      <c r="C360" s="34" t="s">
+        <v>758</v>
       </c>
       <c r="D360" s="34" t="s">
-        <v>539</v>
+        <v>589</v>
       </c>
       <c r="E360" s="33" t="s">
         <v>25</v>
@@ -14188,20 +14489,22 @@
       <c r="H360" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="I360" s="34"/>
-    </row>
-    <row r="361" spans="1:9" s="35" customFormat="1" ht="45">
-      <c r="A361" s="36" t="s">
-        <v>626</v>
+      <c r="I360" s="34" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9" s="35" customFormat="1" ht="60">
+      <c r="A361" s="33" t="s">
+        <v>590</v>
       </c>
       <c r="B361" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="C361" s="37" t="s">
-        <v>774</v>
+      <c r="C361" s="34" t="s">
+        <v>759</v>
       </c>
       <c r="D361" s="34" t="s">
-        <v>539</v>
+        <v>587</v>
       </c>
       <c r="E361" s="33" t="s">
         <v>25</v>
@@ -14215,20 +14518,22 @@
       <c r="H361" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="I361" s="34"/>
-    </row>
-    <row r="362" spans="1:9" s="35" customFormat="1" ht="60">
+      <c r="I361" s="34" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9" s="35" customFormat="1" ht="75">
       <c r="A362" s="33" t="s">
-        <v>452</v>
+        <v>591</v>
       </c>
       <c r="B362" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="C362" s="21" t="s">
-        <v>775</v>
+      <c r="C362" s="34" t="s">
+        <v>917</v>
       </c>
       <c r="D362" s="34" t="s">
-        <v>539</v>
+        <v>587</v>
       </c>
       <c r="E362" s="33" t="s">
         <v>25</v>
@@ -14242,20 +14547,22 @@
       <c r="H362" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="I362" s="34"/>
-    </row>
-    <row r="363" spans="1:9" s="35" customFormat="1" ht="60">
+      <c r="I362" s="34" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9" s="35" customFormat="1" ht="75">
       <c r="A363" s="33" t="s">
-        <v>453</v>
+        <v>592</v>
       </c>
       <c r="B363" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="C363" s="21" t="s">
-        <v>776</v>
+      <c r="C363" s="34" t="s">
+        <v>918</v>
       </c>
       <c r="D363" s="34" t="s">
-        <v>539</v>
+        <v>587</v>
       </c>
       <c r="E363" s="33" t="s">
         <v>25</v>
@@ -14269,20 +14576,22 @@
       <c r="H363" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="I363" s="34"/>
-    </row>
-    <row r="364" spans="1:9" s="35" customFormat="1" ht="75">
+      <c r="I363" s="34" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A364" s="33" t="s">
-        <v>521</v>
+        <v>593</v>
       </c>
       <c r="B364" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="C364" s="19" t="s">
-        <v>791</v>
+      <c r="C364" s="34" t="s">
+        <v>903</v>
       </c>
       <c r="D364" s="34" t="s">
-        <v>624</v>
+        <v>594</v>
       </c>
       <c r="E364" s="33" t="s">
         <v>25</v>
@@ -14294,51 +14603,51 @@
         <v>16</v>
       </c>
       <c r="H364" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I364" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I364" s="33"/>
+    </row>
+    <row r="365" spans="1:9" s="35" customFormat="1" ht="60">
+      <c r="A365" s="33" t="s">
+        <v>905</v>
+      </c>
+      <c r="B365" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C365" s="19" t="s">
+        <v>906</v>
+      </c>
+      <c r="D365" s="34" t="s">
+        <v>594</v>
+      </c>
+      <c r="E365" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F365" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G365" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H365" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I365" s="34" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="365" spans="1:9" s="35" customFormat="1" ht="45">
-      <c r="A365" s="33" t="s">
-        <v>323</v>
-      </c>
-      <c r="B365" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C365" s="21" t="s">
-        <v>778</v>
-      </c>
-      <c r="D365" s="34" t="s">
-        <v>540</v>
-      </c>
-      <c r="E365" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F365" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G365" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H365" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I365" s="34"/>
-    </row>
-    <row r="366" spans="1:9" s="35" customFormat="1" ht="45">
+    <row r="366" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A366" s="33" t="s">
-        <v>454</v>
+        <v>907</v>
       </c>
       <c r="B366" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="C366" s="21" t="s">
-        <v>779</v>
+      <c r="C366" s="19" t="s">
+        <v>908</v>
       </c>
       <c r="D366" s="34" t="s">
-        <v>540</v>
+        <v>594</v>
       </c>
       <c r="E366" s="33" t="s">
         <v>25</v>
@@ -14350,22 +14659,22 @@
         <v>16</v>
       </c>
       <c r="H366" s="33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I366" s="34"/>
     </row>
     <row r="367" spans="1:9" s="35" customFormat="1" ht="45">
       <c r="A367" s="33" t="s">
-        <v>455</v>
+        <v>535</v>
       </c>
       <c r="B367" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="C367" s="21" t="s">
-        <v>780</v>
+      <c r="C367" s="19" t="s">
+        <v>760</v>
       </c>
       <c r="D367" s="34" t="s">
-        <v>540</v>
+        <v>876</v>
       </c>
       <c r="E367" s="33" t="s">
         <v>25</v>
@@ -14379,20 +14688,22 @@
       <c r="H367" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="I367" s="34"/>
-    </row>
-    <row r="368" spans="1:9" s="35" customFormat="1" ht="45">
+      <c r="I367" s="34" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9" s="35" customFormat="1" ht="75">
       <c r="A368" s="33" t="s">
-        <v>456</v>
+        <v>331</v>
       </c>
       <c r="B368" s="34" t="s">
         <v>325</v>
       </c>
       <c r="C368" s="21" t="s">
-        <v>781</v>
+        <v>885</v>
       </c>
       <c r="D368" s="34" t="s">
-        <v>540</v>
+        <v>876</v>
       </c>
       <c r="E368" s="33" t="s">
         <v>25</v>
@@ -14406,20 +14717,22 @@
       <c r="H368" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="I368" s="34"/>
+      <c r="I368" s="34" t="s">
+        <v>661</v>
+      </c>
     </row>
     <row r="369" spans="1:9" s="35" customFormat="1" ht="45">
       <c r="A369" s="33" t="s">
-        <v>457</v>
+        <v>879</v>
       </c>
       <c r="B369" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="C369" s="21" t="s">
-        <v>782</v>
+      <c r="C369" s="19" t="s">
+        <v>883</v>
       </c>
       <c r="D369" s="34" t="s">
-        <v>540</v>
+        <v>877</v>
       </c>
       <c r="E369" s="33" t="s">
         <v>25</v>
@@ -14433,20 +14746,22 @@
       <c r="H369" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="I369" s="34"/>
-    </row>
-    <row r="370" spans="1:9" s="35" customFormat="1" ht="45">
+      <c r="I369" s="34" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9" s="35" customFormat="1" ht="75">
       <c r="A370" s="33" t="s">
-        <v>458</v>
+        <v>891</v>
       </c>
       <c r="B370" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="C370" s="21" t="s">
-        <v>783</v>
+      <c r="C370" s="19" t="s">
+        <v>884</v>
       </c>
       <c r="D370" s="34" t="s">
-        <v>540</v>
+        <v>877</v>
       </c>
       <c r="E370" s="33" t="s">
         <v>25</v>
@@ -14458,22 +14773,22 @@
         <v>16</v>
       </c>
       <c r="H370" s="33" t="s">
-        <v>21</v>
+        <v>574</v>
       </c>
       <c r="I370" s="34"/>
     </row>
     <row r="371" spans="1:9" s="35" customFormat="1" ht="45">
       <c r="A371" s="33" t="s">
-        <v>459</v>
+        <v>880</v>
       </c>
       <c r="B371" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="C371" s="21" t="s">
-        <v>784</v>
+      <c r="C371" s="19" t="s">
+        <v>886</v>
       </c>
       <c r="D371" s="34" t="s">
-        <v>540</v>
+        <v>878</v>
       </c>
       <c r="E371" s="33" t="s">
         <v>25</v>
@@ -14487,20 +14802,22 @@
       <c r="H371" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="I371" s="34"/>
-    </row>
-    <row r="372" spans="1:9" s="35" customFormat="1" ht="45">
+      <c r="I371" s="34" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9" s="35" customFormat="1" ht="75">
       <c r="A372" s="33" t="s">
-        <v>460</v>
+        <v>892</v>
       </c>
       <c r="B372" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="C372" s="21" t="s">
-        <v>785</v>
+      <c r="C372" s="19" t="s">
+        <v>887</v>
       </c>
       <c r="D372" s="34" t="s">
-        <v>540</v>
+        <v>878</v>
       </c>
       <c r="E372" s="33" t="s">
         <v>25</v>
@@ -14512,22 +14829,22 @@
         <v>16</v>
       </c>
       <c r="H372" s="33" t="s">
-        <v>21</v>
+        <v>574</v>
       </c>
       <c r="I372" s="34"/>
     </row>
-    <row r="373" spans="1:9" s="35" customFormat="1" ht="45">
+    <row r="373" spans="1:9" s="35" customFormat="1" ht="60">
       <c r="A373" s="33" t="s">
-        <v>461</v>
+        <v>612</v>
       </c>
       <c r="B373" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="C373" s="21" t="s">
-        <v>786</v>
+      <c r="C373" s="19" t="s">
+        <v>831</v>
       </c>
       <c r="D373" s="34" t="s">
-        <v>540</v>
+        <v>615</v>
       </c>
       <c r="E373" s="33" t="s">
         <v>25</v>
@@ -14541,20 +14858,22 @@
       <c r="H373" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="I373" s="34"/>
+      <c r="I373" s="34" t="s">
+        <v>661</v>
+      </c>
     </row>
     <row r="374" spans="1:9" s="35" customFormat="1" ht="45">
       <c r="A374" s="33" t="s">
-        <v>462</v>
+        <v>613</v>
       </c>
       <c r="B374" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="C374" s="21" t="s">
-        <v>787</v>
+      <c r="C374" s="19" t="s">
+        <v>832</v>
       </c>
       <c r="D374" s="34" t="s">
-        <v>540</v>
+        <v>616</v>
       </c>
       <c r="E374" s="33" t="s">
         <v>25</v>
@@ -14570,18 +14889,18 @@
       </c>
       <c r="I374" s="34"/>
     </row>
-    <row r="375" spans="1:9" s="35" customFormat="1" ht="60">
+    <row r="375" spans="1:9" s="35" customFormat="1" ht="45">
       <c r="A375" s="33" t="s">
-        <v>463</v>
+        <v>614</v>
       </c>
       <c r="B375" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="C375" s="21" t="s">
-        <v>788</v>
+      <c r="C375" s="19" t="s">
+        <v>833</v>
       </c>
       <c r="D375" s="34" t="s">
-        <v>540</v>
+        <v>616</v>
       </c>
       <c r="E375" s="33" t="s">
         <v>25</v>
@@ -14597,18 +14916,18 @@
       </c>
       <c r="I375" s="34"/>
     </row>
-    <row r="376" spans="1:9" s="35" customFormat="1" ht="60">
+    <row r="376" spans="1:9" s="35" customFormat="1" ht="90">
       <c r="A376" s="33" t="s">
-        <v>512</v>
+        <v>617</v>
       </c>
       <c r="B376" s="34" t="s">
         <v>325</v>
       </c>
       <c r="C376" s="21" t="s">
-        <v>789</v>
+        <v>834</v>
       </c>
       <c r="D376" s="34" t="s">
-        <v>540</v>
+        <v>615</v>
       </c>
       <c r="E376" s="33" t="s">
         <v>25</v>
@@ -14622,20 +14941,22 @@
       <c r="H376" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="I376" s="34"/>
-    </row>
-    <row r="377" spans="1:9" s="35" customFormat="1" ht="45">
+      <c r="I376" s="34" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9" s="35" customFormat="1" ht="75">
       <c r="A377" s="33" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="B377" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="C377" s="19" t="s">
-        <v>790</v>
+      <c r="C377" s="21" t="s">
+        <v>835</v>
       </c>
       <c r="D377" s="34" t="s">
-        <v>540</v>
+        <v>620</v>
       </c>
       <c r="E377" s="33" t="s">
         <v>25</v>
@@ -14651,18 +14972,18 @@
       </c>
       <c r="I377" s="34"/>
     </row>
-    <row r="378" spans="1:9" s="35" customFormat="1" ht="60">
+    <row r="378" spans="1:9" s="35" customFormat="1" ht="75">
       <c r="A378" s="33" t="s">
-        <v>332</v>
+        <v>619</v>
       </c>
       <c r="B378" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="C378" s="19" t="s">
-        <v>906</v>
+      <c r="C378" s="21" t="s">
+        <v>836</v>
       </c>
       <c r="D378" s="34" t="s">
-        <v>657</v>
+        <v>620</v>
       </c>
       <c r="E378" s="33" t="s">
         <v>25</v>
@@ -14674,22 +14995,22 @@
         <v>16</v>
       </c>
       <c r="H378" s="33" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I378" s="34"/>
     </row>
-    <row r="379" spans="1:9" s="35" customFormat="1" ht="60">
+    <row r="379" spans="1:9" s="35" customFormat="1" ht="45">
       <c r="A379" s="33" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="B379" s="34" t="s">
         <v>325</v>
       </c>
       <c r="C379" s="19" t="s">
-        <v>911</v>
+        <v>761</v>
       </c>
       <c r="D379" s="34" t="s">
-        <v>657</v>
+        <v>608</v>
       </c>
       <c r="E379" s="33" t="s">
         <v>25</v>
@@ -14701,22 +15022,24 @@
         <v>16</v>
       </c>
       <c r="H379" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="I379" s="34"/>
-    </row>
-    <row r="380" spans="1:9" s="35" customFormat="1" ht="60">
+        <v>21</v>
+      </c>
+      <c r="I379" s="34" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9" s="35" customFormat="1" ht="45">
       <c r="A380" s="33" t="s">
-        <v>628</v>
+        <v>609</v>
       </c>
       <c r="B380" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="C380" s="37" t="s">
-        <v>914</v>
+      <c r="C380" s="19" t="s">
+        <v>762</v>
       </c>
       <c r="D380" s="34" t="s">
-        <v>657</v>
+        <v>608</v>
       </c>
       <c r="E380" s="33" t="s">
         <v>25</v>
@@ -14736,16 +15059,16 @@
     </row>
     <row r="381" spans="1:9" s="35" customFormat="1" ht="75">
       <c r="A381" s="33" t="s">
-        <v>629</v>
+        <v>321</v>
       </c>
       <c r="B381" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="C381" s="38" t="s">
-        <v>912</v>
+      <c r="C381" s="21" t="s">
+        <v>777</v>
       </c>
       <c r="D381" s="34" t="s">
-        <v>657</v>
+        <v>624</v>
       </c>
       <c r="E381" s="33" t="s">
         <v>25</v>
@@ -14763,1322 +15086,2274 @@
         <v>661</v>
       </c>
     </row>
-    <row r="382" spans="1:9" s="35" customFormat="1" ht="60">
+    <row r="382" spans="1:9" s="35" customFormat="1" ht="45">
       <c r="A382" s="33" t="s">
+        <v>322</v>
+      </c>
+      <c r="B382" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C382" s="21" t="s">
+        <v>763</v>
+      </c>
+      <c r="D382" s="34" t="s">
+        <v>539</v>
+      </c>
+      <c r="E382" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F382" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G382" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H382" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I382" s="34"/>
+    </row>
+    <row r="383" spans="1:9" s="35" customFormat="1" ht="45">
+      <c r="A383" s="33" t="s">
+        <v>443</v>
+      </c>
+      <c r="B383" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C383" s="21" t="s">
+        <v>764</v>
+      </c>
+      <c r="D383" s="34" t="s">
+        <v>539</v>
+      </c>
+      <c r="E383" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F383" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G383" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H383" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I383" s="34"/>
+    </row>
+    <row r="384" spans="1:9" s="35" customFormat="1" ht="45">
+      <c r="A384" s="33" t="s">
+        <v>444</v>
+      </c>
+      <c r="B384" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C384" s="21" t="s">
+        <v>765</v>
+      </c>
+      <c r="D384" s="34" t="s">
+        <v>539</v>
+      </c>
+      <c r="E384" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F384" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G384" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H384" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I384" s="34"/>
+    </row>
+    <row r="385" spans="1:9" s="35" customFormat="1" ht="45">
+      <c r="A385" s="33" t="s">
+        <v>445</v>
+      </c>
+      <c r="B385" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C385" s="21" t="s">
+        <v>766</v>
+      </c>
+      <c r="D385" s="34" t="s">
+        <v>539</v>
+      </c>
+      <c r="E385" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F385" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G385" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H385" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I385" s="34"/>
+    </row>
+    <row r="386" spans="1:9" s="35" customFormat="1" ht="60">
+      <c r="A386" s="33" t="s">
+        <v>446</v>
+      </c>
+      <c r="B386" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C386" s="21" t="s">
+        <v>767</v>
+      </c>
+      <c r="D386" s="34" t="s">
+        <v>539</v>
+      </c>
+      <c r="E386" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F386" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G386" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H386" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I386" s="34"/>
+    </row>
+    <row r="387" spans="1:9" s="35" customFormat="1" ht="60">
+      <c r="A387" s="33" t="s">
+        <v>447</v>
+      </c>
+      <c r="B387" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C387" s="21" t="s">
+        <v>772</v>
+      </c>
+      <c r="D387" s="34" t="s">
+        <v>539</v>
+      </c>
+      <c r="E387" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F387" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G387" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H387" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I387" s="34"/>
+    </row>
+    <row r="388" spans="1:9" s="35" customFormat="1" ht="60">
+      <c r="A388" s="33" t="s">
+        <v>448</v>
+      </c>
+      <c r="B388" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C388" s="21" t="s">
+        <v>773</v>
+      </c>
+      <c r="D388" s="34" t="s">
+        <v>539</v>
+      </c>
+      <c r="E388" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F388" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G388" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H388" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I388" s="34"/>
+    </row>
+    <row r="389" spans="1:9" s="35" customFormat="1" ht="45">
+      <c r="A389" s="33" t="s">
+        <v>449</v>
+      </c>
+      <c r="B389" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C389" s="21" t="s">
+        <v>768</v>
+      </c>
+      <c r="D389" s="34" t="s">
+        <v>539</v>
+      </c>
+      <c r="E389" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F389" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G389" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H389" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I389" s="34"/>
+    </row>
+    <row r="390" spans="1:9" s="35" customFormat="1" ht="60">
+      <c r="A390" s="33" t="s">
+        <v>450</v>
+      </c>
+      <c r="B390" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C390" s="21" t="s">
+        <v>769</v>
+      </c>
+      <c r="D390" s="34" t="s">
+        <v>539</v>
+      </c>
+      <c r="E390" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F390" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G390" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H390" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I390" s="34"/>
+    </row>
+    <row r="391" spans="1:9" s="35" customFormat="1" ht="45">
+      <c r="A391" s="33" t="s">
+        <v>451</v>
+      </c>
+      <c r="B391" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C391" s="21" t="s">
+        <v>770</v>
+      </c>
+      <c r="D391" s="34" t="s">
+        <v>539</v>
+      </c>
+      <c r="E391" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F391" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G391" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H391" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I391" s="34"/>
+    </row>
+    <row r="392" spans="1:9" s="35" customFormat="1" ht="60">
+      <c r="A392" s="36" t="s">
+        <v>625</v>
+      </c>
+      <c r="B392" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C392" s="37" t="s">
+        <v>771</v>
+      </c>
+      <c r="D392" s="34" t="s">
+        <v>539</v>
+      </c>
+      <c r="E392" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F392" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G392" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H392" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I392" s="34"/>
+    </row>
+    <row r="393" spans="1:9" s="35" customFormat="1" ht="45">
+      <c r="A393" s="36" t="s">
+        <v>626</v>
+      </c>
+      <c r="B393" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C393" s="37" t="s">
+        <v>774</v>
+      </c>
+      <c r="D393" s="34" t="s">
+        <v>539</v>
+      </c>
+      <c r="E393" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F393" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G393" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H393" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I393" s="34"/>
+    </row>
+    <row r="394" spans="1:9" s="35" customFormat="1" ht="60">
+      <c r="A394" s="33" t="s">
+        <v>452</v>
+      </c>
+      <c r="B394" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C394" s="21" t="s">
+        <v>775</v>
+      </c>
+      <c r="D394" s="34" t="s">
+        <v>539</v>
+      </c>
+      <c r="E394" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F394" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G394" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H394" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I394" s="34"/>
+    </row>
+    <row r="395" spans="1:9" s="35" customFormat="1" ht="60">
+      <c r="A395" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="B395" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C395" s="21" t="s">
+        <v>776</v>
+      </c>
+      <c r="D395" s="34" t="s">
+        <v>539</v>
+      </c>
+      <c r="E395" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F395" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G395" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H395" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I395" s="34"/>
+    </row>
+    <row r="396" spans="1:9" s="35" customFormat="1" ht="75">
+      <c r="A396" s="33" t="s">
+        <v>521</v>
+      </c>
+      <c r="B396" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C396" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="D396" s="34" t="s">
+        <v>624</v>
+      </c>
+      <c r="E396" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F396" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G396" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H396" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I396" s="34" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9" s="35" customFormat="1" ht="45">
+      <c r="A397" s="33" t="s">
+        <v>323</v>
+      </c>
+      <c r="B397" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C397" s="21" t="s">
+        <v>778</v>
+      </c>
+      <c r="D397" s="34" t="s">
+        <v>540</v>
+      </c>
+      <c r="E397" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F397" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G397" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H397" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I397" s="34"/>
+    </row>
+    <row r="398" spans="1:9" s="35" customFormat="1" ht="45">
+      <c r="A398" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="B398" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C398" s="21" t="s">
+        <v>779</v>
+      </c>
+      <c r="D398" s="34" t="s">
+        <v>540</v>
+      </c>
+      <c r="E398" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F398" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G398" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H398" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I398" s="34"/>
+    </row>
+    <row r="399" spans="1:9" s="35" customFormat="1" ht="45">
+      <c r="A399" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="B399" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C399" s="21" t="s">
+        <v>780</v>
+      </c>
+      <c r="D399" s="34" t="s">
+        <v>540</v>
+      </c>
+      <c r="E399" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F399" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G399" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H399" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I399" s="34"/>
+    </row>
+    <row r="400" spans="1:9" s="35" customFormat="1" ht="45">
+      <c r="A400" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="B400" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C400" s="21" t="s">
+        <v>781</v>
+      </c>
+      <c r="D400" s="34" t="s">
+        <v>540</v>
+      </c>
+      <c r="E400" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F400" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G400" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H400" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I400" s="34"/>
+    </row>
+    <row r="401" spans="1:9" s="35" customFormat="1" ht="45">
+      <c r="A401" s="33" t="s">
+        <v>457</v>
+      </c>
+      <c r="B401" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C401" s="21" t="s">
+        <v>782</v>
+      </c>
+      <c r="D401" s="34" t="s">
+        <v>540</v>
+      </c>
+      <c r="E401" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F401" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G401" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H401" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I401" s="34"/>
+    </row>
+    <row r="402" spans="1:9" s="35" customFormat="1" ht="45">
+      <c r="A402" s="33" t="s">
+        <v>458</v>
+      </c>
+      <c r="B402" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C402" s="21" t="s">
+        <v>783</v>
+      </c>
+      <c r="D402" s="34" t="s">
+        <v>540</v>
+      </c>
+      <c r="E402" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F402" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G402" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H402" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I402" s="34"/>
+    </row>
+    <row r="403" spans="1:9" s="35" customFormat="1" ht="45">
+      <c r="A403" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="B403" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C403" s="21" t="s">
+        <v>784</v>
+      </c>
+      <c r="D403" s="34" t="s">
+        <v>540</v>
+      </c>
+      <c r="E403" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F403" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G403" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H403" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I403" s="34"/>
+    </row>
+    <row r="404" spans="1:9" s="35" customFormat="1" ht="45">
+      <c r="A404" s="33" t="s">
+        <v>460</v>
+      </c>
+      <c r="B404" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C404" s="21" t="s">
+        <v>785</v>
+      </c>
+      <c r="D404" s="34" t="s">
+        <v>540</v>
+      </c>
+      <c r="E404" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F404" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G404" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H404" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I404" s="34"/>
+    </row>
+    <row r="405" spans="1:9" s="35" customFormat="1" ht="45">
+      <c r="A405" s="33" t="s">
+        <v>461</v>
+      </c>
+      <c r="B405" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C405" s="21" t="s">
+        <v>786</v>
+      </c>
+      <c r="D405" s="34" t="s">
+        <v>540</v>
+      </c>
+      <c r="E405" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F405" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G405" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H405" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I405" s="34"/>
+    </row>
+    <row r="406" spans="1:9" s="35" customFormat="1" ht="45">
+      <c r="A406" s="33" t="s">
+        <v>462</v>
+      </c>
+      <c r="B406" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C406" s="21" t="s">
+        <v>787</v>
+      </c>
+      <c r="D406" s="34" t="s">
+        <v>540</v>
+      </c>
+      <c r="E406" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F406" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G406" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H406" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I406" s="34"/>
+    </row>
+    <row r="407" spans="1:9" s="35" customFormat="1" ht="60">
+      <c r="A407" s="33" t="s">
+        <v>463</v>
+      </c>
+      <c r="B407" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C407" s="21" t="s">
+        <v>788</v>
+      </c>
+      <c r="D407" s="34" t="s">
+        <v>540</v>
+      </c>
+      <c r="E407" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F407" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G407" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H407" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I407" s="34"/>
+    </row>
+    <row r="408" spans="1:9" s="35" customFormat="1" ht="60">
+      <c r="A408" s="33" t="s">
+        <v>512</v>
+      </c>
+      <c r="B408" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C408" s="21" t="s">
+        <v>789</v>
+      </c>
+      <c r="D408" s="34" t="s">
+        <v>540</v>
+      </c>
+      <c r="E408" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F408" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G408" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H408" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I408" s="34"/>
+    </row>
+    <row r="409" spans="1:9" s="35" customFormat="1" ht="45">
+      <c r="A409" s="33" t="s">
+        <v>627</v>
+      </c>
+      <c r="B409" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C409" s="19" t="s">
+        <v>790</v>
+      </c>
+      <c r="D409" s="34" t="s">
+        <v>540</v>
+      </c>
+      <c r="E409" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F409" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G409" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H409" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I409" s="34"/>
+    </row>
+    <row r="410" spans="1:9" s="35" customFormat="1" ht="60">
+      <c r="A410" s="33" t="s">
+        <v>332</v>
+      </c>
+      <c r="B410" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C410" s="19" t="s">
+        <v>904</v>
+      </c>
+      <c r="D410" s="34" t="s">
+        <v>657</v>
+      </c>
+      <c r="E410" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F410" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G410" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H410" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="I410" s="34"/>
+    </row>
+    <row r="411" spans="1:9" s="35" customFormat="1" ht="60">
+      <c r="A411" s="33" t="s">
+        <v>333</v>
+      </c>
+      <c r="B411" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C411" s="19" t="s">
+        <v>909</v>
+      </c>
+      <c r="D411" s="34" t="s">
+        <v>657</v>
+      </c>
+      <c r="E411" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F411" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G411" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H411" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="I411" s="34"/>
+    </row>
+    <row r="412" spans="1:9" s="35" customFormat="1" ht="75">
+      <c r="A412" s="33" t="s">
+        <v>628</v>
+      </c>
+      <c r="B412" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C412" s="37" t="s">
+        <v>987</v>
+      </c>
+      <c r="D412" s="34" t="s">
+        <v>657</v>
+      </c>
+      <c r="E412" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F412" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G412" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H412" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I412" s="34" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="413" spans="1:9" s="35" customFormat="1" ht="75">
+      <c r="A413" s="33" t="s">
+        <v>629</v>
+      </c>
+      <c r="B413" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C413" s="38" t="s">
+        <v>910</v>
+      </c>
+      <c r="D413" s="34" t="s">
+        <v>657</v>
+      </c>
+      <c r="E413" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F413" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G413" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H413" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I413" s="34" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="414" spans="1:9" s="35" customFormat="1" ht="60">
+      <c r="A414" s="33" t="s">
         <v>630</v>
       </c>
-      <c r="B382" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C382" s="38" t="s">
-        <v>913</v>
-      </c>
-      <c r="D382" s="34" t="s">
+      <c r="B414" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C414" s="38" t="s">
+        <v>911</v>
+      </c>
+      <c r="D414" s="34" t="s">
         <v>657</v>
       </c>
-      <c r="E382" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F382" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G382" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H382" s="33" t="s">
+      <c r="E414" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F414" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G414" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H414" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="I382" s="34"/>
-    </row>
-    <row r="383" spans="1:9" s="35" customFormat="1" ht="120">
-      <c r="A383" s="33" t="s">
+      <c r="I414" s="34"/>
+    </row>
+    <row r="415" spans="1:9" s="35" customFormat="1" ht="120">
+      <c r="A415" s="33" t="s">
         <v>500</v>
       </c>
-      <c r="B383" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C383" s="19" t="s">
+      <c r="B415" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C415" s="19" t="s">
         <v>792</v>
       </c>
-      <c r="D383" s="34" t="s">
+      <c r="D415" s="34" t="s">
         <v>624</v>
       </c>
-      <c r="E383" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F383" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G383" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H383" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I383" s="34" t="s">
+      <c r="E415" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F415" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G415" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H415" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I415" s="34" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="384" spans="1:9" s="35" customFormat="1" ht="90">
-      <c r="A384" s="33" t="s">
+    <row r="416" spans="1:9" s="35" customFormat="1" ht="90">
+      <c r="A416" s="33" t="s">
         <v>334</v>
       </c>
-      <c r="B384" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C384" s="19" t="s">
+      <c r="B416" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C416" s="19" t="s">
         <v>793</v>
       </c>
-      <c r="D384" s="34" t="s">
+      <c r="D416" s="34" t="s">
         <v>658</v>
       </c>
-      <c r="E384" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F384" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G384" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H384" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I384" s="34"/>
-    </row>
-    <row r="385" spans="1:9" s="35" customFormat="1" ht="90">
-      <c r="A385" s="33" t="s">
+      <c r="E416" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F416" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G416" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H416" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I416" s="34"/>
+    </row>
+    <row r="417" spans="1:9" s="35" customFormat="1" ht="90">
+      <c r="A417" s="33" t="s">
         <v>631</v>
       </c>
-      <c r="B385" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C385" s="19" t="s">
+      <c r="B417" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C417" s="19" t="s">
         <v>794</v>
       </c>
-      <c r="D385" s="34" t="s">
+      <c r="D417" s="34" t="s">
         <v>658</v>
       </c>
-      <c r="E385" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F385" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G385" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H385" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I385" s="34"/>
-    </row>
-    <row r="386" spans="1:9" s="35" customFormat="1" ht="90">
-      <c r="A386" s="33" t="s">
+      <c r="E417" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F417" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G417" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H417" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I417" s="34"/>
+    </row>
+    <row r="418" spans="1:9" s="35" customFormat="1" ht="90">
+      <c r="A418" s="33" t="s">
         <v>632</v>
       </c>
-      <c r="B386" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C386" s="19" t="s">
+      <c r="B418" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C418" s="19" t="s">
         <v>795</v>
       </c>
-      <c r="D386" s="34" t="s">
+      <c r="D418" s="34" t="s">
         <v>658</v>
       </c>
-      <c r="E386" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F386" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G386" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H386" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I386" s="34"/>
-    </row>
-    <row r="387" spans="1:9" s="35" customFormat="1" ht="90">
-      <c r="A387" s="33" t="s">
+      <c r="E418" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F418" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G418" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H418" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I418" s="34"/>
+    </row>
+    <row r="419" spans="1:9" s="35" customFormat="1" ht="90">
+      <c r="A419" s="33" t="s">
         <v>633</v>
       </c>
-      <c r="B387" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C387" s="19" t="s">
+      <c r="B419" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C419" s="19" t="s">
         <v>796</v>
       </c>
-      <c r="D387" s="34" t="s">
+      <c r="D419" s="34" t="s">
         <v>658</v>
       </c>
-      <c r="E387" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F387" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G387" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H387" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I387" s="34"/>
-    </row>
-    <row r="388" spans="1:9" s="35" customFormat="1" ht="90">
-      <c r="A388" s="33" t="s">
+      <c r="E419" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F419" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G419" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H419" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I419" s="34"/>
+    </row>
+    <row r="420" spans="1:9" s="35" customFormat="1" ht="90">
+      <c r="A420" s="33" t="s">
         <v>634</v>
       </c>
-      <c r="B388" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C388" s="19" t="s">
+      <c r="B420" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C420" s="19" t="s">
         <v>797</v>
       </c>
-      <c r="D388" s="34" t="s">
+      <c r="D420" s="34" t="s">
         <v>658</v>
       </c>
-      <c r="E388" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F388" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G388" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H388" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I388" s="34"/>
-    </row>
-    <row r="389" spans="1:9" s="35" customFormat="1" ht="90">
-      <c r="A389" s="33" t="s">
+      <c r="E420" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F420" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G420" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H420" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I420" s="34"/>
+    </row>
+    <row r="421" spans="1:9" s="35" customFormat="1" ht="90">
+      <c r="A421" s="33" t="s">
         <v>635</v>
       </c>
-      <c r="B389" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C389" s="19" t="s">
+      <c r="B421" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C421" s="19" t="s">
         <v>798</v>
       </c>
-      <c r="D389" s="34" t="s">
+      <c r="D421" s="34" t="s">
         <v>658</v>
       </c>
-      <c r="E389" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F389" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G389" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H389" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I389" s="34"/>
-    </row>
-    <row r="390" spans="1:9" s="35" customFormat="1" ht="90">
-      <c r="A390" s="33" t="s">
+      <c r="E421" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F421" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G421" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H421" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I421" s="34"/>
+    </row>
+    <row r="422" spans="1:9" s="35" customFormat="1" ht="90">
+      <c r="A422" s="33" t="s">
         <v>636</v>
       </c>
-      <c r="B390" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C390" s="19" t="s">
+      <c r="B422" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C422" s="19" t="s">
         <v>799</v>
       </c>
-      <c r="D390" s="34" t="s">
+      <c r="D422" s="34" t="s">
         <v>658</v>
       </c>
-      <c r="E390" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F390" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G390" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H390" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I390" s="34"/>
-    </row>
-    <row r="391" spans="1:9" s="35" customFormat="1" ht="90">
-      <c r="A391" s="33" t="s">
+      <c r="E422" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F422" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G422" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H422" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I422" s="34"/>
+    </row>
+    <row r="423" spans="1:9" s="35" customFormat="1" ht="90">
+      <c r="A423" s="33" t="s">
         <v>637</v>
       </c>
-      <c r="B391" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C391" s="19" t="s">
+      <c r="B423" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C423" s="19" t="s">
         <v>800</v>
       </c>
-      <c r="D391" s="34" t="s">
+      <c r="D423" s="34" t="s">
         <v>658</v>
       </c>
-      <c r="E391" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F391" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G391" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H391" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I391" s="34"/>
-    </row>
-    <row r="392" spans="1:9" s="35" customFormat="1" ht="90">
-      <c r="A392" s="33" t="s">
+      <c r="E423" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F423" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G423" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H423" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I423" s="34"/>
+    </row>
+    <row r="424" spans="1:9" s="35" customFormat="1" ht="90">
+      <c r="A424" s="33" t="s">
         <v>638</v>
       </c>
-      <c r="B392" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C392" s="19" t="s">
+      <c r="B424" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C424" s="19" t="s">
         <v>801</v>
       </c>
-      <c r="D392" s="34" t="s">
+      <c r="D424" s="34" t="s">
         <v>658</v>
       </c>
-      <c r="E392" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F392" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G392" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H392" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I392" s="34"/>
-    </row>
-    <row r="393" spans="1:9" s="35" customFormat="1" ht="90">
-      <c r="A393" s="33" t="s">
+      <c r="E424" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F424" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G424" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H424" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I424" s="34"/>
+    </row>
+    <row r="425" spans="1:9" s="35" customFormat="1" ht="90">
+      <c r="A425" s="33" t="s">
         <v>639</v>
       </c>
-      <c r="B393" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C393" s="19" t="s">
+      <c r="B425" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C425" s="19" t="s">
         <v>802</v>
       </c>
-      <c r="D393" s="34" t="s">
+      <c r="D425" s="34" t="s">
         <v>658</v>
       </c>
-      <c r="E393" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F393" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G393" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H393" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I393" s="34"/>
-    </row>
-    <row r="394" spans="1:9" s="35" customFormat="1" ht="90">
-      <c r="A394" s="33" t="s">
+      <c r="E425" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F425" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G425" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H425" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I425" s="34"/>
+    </row>
+    <row r="426" spans="1:9" s="35" customFormat="1" ht="90">
+      <c r="A426" s="33" t="s">
         <v>640</v>
       </c>
-      <c r="B394" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C394" s="19" t="s">
+      <c r="B426" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C426" s="19" t="s">
         <v>803</v>
       </c>
-      <c r="D394" s="34" t="s">
+      <c r="D426" s="34" t="s">
         <v>658</v>
       </c>
-      <c r="E394" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F394" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G394" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H394" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I394" s="34"/>
-    </row>
-    <row r="395" spans="1:9" s="35" customFormat="1" ht="90">
-      <c r="A395" s="33" t="s">
+      <c r="E426" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F426" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G426" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H426" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I426" s="34"/>
+    </row>
+    <row r="427" spans="1:9" s="35" customFormat="1" ht="90">
+      <c r="A427" s="33" t="s">
         <v>641</v>
       </c>
-      <c r="B395" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C395" s="19" t="s">
+      <c r="B427" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C427" s="19" t="s">
         <v>804</v>
       </c>
-      <c r="D395" s="34" t="s">
+      <c r="D427" s="34" t="s">
         <v>658</v>
       </c>
-      <c r="E395" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F395" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G395" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H395" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I395" s="34"/>
-    </row>
-    <row r="396" spans="1:9" s="35" customFormat="1" ht="105">
-      <c r="A396" s="33" t="s">
+      <c r="E427" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F427" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G427" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H427" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I427" s="34"/>
+    </row>
+    <row r="428" spans="1:9" s="35" customFormat="1" ht="105">
+      <c r="A428" s="33" t="s">
         <v>642</v>
       </c>
-      <c r="B396" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C396" s="19" t="s">
+      <c r="B428" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C428" s="19" t="s">
         <v>805</v>
       </c>
-      <c r="D396" s="34" t="s">
+      <c r="D428" s="34" t="s">
         <v>658</v>
       </c>
-      <c r="E396" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F396" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G396" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H396" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I396" s="34"/>
-    </row>
-    <row r="397" spans="1:9" s="35" customFormat="1" ht="105">
-      <c r="A397" s="33" t="s">
+      <c r="E428" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F428" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G428" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H428" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I428" s="34"/>
+    </row>
+    <row r="429" spans="1:9" s="35" customFormat="1" ht="105">
+      <c r="A429" s="33" t="s">
         <v>643</v>
       </c>
-      <c r="B397" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C397" s="19" t="s">
+      <c r="B429" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C429" s="19" t="s">
         <v>806</v>
       </c>
-      <c r="D397" s="34" t="s">
+      <c r="D429" s="34" t="s">
         <v>658</v>
       </c>
-      <c r="E397" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F397" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G397" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H397" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I397" s="34"/>
-    </row>
-    <row r="398" spans="1:9" s="35" customFormat="1" ht="105">
-      <c r="A398" s="33" t="s">
+      <c r="E429" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F429" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G429" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H429" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I429" s="34"/>
+    </row>
+    <row r="430" spans="1:9" s="35" customFormat="1" ht="105">
+      <c r="A430" s="33" t="s">
         <v>335</v>
       </c>
-      <c r="B398" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C398" s="19" t="s">
+      <c r="B430" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C430" s="19" t="s">
         <v>820</v>
       </c>
-      <c r="D398" s="34" t="s">
+      <c r="D430" s="34" t="s">
         <v>624</v>
       </c>
-      <c r="E398" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F398" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G398" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H398" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I398" s="34" t="s">
+      <c r="E430" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F430" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G430" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H430" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I430" s="34" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="399" spans="1:9" s="35" customFormat="1" ht="90">
-      <c r="A399" s="36" t="s">
+    <row r="431" spans="1:9" s="35" customFormat="1" ht="90">
+      <c r="A431" s="36" t="s">
         <v>644</v>
       </c>
-      <c r="B399" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C399" s="37" t="s">
+      <c r="B431" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C431" s="37" t="s">
         <v>807</v>
       </c>
-      <c r="D399" s="34" t="s">
+      <c r="D431" s="34" t="s">
         <v>659</v>
       </c>
-      <c r="E399" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F399" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G399" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H399" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I399" s="34"/>
-    </row>
-    <row r="400" spans="1:9" s="35" customFormat="1" ht="90">
-      <c r="A400" s="36" t="s">
+      <c r="E431" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F431" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G431" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H431" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I431" s="34"/>
+    </row>
+    <row r="432" spans="1:9" s="35" customFormat="1" ht="90">
+      <c r="A432" s="36" t="s">
         <v>645</v>
       </c>
-      <c r="B400" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C400" s="37" t="s">
+      <c r="B432" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C432" s="37" t="s">
         <v>808</v>
       </c>
-      <c r="D400" s="34" t="s">
+      <c r="D432" s="34" t="s">
         <v>659</v>
       </c>
-      <c r="E400" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F400" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G400" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H400" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I400" s="34"/>
-    </row>
-    <row r="401" spans="1:9" s="35" customFormat="1" ht="90">
-      <c r="A401" s="36" t="s">
+      <c r="E432" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F432" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G432" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H432" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I432" s="34"/>
+    </row>
+    <row r="433" spans="1:9" s="35" customFormat="1" ht="90">
+      <c r="A433" s="36" t="s">
         <v>646</v>
       </c>
-      <c r="B401" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C401" s="37" t="s">
+      <c r="B433" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C433" s="37" t="s">
         <v>809</v>
       </c>
-      <c r="D401" s="34" t="s">
+      <c r="D433" s="34" t="s">
         <v>659</v>
       </c>
-      <c r="E401" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F401" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G401" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H401" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I401" s="34"/>
-    </row>
-    <row r="402" spans="1:9" s="35" customFormat="1" ht="90">
-      <c r="A402" s="36" t="s">
+      <c r="E433" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F433" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G433" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H433" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I433" s="34"/>
+    </row>
+    <row r="434" spans="1:9" s="35" customFormat="1" ht="90">
+      <c r="A434" s="36" t="s">
         <v>647</v>
       </c>
-      <c r="B402" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C402" s="37" t="s">
+      <c r="B434" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C434" s="37" t="s">
         <v>810</v>
       </c>
-      <c r="D402" s="34" t="s">
+      <c r="D434" s="34" t="s">
         <v>659</v>
       </c>
-      <c r="E402" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F402" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G402" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H402" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I402" s="34"/>
-    </row>
-    <row r="403" spans="1:9" s="35" customFormat="1" ht="90">
-      <c r="A403" s="36" t="s">
+      <c r="E434" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F434" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G434" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H434" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I434" s="34"/>
+    </row>
+    <row r="435" spans="1:9" s="35" customFormat="1" ht="90">
+      <c r="A435" s="36" t="s">
         <v>648</v>
       </c>
-      <c r="B403" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C403" s="37" t="s">
+      <c r="B435" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C435" s="37" t="s">
         <v>811</v>
       </c>
-      <c r="D403" s="34" t="s">
+      <c r="D435" s="34" t="s">
         <v>659</v>
       </c>
-      <c r="E403" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F403" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G403" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H403" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I403" s="34"/>
-    </row>
-    <row r="404" spans="1:9" s="35" customFormat="1" ht="90">
-      <c r="A404" s="36" t="s">
+      <c r="E435" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F435" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G435" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H435" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I435" s="34"/>
+    </row>
+    <row r="436" spans="1:9" s="35" customFormat="1" ht="90">
+      <c r="A436" s="36" t="s">
         <v>649</v>
       </c>
-      <c r="B404" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C404" s="37" t="s">
+      <c r="B436" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C436" s="37" t="s">
         <v>812</v>
       </c>
-      <c r="D404" s="34" t="s">
+      <c r="D436" s="34" t="s">
         <v>659</v>
       </c>
-      <c r="E404" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F404" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G404" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H404" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I404" s="34"/>
-    </row>
-    <row r="405" spans="1:9" s="35" customFormat="1" ht="90">
-      <c r="A405" s="36" t="s">
+      <c r="E436" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F436" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G436" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H436" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I436" s="34"/>
+    </row>
+    <row r="437" spans="1:9" s="35" customFormat="1" ht="90">
+      <c r="A437" s="36" t="s">
         <v>650</v>
       </c>
-      <c r="B405" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C405" s="37" t="s">
+      <c r="B437" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C437" s="37" t="s">
         <v>813</v>
       </c>
-      <c r="D405" s="34" t="s">
+      <c r="D437" s="34" t="s">
         <v>659</v>
       </c>
-      <c r="E405" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F405" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G405" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H405" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I405" s="34"/>
-    </row>
-    <row r="406" spans="1:9" s="35" customFormat="1" ht="90">
-      <c r="A406" s="36" t="s">
+      <c r="E437" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F437" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G437" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H437" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I437" s="34"/>
+    </row>
+    <row r="438" spans="1:9" s="35" customFormat="1" ht="90">
+      <c r="A438" s="36" t="s">
         <v>651</v>
       </c>
-      <c r="B406" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C406" s="37" t="s">
+      <c r="B438" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C438" s="37" t="s">
         <v>814</v>
       </c>
-      <c r="D406" s="34" t="s">
+      <c r="D438" s="34" t="s">
         <v>659</v>
       </c>
-      <c r="E406" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F406" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G406" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H406" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I406" s="34"/>
-    </row>
-    <row r="407" spans="1:9" s="35" customFormat="1" ht="90">
-      <c r="A407" s="36" t="s">
+      <c r="E438" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F438" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G438" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H438" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I438" s="34"/>
+    </row>
+    <row r="439" spans="1:9" s="35" customFormat="1" ht="90">
+      <c r="A439" s="36" t="s">
         <v>652</v>
       </c>
-      <c r="B407" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C407" s="37" t="s">
+      <c r="B439" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C439" s="37" t="s">
         <v>815</v>
       </c>
-      <c r="D407" s="34" t="s">
+      <c r="D439" s="34" t="s">
         <v>659</v>
       </c>
-      <c r="E407" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F407" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G407" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H407" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I407" s="34"/>
-    </row>
-    <row r="408" spans="1:9" s="35" customFormat="1" ht="90">
-      <c r="A408" s="36" t="s">
+      <c r="E439" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F439" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G439" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H439" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I439" s="34"/>
+    </row>
+    <row r="440" spans="1:9" s="35" customFormat="1" ht="90">
+      <c r="A440" s="36" t="s">
         <v>653</v>
       </c>
-      <c r="B408" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C408" s="37" t="s">
+      <c r="B440" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C440" s="37" t="s">
         <v>816</v>
       </c>
-      <c r="D408" s="34" t="s">
+      <c r="D440" s="34" t="s">
         <v>659</v>
       </c>
-      <c r="E408" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F408" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G408" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H408" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I408" s="34"/>
-    </row>
-    <row r="409" spans="1:9" s="35" customFormat="1" ht="105">
-      <c r="A409" s="36" t="s">
+      <c r="E440" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F440" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G440" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H440" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I440" s="34"/>
+    </row>
+    <row r="441" spans="1:9" s="35" customFormat="1" ht="105">
+      <c r="A441" s="36" t="s">
         <v>654</v>
       </c>
-      <c r="B409" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C409" s="37" t="s">
+      <c r="B441" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C441" s="37" t="s">
         <v>817</v>
       </c>
-      <c r="D409" s="34" t="s">
+      <c r="D441" s="34" t="s">
         <v>659</v>
       </c>
-      <c r="E409" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F409" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G409" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H409" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I409" s="34"/>
-    </row>
-    <row r="410" spans="1:9" s="35" customFormat="1" ht="90">
-      <c r="A410" s="36" t="s">
+      <c r="E441" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F441" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G441" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H441" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I441" s="34"/>
+    </row>
+    <row r="442" spans="1:9" s="35" customFormat="1" ht="90">
+      <c r="A442" s="36" t="s">
         <v>655</v>
       </c>
-      <c r="B410" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C410" s="37" t="s">
+      <c r="B442" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C442" s="37" t="s">
         <v>818</v>
       </c>
-      <c r="D410" s="34" t="s">
+      <c r="D442" s="34" t="s">
         <v>659</v>
       </c>
-      <c r="E410" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F410" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G410" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H410" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I410" s="34"/>
-    </row>
-    <row r="411" spans="1:9" s="35" customFormat="1" ht="90">
-      <c r="A411" s="36" t="s">
+      <c r="E442" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F442" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G442" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H442" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I442" s="34"/>
+    </row>
+    <row r="443" spans="1:9" s="35" customFormat="1" ht="90">
+      <c r="A443" s="36" t="s">
         <v>656</v>
       </c>
-      <c r="B411" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C411" s="38" t="s">
+      <c r="B443" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C443" s="38" t="s">
         <v>819</v>
       </c>
-      <c r="D411" s="34" t="s">
+      <c r="D443" s="34" t="s">
         <v>659</v>
       </c>
-      <c r="E411" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F411" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G411" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H411" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I411" s="34"/>
+      <c r="E443" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F443" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G443" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H443" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I443" s="34"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="12">
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="D12:I15"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B17:I17"/>
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="B8:I8"/>
     <mergeCell ref="B7:I7"/>
     <mergeCell ref="B6:I6"/>
     <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="D12:I15"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B17:I17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="C399:C411 F201:F241 F307:F325 B349:B377 F263:F289 F336:F397 F328:F334">
-    <cfRule type="expression" dxfId="140" priority="136">
+  <conditionalFormatting sqref="C431:C443 F201:F241 F323:F339 B381:B409 F263:F278 F368:F429 F360:F366 F295:F305 F356:F357">
+    <cfRule type="expression" dxfId="145" priority="158">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="137">
+    <cfRule type="expression" dxfId="144" priority="159">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="138">
+    <cfRule type="expression" dxfId="143" priority="160">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C399:C411 F201:F241 F307:F325 B349:B377 F263:F289 F336:F397 F328:F334">
-    <cfRule type="expression" dxfId="137" priority="133">
+  <conditionalFormatting sqref="C431:C443 F201:F241 F323:F339 B381:B409 F263:F278 F368:F429 F360:F366 F295:F305 F356:F357">
+    <cfRule type="expression" dxfId="142" priority="155">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="134">
+    <cfRule type="expression" dxfId="141" priority="156">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="135">
+    <cfRule type="expression" dxfId="140" priority="157">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20 F22 F24 F26 F28 F30 F32 F34 F36 F38 F40 F42 F44 F46 F48 F50 F52 F54 F56 F58 F61 F63 F65 F67 F69 F71 F73 F75 F77 F79 F81 F83 F85 F87 F90 F92 F94 F96 F98 F100 F102 F104 F106 F108 F110 F112 F114 F116 F118 F120 F122 F124 F126 F128 F130 F132">
-    <cfRule type="expression" dxfId="134" priority="124">
+    <cfRule type="expression" dxfId="139" priority="146">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="125">
+    <cfRule type="expression" dxfId="138" priority="147">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="126">
+    <cfRule type="expression" dxfId="137" priority="148">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20 F22 F24 F26 F28 F30 F32 F34 F36 F38 F40 F42 F44 F46 F48 F50 F52 F54 F56 F58 F61 F63 F65 F67 F69 F71 F73 F75 F77 F79 F81 F83 F85 F87 F90 F92 F94 F96 F98 F100 F102 F104 F106 F108 F110 F112 F114 F116 F118 F120 F122 F124 F126 F128 F130 F132">
-    <cfRule type="expression" dxfId="131" priority="119">
+    <cfRule type="expression" dxfId="136" priority="141">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="120">
+    <cfRule type="expression" dxfId="135" priority="142">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="121">
+    <cfRule type="expression" dxfId="134" priority="143">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20 F201:F241 F22:F58 F60:F87 F140:F198 F89:F136 F247:F397">
-    <cfRule type="expression" dxfId="128" priority="122">
+  <conditionalFormatting sqref="F20 F201:F241 F22:F58 F60:F87 F140:F198 F89:F136 F247:F278 F295:F339 F356:F429">
+    <cfRule type="expression" dxfId="133" priority="144">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="123">
+    <cfRule type="expression" dxfId="132" priority="145">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21 F23 F25 F27 F29 F31 F33 F35 F37 F39 F41 F43 F45 F47 F49 F51 F53 F55 F57 F60 F62 F64 F66 F68 F70 F72 F74 F76 F78 F80 F82 F84 F86 F89 F91 F93 F95 F97 F99 F101 F103 F105 F107 F109 F111 F113 F115 F117 F119 F121 F123 F125 F127 F129 F131 F133:F136">
-    <cfRule type="expression" dxfId="126" priority="116">
+    <cfRule type="expression" dxfId="131" priority="138">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="117">
+    <cfRule type="expression" dxfId="130" priority="139">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="118">
+    <cfRule type="expression" dxfId="129" priority="140">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21 F23 F25 F27 F29 F31 F33 F35 F37 F39 F41 F43 F45 F47 F49 F51 F53 F55 F57 F60 F62 F64 F66 F68 F70 F72 F74 F76 F78 F80 F82 F84 F86 F89 F91 F93 F95 F97 F99 F101 F103 F105 F107 F109 F111 F113 F115 F117 F119 F121 F123 F125 F127 F129 F131 F133:F136">
-    <cfRule type="expression" dxfId="123" priority="111">
+    <cfRule type="expression" dxfId="128" priority="133">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="112">
+    <cfRule type="expression" dxfId="127" priority="134">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="113">
+    <cfRule type="expression" dxfId="126" priority="135">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="expression" dxfId="120" priority="114">
+    <cfRule type="expression" dxfId="125" priority="136">
       <formula>NOT(VLOOKUP(F21,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="115">
+    <cfRule type="expression" dxfId="124" priority="137">
       <formula>(VLOOKUP(F21,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F199 F175 F335 F178 F180 F182 F184 F186 F188 F190:F194 F152 F154 F156 F158 F160 F165 F167:F168 F170 F172 F305:F306 F326 F291 F293 F295 F297 F299 F301 F303 F140 F142 F145 F249 F251 F253 F256 F258 F260 F262 F147 F149:F150">
-    <cfRule type="expression" dxfId="118" priority="108">
+  <conditionalFormatting sqref="F199 F175 F367 F178 F180 F182 F184 F186 F188 F190:F194 F152 F154 F156 F158 F160 F165 F167:F168 F170 F172 F321:F322 F358 F307 F309 F311 F313 F315 F317 F319 F140 F142 F145 F249 F251 F253 F256 F258 F260 F262 F147 F149:F150">
+    <cfRule type="expression" dxfId="123" priority="130">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="109">
+    <cfRule type="expression" dxfId="122" priority="131">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="110">
+    <cfRule type="expression" dxfId="121" priority="132">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F199 F175 F335 F178 F180 F182 F184 F186 F188 F190:F194 F152 F154 F156 F158 F160 F165 F167:F168 F170 F172 F305:F306 F326 F291 F293 F295 F297 F299 F301 F303 F140 F142 F145 F249 F251 F253 F256 F258 F260 F262 F147 F149:F150">
-    <cfRule type="expression" dxfId="115" priority="103">
+  <conditionalFormatting sqref="F199 F175 F367 F178 F180 F182 F184 F186 F188 F190:F194 F152 F154 F156 F158 F160 F165 F167:F168 F170 F172 F321:F322 F358 F307 F309 F311 F313 F315 F317 F319 F140 F142 F145 F249 F251 F253 F256 F258 F260 F262 F147 F149:F150">
+    <cfRule type="expression" dxfId="120" priority="125">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="104">
+    <cfRule type="expression" dxfId="119" priority="126">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="105">
+    <cfRule type="expression" dxfId="118" priority="127">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F199">
-    <cfRule type="expression" dxfId="112" priority="106">
+    <cfRule type="expression" dxfId="117" priority="128">
       <formula>NOT(VLOOKUP(F199,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="107">
+    <cfRule type="expression" dxfId="116" priority="129">
       <formula>(VLOOKUP(F199,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F200 F195:F198 F176:F177 F179 F181 F183 F185 F187 F189 F151 F153 F155 F157 F159 F161:F164 F166 F169 F171 F173:F174 F290 F327 F292 F294 F296 F298 F300 F302 F304 F141 F143:F144 F248 F250 F252 F254:F255 F257 F259 F261 F146 F148">
-    <cfRule type="expression" dxfId="110" priority="100">
+  <conditionalFormatting sqref="F200 F195:F198 F176:F177 F179 F181 F183 F185 F187 F189 F151 F153 F155 F157 F159 F161:F164 F166 F169 F171 F173:F174 F306 F359 F308 F310 F312 F314 F316 F318 F320 F141 F143:F144 F248 F250 F252 F254:F255 F257 F259 F261 F146 F148">
+    <cfRule type="expression" dxfId="115" priority="122">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="101">
+    <cfRule type="expression" dxfId="114" priority="123">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="102">
+    <cfRule type="expression" dxfId="113" priority="124">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F200 F195:F198 F176:F177 F179 F181 F183 F185 F187 F189 F151 F153 F155 F157 F159 F161:F164 F166 F169 F171 F173:F174 F290 F327 F292 F294 F296 F298 F300 F302 F304 F141 F143:F144 F248 F250 F252 F254:F255 F257 F259 F261 F146 F148">
-    <cfRule type="expression" dxfId="107" priority="95">
+  <conditionalFormatting sqref="F200 F195:F198 F176:F177 F179 F181 F183 F185 F187 F189 F151 F153 F155 F157 F159 F161:F164 F166 F169 F171 F173:F174 F306 F359 F308 F310 F312 F314 F316 F318 F320 F141 F143:F144 F248 F250 F252 F254:F255 F257 F259 F261 F146 F148">
+    <cfRule type="expression" dxfId="112" priority="117">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="96">
+    <cfRule type="expression" dxfId="111" priority="118">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="97">
+    <cfRule type="expression" dxfId="110" priority="119">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F200">
-    <cfRule type="expression" dxfId="104" priority="98">
+    <cfRule type="expression" dxfId="109" priority="120">
       <formula>NOT(VLOOKUP(F200,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="99">
+    <cfRule type="expression" dxfId="108" priority="121">
       <formula>(VLOOKUP(F200,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F399:F411">
-    <cfRule type="expression" dxfId="102" priority="92">
+  <conditionalFormatting sqref="F431:F443">
+    <cfRule type="expression" dxfId="107" priority="114">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="93">
+    <cfRule type="expression" dxfId="106" priority="115">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="94">
+    <cfRule type="expression" dxfId="105" priority="116">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F399:F411">
-    <cfRule type="expression" dxfId="99" priority="87">
+  <conditionalFormatting sqref="F431:F443">
+    <cfRule type="expression" dxfId="104" priority="109">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="88">
+    <cfRule type="expression" dxfId="103" priority="110">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="89">
+    <cfRule type="expression" dxfId="102" priority="111">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F399:F411">
-    <cfRule type="expression" dxfId="96" priority="90">
-      <formula>NOT(VLOOKUP(F399,$A$12:$C$15,2,FALSE)="In")</formula>
+  <conditionalFormatting sqref="F431:F443">
+    <cfRule type="expression" dxfId="101" priority="112">
+      <formula>NOT(VLOOKUP(F431,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="91">
-      <formula>(VLOOKUP(F399,$A$12:$C$15,2,FALSE)="In")</formula>
+    <cfRule type="expression" dxfId="100" priority="113">
+      <formula>(VLOOKUP(F431,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F137:F139">
-    <cfRule type="expression" dxfId="94" priority="84">
+    <cfRule type="expression" dxfId="99" priority="106">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="85">
+    <cfRule type="expression" dxfId="98" priority="107">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="86">
+    <cfRule type="expression" dxfId="97" priority="108">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F137:F139">
-    <cfRule type="expression" dxfId="91" priority="79">
+    <cfRule type="expression" dxfId="96" priority="101">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="80">
+    <cfRule type="expression" dxfId="95" priority="102">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="81">
+    <cfRule type="expression" dxfId="94" priority="103">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F137:F139">
-    <cfRule type="expression" dxfId="88" priority="82">
+    <cfRule type="expression" dxfId="93" priority="104">
       <formula>NOT(VLOOKUP(F137,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="83">
+    <cfRule type="expression" dxfId="92" priority="105">
       <formula>(VLOOKUP(F137,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="expression" dxfId="86" priority="76">
+    <cfRule type="expression" dxfId="91" priority="98">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="77">
+    <cfRule type="expression" dxfId="90" priority="99">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="78">
+    <cfRule type="expression" dxfId="89" priority="100">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="expression" dxfId="83" priority="71">
+    <cfRule type="expression" dxfId="88" priority="93">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="72">
+    <cfRule type="expression" dxfId="87" priority="94">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="73">
+    <cfRule type="expression" dxfId="86" priority="95">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="expression" dxfId="80" priority="74">
+    <cfRule type="expression" dxfId="85" priority="96">
       <formula>NOT(VLOOKUP(F59,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="75">
+    <cfRule type="expression" dxfId="84" priority="97">
       <formula>(VLOOKUP(F59,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F88">
-    <cfRule type="expression" dxfId="78" priority="68">
+    <cfRule type="expression" dxfId="83" priority="90">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="69">
+    <cfRule type="expression" dxfId="82" priority="91">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="70">
+    <cfRule type="expression" dxfId="81" priority="92">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F88">
-    <cfRule type="expression" dxfId="75" priority="63">
+    <cfRule type="expression" dxfId="80" priority="85">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="64">
+    <cfRule type="expression" dxfId="79" priority="86">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="65">
+    <cfRule type="expression" dxfId="78" priority="87">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F88">
-    <cfRule type="expression" dxfId="72" priority="66">
+    <cfRule type="expression" dxfId="77" priority="88">
       <formula>NOT(VLOOKUP(F88,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="67">
+    <cfRule type="expression" dxfId="76" priority="89">
       <formula>(VLOOKUP(F88,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F398">
-    <cfRule type="expression" dxfId="70" priority="52">
+  <conditionalFormatting sqref="F430">
+    <cfRule type="expression" dxfId="75" priority="74">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="53">
+    <cfRule type="expression" dxfId="74" priority="75">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="54">
+    <cfRule type="expression" dxfId="73" priority="76">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F398">
-    <cfRule type="expression" dxfId="67" priority="47">
+  <conditionalFormatting sqref="F430">
+    <cfRule type="expression" dxfId="72" priority="69">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="48">
+    <cfRule type="expression" dxfId="71" priority="70">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="49">
+    <cfRule type="expression" dxfId="70" priority="71">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F398">
-    <cfRule type="expression" dxfId="64" priority="50">
-      <formula>NOT(VLOOKUP(F398,$A$12:$C$15,2,FALSE)="In")</formula>
+  <conditionalFormatting sqref="F430">
+    <cfRule type="expression" dxfId="69" priority="72">
+      <formula>NOT(VLOOKUP(F430,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="51">
-      <formula>(VLOOKUP(F398,$A$12:$C$15,2,FALSE)="In")</formula>
+    <cfRule type="expression" dxfId="68" priority="73">
+      <formula>(VLOOKUP(F430,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D307">
-    <cfRule type="expression" dxfId="62" priority="44">
+  <conditionalFormatting sqref="D323">
+    <cfRule type="expression" dxfId="67" priority="66">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="45">
+    <cfRule type="expression" dxfId="66" priority="67">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="46">
+    <cfRule type="expression" dxfId="65" priority="68">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D307">
-    <cfRule type="expression" dxfId="59" priority="41">
+  <conditionalFormatting sqref="D323">
+    <cfRule type="expression" dxfId="64" priority="63">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="42">
+    <cfRule type="expression" dxfId="63" priority="64">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="43">
+    <cfRule type="expression" dxfId="62" priority="65">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F242">
-    <cfRule type="expression" dxfId="56" priority="38">
+    <cfRule type="expression" dxfId="61" priority="60">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="39">
+    <cfRule type="expression" dxfId="60" priority="61">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="40">
+    <cfRule type="expression" dxfId="59" priority="62">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F242">
-    <cfRule type="expression" dxfId="53" priority="33">
+    <cfRule type="expression" dxfId="58" priority="55">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="34">
+    <cfRule type="expression" dxfId="57" priority="56">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="35">
+    <cfRule type="expression" dxfId="56" priority="57">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F242">
-    <cfRule type="expression" dxfId="50" priority="36">
+    <cfRule type="expression" dxfId="55" priority="58">
       <formula>NOT(VLOOKUP(F242,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="37">
+    <cfRule type="expression" dxfId="54" priority="59">
       <formula>(VLOOKUP(F242,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F243">
-    <cfRule type="expression" dxfId="48" priority="30">
+    <cfRule type="expression" dxfId="53" priority="52">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="31">
+    <cfRule type="expression" dxfId="52" priority="53">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="32">
+    <cfRule type="expression" dxfId="51" priority="54">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F243">
-    <cfRule type="expression" dxfId="45" priority="25">
+    <cfRule type="expression" dxfId="50" priority="47">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="26">
+    <cfRule type="expression" dxfId="49" priority="48">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="27">
+    <cfRule type="expression" dxfId="48" priority="49">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F243">
-    <cfRule type="expression" dxfId="42" priority="28">
+    <cfRule type="expression" dxfId="47" priority="50">
       <formula>NOT(VLOOKUP(F243,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="29">
+    <cfRule type="expression" dxfId="46" priority="51">
       <formula>(VLOOKUP(F243,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F244">
-    <cfRule type="expression" dxfId="40" priority="22">
+    <cfRule type="expression" dxfId="45" priority="44">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="23">
+    <cfRule type="expression" dxfId="44" priority="45">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="24">
+    <cfRule type="expression" dxfId="43" priority="46">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F244">
-    <cfRule type="expression" dxfId="37" priority="17">
+    <cfRule type="expression" dxfId="42" priority="39">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="18">
+    <cfRule type="expression" dxfId="41" priority="40">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="19">
+    <cfRule type="expression" dxfId="40" priority="41">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F244">
-    <cfRule type="expression" dxfId="34" priority="20">
+    <cfRule type="expression" dxfId="39" priority="42">
       <formula>NOT(VLOOKUP(F244,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="21">
+    <cfRule type="expression" dxfId="38" priority="43">
       <formula>(VLOOKUP(F244,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F245 F247">
-    <cfRule type="expression" dxfId="32" priority="14">
+    <cfRule type="expression" dxfId="37" priority="36">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="15">
+    <cfRule type="expression" dxfId="36" priority="37">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="16">
+    <cfRule type="expression" dxfId="35" priority="38">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F245 F247">
-    <cfRule type="expression" dxfId="29" priority="9">
+    <cfRule type="expression" dxfId="34" priority="31">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="10">
+    <cfRule type="expression" dxfId="33" priority="32">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="11">
+    <cfRule type="expression" dxfId="32" priority="33">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F245">
-    <cfRule type="expression" dxfId="26" priority="12">
+    <cfRule type="expression" dxfId="31" priority="34">
       <formula>NOT(VLOOKUP(F245,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="13">
+    <cfRule type="expression" dxfId="30" priority="35">
       <formula>(VLOOKUP(F245,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F246">
-    <cfRule type="expression" dxfId="24" priority="6">
+    <cfRule type="expression" dxfId="29" priority="28">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="7">
+    <cfRule type="expression" dxfId="28" priority="29">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="8">
+    <cfRule type="expression" dxfId="27" priority="30">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F246">
-    <cfRule type="expression" dxfId="21" priority="1">
+    <cfRule type="expression" dxfId="26" priority="23">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="2">
+    <cfRule type="expression" dxfId="25" priority="24">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="3">
+    <cfRule type="expression" dxfId="24" priority="25">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F246">
-    <cfRule type="expression" dxfId="18" priority="4">
+    <cfRule type="expression" dxfId="23" priority="26">
       <formula>NOT(VLOOKUP(F246,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="5">
+    <cfRule type="expression" dxfId="22" priority="27">
       <formula>(VLOOKUP(F246,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F279:F294">
+    <cfRule type="expression" dxfId="21" priority="20">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="21">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="22">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F279:F294">
+    <cfRule type="expression" dxfId="18" priority="17">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="18">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="19">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F279:F294">
+    <cfRule type="expression" dxfId="15" priority="15">
+      <formula>NOT(VLOOKUP(F279,$A$12:$C$15,2,FALSE)="In")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="16">
+      <formula>(VLOOKUP(F279,$A$12:$C$15,2,FALSE)="In")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F340:F355">
+    <cfRule type="expression" dxfId="13" priority="12">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="13">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="14">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F340:F355">
+    <cfRule type="expression" dxfId="10" priority="9">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="10">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="11">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F340:F355">
+    <cfRule type="expression" dxfId="7" priority="7">
+      <formula>NOT(VLOOKUP(F340,$A$12:$C$15,2,FALSE)="In")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="8">
+      <formula>(VLOOKUP(F340,$A$12:$C$15,2,FALSE)="In")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D340">
+    <cfRule type="expression" dxfId="5" priority="4">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="6">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D340">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F349:F397 F89:F142 F290:F323 F236:F241 F145:F234 F399:F411 F20:F87 F335:F340 F248:F278" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F381:F429 F89:F142 F248:F294 F236:F241 F145:F234 F431:F443 F20:F87 F367:F372 F306:F355" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$A$13:$A$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E399:E411 E20:E87 E89:E241 E290:E328 E335:E397 E245:E285" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E431:E443 E20:E87 E89:E241 E245:E301 E367:E429 E306:E360" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Protocol,Product"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G399:G411 G20:G87 G89:G241 G290:G328 G335:G397 G245:G285" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G431:G443 G20:G87 G89:G241 G245:G301 G367:G429 G306:G360" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Informative,Normative"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B15" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"In, Out"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H172 H279:H285 H237 H245:H247 H324:H328 H235 H341:H348 H143:H144" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H172 H295:H301 H237 H245:H247 H356:H360 H235 H373:H380 H143:H144" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"Non-testable, Unverified, Adapter, Test Case, Deleted"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H398 H236 H20:H87 H349:H383 H89:H142 H145:H171 H238:H241 H290:H323 H173:H234 H248:H278 H333:H340" xr:uid="{00000000-0002-0000-0000-000006000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H430 H236 H20:H87 H381:H415 H89:H142 H145:H171 H238:H241 H248:H294 H173:H234 H365:H372 H306:H355" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>"Non-testable, Unverified, Adapter, Test Case"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F279:F285 F143:F144 F341:F348 F235 F324:F328 F245:F247" xr:uid="{00000000-0002-0000-0000-000007000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F295:F301 F143:F144 F373:F380 F235 F356:F360 F245:F247" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>$A$14:$A$16</formula1>
     </dataValidation>
   </dataValidations>
@@ -16088,8 +17363,8 @@
     <oddFooter>&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="B335:B411 B19:B332" numberStoredAsText="1"/>
-    <ignoredError sqref="F324:F328" listDataValidation="1"/>
+    <ignoredError sqref="B367:B443 B356:B364 B19:B294 B295:B340 B342:B355" numberStoredAsText="1"/>
+    <ignoredError sqref="F356:F360" listDataValidation="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>
@@ -16099,6 +17374,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -16147,15 +17431,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement/>
@@ -16163,6 +17438,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16173,14 +17456,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -16197,4 +17472,10 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>
--- a/SharePoint/Docs/MS-VERSS/MS-VERSS_RequirementSpecification.xlsx
+++ b/SharePoint/Docs/MS-VERSS/MS-VERSS_RequirementSpecification.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Disk D\Interop-TestSuites\SharePoint\Docs\MS-VERSS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-liuzi\source\repos\Interop-TestSuites\SharePoint\Docs\MS-VERSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D888803-A5FF-4793-A6C3-541BCFDB03AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB674BF-5237-4F71-B843-9F383B3EE097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14595" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3282" uniqueCount="989">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3290" uniqueCount="991">
   <si>
     <t>Req ID</t>
   </si>
@@ -3302,106 +3302,112 @@
     <t>MS-VERSS_R1960102</t>
   </si>
   <si>
-    <t>[In Appendix B: Product Behavior] Implementation does return error code 0x81070970 to indicate that the fileName element of the DeleteVersion element contains invalid characters, invalid character contains ("),(%),(&amp;),(*),(:),(&lt;),(=)(&gt;),({),(|),(}),(~),(/),(..) and Any character that has a value less than 32 or greater than 126. (&lt;5&gt; Section 3.1.4.2.2.2:  SharePoint Server 2019 returns 0x80131600 error code for invalid characters.)</t>
-  </si>
-  <si>
     <t>MS-VERSS_R1960103</t>
   </si>
   <si>
-    <t>[In Appendix B: Product Behavior] Implementation does return error code 0x81070970 to indicate that the fileName element of the DeleteVersion element contains invalid character Double quotation mark ("). (&lt;5&gt; Section 3.1.4.2.2.2:  SharePoint Server 2019 returns 0x80131600 error code for invalid characters.)</t>
-  </si>
-  <si>
     <t>MS-VERSS_R1960102:c</t>
   </si>
   <si>
     <t>MS-VERSS_R1960105</t>
   </si>
   <si>
-    <t>[In Appendix B: Product Behavior] Implementation does return error code 0x81070970 to indicate that the fileName element of the DeleteVersion element contains invalid character Percent sign (%). (&lt;5&gt; Section 3.1.4.2.2.2:  SharePoint Server 2019 returns 0x80131600 error code for invalid characters.)</t>
-  </si>
-  <si>
     <t>MS-VERSS_R1960106</t>
   </si>
   <si>
-    <t>[In Appendix B: Product Behavior] Implementation does return error code 0x81070970 to indicate that the fileName element of the DeleteVersion element contains invalid character Ampersand (&amp;). (&lt;5&gt; Section 3.1.4.2.2.2:  SharePoint Server 2019 returns 0x80131600 error code for invalid characters.)</t>
-  </si>
-  <si>
     <t>MS-VERSS_R1960107</t>
   </si>
   <si>
-    <t>[In Appendix B: Product Behavior] Implementation does return error code 0x81070970 to indicate that the fileName element of the DeleteVersion element contains invalid character Asterisk (*). (&lt;5&gt; Section 3.1.4.2.2.2:  SharePoint Server 2019 returns 0x80131600 error code for invalid characters.)</t>
-  </si>
-  <si>
     <t>MS-VERSS_R1960108</t>
   </si>
   <si>
-    <t>[In Appendix B: Product Behavior] Implementation does return error code 0x81070970 to indicate that the fileName element of the DeleteVersion element contains invalid character Colon (:). (&lt;5&gt; Section 3.1.4.2.2.2:  SharePoint Server 2019 returns 0x80131600 error code for invalid characters.)</t>
-  </si>
-  <si>
     <t>MS-VERSS_R1960109</t>
   </si>
   <si>
-    <t>[In Appendix B: Product Behavior] Implementation does return error code 0x81070970 to indicate that the fileName element of the DeleteVersion element contains invalid character Left angle bracket (&lt;). (&lt;5&gt; Section 3.1.4.2.2.2:  SharePoint Server 2019 returns 0x80131600 error code for invalid characters.)</t>
-  </si>
-  <si>
     <t>MS-VERSS_R1960110</t>
   </si>
   <si>
-    <t>[In Appendix B: Product Behavior] Implementation does return error code 0x81070970 to indicate that the fileName element of the DeleteVersion element contains invalid character Equal sign (=). (&lt;5&gt; Section 3.1.4.2.2.2:  SharePoint Server 2019 returns 0x80131600 error code for invalid characters.)</t>
-  </si>
-  <si>
     <t>MS-VERSS_R1960111</t>
   </si>
   <si>
-    <t>[In Appendix B: Product Behavior] Implementation does return error code 0x81070970 to indicate that the fileName element of the DeleteVersion element contains invalid character Right angle bracket (&gt;). (&lt;5&gt; Section 3.1.4.2.2.2:  SharePoint Server 2019 returns 0x80131600 error code for invalid characters.)</t>
-  </si>
-  <si>
     <t>MS-VERSS_R1960114</t>
   </si>
   <si>
-    <t>[In Appendix B: Product Behavior] Implementation does return error code 0x81070970 to indicate that the fileName element of the DeleteVersion element contains invalid character Left curly bracket ({). (&lt;5&gt; Section 3.1.4.2.2.2:  SharePoint Server 2019 returns 0x80131600 error code for invalid characters.)</t>
-  </si>
-  <si>
     <t>MS-VERSS_R1960115</t>
   </si>
   <si>
-    <t>[In Appendix B: Product Behavior] Implementation does return error code 0x81070970 to indicate that the fileName element of the DeleteVersion element contains invalid character Vertical bar (|). (&lt;5&gt; Section 3.1.4.2.2.2:  SharePoint Server 2019 returns 0x80131600 error code for invalid characters.)</t>
-  </si>
-  <si>
     <t>MS-VERSS_R1960116</t>
   </si>
   <si>
-    <t>[In Appendix B: Product Behavior] Implementation does return error code 0x81070970 to indicate that the fileName element of the DeleteVersion element contains invalid character Right curly bracket (}). (&lt;5&gt; Section 3.1.4.2.2.2:  SharePoint Server 2019 returns 0x80131600 error code for invalid characters.)</t>
-  </si>
-  <si>
     <t>MS-VERSS_R1960117</t>
   </si>
   <si>
-    <t>[In Appendix B: Product Behavior] Implementation does return error code 0x81070970 to indicate that the fileName element of the DeleteVersion element contains invalid character Tilde (~). (&lt;5&gt; Section 3.1.4.2.2.2:  SharePoint Server 2019 returns 0x80131600 error code for invalid characters.)</t>
-  </si>
-  <si>
     <t>MS-VERSS_R1960104</t>
   </si>
   <si>
-    <t>[In Appendix B: Product Behavior] Implementation does return error code 0x81070970 to indicate that the fileName element of the DeleteVersion element contains invalid character Forward slash (/). (&lt;5&gt; Section 3.1.4.2.2.2:  SharePoint Server 2019 returns 0x80131600 error code for invalid characters.)</t>
-  </si>
-  <si>
     <t>MS-VERSS_R1960118</t>
   </si>
   <si>
-    <t>[In Appendix B: Product Behavior] Implementation does return error code 0x81070970 to indicate that the fileName element of the DeleteVersion element contains invalid character Two consecutive dots (..). (&lt;5&gt; Section 3.1.4.2.2.2:  SharePoint Server 2019 returns 0x80131600 error code for invalid characters.)</t>
-  </si>
-  <si>
     <t>MS-VERSS_R1960119</t>
   </si>
   <si>
-    <t>[In Appendix B: Product Behavior] Implementation does return error code 0x81070970 to indicate that the fileName element of the DeleteVersion element contains invalid character that has a value less than 32 or greater than 126. (&lt;5&gt; Section 3.1.4.2.2.2:  SharePoint Server 2019 returns 0x80131600 error code for invalid characters.)</t>
-  </si>
-  <si>
     <t>[In Appendix B: Product Behavior] Implementation does not return an error to indicate that two consecutive dots (..) is at the end of the fileName. (&lt;10&gt; Section 3.1.4.4.2.2: In Windows SharePoint Services 3.0, SharePoint Foundation 2010, SharePoint Foundation 2013, SharePoint Server 2016 and SharePoint Server 2019 two consecutive dots (..) are ignored at the end of the fileName.)</t>
   </si>
   <si>
     <t>Verified by derived requirements: MS-VERSS_R17600, MS-VERSS_R17601, MS-VERSS_R17602, MS-VERSS_R17621, MS-VERSS_R19602, MS-VERSS_R1960102, MS-VERSS_R19620, MS-VERSS_R197, MS-VERSS_R19702, MS-VERSS_R19701, MS-VERSS_R19703, MS-VERSS_R19704, MS-VERSS_R19705</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does return error code 0x81070970 to indicate that the fileName element of the DeleteVersion element contains invalid characters, invalid character contains ("),(%),(&amp;),(*),(:),(&lt;),(=)(&gt;),({),(|),(}),(~),(/),(..) and Any character that has a value less than 32 or greater than 126. (&lt;5&gt; Section 3.1.4.2.2.2:  SharePoint Server 2019 and SharePoint Server Subscription Edition returns 0x80131600 error code for invalid characters.)</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does return error code 0x81070970 to indicate that the fileName element of the DeleteVersion element contains invalid character Double quotation mark ("). (&lt;5&gt; Section 3.1.4.2.2.2:  SharePoint Server 2019 and SharePoint Server Subscription Edition returns 0x80131600 error code for invalid characters.)</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does return error code 0x81070970 to indicate that the fileName element of the DeleteVersion element contains invalid character Percent sign (%). (&lt;5&gt; Section 3.1.4.2.2.2:  SharePoint Server 2019 and SharePoint Server Subscription Edition returns 0x80131600 error code for invalid characters.)</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does return error code 0x81070970 to indicate that the fileName element of the DeleteVersion element contains invalid character Ampersand (&amp;). (&lt;5&gt; Section 3.1.4.2.2.2:  SharePoint Server 2019 and SharePoint Server Subscription Edition returns 0x80131600 error code for invalid characters.)</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does return error code 0x81070970 to indicate that the fileName element of the DeleteVersion element contains invalid character Asterisk (*). (&lt;5&gt; Section 3.1.4.2.2.2:  SharePoint Server 2019 and SharePoint Server Subscription Edition returns 0x80131600 error code for invalid characters.)</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does return error code 0x81070970 to indicate that the fileName element of the DeleteVersion element contains invalid character Colon (:). (&lt;5&gt; Section 3.1.4.2.2.2:  SharePoint Server 2019 and SharePoint Server Subscription Edition returns 0x80131600 error code for invalid characters.)</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does return error code 0x81070970 to indicate that the fileName element of the DeleteVersion element contains invalid character Left angle bracket (&lt;). (&lt;5&gt; Section 3.1.4.2.2.2:  SharePoint Server 2019 and SharePoint Server Subscription Edition returns 0x80131600 error code for invalid characters.)</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does return error code 0x81070970 to indicate that the fileName element of the DeleteVersion element contains invalid character Equal sign (=). (&lt;5&gt; Section 3.1.4.2.2.2:  SharePoint Server 2019 and SharePoint Server Subscription Edition returns 0x80131600 error code for invalid characters.)</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does return error code 0x81070970 to indicate that the fileName element of the DeleteVersion element contains invalid character Right angle bracket (&gt;). (&lt;5&gt; Section 3.1.4.2.2.2:  SharePoint Server 2019 and SharePoint Server Subscription Edition returns 0x80131600 error code for invalid characters.)</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does return error code 0x81070970 to indicate that the fileName element of the DeleteVersion element contains invalid character Left curly bracket ({). (&lt;5&gt; Section 3.1.4.2.2.2:  SharePoint Server 2019 and SharePoint Server Subscription Edition returns 0x80131600 error code for invalid characters.)</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does return error code 0x81070970 to indicate that the fileName element of the DeleteVersion element contains invalid character Vertical bar (|). (&lt;5&gt; Section 3.1.4.2.2.2:  SharePoint Server 2019 and SharePoint Server Subscription Edition returns 0x80131600 error code for invalid characters.)</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does return error code 0x81070970 to indicate that the fileName element of the DeleteVersion element contains invalid character Right curly bracket (}). (&lt;5&gt; Section 3.1.4.2.2.2:  SharePoint Server 2019 and SharePoint Server Subscription Edition returns 0x80131600 error code for invalid characters.)</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does return error code 0x81070970 to indicate that the fileName element of the DeleteVersion element contains invalid character Tilde (~). (&lt;5&gt; Section 3.1.4.2.2.2:  SharePoint Server 2019 and SharePoint Server Subscription Edition returns 0x80131600 error code for invalid characters.)</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does return error code 0x81070970 to indicate that the fileName element of the DeleteVersion element contains invalid character Forward slash (/). (&lt;5&gt; Section 3.1.4.2.2.2:  SharePoint Server 2019 and SharePoint Server Subscription Edition returns 0x80131600 error code for invalid characters.)</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does return error code 0x81070970 to indicate that the fileName element of the DeleteVersion element contains invalid character Two consecutive dots (..). (&lt;5&gt; Section 3.1.4.2.2.2:  SharePoint Server 2019 and SharePoint Server Subscription Edition returns 0x80131600 error code for invalid characters.)</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does return error code 0x81070970 to indicate that the fileName element of the DeleteVersion element contains invalid character that has a value less than 32 or greater than 126. (&lt;5&gt; Section 3.1.4.2.2.2:  SharePoint Server 2019 and SharePoint Server Subscription Edition returns 0x80131600 error code for invalid characters.)</t>
+  </si>
+  <si>
+    <t>MS-VERSS_R1960120</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does return error code 0x81070970 to indicate that the fileName element of the DeleteVersion element contains invalid character Tab (\t) character, it is not at the end of the fileName. (&lt;5&gt; Section 3.1.4.2.2.2:  SharePoint Server 2019 and SharePoint Server Subscription Edition returns 0x80131600 error code for invalid characters.)</t>
   </si>
 </sst>
 </file>
@@ -3711,6 +3717,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3771,11 +3782,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4935,8 +4941,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Requirement" displayName="Requirement" ref="A19:I443" tableType="xml" totalsRowShown="0" dataDxfId="162">
-  <autoFilter ref="A19:I443" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Requirement" displayName="Requirement" ref="A19:I444" tableType="xml" totalsRowShown="0" dataDxfId="162">
+  <autoFilter ref="A19:I444" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="161">
       <xmlColumnPr mapId="14" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
@@ -5304,23 +5310,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L443"/>
+  <dimension ref="A1:L444"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="A353" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C356" sqref="C356"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.3984375" style="2" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="85" style="8" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="28.59765625" customWidth="1"/>
+    <col min="5" max="5" width="12.3984375" customWidth="1"/>
+    <col min="6" max="6" width="12.1328125" customWidth="1"/>
+    <col min="7" max="7" width="13.3984375" customWidth="1"/>
     <col min="8" max="8" width="23" customWidth="1"/>
-    <col min="9" max="9" width="28.7109375" customWidth="1"/>
+    <col min="9" max="9" width="28.73046875" customWidth="1"/>
     <col min="10" max="11" width="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5351,139 +5357,139 @@
         <v>532</v>
       </c>
       <c r="C3" s="24">
-        <v>9</v>
+        <v>10.1</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>824</v>
       </c>
       <c r="F3" s="39">
-        <v>44397</v>
+        <v>44607</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:10" ht="20.25">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="46" t="s">
         <v>533</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
       <c r="J5" s="25"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="48" t="s">
         <v>554</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
       <c r="J6" s="25"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="47" t="s">
         <v>555</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
       <c r="J7" s="25"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="47" t="s">
         <v>534</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
       <c r="J8" s="25"/>
     </row>
     <row r="9" spans="1:10" ht="78" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="43" t="s">
         <v>556</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="42"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="45"/>
       <c r="J9" s="25"/>
     </row>
     <row r="10" spans="1:10" ht="35.25" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="51" t="s">
         <v>557</v>
       </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="50"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="53"/>
       <c r="J10" s="25"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="54" t="s">
         <v>558</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
       <c r="J11" s="25"/>
     </row>
     <row r="12" spans="1:10">
@@ -5496,12 +5502,12 @@
       <c r="C12" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
       <c r="J12" s="25"/>
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1">
@@ -5514,12 +5520,12 @@
       <c r="C13" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
       <c r="J13" s="25"/>
     </row>
     <row r="14" spans="1:10">
@@ -5532,12 +5538,12 @@
       <c r="C14" s="15" t="s">
         <v>560</v>
       </c>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
       <c r="J14" s="25"/>
     </row>
     <row r="15" spans="1:10">
@@ -5550,64 +5556,64 @@
       <c r="C15" s="15" t="s">
         <v>561</v>
       </c>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
       <c r="J15" s="25"/>
     </row>
     <row r="16" spans="1:10" ht="36.75" customHeight="1">
       <c r="A16" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="58" t="s">
         <v>563</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
       <c r="J16" s="25"/>
     </row>
     <row r="17" spans="1:12" ht="95.25" customHeight="1">
       <c r="A17" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="57" t="s">
+      <c r="B17" s="60" t="s">
         <v>564</v>
       </c>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="59"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="62"/>
       <c r="J17" s="25"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="54" t="s">
         <v>562</v>
       </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
       <c r="J18" s="25"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="1:12" ht="30">
+    <row r="19" spans="1:12" ht="28.5">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -5636,7 +5642,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="12" customFormat="1" ht="30">
+    <row r="20" spans="1:12" s="12" customFormat="1" ht="28.5">
       <c r="A20" s="11" t="s">
         <v>26</v>
       </c>
@@ -5661,7 +5667,7 @@
       </c>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="1:12" s="12" customFormat="1" ht="30">
+    <row r="21" spans="1:12" s="12" customFormat="1" ht="28.5">
       <c r="A21" s="11" t="s">
         <v>28</v>
       </c>
@@ -5686,7 +5692,7 @@
       </c>
       <c r="I21" s="17"/>
     </row>
-    <row r="22" spans="1:12" s="12" customFormat="1" ht="30">
+    <row r="22" spans="1:12" s="12" customFormat="1" ht="28.5">
       <c r="A22" s="11" t="s">
         <v>29</v>
       </c>
@@ -5711,7 +5717,7 @@
       </c>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="1:12" s="12" customFormat="1" ht="30">
+    <row r="23" spans="1:12" s="12" customFormat="1" ht="28.5">
       <c r="A23" s="11" t="s">
         <v>30</v>
       </c>
@@ -5761,7 +5767,7 @@
       </c>
       <c r="I24" s="11"/>
     </row>
-    <row r="25" spans="1:12" s="12" customFormat="1" ht="30">
+    <row r="25" spans="1:12" s="12" customFormat="1" ht="28.5">
       <c r="A25" s="11" t="s">
         <v>34</v>
       </c>
@@ -5788,7 +5794,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="12" customFormat="1" ht="45">
+    <row r="26" spans="1:12" s="12" customFormat="1" ht="42.75">
       <c r="A26" s="11" t="s">
         <v>36</v>
       </c>
@@ -5817,7 +5823,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="12" customFormat="1" ht="30">
+    <row r="27" spans="1:12" s="12" customFormat="1" ht="28.5">
       <c r="A27" s="11" t="s">
         <v>38</v>
       </c>
@@ -5869,7 +5875,7 @@
       </c>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="1:12" s="12" customFormat="1" ht="30">
+    <row r="29" spans="1:12" s="12" customFormat="1">
       <c r="A29" s="11" t="s">
         <v>349</v>
       </c>
@@ -5896,7 +5902,7 @@
       </c>
       <c r="I29" s="17"/>
     </row>
-    <row r="30" spans="1:12" s="12" customFormat="1" ht="45">
+    <row r="30" spans="1:12" s="12" customFormat="1" ht="42.75">
       <c r="A30" s="11" t="s">
         <v>39</v>
       </c>
@@ -5921,7 +5927,7 @@
       </c>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="1:12" s="12" customFormat="1" ht="30">
+    <row r="31" spans="1:12" s="12" customFormat="1" ht="28.5">
       <c r="A31" s="11" t="s">
         <v>336</v>
       </c>
@@ -5948,7 +5954,7 @@
       </c>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:12" s="12" customFormat="1" ht="30">
+    <row r="32" spans="1:12" s="12" customFormat="1">
       <c r="A32" s="11" t="s">
         <v>337</v>
       </c>
@@ -5975,7 +5981,7 @@
       </c>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="33" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A33" s="11" t="s">
         <v>346</v>
       </c>
@@ -6002,7 +6008,7 @@
       </c>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="34" spans="1:9" s="12" customFormat="1">
       <c r="A34" s="11" t="s">
         <v>40</v>
       </c>
@@ -6027,7 +6033,7 @@
       </c>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="35" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A35" s="11" t="s">
         <v>43</v>
       </c>
@@ -6052,7 +6058,7 @@
       </c>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="36" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A36" s="11" t="s">
         <v>44</v>
       </c>
@@ -6077,7 +6083,7 @@
       </c>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:9" s="12" customFormat="1" ht="45">
+    <row r="37" spans="1:9" s="12" customFormat="1" ht="42.75">
       <c r="A37" s="11" t="s">
         <v>47</v>
       </c>
@@ -6102,7 +6108,7 @@
       </c>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="38" spans="1:9" s="12" customFormat="1">
       <c r="A38" s="11" t="s">
         <v>48</v>
       </c>
@@ -6127,7 +6133,7 @@
       </c>
       <c r="I38" s="17"/>
     </row>
-    <row r="39" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="39" spans="1:9" s="12" customFormat="1">
       <c r="A39" s="11" t="s">
         <v>50</v>
       </c>
@@ -6152,7 +6158,7 @@
       </c>
       <c r="I39" s="17"/>
     </row>
-    <row r="40" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="40" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A40" s="11" t="s">
         <v>52</v>
       </c>
@@ -6177,7 +6183,7 @@
       </c>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="41" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A41" s="11" t="s">
         <v>54</v>
       </c>
@@ -6202,7 +6208,7 @@
       </c>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="42" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A42" s="11" t="s">
         <v>56</v>
       </c>
@@ -6227,7 +6233,7 @@
       </c>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" s="12" customFormat="1" ht="45">
+    <row r="43" spans="1:9" s="12" customFormat="1" ht="42.75">
       <c r="A43" s="11" t="s">
         <v>58</v>
       </c>
@@ -6252,7 +6258,7 @@
       </c>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="44" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A44" s="11" t="s">
         <v>59</v>
       </c>
@@ -6277,7 +6283,7 @@
       </c>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="45" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A45" s="11" t="s">
         <v>61</v>
       </c>
@@ -6302,7 +6308,7 @@
       </c>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="46" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A46" s="11" t="s">
         <v>63</v>
       </c>
@@ -6327,7 +6333,7 @@
       </c>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="47" spans="1:9" s="12" customFormat="1">
       <c r="A47" s="11" t="s">
         <v>65</v>
       </c>
@@ -6377,7 +6383,7 @@
       </c>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="49" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A49" s="11" t="s">
         <v>70</v>
       </c>
@@ -6402,7 +6408,7 @@
       </c>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="50" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A50" s="11" t="s">
         <v>72</v>
       </c>
@@ -6452,7 +6458,7 @@
       </c>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="52" spans="1:9" s="12" customFormat="1">
       <c r="A52" s="11" t="s">
         <v>75</v>
       </c>
@@ -6502,7 +6508,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="54" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A54" s="11" t="s">
         <v>84</v>
       </c>
@@ -6527,7 +6533,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="55" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A55" s="11" t="s">
         <v>80</v>
       </c>
@@ -6552,7 +6558,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="56" spans="1:9" s="12" customFormat="1">
       <c r="A56" s="11" t="s">
         <v>81</v>
       </c>
@@ -6577,7 +6583,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" s="12" customFormat="1" ht="45">
+    <row r="57" spans="1:9" s="12" customFormat="1" ht="42.75">
       <c r="A57" s="11" t="s">
         <v>83</v>
       </c>
@@ -6602,7 +6608,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="58" spans="1:9" s="12" customFormat="1">
       <c r="A58" s="11" t="s">
         <v>85</v>
       </c>
@@ -6627,7 +6633,7 @@
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="59" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A59" s="11" t="s">
         <v>662</v>
       </c>
@@ -6652,7 +6658,7 @@
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="60" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A60" s="11" t="s">
         <v>88</v>
       </c>
@@ -6677,7 +6683,7 @@
       </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" s="12" customFormat="1" ht="45">
+    <row r="61" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A61" s="11" t="s">
         <v>89</v>
       </c>
@@ -6702,7 +6708,7 @@
       </c>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="62" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A62" s="11" t="s">
         <v>91</v>
       </c>
@@ -6727,7 +6733,7 @@
       </c>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="63" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A63" s="11" t="s">
         <v>92</v>
       </c>
@@ -6752,7 +6758,7 @@
       </c>
       <c r="I63" s="17"/>
     </row>
-    <row r="64" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="64" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A64" s="11" t="s">
         <v>93</v>
       </c>
@@ -6777,7 +6783,7 @@
       </c>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="65" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A65" s="11" t="s">
         <v>94</v>
       </c>
@@ -6802,7 +6808,7 @@
       </c>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="66" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A66" s="11" t="s">
         <v>96</v>
       </c>
@@ -6827,7 +6833,7 @@
       </c>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" s="12" customFormat="1" ht="345">
+    <row r="67" spans="1:9" s="12" customFormat="1" ht="313.5">
       <c r="A67" s="11" t="s">
         <v>97</v>
       </c>
@@ -6852,7 +6858,7 @@
       </c>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="68" spans="1:9" s="12" customFormat="1">
       <c r="A68" s="11" t="s">
         <v>98</v>
       </c>
@@ -6952,7 +6958,7 @@
       </c>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="72" spans="1:9" s="12" customFormat="1">
       <c r="A72" s="11" t="s">
         <v>104</v>
       </c>
@@ -7052,7 +7058,7 @@
       </c>
       <c r="I75" s="17"/>
     </row>
-    <row r="76" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="76" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A76" s="11" t="s">
         <v>111</v>
       </c>
@@ -7102,7 +7108,7 @@
       </c>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="78" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A78" s="11" t="s">
         <v>114</v>
       </c>
@@ -7152,7 +7158,7 @@
       </c>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" s="12" customFormat="1" ht="165">
+    <row r="80" spans="1:9" s="12" customFormat="1" ht="142.5">
       <c r="A80" s="11" t="s">
         <v>118</v>
       </c>
@@ -7177,7 +7183,7 @@
       </c>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="81" spans="1:9" s="12" customFormat="1">
       <c r="A81" s="11" t="s">
         <v>119</v>
       </c>
@@ -7227,7 +7233,7 @@
       </c>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" s="12" customFormat="1" ht="180">
+    <row r="83" spans="1:9" s="12" customFormat="1" ht="156.75">
       <c r="A83" s="11" t="s">
         <v>124</v>
       </c>
@@ -7277,7 +7283,7 @@
       </c>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="85" spans="1:9" s="12" customFormat="1">
       <c r="A85" s="11" t="s">
         <v>126</v>
       </c>
@@ -7327,7 +7333,7 @@
       </c>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" s="12" customFormat="1" ht="45">
+    <row r="87" spans="1:9" s="12" customFormat="1" ht="42.75">
       <c r="A87" s="11" t="s">
         <v>129</v>
       </c>
@@ -7352,7 +7358,7 @@
       </c>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" s="12" customFormat="1" ht="45">
+    <row r="88" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A88" s="11" t="s">
         <v>663</v>
       </c>
@@ -7404,7 +7410,7 @@
       </c>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="90" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A90" s="11" t="s">
         <v>131</v>
       </c>
@@ -7429,7 +7435,7 @@
       </c>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" s="12" customFormat="1" ht="60">
+    <row r="91" spans="1:9" s="12" customFormat="1" ht="42.75">
       <c r="A91" s="11" t="s">
         <v>133</v>
       </c>
@@ -7531,7 +7537,7 @@
       </c>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="95" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A95" s="11" t="s">
         <v>137</v>
       </c>
@@ -7556,7 +7562,7 @@
       </c>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="96" spans="1:9" s="12" customFormat="1">
       <c r="A96" s="11" t="s">
         <v>138</v>
       </c>
@@ -7581,7 +7587,7 @@
       </c>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="97" spans="1:9" s="12" customFormat="1">
       <c r="A97" s="11" t="s">
         <v>140</v>
       </c>
@@ -7631,7 +7637,7 @@
       </c>
       <c r="I98" s="17"/>
     </row>
-    <row r="99" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="99" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A99" s="11" t="s">
         <v>144</v>
       </c>
@@ -7681,7 +7687,7 @@
       </c>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="101" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A101" s="11" t="s">
         <v>149</v>
       </c>
@@ -7706,7 +7712,7 @@
       </c>
       <c r="I101" s="17"/>
     </row>
-    <row r="102" spans="1:9" s="12" customFormat="1" ht="45">
+    <row r="102" spans="1:9" s="12" customFormat="1" ht="42.75">
       <c r="A102" s="11" t="s">
         <v>151</v>
       </c>
@@ -7731,7 +7737,7 @@
       </c>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="103" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A103" s="11" t="s">
         <v>152</v>
       </c>
@@ -7756,7 +7762,7 @@
       </c>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="1:9" s="12" customFormat="1" ht="45">
+    <row r="104" spans="1:9" s="12" customFormat="1" ht="42.75">
       <c r="A104" s="11" t="s">
         <v>154</v>
       </c>
@@ -7781,7 +7787,7 @@
       </c>
       <c r="I104" s="17"/>
     </row>
-    <row r="105" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="105" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A105" s="11" t="s">
         <v>155</v>
       </c>
@@ -7806,7 +7812,7 @@
       </c>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" s="12" customFormat="1" ht="45">
+    <row r="106" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A106" s="11" t="s">
         <v>156</v>
       </c>
@@ -7831,7 +7837,7 @@
       </c>
       <c r="I106" s="17"/>
     </row>
-    <row r="107" spans="1:9" s="12" customFormat="1" ht="45">
+    <row r="107" spans="1:9" s="12" customFormat="1" ht="42.75">
       <c r="A107" s="11" t="s">
         <v>158</v>
       </c>
@@ -7856,7 +7862,7 @@
       </c>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="108" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A108" s="11" t="s">
         <v>160</v>
       </c>
@@ -7881,7 +7887,7 @@
       </c>
       <c r="I108" s="17"/>
     </row>
-    <row r="109" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="109" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A109" s="11" t="s">
         <v>162</v>
       </c>
@@ -7906,7 +7912,7 @@
       </c>
       <c r="I109" s="17"/>
     </row>
-    <row r="110" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="110" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A110" s="11" t="s">
         <v>164</v>
       </c>
@@ -7931,7 +7937,7 @@
       </c>
       <c r="I110" s="17"/>
     </row>
-    <row r="111" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="111" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A111" s="11" t="s">
         <v>166</v>
       </c>
@@ -7956,7 +7962,7 @@
       </c>
       <c r="I111" s="17"/>
     </row>
-    <row r="112" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="112" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A112" s="11" t="s">
         <v>169</v>
       </c>
@@ -7981,7 +7987,7 @@
       </c>
       <c r="I112" s="17"/>
     </row>
-    <row r="113" spans="1:9" s="12" customFormat="1" ht="45">
+    <row r="113" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A113" s="11" t="s">
         <v>171</v>
       </c>
@@ -8006,7 +8012,7 @@
       </c>
       <c r="I113" s="17"/>
     </row>
-    <row r="114" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="114" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A114" s="11" t="s">
         <v>172</v>
       </c>
@@ -8031,7 +8037,7 @@
       </c>
       <c r="I114" s="17"/>
     </row>
-    <row r="115" spans="1:9" s="12" customFormat="1" ht="45">
+    <row r="115" spans="1:9" s="12" customFormat="1" ht="42.75">
       <c r="A115" s="11" t="s">
         <v>173</v>
       </c>
@@ -8056,7 +8062,7 @@
       </c>
       <c r="I115" s="17"/>
     </row>
-    <row r="116" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="116" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A116" s="11" t="s">
         <v>175</v>
       </c>
@@ -8081,7 +8087,7 @@
       </c>
       <c r="I116" s="17"/>
     </row>
-    <row r="117" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="117" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A117" s="11" t="s">
         <v>177</v>
       </c>
@@ -8106,7 +8112,7 @@
       </c>
       <c r="I117" s="17"/>
     </row>
-    <row r="118" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="118" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A118" s="11" t="s">
         <v>179</v>
       </c>
@@ -8131,7 +8137,7 @@
       </c>
       <c r="I118" s="17"/>
     </row>
-    <row r="119" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="119" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A119" s="11" t="s">
         <v>181</v>
       </c>
@@ -8156,7 +8162,7 @@
       </c>
       <c r="I119" s="17"/>
     </row>
-    <row r="120" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="120" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A120" s="11" t="s">
         <v>183</v>
       </c>
@@ -8181,7 +8187,7 @@
       </c>
       <c r="I120" s="17"/>
     </row>
-    <row r="121" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="121" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A121" s="11" t="s">
         <v>185</v>
       </c>
@@ -8206,7 +8212,7 @@
       </c>
       <c r="I121" s="17"/>
     </row>
-    <row r="122" spans="1:9" s="12" customFormat="1" ht="75">
+    <row r="122" spans="1:9" s="12" customFormat="1" ht="71.25">
       <c r="A122" s="11" t="s">
         <v>186</v>
       </c>
@@ -8231,7 +8237,7 @@
       </c>
       <c r="I122" s="17"/>
     </row>
-    <row r="123" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="123" spans="1:9" s="12" customFormat="1">
       <c r="A123" s="11" t="s">
         <v>187</v>
       </c>
@@ -8256,7 +8262,7 @@
       </c>
       <c r="I123" s="17"/>
     </row>
-    <row r="124" spans="1:9" s="12" customFormat="1" ht="45">
+    <row r="124" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A124" s="11" t="s">
         <v>189</v>
       </c>
@@ -8281,7 +8287,7 @@
       </c>
       <c r="I124" s="17"/>
     </row>
-    <row r="125" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="125" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A125" s="11" t="s">
         <v>190</v>
       </c>
@@ -8306,7 +8312,7 @@
       </c>
       <c r="I125" s="17"/>
     </row>
-    <row r="126" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="126" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A126" s="11" t="s">
         <v>369</v>
       </c>
@@ -8331,7 +8337,7 @@
       </c>
       <c r="I126" s="17"/>
     </row>
-    <row r="127" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="127" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A127" s="11" t="s">
         <v>370</v>
       </c>
@@ -8356,7 +8362,7 @@
       </c>
       <c r="I127" s="17"/>
     </row>
-    <row r="128" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="128" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A128" s="11" t="s">
         <v>192</v>
       </c>
@@ -8381,7 +8387,7 @@
       </c>
       <c r="I128" s="17"/>
     </row>
-    <row r="129" spans="1:9" s="12" customFormat="1" ht="45">
+    <row r="129" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A129" s="11" t="s">
         <v>195</v>
       </c>
@@ -8431,7 +8437,7 @@
       </c>
       <c r="I130" s="17"/>
     </row>
-    <row r="131" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="131" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A131" s="11" t="s">
         <v>197</v>
       </c>
@@ -8456,7 +8462,7 @@
       </c>
       <c r="I131" s="17"/>
     </row>
-    <row r="132" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="132" spans="1:9" s="12" customFormat="1">
       <c r="A132" s="11" t="s">
         <v>199</v>
       </c>
@@ -8481,7 +8487,7 @@
       </c>
       <c r="I132" s="17"/>
     </row>
-    <row r="133" spans="1:9" s="12" customFormat="1" ht="45">
+    <row r="133" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A133" s="11" t="s">
         <v>200</v>
       </c>
@@ -8506,7 +8512,7 @@
       </c>
       <c r="I133" s="17"/>
     </row>
-    <row r="134" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="134" spans="1:9" s="12" customFormat="1">
       <c r="A134" s="11" t="s">
         <v>838</v>
       </c>
@@ -8531,7 +8537,7 @@
       </c>
       <c r="I134" s="17"/>
     </row>
-    <row r="135" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="135" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A135" s="11" t="s">
         <v>839</v>
       </c>
@@ -8556,7 +8562,7 @@
       </c>
       <c r="I135" s="17"/>
     </row>
-    <row r="136" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="136" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A136" s="11" t="s">
         <v>842</v>
       </c>
@@ -8581,7 +8587,7 @@
       </c>
       <c r="I136" s="17"/>
     </row>
-    <row r="137" spans="1:9" s="12" customFormat="1" ht="120">
+    <row r="137" spans="1:9" s="12" customFormat="1" ht="114">
       <c r="A137" s="11" t="s">
         <v>202</v>
       </c>
@@ -8631,7 +8637,7 @@
       </c>
       <c r="I138" s="17"/>
     </row>
-    <row r="139" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="139" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A139" s="11" t="s">
         <v>844</v>
       </c>
@@ -8656,7 +8662,7 @@
       </c>
       <c r="I139" s="17"/>
     </row>
-    <row r="140" spans="1:9" s="12" customFormat="1" ht="225">
+    <row r="140" spans="1:9" s="12" customFormat="1" ht="199.5">
       <c r="A140" s="11" t="s">
         <v>205</v>
       </c>
@@ -8681,7 +8687,7 @@
       </c>
       <c r="I140" s="17"/>
     </row>
-    <row r="141" spans="1:9" s="12" customFormat="1" ht="45">
+    <row r="141" spans="1:9" s="12" customFormat="1" ht="42.75">
       <c r="A141" s="11" t="s">
         <v>207</v>
       </c>
@@ -8706,7 +8712,7 @@
       </c>
       <c r="I141" s="17"/>
     </row>
-    <row r="142" spans="1:9" s="12" customFormat="1" ht="45">
+    <row r="142" spans="1:9" s="12" customFormat="1" ht="42.75">
       <c r="A142" s="11" t="s">
         <v>583</v>
       </c>
@@ -8731,7 +8737,7 @@
       </c>
       <c r="I142" s="17"/>
     </row>
-    <row r="143" spans="1:9" s="12" customFormat="1" ht="75">
+    <row r="143" spans="1:9" s="12" customFormat="1" ht="42.75">
       <c r="A143" s="11" t="s">
         <v>575</v>
       </c>
@@ -8758,7 +8764,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="144" spans="1:9" s="12" customFormat="1" ht="210">
+    <row r="144" spans="1:9" s="12" customFormat="1" ht="185.25">
       <c r="A144" s="11" t="s">
         <v>208</v>
       </c>
@@ -8785,7 +8791,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="145" spans="1:9" s="12" customFormat="1" ht="75">
+    <row r="145" spans="1:9" s="12" customFormat="1" ht="71.25">
       <c r="A145" s="11" t="s">
         <v>411</v>
       </c>
@@ -8810,7 +8816,7 @@
       </c>
       <c r="I145" s="17"/>
     </row>
-    <row r="146" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="146" spans="1:9" s="12" customFormat="1">
       <c r="A146" s="11" t="s">
         <v>211</v>
       </c>
@@ -8835,7 +8841,7 @@
       </c>
       <c r="I146" s="17"/>
     </row>
-    <row r="147" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="147" spans="1:9" s="12" customFormat="1">
       <c r="A147" s="11" t="s">
         <v>213</v>
       </c>
@@ -8860,7 +8866,7 @@
       </c>
       <c r="I147" s="17"/>
     </row>
-    <row r="148" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="148" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A148" s="11" t="s">
         <v>214</v>
       </c>
@@ -8885,7 +8891,7 @@
       </c>
       <c r="I148" s="17"/>
     </row>
-    <row r="149" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="149" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A149" s="11" t="s">
         <v>215</v>
       </c>
@@ -8910,7 +8916,7 @@
       </c>
       <c r="I149" s="17"/>
     </row>
-    <row r="150" spans="1:9" s="12" customFormat="1" ht="75">
+    <row r="150" spans="1:9" s="12" customFormat="1" ht="71.25">
       <c r="A150" s="11" t="s">
         <v>216</v>
       </c>
@@ -8960,7 +8966,7 @@
       </c>
       <c r="I151" s="17"/>
     </row>
-    <row r="152" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="152" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A152" s="11" t="s">
         <v>219</v>
       </c>
@@ -8985,7 +8991,7 @@
       </c>
       <c r="I152" s="17"/>
     </row>
-    <row r="153" spans="1:9" s="12" customFormat="1" ht="45">
+    <row r="153" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A153" s="11" t="s">
         <v>220</v>
       </c>
@@ -9010,7 +9016,7 @@
       </c>
       <c r="I153" s="17"/>
     </row>
-    <row r="154" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="154" spans="1:9" s="12" customFormat="1">
       <c r="A154" s="11" t="s">
         <v>384</v>
       </c>
@@ -9035,7 +9041,7 @@
       </c>
       <c r="I154" s="17"/>
     </row>
-    <row r="155" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="155" spans="1:9" s="12" customFormat="1">
       <c r="A155" s="11" t="s">
         <v>385</v>
       </c>
@@ -9060,7 +9066,7 @@
       </c>
       <c r="I155" s="17"/>
     </row>
-    <row r="156" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="156" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A156" s="11" t="s">
         <v>222</v>
       </c>
@@ -9085,7 +9091,7 @@
       </c>
       <c r="I156" s="17"/>
     </row>
-    <row r="157" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="157" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A157" s="11" t="s">
         <v>225</v>
       </c>
@@ -9135,7 +9141,7 @@
       </c>
       <c r="I158" s="17"/>
     </row>
-    <row r="159" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="159" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A159" s="11" t="s">
         <v>228</v>
       </c>
@@ -9185,7 +9191,7 @@
       </c>
       <c r="I160" s="17"/>
     </row>
-    <row r="161" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="161" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A161" s="11" t="s">
         <v>233</v>
       </c>
@@ -9235,7 +9241,7 @@
       </c>
       <c r="I162" s="17"/>
     </row>
-    <row r="163" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="163" spans="1:9" s="12" customFormat="1">
       <c r="A163" s="11" t="s">
         <v>847</v>
       </c>
@@ -9260,7 +9266,7 @@
       </c>
       <c r="I163" s="17"/>
     </row>
-    <row r="164" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="164" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A164" s="11" t="s">
         <v>850</v>
       </c>
@@ -9285,7 +9291,7 @@
       </c>
       <c r="I164" s="17"/>
     </row>
-    <row r="165" spans="1:9" s="12" customFormat="1" ht="135">
+    <row r="165" spans="1:9" s="12" customFormat="1" ht="128.25">
       <c r="A165" s="11" t="s">
         <v>235</v>
       </c>
@@ -9360,7 +9366,7 @@
       </c>
       <c r="I167" s="17"/>
     </row>
-    <row r="168" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="168" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A168" s="11" t="s">
         <v>852</v>
       </c>
@@ -9385,7 +9391,7 @@
       </c>
       <c r="I168" s="17"/>
     </row>
-    <row r="169" spans="1:9" s="12" customFormat="1" ht="210">
+    <row r="169" spans="1:9" s="12" customFormat="1" ht="199.5">
       <c r="A169" s="11" t="s">
         <v>239</v>
       </c>
@@ -9410,7 +9416,7 @@
       </c>
       <c r="I169" s="17"/>
     </row>
-    <row r="170" spans="1:9" s="12" customFormat="1" ht="45">
+    <row r="170" spans="1:9" s="12" customFormat="1" ht="42.75">
       <c r="A170" s="11" t="s">
         <v>241</v>
       </c>
@@ -9435,7 +9441,7 @@
       </c>
       <c r="I170" s="17"/>
     </row>
-    <row r="171" spans="1:9" s="12" customFormat="1" ht="45">
+    <row r="171" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A171" s="11" t="s">
         <v>242</v>
       </c>
@@ -9460,7 +9466,7 @@
       </c>
       <c r="I171" s="17"/>
     </row>
-    <row r="172" spans="1:9" s="12" customFormat="1" ht="90">
+    <row r="172" spans="1:9" s="12" customFormat="1" ht="71.25">
       <c r="A172" s="11" t="s">
         <v>386</v>
       </c>
@@ -9485,7 +9491,7 @@
       </c>
       <c r="I172" s="17"/>
     </row>
-    <row r="173" spans="1:9" s="12" customFormat="1" ht="225">
+    <row r="173" spans="1:9" s="12" customFormat="1" ht="171">
       <c r="A173" s="11" t="s">
         <v>243</v>
       </c>
@@ -9509,10 +9515,10 @@
         <v>18</v>
       </c>
       <c r="I173" s="17" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" s="12" customFormat="1" ht="30">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" s="12" customFormat="1">
       <c r="A174" s="11" t="s">
         <v>245</v>
       </c>
@@ -9537,7 +9543,7 @@
       </c>
       <c r="I174" s="17"/>
     </row>
-    <row r="175" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="175" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A175" s="11" t="s">
         <v>247</v>
       </c>
@@ -9562,7 +9568,7 @@
       </c>
       <c r="I175" s="17"/>
     </row>
-    <row r="176" spans="1:9" s="12" customFormat="1" ht="60">
+    <row r="176" spans="1:9" s="12" customFormat="1" ht="42.75">
       <c r="A176" s="11" t="s">
         <v>249</v>
       </c>
@@ -9589,7 +9595,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="177" spans="1:9" s="12" customFormat="1" ht="45">
+    <row r="177" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A177" s="11" t="s">
         <v>250</v>
       </c>
@@ -9616,7 +9622,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="178" spans="1:9" s="12" customFormat="1" ht="45">
+    <row r="178" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A178" s="11" t="s">
         <v>251</v>
       </c>
@@ -9643,7 +9649,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="179" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="179" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A179" s="11" t="s">
         <v>252</v>
       </c>
@@ -9668,7 +9674,7 @@
       </c>
       <c r="I179" s="17"/>
     </row>
-    <row r="180" spans="1:9" s="12" customFormat="1" ht="75">
+    <row r="180" spans="1:9" s="12" customFormat="1" ht="71.25">
       <c r="A180" s="11" t="s">
         <v>254</v>
       </c>
@@ -9718,7 +9724,7 @@
       </c>
       <c r="I181" s="17"/>
     </row>
-    <row r="182" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="182" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A182" s="11" t="s">
         <v>257</v>
       </c>
@@ -9743,7 +9749,7 @@
       </c>
       <c r="I182" s="17"/>
     </row>
-    <row r="183" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="183" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A183" s="11" t="s">
         <v>258</v>
       </c>
@@ -9768,7 +9774,7 @@
       </c>
       <c r="I183" s="17"/>
     </row>
-    <row r="184" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="184" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A184" s="11" t="s">
         <v>388</v>
       </c>
@@ -9793,7 +9799,7 @@
       </c>
       <c r="I184" s="17"/>
     </row>
-    <row r="185" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="185" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A185" s="11" t="s">
         <v>389</v>
       </c>
@@ -9818,7 +9824,7 @@
       </c>
       <c r="I185" s="17"/>
     </row>
-    <row r="186" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="186" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A186" s="11" t="s">
         <v>260</v>
       </c>
@@ -9843,7 +9849,7 @@
       </c>
       <c r="I186" s="17"/>
     </row>
-    <row r="187" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="187" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A187" s="11" t="s">
         <v>263</v>
       </c>
@@ -9893,7 +9899,7 @@
       </c>
       <c r="I188" s="17"/>
     </row>
-    <row r="189" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="189" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A189" s="11" t="s">
         <v>266</v>
       </c>
@@ -9943,7 +9949,7 @@
       </c>
       <c r="I190" s="17"/>
     </row>
-    <row r="191" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="191" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A191" s="11" t="s">
         <v>271</v>
       </c>
@@ -9993,7 +9999,7 @@
       </c>
       <c r="I192" s="17"/>
     </row>
-    <row r="193" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="193" spans="1:9" s="12" customFormat="1">
       <c r="A193" s="11" t="s">
         <v>857</v>
       </c>
@@ -10018,7 +10024,7 @@
       </c>
       <c r="I193" s="17"/>
     </row>
-    <row r="194" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="194" spans="1:9" s="12" customFormat="1">
       <c r="A194" s="11" t="s">
         <v>860</v>
       </c>
@@ -10043,7 +10049,7 @@
       </c>
       <c r="I194" s="17"/>
     </row>
-    <row r="195" spans="1:9" s="12" customFormat="1" ht="120">
+    <row r="195" spans="1:9" s="12" customFormat="1" ht="114">
       <c r="A195" s="11" t="s">
         <v>273</v>
       </c>
@@ -10093,7 +10099,7 @@
       </c>
       <c r="I196" s="17"/>
     </row>
-    <row r="197" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="197" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A197" s="11" t="s">
         <v>862</v>
       </c>
@@ -10118,7 +10124,7 @@
       </c>
       <c r="I197" s="17"/>
     </row>
-    <row r="198" spans="1:9" s="12" customFormat="1" ht="210">
+    <row r="198" spans="1:9" s="12" customFormat="1" ht="199.5">
       <c r="A198" s="11" t="s">
         <v>276</v>
       </c>
@@ -10143,7 +10149,7 @@
       </c>
       <c r="I198" s="17"/>
     </row>
-    <row r="199" spans="1:9" s="12" customFormat="1" ht="45">
+    <row r="199" spans="1:9" s="12" customFormat="1" ht="42.75">
       <c r="A199" s="11" t="s">
         <v>278</v>
       </c>
@@ -10168,7 +10174,7 @@
       </c>
       <c r="I199" s="17"/>
     </row>
-    <row r="200" spans="1:9" s="12" customFormat="1" ht="45">
+    <row r="200" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A200" s="11" t="s">
         <v>279</v>
       </c>
@@ -10193,7 +10199,7 @@
       </c>
       <c r="I200" s="17"/>
     </row>
-    <row r="201" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="201" spans="1:9" s="12" customFormat="1">
       <c r="A201" s="11" t="s">
         <v>280</v>
       </c>
@@ -10218,7 +10224,7 @@
       </c>
       <c r="I201" s="17"/>
     </row>
-    <row r="202" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="202" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A202" s="11" t="s">
         <v>527</v>
       </c>
@@ -10243,7 +10249,7 @@
       </c>
       <c r="I202" s="17"/>
     </row>
-    <row r="203" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="203" spans="1:9" s="12" customFormat="1">
       <c r="A203" s="11" t="s">
         <v>281</v>
       </c>
@@ -10268,7 +10274,7 @@
       </c>
       <c r="I203" s="17"/>
     </row>
-    <row r="204" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="204" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A204" s="11" t="s">
         <v>283</v>
       </c>
@@ -10293,7 +10299,7 @@
       </c>
       <c r="I204" s="17"/>
     </row>
-    <row r="205" spans="1:9" s="12" customFormat="1" ht="75">
+    <row r="205" spans="1:9" s="12" customFormat="1" ht="71.25">
       <c r="A205" s="11" t="s">
         <v>510</v>
       </c>
@@ -10368,7 +10374,7 @@
       </c>
       <c r="I207" s="17"/>
     </row>
-    <row r="208" spans="1:9" s="12" customFormat="1" ht="45">
+    <row r="208" spans="1:9" s="12" customFormat="1" ht="42.75">
       <c r="A208" s="11" t="s">
         <v>287</v>
       </c>
@@ -10393,7 +10399,7 @@
       </c>
       <c r="I208" s="17"/>
     </row>
-    <row r="209" spans="1:9" s="12" customFormat="1" ht="45">
+    <row r="209" spans="1:9" s="12" customFormat="1" ht="42.75">
       <c r="A209" s="11" t="s">
         <v>288</v>
       </c>
@@ -10418,7 +10424,7 @@
       </c>
       <c r="I209" s="17"/>
     </row>
-    <row r="210" spans="1:9" s="12" customFormat="1" ht="75">
+    <row r="210" spans="1:9" s="12" customFormat="1" ht="57">
       <c r="A210" s="11" t="s">
         <v>289</v>
       </c>
@@ -10443,7 +10449,7 @@
       </c>
       <c r="I210" s="17"/>
     </row>
-    <row r="211" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="211" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A211" s="11" t="s">
         <v>290</v>
       </c>
@@ -10468,7 +10474,7 @@
       </c>
       <c r="I211" s="17"/>
     </row>
-    <row r="212" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="212" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A212" s="11" t="s">
         <v>291</v>
       </c>
@@ -10493,7 +10499,7 @@
       </c>
       <c r="I212" s="17"/>
     </row>
-    <row r="213" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="213" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A213" s="11" t="s">
         <v>292</v>
       </c>
@@ -10543,7 +10549,7 @@
       </c>
       <c r="I214" s="17"/>
     </row>
-    <row r="215" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="215" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A215" s="11" t="s">
         <v>295</v>
       </c>
@@ -10568,7 +10574,7 @@
       </c>
       <c r="I215" s="17"/>
     </row>
-    <row r="216" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="216" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A216" s="11" t="s">
         <v>296</v>
       </c>
@@ -10593,7 +10599,7 @@
       </c>
       <c r="I216" s="17"/>
     </row>
-    <row r="217" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="217" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A217" s="11" t="s">
         <v>401</v>
       </c>
@@ -10618,7 +10624,7 @@
       </c>
       <c r="I217" s="17"/>
     </row>
-    <row r="218" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="218" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A218" s="11" t="s">
         <v>402</v>
       </c>
@@ -10643,7 +10649,7 @@
       </c>
       <c r="I218" s="17"/>
     </row>
-    <row r="219" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="219" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A219" s="11" t="s">
         <v>298</v>
       </c>
@@ -10668,7 +10674,7 @@
       </c>
       <c r="I219" s="17"/>
     </row>
-    <row r="220" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="220" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A220" s="11" t="s">
         <v>300</v>
       </c>
@@ -10718,7 +10724,7 @@
       </c>
       <c r="I221" s="17"/>
     </row>
-    <row r="222" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="222" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A222" s="11" t="s">
         <v>303</v>
       </c>
@@ -10768,7 +10774,7 @@
       </c>
       <c r="I223" s="17"/>
     </row>
-    <row r="224" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="224" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A224" s="11" t="s">
         <v>308</v>
       </c>
@@ -10793,7 +10799,7 @@
       </c>
       <c r="I224" s="17"/>
     </row>
-    <row r="225" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="225" spans="1:9" s="12" customFormat="1">
       <c r="A225" s="11" t="s">
         <v>864</v>
       </c>
@@ -10818,7 +10824,7 @@
       </c>
       <c r="I225" s="17"/>
     </row>
-    <row r="226" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="226" spans="1:9" s="12" customFormat="1">
       <c r="A226" s="11" t="s">
         <v>865</v>
       </c>
@@ -10843,7 +10849,7 @@
       </c>
       <c r="I226" s="17"/>
     </row>
-    <row r="227" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="227" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A227" s="11" t="s">
         <v>868</v>
       </c>
@@ -10868,7 +10874,7 @@
       </c>
       <c r="I227" s="17"/>
     </row>
-    <row r="228" spans="1:9" s="12" customFormat="1" ht="135">
+    <row r="228" spans="1:9" s="12" customFormat="1" ht="128.25">
       <c r="A228" s="11" t="s">
         <v>310</v>
       </c>
@@ -10943,7 +10949,7 @@
       </c>
       <c r="I230" s="17"/>
     </row>
-    <row r="231" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="231" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A231" s="11" t="s">
         <v>870</v>
       </c>
@@ -10968,7 +10974,7 @@
       </c>
       <c r="I231" s="17"/>
     </row>
-    <row r="232" spans="1:9" s="12" customFormat="1" ht="225">
+    <row r="232" spans="1:9" s="12" customFormat="1" ht="199.5">
       <c r="A232" s="11" t="s">
         <v>314</v>
       </c>
@@ -10993,7 +10999,7 @@
       </c>
       <c r="I232" s="17"/>
     </row>
-    <row r="233" spans="1:9" s="12" customFormat="1" ht="45">
+    <row r="233" spans="1:9" s="12" customFormat="1" ht="42.75">
       <c r="A233" s="11" t="s">
         <v>316</v>
       </c>
@@ -11018,7 +11024,7 @@
       </c>
       <c r="I233" s="17"/>
     </row>
-    <row r="234" spans="1:9" s="12" customFormat="1" ht="45">
+    <row r="234" spans="1:9" s="12" customFormat="1" ht="42.75">
       <c r="A234" s="11" t="s">
         <v>317</v>
       </c>
@@ -11043,7 +11049,7 @@
       </c>
       <c r="I234" s="17"/>
     </row>
-    <row r="235" spans="1:9" s="12" customFormat="1" ht="60">
+    <row r="235" spans="1:9" s="12" customFormat="1" ht="42.75">
       <c r="A235" s="11" t="s">
         <v>611</v>
       </c>
@@ -11070,7 +11076,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="236" spans="1:9" s="12" customFormat="1" ht="75">
+    <row r="236" spans="1:9" s="12" customFormat="1" ht="71.25">
       <c r="A236" s="11" t="s">
         <v>406</v>
       </c>
@@ -11095,7 +11101,7 @@
       </c>
       <c r="I236" s="17"/>
     </row>
-    <row r="237" spans="1:9" s="12" customFormat="1" ht="60">
+    <row r="237" spans="1:9" s="12" customFormat="1" ht="42.75">
       <c r="A237" s="11" t="s">
         <v>318</v>
       </c>
@@ -11147,7 +11153,7 @@
       </c>
       <c r="I238" s="17"/>
     </row>
-    <row r="239" spans="1:9" s="12" customFormat="1" ht="105">
+    <row r="239" spans="1:9" s="12" customFormat="1" ht="71.25">
       <c r="A239" s="11" t="s">
         <v>320</v>
       </c>
@@ -11174,7 +11180,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="240" spans="1:9" s="12" customFormat="1" ht="45">
+    <row r="240" spans="1:9" s="12" customFormat="1" ht="42.75">
       <c r="A240" s="11" t="s">
         <v>324</v>
       </c>
@@ -11199,7 +11205,7 @@
       </c>
       <c r="I240" s="17"/>
     </row>
-    <row r="241" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="241" spans="1:9" s="12" customFormat="1" ht="28.5">
       <c r="A241" s="11" t="s">
         <v>326</v>
       </c>
@@ -11224,7 +11230,7 @@
       </c>
       <c r="I241" s="17"/>
     </row>
-    <row r="242" spans="1:9" s="35" customFormat="1" ht="45">
+    <row r="242" spans="1:9" s="35" customFormat="1" ht="42.75">
       <c r="A242" s="33" t="s">
         <v>664</v>
       </c>
@@ -11253,7 +11259,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="243" spans="1:9" s="35" customFormat="1" ht="60">
+    <row r="243" spans="1:9" s="35" customFormat="1" ht="42.75">
       <c r="A243" s="33" t="s">
         <v>667</v>
       </c>
@@ -11282,7 +11288,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="244" spans="1:9" s="35" customFormat="1" ht="60">
+    <row r="244" spans="1:9" s="35" customFormat="1" ht="42.75">
       <c r="A244" s="33" t="s">
         <v>668</v>
       </c>
@@ -11311,7 +11317,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="245" spans="1:9" s="35" customFormat="1" ht="45">
+    <row r="245" spans="1:9" s="35" customFormat="1" ht="42.75">
       <c r="A245" s="33" t="s">
         <v>577</v>
       </c>
@@ -11340,7 +11346,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="246" spans="1:9" s="35" customFormat="1" ht="45">
+    <row r="246" spans="1:9" s="35" customFormat="1" ht="42.75">
       <c r="A246" s="33" t="s">
         <v>578</v>
       </c>
@@ -11369,7 +11375,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="247" spans="1:9" s="35" customFormat="1" ht="45">
+    <row r="247" spans="1:9" s="35" customFormat="1" ht="42.75">
       <c r="A247" s="33" t="s">
         <v>581</v>
       </c>
@@ -11398,7 +11404,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="248" spans="1:9" s="35" customFormat="1" ht="75">
+    <row r="248" spans="1:9" s="35" customFormat="1" ht="57">
       <c r="A248" s="33" t="s">
         <v>209</v>
       </c>
@@ -11427,7 +11433,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="249" spans="1:9" s="35" customFormat="1" ht="60">
+    <row r="249" spans="1:9" s="35" customFormat="1" ht="42.75">
       <c r="A249" s="33" t="s">
         <v>210</v>
       </c>
@@ -11454,7 +11460,7 @@
       </c>
       <c r="I249" s="34"/>
     </row>
-    <row r="250" spans="1:9" s="35" customFormat="1" ht="45">
+    <row r="250" spans="1:9" s="35" customFormat="1" ht="42.75">
       <c r="A250" s="33" t="s">
         <v>412</v>
       </c>
@@ -11481,7 +11487,7 @@
       </c>
       <c r="I250" s="34"/>
     </row>
-    <row r="251" spans="1:9" s="35" customFormat="1" ht="45">
+    <row r="251" spans="1:9" s="35" customFormat="1" ht="42.75">
       <c r="A251" s="33" t="s">
         <v>413</v>
       </c>
@@ -11508,7 +11514,7 @@
       </c>
       <c r="I251" s="34"/>
     </row>
-    <row r="252" spans="1:9" s="35" customFormat="1" ht="45">
+    <row r="252" spans="1:9" s="35" customFormat="1" ht="42.75">
       <c r="A252" s="33" t="s">
         <v>414</v>
       </c>
@@ -11535,7 +11541,7 @@
       </c>
       <c r="I252" s="34"/>
     </row>
-    <row r="253" spans="1:9" s="35" customFormat="1" ht="45">
+    <row r="253" spans="1:9" s="35" customFormat="1" ht="42.75">
       <c r="A253" s="33" t="s">
         <v>415</v>
       </c>
@@ -11562,7 +11568,7 @@
       </c>
       <c r="I253" s="34"/>
     </row>
-    <row r="254" spans="1:9" s="35" customFormat="1" ht="60">
+    <row r="254" spans="1:9" s="35" customFormat="1" ht="42.75">
       <c r="A254" s="33" t="s">
         <v>416</v>
       </c>
@@ -11589,7 +11595,7 @@
       </c>
       <c r="I254" s="34"/>
     </row>
-    <row r="255" spans="1:9" s="35" customFormat="1" ht="60">
+    <row r="255" spans="1:9" s="35" customFormat="1" ht="42.75">
       <c r="A255" s="33" t="s">
         <v>417</v>
       </c>
@@ -11616,7 +11622,7 @@
       </c>
       <c r="I255" s="34"/>
     </row>
-    <row r="256" spans="1:9" s="35" customFormat="1" ht="60">
+    <row r="256" spans="1:9" s="35" customFormat="1" ht="42.75">
       <c r="A256" s="33" t="s">
         <v>418</v>
       </c>
@@ -11643,7 +11649,7 @@
       </c>
       <c r="I256" s="34"/>
     </row>
-    <row r="257" spans="1:9" s="35" customFormat="1" ht="45">
+    <row r="257" spans="1:9" s="35" customFormat="1" ht="42.75">
       <c r="A257" s="33" t="s">
         <v>419</v>
       </c>
@@ -11670,7 +11676,7 @@
       </c>
       <c r="I257" s="34"/>
     </row>
-    <row r="258" spans="1:9" s="35" customFormat="1" ht="60">
+    <row r="258" spans="1:9" s="35" customFormat="1" ht="42.75">
       <c r="A258" s="33" t="s">
         <v>420</v>
       </c>
@@ -11697,7 +11703,7 @@
       </c>
       <c r="I258" s="34"/>
     </row>
-    <row r="259" spans="1:9" s="35" customFormat="1" ht="45">
+    <row r="259" spans="1:9" s="35" customFormat="1" ht="42.75">
       <c r="A259" s="33" t="s">
         <v>421</v>
       </c>
@@ -11724,7 +11730,7 @@
       </c>
       <c r="I259" s="34"/>
     </row>
-    <row r="260" spans="1:9" s="35" customFormat="1" ht="60">
+    <row r="260" spans="1:9" s="35" customFormat="1" ht="42.75">
       <c r="A260" s="33" t="s">
         <v>422</v>
       </c>
@@ -11751,7 +11757,7 @@
       </c>
       <c r="I260" s="34"/>
     </row>
-    <row r="261" spans="1:9" s="35" customFormat="1" ht="60">
+    <row r="261" spans="1:9" s="35" customFormat="1" ht="42.75">
       <c r="A261" s="33" t="s">
         <v>423</v>
       </c>
@@ -11778,7 +11784,7 @@
       </c>
       <c r="I261" s="34"/>
     </row>
-    <row r="262" spans="1:9" s="35" customFormat="1" ht="60">
+    <row r="262" spans="1:9" s="35" customFormat="1" ht="42.75">
       <c r="A262" s="33" t="s">
         <v>469</v>
       </c>
@@ -11805,7 +11811,7 @@
       </c>
       <c r="I262" s="34"/>
     </row>
-    <row r="263" spans="1:9" s="35" customFormat="1" ht="75">
+    <row r="263" spans="1:9" s="35" customFormat="1" ht="71.25">
       <c r="A263" s="33" t="s">
         <v>327</v>
       </c>
@@ -11834,7 +11840,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="264" spans="1:9" s="35" customFormat="1" ht="60">
+    <row r="264" spans="1:9" s="35" customFormat="1" ht="57">
       <c r="A264" s="33" t="s">
         <v>470</v>
       </c>
@@ -11861,7 +11867,7 @@
       </c>
       <c r="I264" s="34"/>
     </row>
-    <row r="265" spans="1:9" s="35" customFormat="1" ht="60">
+    <row r="265" spans="1:9" s="35" customFormat="1" ht="57">
       <c r="A265" s="33" t="s">
         <v>471</v>
       </c>
@@ -11888,7 +11894,7 @@
       </c>
       <c r="I265" s="34"/>
     </row>
-    <row r="266" spans="1:9" s="35" customFormat="1" ht="60">
+    <row r="266" spans="1:9" s="35" customFormat="1" ht="57">
       <c r="A266" s="33" t="s">
         <v>472</v>
       </c>
@@ -11915,7 +11921,7 @@
       </c>
       <c r="I266" s="34"/>
     </row>
-    <row r="267" spans="1:9" s="35" customFormat="1" ht="60">
+    <row r="267" spans="1:9" s="35" customFormat="1" ht="57">
       <c r="A267" s="33" t="s">
         <v>473</v>
       </c>
@@ -11942,7 +11948,7 @@
       </c>
       <c r="I267" s="34"/>
     </row>
-    <row r="268" spans="1:9" s="35" customFormat="1" ht="60">
+    <row r="268" spans="1:9" s="35" customFormat="1" ht="42.75">
       <c r="A268" s="33" t="s">
         <v>474</v>
       </c>
@@ -11969,7 +11975,7 @@
       </c>
       <c r="I268" s="34"/>
     </row>
-    <row r="269" spans="1:9" s="35" customFormat="1" ht="60">
+    <row r="269" spans="1:9" s="35" customFormat="1" ht="57">
       <c r="A269" s="33" t="s">
         <v>475</v>
       </c>
@@ -11996,7 +12002,7 @@
       </c>
       <c r="I269" s="34"/>
     </row>
-    <row r="270" spans="1:9" s="35" customFormat="1" ht="60">
+    <row r="270" spans="1:9" s="35" customFormat="1" ht="57">
       <c r="A270" s="33" t="s">
         <v>889</v>
       </c>
@@ -12023,7 +12029,7 @@
       </c>
       <c r="I270" s="34"/>
     </row>
-    <row r="271" spans="1:9" s="35" customFormat="1" ht="60">
+    <row r="271" spans="1:9" s="35" customFormat="1" ht="57">
       <c r="A271" s="33" t="s">
         <v>476</v>
       </c>
@@ -12050,7 +12056,7 @@
       </c>
       <c r="I271" s="34"/>
     </row>
-    <row r="272" spans="1:9" s="35" customFormat="1" ht="60">
+    <row r="272" spans="1:9" s="35" customFormat="1" ht="57">
       <c r="A272" s="33" t="s">
         <v>477</v>
       </c>
@@ -12077,7 +12083,7 @@
       </c>
       <c r="I272" s="34"/>
     </row>
-    <row r="273" spans="1:9" s="35" customFormat="1" ht="60">
+    <row r="273" spans="1:9" s="35" customFormat="1" ht="57">
       <c r="A273" s="33" t="s">
         <v>478</v>
       </c>
@@ -12104,7 +12110,7 @@
       </c>
       <c r="I273" s="34"/>
     </row>
-    <row r="274" spans="1:9" s="35" customFormat="1" ht="60">
+    <row r="274" spans="1:9" s="35" customFormat="1" ht="57">
       <c r="A274" s="33" t="s">
         <v>479</v>
       </c>
@@ -12131,7 +12137,7 @@
       </c>
       <c r="I274" s="34"/>
     </row>
-    <row r="275" spans="1:9" s="35" customFormat="1" ht="60">
+    <row r="275" spans="1:9" s="35" customFormat="1" ht="42.75">
       <c r="A275" s="33" t="s">
         <v>480</v>
       </c>
@@ -12158,7 +12164,7 @@
       </c>
       <c r="I275" s="34"/>
     </row>
-    <row r="276" spans="1:9" s="35" customFormat="1" ht="60">
+    <row r="276" spans="1:9" s="35" customFormat="1" ht="57">
       <c r="A276" s="33" t="s">
         <v>481</v>
       </c>
@@ -12185,7 +12191,7 @@
       </c>
       <c r="I276" s="34"/>
     </row>
-    <row r="277" spans="1:9" s="35" customFormat="1" ht="60">
+    <row r="277" spans="1:9" s="35" customFormat="1" ht="57">
       <c r="A277" s="33" t="s">
         <v>482</v>
       </c>
@@ -12212,7 +12218,7 @@
       </c>
       <c r="I277" s="34"/>
     </row>
-    <row r="278" spans="1:9" s="35" customFormat="1" ht="60">
+    <row r="278" spans="1:9" s="35" customFormat="1" ht="57">
       <c r="A278" s="33" t="s">
         <v>600</v>
       </c>
@@ -12239,441 +12245,441 @@
       </c>
       <c r="I278" s="34"/>
     </row>
-    <row r="279" spans="1:9" s="62" customFormat="1" ht="60" customHeight="1">
-      <c r="A279" s="60" t="s">
+    <row r="279" spans="1:9" s="42" customFormat="1" ht="60" customHeight="1">
+      <c r="A279" s="40" t="s">
         <v>920</v>
       </c>
-      <c r="B279" s="61" t="s">
-        <v>325</v>
-      </c>
-      <c r="C279" s="61" t="s">
+      <c r="B279" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="C279" s="41" t="s">
         <v>921</v>
       </c>
-      <c r="D279" s="61" t="s">
+      <c r="D279" s="41" t="s">
         <v>599</v>
       </c>
-      <c r="E279" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="F279" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="G279" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="H279" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="I279" s="61" t="s">
+      <c r="E279" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F279" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="G279" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="H279" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="I279" s="41" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="280" spans="1:9" s="62" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A280" s="60" t="s">
+    <row r="280" spans="1:9" s="42" customFormat="1" ht="49.5" customHeight="1">
+      <c r="A280" s="40" t="s">
         <v>922</v>
       </c>
-      <c r="B280" s="61" t="s">
-        <v>325</v>
-      </c>
-      <c r="C280" s="61" t="s">
+      <c r="B280" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="C280" s="41" t="s">
         <v>923</v>
       </c>
-      <c r="D280" s="61" t="s">
+      <c r="D280" s="41" t="s">
         <v>924</v>
       </c>
-      <c r="E280" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="F280" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="G280" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="H280" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="I280" s="61"/>
-    </row>
-    <row r="281" spans="1:9" s="62" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A281" s="60" t="s">
+      <c r="E280" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F280" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="G280" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="H280" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="I280" s="41"/>
+    </row>
+    <row r="281" spans="1:9" s="42" customFormat="1" ht="49.5" customHeight="1">
+      <c r="A281" s="40" t="s">
         <v>925</v>
       </c>
-      <c r="B281" s="61" t="s">
-        <v>325</v>
-      </c>
-      <c r="C281" s="61" t="s">
+      <c r="B281" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="C281" s="41" t="s">
         <v>926</v>
       </c>
-      <c r="D281" s="61" t="s">
+      <c r="D281" s="41" t="s">
         <v>924</v>
       </c>
-      <c r="E281" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="F281" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="G281" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="H281" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="I281" s="61"/>
-    </row>
-    <row r="282" spans="1:9" s="62" customFormat="1" ht="46.5" customHeight="1">
-      <c r="A282" s="60" t="s">
+      <c r="E281" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F281" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="G281" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="H281" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="I281" s="41"/>
+    </row>
+    <row r="282" spans="1:9" s="42" customFormat="1" ht="46.5" customHeight="1">
+      <c r="A282" s="40" t="s">
         <v>927</v>
       </c>
-      <c r="B282" s="61" t="s">
-        <v>325</v>
-      </c>
-      <c r="C282" s="61" t="s">
+      <c r="B282" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="C282" s="41" t="s">
         <v>928</v>
       </c>
-      <c r="D282" s="61" t="s">
+      <c r="D282" s="41" t="s">
         <v>924</v>
       </c>
-      <c r="E282" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="F282" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="G282" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="H282" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="I282" s="61"/>
-    </row>
-    <row r="283" spans="1:9" s="62" customFormat="1" ht="48.75" customHeight="1">
-      <c r="A283" s="60" t="s">
+      <c r="E282" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F282" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="G282" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="H282" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="I282" s="41"/>
+    </row>
+    <row r="283" spans="1:9" s="42" customFormat="1" ht="48.75" customHeight="1">
+      <c r="A283" s="40" t="s">
         <v>929</v>
       </c>
-      <c r="B283" s="61" t="s">
-        <v>325</v>
-      </c>
-      <c r="C283" s="61" t="s">
+      <c r="B283" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="C283" s="41" t="s">
         <v>930</v>
       </c>
-      <c r="D283" s="61" t="s">
+      <c r="D283" s="41" t="s">
         <v>924</v>
       </c>
-      <c r="E283" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="F283" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="G283" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="H283" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="I283" s="61"/>
-    </row>
-    <row r="284" spans="1:9" s="62" customFormat="1" ht="52.5" customHeight="1">
-      <c r="A284" s="60" t="s">
+      <c r="E283" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F283" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="G283" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="H283" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="I283" s="41"/>
+    </row>
+    <row r="284" spans="1:9" s="42" customFormat="1" ht="52.5" customHeight="1">
+      <c r="A284" s="40" t="s">
         <v>931</v>
       </c>
-      <c r="B284" s="61" t="s">
-        <v>325</v>
-      </c>
-      <c r="C284" s="61" t="s">
+      <c r="B284" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="C284" s="41" t="s">
         <v>932</v>
       </c>
-      <c r="D284" s="61" t="s">
+      <c r="D284" s="41" t="s">
         <v>924</v>
       </c>
-      <c r="E284" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="F284" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="G284" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="H284" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="I284" s="61"/>
-    </row>
-    <row r="285" spans="1:9" s="62" customFormat="1" ht="48.75" customHeight="1">
-      <c r="A285" s="60" t="s">
+      <c r="E284" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F284" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="G284" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="H284" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="I284" s="41"/>
+    </row>
+    <row r="285" spans="1:9" s="42" customFormat="1" ht="48.75" customHeight="1">
+      <c r="A285" s="40" t="s">
         <v>933</v>
       </c>
-      <c r="B285" s="61" t="s">
-        <v>325</v>
-      </c>
-      <c r="C285" s="61" t="s">
+      <c r="B285" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="C285" s="41" t="s">
         <v>934</v>
       </c>
-      <c r="D285" s="61" t="s">
+      <c r="D285" s="41" t="s">
         <v>924</v>
       </c>
-      <c r="E285" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="F285" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="G285" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="H285" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="I285" s="61"/>
-    </row>
-    <row r="286" spans="1:9" s="62" customFormat="1" ht="42" customHeight="1">
-      <c r="A286" s="60" t="s">
+      <c r="E285" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F285" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="G285" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="H285" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="I285" s="41"/>
+    </row>
+    <row r="286" spans="1:9" s="42" customFormat="1" ht="42" customHeight="1">
+      <c r="A286" s="40" t="s">
         <v>935</v>
       </c>
-      <c r="B286" s="61" t="s">
-        <v>325</v>
-      </c>
-      <c r="C286" s="61" t="s">
+      <c r="B286" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="C286" s="41" t="s">
         <v>936</v>
       </c>
-      <c r="D286" s="61" t="s">
+      <c r="D286" s="41" t="s">
         <v>924</v>
       </c>
-      <c r="E286" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="F286" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="G286" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="H286" s="60" t="s">
+      <c r="E286" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F286" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="G286" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="H286" s="40" t="s">
         <v>937</v>
       </c>
-      <c r="I286" s="61"/>
-    </row>
-    <row r="287" spans="1:9" s="62" customFormat="1" ht="51" customHeight="1">
-      <c r="A287" s="60" t="s">
+      <c r="I286" s="41"/>
+    </row>
+    <row r="287" spans="1:9" s="42" customFormat="1" ht="51" customHeight="1">
+      <c r="A287" s="40" t="s">
         <v>938</v>
       </c>
-      <c r="B287" s="61" t="s">
-        <v>325</v>
-      </c>
-      <c r="C287" s="61" t="s">
+      <c r="B287" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="C287" s="41" t="s">
         <v>939</v>
       </c>
-      <c r="D287" s="61" t="s">
+      <c r="D287" s="41" t="s">
         <v>924</v>
       </c>
-      <c r="E287" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="F287" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="G287" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="H287" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="I287" s="61"/>
-    </row>
-    <row r="288" spans="1:9" s="62" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A288" s="60" t="s">
+      <c r="E287" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F287" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="G287" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="H287" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="I287" s="41"/>
+    </row>
+    <row r="288" spans="1:9" s="42" customFormat="1" ht="49.5" customHeight="1">
+      <c r="A288" s="40" t="s">
         <v>940</v>
       </c>
-      <c r="B288" s="61" t="s">
-        <v>325</v>
-      </c>
-      <c r="C288" s="61" t="s">
+      <c r="B288" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="C288" s="41" t="s">
         <v>941</v>
       </c>
-      <c r="D288" s="61" t="s">
+      <c r="D288" s="41" t="s">
         <v>924</v>
       </c>
-      <c r="E288" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="F288" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="G288" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="H288" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="I288" s="61"/>
-    </row>
-    <row r="289" spans="1:9" s="62" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A289" s="60" t="s">
+      <c r="E288" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F288" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="G288" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="H288" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="I288" s="41"/>
+    </row>
+    <row r="289" spans="1:9" s="42" customFormat="1" ht="49.5" customHeight="1">
+      <c r="A289" s="40" t="s">
         <v>942</v>
       </c>
-      <c r="B289" s="61" t="s">
-        <v>325</v>
-      </c>
-      <c r="C289" s="61" t="s">
+      <c r="B289" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="C289" s="41" t="s">
         <v>943</v>
       </c>
-      <c r="D289" s="61" t="s">
+      <c r="D289" s="41" t="s">
         <v>924</v>
       </c>
-      <c r="E289" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="F289" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="G289" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="H289" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="I289" s="61"/>
-    </row>
-    <row r="290" spans="1:9" s="62" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A290" s="60" t="s">
+      <c r="E289" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F289" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="G289" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="H289" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="I289" s="41"/>
+    </row>
+    <row r="290" spans="1:9" s="42" customFormat="1" ht="43.5" customHeight="1">
+      <c r="A290" s="40" t="s">
         <v>944</v>
       </c>
-      <c r="B290" s="61" t="s">
-        <v>325</v>
-      </c>
-      <c r="C290" s="61" t="s">
+      <c r="B290" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="C290" s="41" t="s">
         <v>945</v>
       </c>
-      <c r="D290" s="61" t="s">
+      <c r="D290" s="41" t="s">
         <v>924</v>
       </c>
-      <c r="E290" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="F290" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="G290" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="H290" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="I290" s="61"/>
-    </row>
-    <row r="291" spans="1:9" s="62" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A291" s="60" t="s">
+      <c r="E290" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F290" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="G290" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="H290" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="I290" s="41"/>
+    </row>
+    <row r="291" spans="1:9" s="42" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A291" s="40" t="s">
         <v>946</v>
       </c>
-      <c r="B291" s="61" t="s">
-        <v>325</v>
-      </c>
-      <c r="C291" s="61" t="s">
+      <c r="B291" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="C291" s="41" t="s">
         <v>947</v>
       </c>
-      <c r="D291" s="61" t="s">
+      <c r="D291" s="41" t="s">
         <v>924</v>
       </c>
-      <c r="E291" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="F291" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="G291" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="H291" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="I291" s="61"/>
-    </row>
-    <row r="292" spans="1:9" s="62" customFormat="1" ht="50.25" customHeight="1">
-      <c r="A292" s="60" t="s">
+      <c r="E291" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F291" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="G291" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="H291" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="I291" s="41"/>
+    </row>
+    <row r="292" spans="1:9" s="42" customFormat="1" ht="50.25" customHeight="1">
+      <c r="A292" s="40" t="s">
         <v>948</v>
       </c>
-      <c r="B292" s="61" t="s">
-        <v>325</v>
-      </c>
-      <c r="C292" s="61" t="s">
+      <c r="B292" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="C292" s="41" t="s">
         <v>949</v>
       </c>
-      <c r="D292" s="61" t="s">
+      <c r="D292" s="41" t="s">
         <v>924</v>
       </c>
-      <c r="E292" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="F292" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="G292" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="H292" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="I292" s="61"/>
-    </row>
-    <row r="293" spans="1:9" s="62" customFormat="1" ht="60.75" customHeight="1">
-      <c r="A293" s="60" t="s">
+      <c r="E292" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F292" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="G292" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="H292" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="I292" s="41"/>
+    </row>
+    <row r="293" spans="1:9" s="42" customFormat="1" ht="60.75" customHeight="1">
+      <c r="A293" s="40" t="s">
         <v>950</v>
       </c>
-      <c r="B293" s="61" t="s">
-        <v>325</v>
-      </c>
-      <c r="C293" s="61" t="s">
+      <c r="B293" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="C293" s="41" t="s">
         <v>951</v>
       </c>
-      <c r="D293" s="61" t="s">
+      <c r="D293" s="41" t="s">
         <v>924</v>
       </c>
-      <c r="E293" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="F293" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="G293" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="H293" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="I293" s="61"/>
-    </row>
-    <row r="294" spans="1:9" s="62" customFormat="1" ht="63" customHeight="1">
-      <c r="A294" s="60" t="s">
+      <c r="E293" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F293" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="G293" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="H293" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="I293" s="41"/>
+    </row>
+    <row r="294" spans="1:9" s="42" customFormat="1" ht="63" customHeight="1">
+      <c r="A294" s="40" t="s">
         <v>952</v>
       </c>
-      <c r="B294" s="61" t="s">
-        <v>325</v>
-      </c>
-      <c r="C294" s="61" t="s">
+      <c r="B294" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="C294" s="41" t="s">
         <v>953</v>
       </c>
-      <c r="D294" s="61" t="s">
+      <c r="D294" s="41" t="s">
         <v>924</v>
       </c>
-      <c r="E294" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="F294" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="G294" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="H294" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="I294" s="61"/>
-    </row>
-    <row r="295" spans="1:9" s="35" customFormat="1" ht="45">
+      <c r="E294" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F294" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="G294" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="H294" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="I294" s="41"/>
+    </row>
+    <row r="295" spans="1:9" s="35" customFormat="1" ht="42.75">
       <c r="A295" s="33" t="s">
         <v>601</v>
       </c>
@@ -12702,7 +12708,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="296" spans="1:9" s="35" customFormat="1" ht="45">
+    <row r="296" spans="1:9" s="35" customFormat="1" ht="42.75">
       <c r="A296" s="33" t="s">
         <v>602</v>
       </c>
@@ -12731,7 +12737,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="297" spans="1:9" s="35" customFormat="1" ht="60">
+    <row r="297" spans="1:9" s="35" customFormat="1" ht="57">
       <c r="A297" s="33" t="s">
         <v>603</v>
       </c>
@@ -12760,7 +12766,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="298" spans="1:9" s="35" customFormat="1" ht="60">
+    <row r="298" spans="1:9" s="35" customFormat="1" ht="57">
       <c r="A298" s="33" t="s">
         <v>604</v>
       </c>
@@ -12789,7 +12795,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="299" spans="1:9" s="35" customFormat="1" ht="75">
+    <row r="299" spans="1:9" s="35" customFormat="1" ht="57">
       <c r="A299" s="33" t="s">
         <v>605</v>
       </c>
@@ -12818,7 +12824,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="300" spans="1:9" s="35" customFormat="1" ht="75">
+    <row r="300" spans="1:9" s="35" customFormat="1" ht="57">
       <c r="A300" s="33" t="s">
         <v>606</v>
       </c>
@@ -12847,7 +12853,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="301" spans="1:9" s="35" customFormat="1" ht="75">
+    <row r="301" spans="1:9" s="35" customFormat="1" ht="57">
       <c r="A301" s="33" t="s">
         <v>328</v>
       </c>
@@ -12876,7 +12882,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="302" spans="1:9" s="35" customFormat="1" ht="75">
+    <row r="302" spans="1:9" s="35" customFormat="1" ht="57">
       <c r="A302" s="33" t="s">
         <v>572</v>
       </c>
@@ -12905,7 +12911,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="303" spans="1:9" s="35" customFormat="1" ht="60">
+    <row r="303" spans="1:9" s="35" customFormat="1" ht="42.75">
       <c r="A303" s="33" t="s">
         <v>573</v>
       </c>
@@ -12932,7 +12938,7 @@
       </c>
       <c r="I303" s="34"/>
     </row>
-    <row r="304" spans="1:9" s="35" customFormat="1" ht="45">
+    <row r="304" spans="1:9" s="35" customFormat="1" ht="42.75">
       <c r="A304" s="33" t="s">
         <v>873</v>
       </c>
@@ -12959,7 +12965,7 @@
       </c>
       <c r="I304" s="34"/>
     </row>
-    <row r="305" spans="1:9" s="35" customFormat="1" ht="60">
+    <row r="305" spans="1:9" s="35" customFormat="1" ht="57">
       <c r="A305" s="33" t="s">
         <v>874</v>
       </c>
@@ -12988,7 +12994,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="306" spans="1:9" s="35" customFormat="1" ht="75">
+    <row r="306" spans="1:9" s="35" customFormat="1" ht="57">
       <c r="A306" s="33" t="s">
         <v>244</v>
       </c>
@@ -13017,7 +13023,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="307" spans="1:9" s="35" customFormat="1" ht="45">
+    <row r="307" spans="1:9" s="35" customFormat="1" ht="42.75">
       <c r="A307" s="33" t="s">
         <v>428</v>
       </c>
@@ -13044,7 +13050,7 @@
       </c>
       <c r="I307" s="34"/>
     </row>
-    <row r="308" spans="1:9" s="35" customFormat="1" ht="45">
+    <row r="308" spans="1:9" s="35" customFormat="1" ht="42.75">
       <c r="A308" s="33" t="s">
         <v>429</v>
       </c>
@@ -13071,7 +13077,7 @@
       </c>
       <c r="I308" s="34"/>
     </row>
-    <row r="309" spans="1:9" s="35" customFormat="1" ht="45">
+    <row r="309" spans="1:9" s="35" customFormat="1" ht="42.75">
       <c r="A309" s="33" t="s">
         <v>430</v>
       </c>
@@ -13098,7 +13104,7 @@
       </c>
       <c r="I309" s="34"/>
     </row>
-    <row r="310" spans="1:9" s="35" customFormat="1" ht="45">
+    <row r="310" spans="1:9" s="35" customFormat="1" ht="42.75">
       <c r="A310" s="33" t="s">
         <v>431</v>
       </c>
@@ -13125,7 +13131,7 @@
       </c>
       <c r="I310" s="34"/>
     </row>
-    <row r="311" spans="1:9" s="35" customFormat="1" ht="45">
+    <row r="311" spans="1:9" s="35" customFormat="1" ht="42.75">
       <c r="A311" s="33" t="s">
         <v>432</v>
       </c>
@@ -13152,7 +13158,7 @@
       </c>
       <c r="I311" s="34"/>
     </row>
-    <row r="312" spans="1:9" s="35" customFormat="1" ht="45">
+    <row r="312" spans="1:9" s="35" customFormat="1" ht="42.75">
       <c r="A312" s="33" t="s">
         <v>433</v>
       </c>
@@ -13179,7 +13185,7 @@
       </c>
       <c r="I312" s="34"/>
     </row>
-    <row r="313" spans="1:9" s="35" customFormat="1" ht="45">
+    <row r="313" spans="1:9" s="35" customFormat="1" ht="42.75">
       <c r="A313" s="33" t="s">
         <v>434</v>
       </c>
@@ -13206,7 +13212,7 @@
       </c>
       <c r="I313" s="34"/>
     </row>
-    <row r="314" spans="1:9" s="35" customFormat="1" ht="45">
+    <row r="314" spans="1:9" s="35" customFormat="1" ht="42.75">
       <c r="A314" s="33" t="s">
         <v>435</v>
       </c>
@@ -13233,7 +13239,7 @@
       </c>
       <c r="I314" s="34"/>
     </row>
-    <row r="315" spans="1:9" s="35" customFormat="1" ht="45">
+    <row r="315" spans="1:9" s="35" customFormat="1" ht="42.75">
       <c r="A315" s="33" t="s">
         <v>436</v>
       </c>
@@ -13260,7 +13266,7 @@
       </c>
       <c r="I315" s="34"/>
     </row>
-    <row r="316" spans="1:9" s="35" customFormat="1" ht="45">
+    <row r="316" spans="1:9" s="35" customFormat="1" ht="42.75">
       <c r="A316" s="33" t="s">
         <v>437</v>
       </c>
@@ -13287,7 +13293,7 @@
       </c>
       <c r="I316" s="34"/>
     </row>
-    <row r="317" spans="1:9" s="35" customFormat="1" ht="45">
+    <row r="317" spans="1:9" s="35" customFormat="1" ht="42.75">
       <c r="A317" s="33" t="s">
         <v>438</v>
       </c>
@@ -13314,7 +13320,7 @@
       </c>
       <c r="I317" s="34"/>
     </row>
-    <row r="318" spans="1:9" s="35" customFormat="1" ht="45">
+    <row r="318" spans="1:9" s="35" customFormat="1" ht="42.75">
       <c r="A318" s="33" t="s">
         <v>569</v>
       </c>
@@ -13341,7 +13347,7 @@
       </c>
       <c r="I318" s="34"/>
     </row>
-    <row r="319" spans="1:9" s="35" customFormat="1" ht="45">
+    <row r="319" spans="1:9" s="35" customFormat="1" ht="42.75">
       <c r="A319" s="33" t="s">
         <v>439</v>
       </c>
@@ -13368,7 +13374,7 @@
       </c>
       <c r="I319" s="34"/>
     </row>
-    <row r="320" spans="1:9" s="35" customFormat="1" ht="45">
+    <row r="320" spans="1:9" s="35" customFormat="1" ht="42.75">
       <c r="A320" s="33" t="s">
         <v>440</v>
       </c>
@@ -13395,7 +13401,7 @@
       </c>
       <c r="I320" s="34"/>
     </row>
-    <row r="321" spans="1:9" s="35" customFormat="1" ht="60">
+    <row r="321" spans="1:9" s="35" customFormat="1" ht="42.75">
       <c r="A321" s="33" t="s">
         <v>507</v>
       </c>
@@ -13422,7 +13428,7 @@
       </c>
       <c r="I321" s="34"/>
     </row>
-    <row r="322" spans="1:9" s="35" customFormat="1" ht="60">
+    <row r="322" spans="1:9" s="35" customFormat="1" ht="42.75">
       <c r="A322" s="33" t="s">
         <v>520</v>
       </c>
@@ -13451,7 +13457,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="323" spans="1:9" s="35" customFormat="1" ht="75">
+    <row r="323" spans="1:9" s="35" customFormat="1" ht="71.25">
       <c r="A323" s="33" t="s">
         <v>329</v>
       </c>
@@ -13480,7 +13486,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="324" spans="1:9" s="35" customFormat="1" ht="60">
+    <row r="324" spans="1:9" s="35" customFormat="1" ht="57">
       <c r="A324" s="33" t="s">
         <v>485</v>
       </c>
@@ -13507,7 +13513,7 @@
       </c>
       <c r="I324" s="34"/>
     </row>
-    <row r="325" spans="1:9" s="35" customFormat="1" ht="60">
+    <row r="325" spans="1:9" s="35" customFormat="1" ht="57">
       <c r="A325" s="33" t="s">
         <v>486</v>
       </c>
@@ -13534,7 +13540,7 @@
       </c>
       <c r="I325" s="34"/>
     </row>
-    <row r="326" spans="1:9" s="35" customFormat="1" ht="60">
+    <row r="326" spans="1:9" s="35" customFormat="1" ht="57">
       <c r="A326" s="33" t="s">
         <v>487</v>
       </c>
@@ -13561,7 +13567,7 @@
       </c>
       <c r="I326" s="34"/>
     </row>
-    <row r="327" spans="1:9" s="35" customFormat="1" ht="60">
+    <row r="327" spans="1:9" s="35" customFormat="1" ht="42.75">
       <c r="A327" s="33" t="s">
         <v>488</v>
       </c>
@@ -13588,7 +13594,7 @@
       </c>
       <c r="I327" s="34"/>
     </row>
-    <row r="328" spans="1:9" s="35" customFormat="1" ht="60">
+    <row r="328" spans="1:9" s="35" customFormat="1" ht="42.75">
       <c r="A328" s="33" t="s">
         <v>489</v>
       </c>
@@ -13615,7 +13621,7 @@
       </c>
       <c r="I328" s="34"/>
     </row>
-    <row r="329" spans="1:9" s="35" customFormat="1" ht="60">
+    <row r="329" spans="1:9" s="35" customFormat="1" ht="57">
       <c r="A329" s="33" t="s">
         <v>490</v>
       </c>
@@ -13642,7 +13648,7 @@
       </c>
       <c r="I329" s="34"/>
     </row>
-    <row r="330" spans="1:9" s="35" customFormat="1" ht="60">
+    <row r="330" spans="1:9" s="35" customFormat="1" ht="42.75">
       <c r="A330" s="33" t="s">
         <v>888</v>
       </c>
@@ -13669,7 +13675,7 @@
       </c>
       <c r="I330" s="34"/>
     </row>
-    <row r="331" spans="1:9" s="35" customFormat="1" ht="60">
+    <row r="331" spans="1:9" s="35" customFormat="1" ht="57">
       <c r="A331" s="33" t="s">
         <v>491</v>
       </c>
@@ -13696,7 +13702,7 @@
       </c>
       <c r="I331" s="34"/>
     </row>
-    <row r="332" spans="1:9" s="35" customFormat="1" ht="60">
+    <row r="332" spans="1:9" s="35" customFormat="1" ht="57">
       <c r="A332" s="33" t="s">
         <v>492</v>
       </c>
@@ -13723,7 +13729,7 @@
       </c>
       <c r="I332" s="34"/>
     </row>
-    <row r="333" spans="1:9" s="35" customFormat="1" ht="60">
+    <row r="333" spans="1:9" s="35" customFormat="1" ht="57">
       <c r="A333" s="33" t="s">
         <v>493</v>
       </c>
@@ -13750,7 +13756,7 @@
       </c>
       <c r="I333" s="34"/>
     </row>
-    <row r="334" spans="1:9" s="35" customFormat="1" ht="60">
+    <row r="334" spans="1:9" s="35" customFormat="1" ht="57">
       <c r="A334" s="33" t="s">
         <v>494</v>
       </c>
@@ -13777,7 +13783,7 @@
       </c>
       <c r="I334" s="34"/>
     </row>
-    <row r="335" spans="1:9" s="35" customFormat="1" ht="60">
+    <row r="335" spans="1:9" s="35" customFormat="1" ht="42.75">
       <c r="A335" s="33" t="s">
         <v>495</v>
       </c>
@@ -13804,7 +13810,7 @@
       </c>
       <c r="I335" s="34"/>
     </row>
-    <row r="336" spans="1:9" s="35" customFormat="1" ht="60">
+    <row r="336" spans="1:9" s="35" customFormat="1" ht="57">
       <c r="A336" s="33" t="s">
         <v>570</v>
       </c>
@@ -13831,7 +13837,7 @@
       </c>
       <c r="I336" s="34"/>
     </row>
-    <row r="337" spans="1:9" s="35" customFormat="1" ht="60">
+    <row r="337" spans="1:9" s="35" customFormat="1" ht="57">
       <c r="A337" s="33" t="s">
         <v>496</v>
       </c>
@@ -13858,7 +13864,7 @@
       </c>
       <c r="I337" s="34"/>
     </row>
-    <row r="338" spans="1:9" s="35" customFormat="1" ht="60">
+    <row r="338" spans="1:9" s="35" customFormat="1" ht="57">
       <c r="A338" s="33" t="s">
         <v>497</v>
       </c>
@@ -13885,7 +13891,7 @@
       </c>
       <c r="I338" s="34"/>
     </row>
-    <row r="339" spans="1:9" s="35" customFormat="1" ht="60">
+    <row r="339" spans="1:9" s="35" customFormat="1" ht="57">
       <c r="A339" s="33" t="s">
         <v>498</v>
       </c>
@@ -13914,481 +13920,479 @@
         <v>661</v>
       </c>
     </row>
-    <row r="340" spans="1:9" s="62" customFormat="1" ht="75">
-      <c r="A340" s="60" t="s">
+    <row r="340" spans="1:9" s="42" customFormat="1" ht="71.25">
+      <c r="A340" s="40" t="s">
         <v>954</v>
       </c>
       <c r="B340" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="C340" s="61" t="s">
+      <c r="C340" s="41" t="s">
+        <v>973</v>
+      </c>
+      <c r="D340" s="41" t="s">
+        <v>671</v>
+      </c>
+      <c r="E340" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F340" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="G340" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="H340" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="I340" s="41" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" s="42" customFormat="1" ht="57">
+      <c r="A341" s="40" t="s">
         <v>955</v>
       </c>
-      <c r="D340" s="61" t="s">
-        <v>671</v>
-      </c>
-      <c r="E340" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="F340" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="G340" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="H340" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="I340" s="61" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="341" spans="1:9" s="62" customFormat="1" ht="60">
-      <c r="A341" s="60" t="s">
+      <c r="B341" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C341" s="41" t="s">
+        <v>974</v>
+      </c>
+      <c r="D341" s="41" t="s">
         <v>956</v>
       </c>
-      <c r="B341" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C341" s="61" t="s">
+      <c r="E341" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F341" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="G341" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="H341" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="I341" s="41"/>
+    </row>
+    <row r="342" spans="1:9" s="42" customFormat="1" ht="57">
+      <c r="A342" s="40" t="s">
         <v>957</v>
       </c>
-      <c r="D341" s="61" t="s">
+      <c r="B342" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C342" s="41" t="s">
+        <v>975</v>
+      </c>
+      <c r="D342" s="41" t="s">
+        <v>956</v>
+      </c>
+      <c r="E342" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F342" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="G342" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="H342" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="I342" s="41"/>
+    </row>
+    <row r="343" spans="1:9" s="42" customFormat="1" ht="57">
+      <c r="A343" s="40" t="s">
         <v>958</v>
       </c>
-      <c r="E341" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="F341" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="G341" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="H341" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="I341" s="61"/>
-    </row>
-    <row r="342" spans="1:9" s="62" customFormat="1" ht="60">
-      <c r="A342" s="60" t="s">
+      <c r="B343" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C343" s="41" t="s">
+        <v>976</v>
+      </c>
+      <c r="D343" s="41" t="s">
+        <v>956</v>
+      </c>
+      <c r="E343" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F343" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="G343" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="H343" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="I343" s="41"/>
+    </row>
+    <row r="344" spans="1:9" s="42" customFormat="1" ht="57">
+      <c r="A344" s="40" t="s">
         <v>959</v>
       </c>
-      <c r="B342" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C342" s="61" t="s">
+      <c r="B344" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C344" s="41" t="s">
+        <v>977</v>
+      </c>
+      <c r="D344" s="41" t="s">
+        <v>956</v>
+      </c>
+      <c r="E344" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F344" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="G344" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="H344" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="I344" s="41"/>
+    </row>
+    <row r="345" spans="1:9" s="42" customFormat="1" ht="57">
+      <c r="A345" s="40" t="s">
         <v>960</v>
       </c>
-      <c r="D342" s="61" t="s">
-        <v>958</v>
-      </c>
-      <c r="E342" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="F342" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="G342" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="H342" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="I342" s="61"/>
-    </row>
-    <row r="343" spans="1:9" s="62" customFormat="1" ht="60">
-      <c r="A343" s="60" t="s">
+      <c r="B345" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C345" s="41" t="s">
+        <v>978</v>
+      </c>
+      <c r="D345" s="41" t="s">
+        <v>956</v>
+      </c>
+      <c r="E345" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F345" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="G345" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="H345" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="I345" s="41"/>
+    </row>
+    <row r="346" spans="1:9" s="42" customFormat="1" ht="57">
+      <c r="A346" s="40" t="s">
         <v>961</v>
       </c>
-      <c r="B343" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C343" s="61" t="s">
+      <c r="B346" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C346" s="41" t="s">
+        <v>979</v>
+      </c>
+      <c r="D346" s="41" t="s">
+        <v>956</v>
+      </c>
+      <c r="E346" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F346" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="G346" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="H346" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="I346" s="41"/>
+    </row>
+    <row r="347" spans="1:9" s="42" customFormat="1" ht="57">
+      <c r="A347" s="40" t="s">
         <v>962</v>
       </c>
-      <c r="D343" s="61" t="s">
-        <v>958</v>
-      </c>
-      <c r="E343" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="F343" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="G343" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="H343" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="I343" s="61"/>
-    </row>
-    <row r="344" spans="1:9" s="62" customFormat="1" ht="60">
-      <c r="A344" s="60" t="s">
+      <c r="B347" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C347" s="41" t="s">
+        <v>980</v>
+      </c>
+      <c r="D347" s="41" t="s">
+        <v>956</v>
+      </c>
+      <c r="E347" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F347" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="G347" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="H347" s="40" t="s">
+        <v>937</v>
+      </c>
+      <c r="I347" s="41"/>
+    </row>
+    <row r="348" spans="1:9" s="42" customFormat="1" ht="57">
+      <c r="A348" s="40" t="s">
         <v>963</v>
       </c>
-      <c r="B344" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C344" s="61" t="s">
+      <c r="B348" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C348" s="41" t="s">
+        <v>981</v>
+      </c>
+      <c r="D348" s="41" t="s">
+        <v>956</v>
+      </c>
+      <c r="E348" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F348" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="G348" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="H348" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="I348" s="41"/>
+    </row>
+    <row r="349" spans="1:9" s="42" customFormat="1" ht="57">
+      <c r="A349" s="40" t="s">
         <v>964</v>
       </c>
-      <c r="D344" s="61" t="s">
-        <v>958</v>
-      </c>
-      <c r="E344" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="F344" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="G344" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="H344" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="I344" s="61"/>
-    </row>
-    <row r="345" spans="1:9" s="62" customFormat="1" ht="60">
-      <c r="A345" s="60" t="s">
+      <c r="B349" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="C349" s="41" t="s">
+        <v>982</v>
+      </c>
+      <c r="D349" s="41" t="s">
+        <v>956</v>
+      </c>
+      <c r="E349" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F349" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="G349" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="H349" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="I349" s="41"/>
+    </row>
+    <row r="350" spans="1:9" s="42" customFormat="1" ht="57">
+      <c r="A350" s="40" t="s">
         <v>965</v>
       </c>
-      <c r="B345" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C345" s="61" t="s">
+      <c r="B350" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="C350" s="41" t="s">
+        <v>983</v>
+      </c>
+      <c r="D350" s="41" t="s">
+        <v>956</v>
+      </c>
+      <c r="E350" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F350" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="G350" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="H350" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="I350" s="41"/>
+    </row>
+    <row r="351" spans="1:9" s="42" customFormat="1" ht="57">
+      <c r="A351" s="40" t="s">
         <v>966</v>
       </c>
-      <c r="D345" s="61" t="s">
-        <v>958</v>
-      </c>
-      <c r="E345" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="F345" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="G345" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="H345" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="I345" s="61"/>
-    </row>
-    <row r="346" spans="1:9" s="62" customFormat="1" ht="60">
-      <c r="A346" s="60" t="s">
+      <c r="B351" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="C351" s="41" t="s">
+        <v>984</v>
+      </c>
+      <c r="D351" s="41" t="s">
+        <v>956</v>
+      </c>
+      <c r="E351" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F351" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="G351" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="H351" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="I351" s="41"/>
+    </row>
+    <row r="352" spans="1:9" s="42" customFormat="1" ht="57">
+      <c r="A352" s="40" t="s">
         <v>967</v>
       </c>
-      <c r="B346" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C346" s="61" t="s">
+      <c r="B352" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="C352" s="41" t="s">
+        <v>985</v>
+      </c>
+      <c r="D352" s="41" t="s">
+        <v>956</v>
+      </c>
+      <c r="E352" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F352" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="G352" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="H352" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="I352" s="41"/>
+    </row>
+    <row r="353" spans="1:9" s="42" customFormat="1" ht="57">
+      <c r="A353" s="40" t="s">
         <v>968</v>
       </c>
-      <c r="D346" s="61" t="s">
-        <v>958</v>
-      </c>
-      <c r="E346" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="F346" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="G346" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="H346" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="I346" s="61"/>
-    </row>
-    <row r="347" spans="1:9" s="62" customFormat="1" ht="60">
-      <c r="A347" s="60" t="s">
+      <c r="B353" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="C353" s="41" t="s">
+        <v>986</v>
+      </c>
+      <c r="D353" s="41" t="s">
+        <v>956</v>
+      </c>
+      <c r="E353" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F353" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="G353" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="H353" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="I353" s="41"/>
+    </row>
+    <row r="354" spans="1:9" s="42" customFormat="1" ht="57">
+      <c r="A354" s="40" t="s">
         <v>969</v>
       </c>
-      <c r="B347" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C347" s="61" t="s">
+      <c r="B354" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="C354" s="41" t="s">
+        <v>987</v>
+      </c>
+      <c r="D354" s="41" t="s">
+        <v>956</v>
+      </c>
+      <c r="E354" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F354" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="G354" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="H354" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="I354" s="41"/>
+    </row>
+    <row r="355" spans="1:9" s="42" customFormat="1" ht="57">
+      <c r="A355" s="40" t="s">
         <v>970</v>
       </c>
-      <c r="D347" s="61" t="s">
-        <v>958</v>
-      </c>
-      <c r="E347" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="F347" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="G347" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="H347" s="60" t="s">
-        <v>937</v>
-      </c>
-      <c r="I347" s="61"/>
-    </row>
-    <row r="348" spans="1:9" s="62" customFormat="1" ht="60">
-      <c r="A348" s="60" t="s">
-        <v>971</v>
-      </c>
-      <c r="B348" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C348" s="61" t="s">
-        <v>972</v>
-      </c>
-      <c r="D348" s="61" t="s">
-        <v>958</v>
-      </c>
-      <c r="E348" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="F348" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="G348" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="H348" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="I348" s="61"/>
-    </row>
-    <row r="349" spans="1:9" s="62" customFormat="1" ht="60">
-      <c r="A349" s="60" t="s">
-        <v>973</v>
-      </c>
-      <c r="B349" s="61" t="s">
-        <v>325</v>
-      </c>
-      <c r="C349" s="61" t="s">
-        <v>974</v>
-      </c>
-      <c r="D349" s="61" t="s">
-        <v>958</v>
-      </c>
-      <c r="E349" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="F349" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="G349" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="H349" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="I349" s="61"/>
-    </row>
-    <row r="350" spans="1:9" s="62" customFormat="1" ht="60">
-      <c r="A350" s="60" t="s">
-        <v>975</v>
-      </c>
-      <c r="B350" s="61" t="s">
-        <v>325</v>
-      </c>
-      <c r="C350" s="61" t="s">
-        <v>976</v>
-      </c>
-      <c r="D350" s="61" t="s">
-        <v>958</v>
-      </c>
-      <c r="E350" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="F350" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="G350" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="H350" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="I350" s="61"/>
-    </row>
-    <row r="351" spans="1:9" s="62" customFormat="1" ht="60">
-      <c r="A351" s="60" t="s">
-        <v>977</v>
-      </c>
-      <c r="B351" s="61" t="s">
-        <v>325</v>
-      </c>
-      <c r="C351" s="61" t="s">
-        <v>978</v>
-      </c>
-      <c r="D351" s="61" t="s">
-        <v>958</v>
-      </c>
-      <c r="E351" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="F351" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="G351" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="H351" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="I351" s="61"/>
-    </row>
-    <row r="352" spans="1:9" s="62" customFormat="1" ht="60">
-      <c r="A352" s="60" t="s">
-        <v>979</v>
-      </c>
-      <c r="B352" s="61" t="s">
-        <v>325</v>
-      </c>
-      <c r="C352" s="61" t="s">
-        <v>980</v>
-      </c>
-      <c r="D352" s="61" t="s">
-        <v>958</v>
-      </c>
-      <c r="E352" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="F352" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="G352" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="H352" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="I352" s="61"/>
-    </row>
-    <row r="353" spans="1:9" s="62" customFormat="1" ht="60">
-      <c r="A353" s="60" t="s">
-        <v>981</v>
-      </c>
-      <c r="B353" s="61" t="s">
-        <v>325</v>
-      </c>
-      <c r="C353" s="61" t="s">
-        <v>982</v>
-      </c>
-      <c r="D353" s="61" t="s">
-        <v>958</v>
-      </c>
-      <c r="E353" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="F353" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="G353" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="H353" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="I353" s="61"/>
-    </row>
-    <row r="354" spans="1:9" s="62" customFormat="1" ht="60">
-      <c r="A354" s="60" t="s">
-        <v>983</v>
-      </c>
-      <c r="B354" s="61" t="s">
-        <v>325</v>
-      </c>
-      <c r="C354" s="61" t="s">
-        <v>984</v>
-      </c>
-      <c r="D354" s="61" t="s">
-        <v>958</v>
-      </c>
-      <c r="E354" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="F354" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="G354" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="H354" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="I354" s="61"/>
-    </row>
-    <row r="355" spans="1:9" s="62" customFormat="1" ht="60">
-      <c r="A355" s="60" t="s">
-        <v>985</v>
-      </c>
-      <c r="B355" s="61" t="s">
-        <v>325</v>
-      </c>
-      <c r="C355" s="61" t="s">
-        <v>986</v>
-      </c>
-      <c r="D355" s="61" t="s">
-        <v>958</v>
-      </c>
-      <c r="E355" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="F355" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="G355" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="H355" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="I355" s="61"/>
-    </row>
-    <row r="356" spans="1:9" s="35" customFormat="1" ht="45">
-      <c r="A356" s="33" t="s">
+      <c r="B355" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="C355" s="41" t="s">
+        <v>988</v>
+      </c>
+      <c r="D355" s="41" t="s">
+        <v>956</v>
+      </c>
+      <c r="E355" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F355" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="G355" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="H355" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="I355" s="41"/>
+    </row>
+    <row r="356" spans="1:9" s="35" customFormat="1" ht="57">
+      <c r="A356" s="40" t="s">
+        <v>989</v>
+      </c>
+      <c r="B356" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="C356" s="19" t="s">
+        <v>990</v>
+      </c>
+      <c r="D356" s="41" t="s">
+        <v>956</v>
+      </c>
+      <c r="E356" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F356" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="G356" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="H356" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="I356" s="34"/>
+    </row>
+    <row r="357" spans="1:9" s="35" customFormat="1" ht="42.75">
+      <c r="A357" s="33" t="s">
         <v>330</v>
       </c>
-      <c r="B356" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C356" s="34" t="s">
+      <c r="B357" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C357" s="34" t="s">
         <v>755</v>
       </c>
-      <c r="D356" s="34" t="s">
+      <c r="D357" s="34" t="s">
         <v>588</v>
-      </c>
-      <c r="E356" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F356" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G356" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H356" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I356" s="34" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="357" spans="1:9" s="35" customFormat="1" ht="45">
-      <c r="A357" s="33" t="s">
-        <v>586</v>
-      </c>
-      <c r="B357" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C357" s="34" t="s">
-        <v>754</v>
-      </c>
-      <c r="D357" s="34" t="s">
-        <v>589</v>
       </c>
       <c r="E357" s="33" t="s">
         <v>25</v>
@@ -14406,15 +14410,15 @@
         <v>661</v>
       </c>
     </row>
-    <row r="358" spans="1:9" s="35" customFormat="1" ht="60">
+    <row r="358" spans="1:9" s="35" customFormat="1" ht="42.75">
       <c r="A358" s="33" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B358" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="C358" s="21" t="s">
-        <v>756</v>
+      <c r="C358" s="34" t="s">
+        <v>754</v>
       </c>
       <c r="D358" s="34" t="s">
         <v>589</v>
@@ -14435,15 +14439,15 @@
         <v>661</v>
       </c>
     </row>
-    <row r="359" spans="1:9" s="35" customFormat="1" ht="60">
+    <row r="359" spans="1:9" s="35" customFormat="1" ht="57">
       <c r="A359" s="33" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B359" s="34" t="s">
         <v>325</v>
       </c>
       <c r="C359" s="21" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D359" s="34" t="s">
         <v>589</v>
@@ -14464,15 +14468,15 @@
         <v>661</v>
       </c>
     </row>
-    <row r="360" spans="1:9" s="35" customFormat="1" ht="60">
+    <row r="360" spans="1:9" s="35" customFormat="1" ht="57">
       <c r="A360" s="33" t="s">
-        <v>511</v>
+        <v>585</v>
       </c>
       <c r="B360" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="C360" s="34" t="s">
-        <v>758</v>
+      <c r="C360" s="21" t="s">
+        <v>757</v>
       </c>
       <c r="D360" s="34" t="s">
         <v>589</v>
@@ -14493,18 +14497,18 @@
         <v>661</v>
       </c>
     </row>
-    <row r="361" spans="1:9" s="35" customFormat="1" ht="60">
+    <row r="361" spans="1:9" s="35" customFormat="1" ht="57">
       <c r="A361" s="33" t="s">
-        <v>590</v>
+        <v>511</v>
       </c>
       <c r="B361" s="34" t="s">
         <v>325</v>
       </c>
       <c r="C361" s="34" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D361" s="34" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="E361" s="33" t="s">
         <v>25</v>
@@ -14522,15 +14526,15 @@
         <v>661</v>
       </c>
     </row>
-    <row r="362" spans="1:9" s="35" customFormat="1" ht="75">
+    <row r="362" spans="1:9" s="35" customFormat="1" ht="57">
       <c r="A362" s="33" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B362" s="34" t="s">
         <v>325</v>
       </c>
       <c r="C362" s="34" t="s">
-        <v>917</v>
+        <v>759</v>
       </c>
       <c r="D362" s="34" t="s">
         <v>587</v>
@@ -14551,15 +14555,15 @@
         <v>661</v>
       </c>
     </row>
-    <row r="363" spans="1:9" s="35" customFormat="1" ht="75">
+    <row r="363" spans="1:9" s="35" customFormat="1" ht="57">
       <c r="A363" s="33" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B363" s="34" t="s">
         <v>325</v>
       </c>
       <c r="C363" s="34" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D363" s="34" t="s">
         <v>587</v>
@@ -14580,42 +14584,44 @@
         <v>661</v>
       </c>
     </row>
-    <row r="364" spans="1:9" s="35" customFormat="1" ht="60">
+    <row r="364" spans="1:9" s="35" customFormat="1" ht="57">
       <c r="A364" s="33" t="s">
+        <v>592</v>
+      </c>
+      <c r="B364" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C364" s="34" t="s">
+        <v>918</v>
+      </c>
+      <c r="D364" s="34" t="s">
+        <v>587</v>
+      </c>
+      <c r="E364" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F364" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G364" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H364" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I364" s="34" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9" s="35" customFormat="1" ht="57">
+      <c r="A365" s="33" t="s">
         <v>593</v>
       </c>
-      <c r="B364" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C364" s="34" t="s">
+      <c r="B365" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C365" s="34" t="s">
         <v>903</v>
-      </c>
-      <c r="D364" s="34" t="s">
-        <v>594</v>
-      </c>
-      <c r="E364" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F364" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G364" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H364" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="I364" s="33"/>
-    </row>
-    <row r="365" spans="1:9" s="35" customFormat="1" ht="60">
-      <c r="A365" s="33" t="s">
-        <v>905</v>
-      </c>
-      <c r="B365" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C365" s="19" t="s">
-        <v>906</v>
       </c>
       <c r="D365" s="34" t="s">
         <v>594</v>
@@ -14630,21 +14636,19 @@
         <v>16</v>
       </c>
       <c r="H365" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I365" s="34" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="366" spans="1:9" s="35" customFormat="1" ht="60">
+        <v>19</v>
+      </c>
+      <c r="I365" s="33"/>
+    </row>
+    <row r="366" spans="1:9" s="35" customFormat="1" ht="57">
       <c r="A366" s="33" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B366" s="34" t="s">
         <v>325</v>
       </c>
       <c r="C366" s="19" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="D366" s="34" t="s">
         <v>594</v>
@@ -14659,48 +14663,48 @@
         <v>16</v>
       </c>
       <c r="H366" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I366" s="34" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9" s="35" customFormat="1" ht="42.75">
+      <c r="A367" s="33" t="s">
+        <v>907</v>
+      </c>
+      <c r="B367" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C367" s="19" t="s">
+        <v>908</v>
+      </c>
+      <c r="D367" s="34" t="s">
+        <v>594</v>
+      </c>
+      <c r="E367" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F367" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G367" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H367" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="I366" s="34"/>
-    </row>
-    <row r="367" spans="1:9" s="35" customFormat="1" ht="45">
-      <c r="A367" s="33" t="s">
+      <c r="I367" s="34"/>
+    </row>
+    <row r="368" spans="1:9" s="35" customFormat="1" ht="42.75">
+      <c r="A368" s="33" t="s">
         <v>535</v>
       </c>
-      <c r="B367" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C367" s="19" t="s">
+      <c r="B368" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C368" s="19" t="s">
         <v>760</v>
-      </c>
-      <c r="D367" s="34" t="s">
-        <v>876</v>
-      </c>
-      <c r="E367" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F367" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G367" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H367" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I367" s="34" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="368" spans="1:9" s="35" customFormat="1" ht="75">
-      <c r="A368" s="33" t="s">
-        <v>331</v>
-      </c>
-      <c r="B368" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C368" s="21" t="s">
-        <v>885</v>
       </c>
       <c r="D368" s="34" t="s">
         <v>876</v>
@@ -14721,18 +14725,18 @@
         <v>661</v>
       </c>
     </row>
-    <row r="369" spans="1:9" s="35" customFormat="1" ht="45">
+    <row r="369" spans="1:9" s="35" customFormat="1" ht="71.25">
       <c r="A369" s="33" t="s">
-        <v>879</v>
+        <v>331</v>
       </c>
       <c r="B369" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="C369" s="19" t="s">
-        <v>883</v>
+      <c r="C369" s="21" t="s">
+        <v>885</v>
       </c>
       <c r="D369" s="34" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E369" s="33" t="s">
         <v>25</v>
@@ -14750,15 +14754,15 @@
         <v>661</v>
       </c>
     </row>
-    <row r="370" spans="1:9" s="35" customFormat="1" ht="75">
+    <row r="370" spans="1:9" s="35" customFormat="1" ht="42.75">
       <c r="A370" s="33" t="s">
-        <v>891</v>
+        <v>879</v>
       </c>
       <c r="B370" s="34" t="s">
         <v>325</v>
       </c>
       <c r="C370" s="19" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D370" s="34" t="s">
         <v>877</v>
@@ -14773,48 +14777,48 @@
         <v>16</v>
       </c>
       <c r="H370" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I370" s="34" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9" s="35" customFormat="1" ht="71.25">
+      <c r="A371" s="33" t="s">
+        <v>891</v>
+      </c>
+      <c r="B371" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C371" s="19" t="s">
+        <v>884</v>
+      </c>
+      <c r="D371" s="34" t="s">
+        <v>877</v>
+      </c>
+      <c r="E371" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F371" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G371" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H371" s="33" t="s">
         <v>574</v>
       </c>
-      <c r="I370" s="34"/>
-    </row>
-    <row r="371" spans="1:9" s="35" customFormat="1" ht="45">
-      <c r="A371" s="33" t="s">
+      <c r="I371" s="34"/>
+    </row>
+    <row r="372" spans="1:9" s="35" customFormat="1" ht="42.75">
+      <c r="A372" s="33" t="s">
         <v>880</v>
       </c>
-      <c r="B371" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C371" s="19" t="s">
+      <c r="B372" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C372" s="19" t="s">
         <v>886</v>
-      </c>
-      <c r="D371" s="34" t="s">
-        <v>878</v>
-      </c>
-      <c r="E371" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F371" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G371" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H371" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I371" s="34" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="372" spans="1:9" s="35" customFormat="1" ht="75">
-      <c r="A372" s="33" t="s">
-        <v>892</v>
-      </c>
-      <c r="B372" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C372" s="19" t="s">
-        <v>887</v>
       </c>
       <c r="D372" s="34" t="s">
         <v>878</v>
@@ -14829,75 +14833,77 @@
         <v>16</v>
       </c>
       <c r="H372" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I372" s="34" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9" s="35" customFormat="1" ht="57">
+      <c r="A373" s="33" t="s">
+        <v>892</v>
+      </c>
+      <c r="B373" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C373" s="19" t="s">
+        <v>887</v>
+      </c>
+      <c r="D373" s="34" t="s">
+        <v>878</v>
+      </c>
+      <c r="E373" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F373" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G373" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H373" s="33" t="s">
         <v>574</v>
       </c>
-      <c r="I372" s="34"/>
-    </row>
-    <row r="373" spans="1:9" s="35" customFormat="1" ht="60">
-      <c r="A373" s="33" t="s">
+      <c r="I373" s="34"/>
+    </row>
+    <row r="374" spans="1:9" s="35" customFormat="1" ht="42.75">
+      <c r="A374" s="33" t="s">
         <v>612</v>
       </c>
-      <c r="B373" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C373" s="19" t="s">
+      <c r="B374" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C374" s="19" t="s">
         <v>831</v>
       </c>
-      <c r="D373" s="34" t="s">
+      <c r="D374" s="34" t="s">
         <v>615</v>
       </c>
-      <c r="E373" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F373" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G373" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H373" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I373" s="34" t="s">
+      <c r="E374" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F374" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G374" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H374" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I374" s="34" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="374" spans="1:9" s="35" customFormat="1" ht="45">
-      <c r="A374" s="33" t="s">
+    <row r="375" spans="1:9" s="35" customFormat="1" ht="42.75">
+      <c r="A375" s="33" t="s">
         <v>613</v>
       </c>
-      <c r="B374" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C374" s="19" t="s">
+      <c r="B375" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C375" s="19" t="s">
         <v>832</v>
-      </c>
-      <c r="D374" s="34" t="s">
-        <v>616</v>
-      </c>
-      <c r="E374" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F374" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G374" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H374" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I374" s="34"/>
-    </row>
-    <row r="375" spans="1:9" s="35" customFormat="1" ht="45">
-      <c r="A375" s="33" t="s">
-        <v>614</v>
-      </c>
-      <c r="B375" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C375" s="19" t="s">
-        <v>833</v>
       </c>
       <c r="D375" s="34" t="s">
         <v>616</v>
@@ -14916,71 +14922,71 @@
       </c>
       <c r="I375" s="34"/>
     </row>
-    <row r="376" spans="1:9" s="35" customFormat="1" ht="90">
+    <row r="376" spans="1:9" s="35" customFormat="1" ht="42.75">
       <c r="A376" s="33" t="s">
+        <v>614</v>
+      </c>
+      <c r="B376" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C376" s="19" t="s">
+        <v>833</v>
+      </c>
+      <c r="D376" s="34" t="s">
+        <v>616</v>
+      </c>
+      <c r="E376" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F376" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G376" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H376" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I376" s="34"/>
+    </row>
+    <row r="377" spans="1:9" s="35" customFormat="1" ht="71.25">
+      <c r="A377" s="33" t="s">
         <v>617</v>
       </c>
-      <c r="B376" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C376" s="21" t="s">
+      <c r="B377" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C377" s="21" t="s">
         <v>834</v>
       </c>
-      <c r="D376" s="34" t="s">
+      <c r="D377" s="34" t="s">
         <v>615</v>
       </c>
-      <c r="E376" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F376" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G376" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H376" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I376" s="34" t="s">
+      <c r="E377" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F377" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G377" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H377" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I377" s="34" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="377" spans="1:9" s="35" customFormat="1" ht="75">
-      <c r="A377" s="33" t="s">
+    <row r="378" spans="1:9" s="35" customFormat="1" ht="71.25">
+      <c r="A378" s="33" t="s">
         <v>618</v>
       </c>
-      <c r="B377" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C377" s="21" t="s">
+      <c r="B378" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C378" s="21" t="s">
         <v>835</v>
-      </c>
-      <c r="D377" s="34" t="s">
-        <v>620</v>
-      </c>
-      <c r="E377" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F377" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G377" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H377" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I377" s="34"/>
-    </row>
-    <row r="378" spans="1:9" s="35" customFormat="1" ht="75">
-      <c r="A378" s="33" t="s">
-        <v>619</v>
-      </c>
-      <c r="B378" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C378" s="21" t="s">
-        <v>836</v>
       </c>
       <c r="D378" s="34" t="s">
         <v>620</v>
@@ -14999,44 +15005,42 @@
       </c>
       <c r="I378" s="34"/>
     </row>
-    <row r="379" spans="1:9" s="35" customFormat="1" ht="45">
+    <row r="379" spans="1:9" s="35" customFormat="1" ht="71.25">
       <c r="A379" s="33" t="s">
+        <v>619</v>
+      </c>
+      <c r="B379" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C379" s="21" t="s">
+        <v>836</v>
+      </c>
+      <c r="D379" s="34" t="s">
+        <v>620</v>
+      </c>
+      <c r="E379" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F379" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G379" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H379" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I379" s="34"/>
+    </row>
+    <row r="380" spans="1:9" s="35" customFormat="1" ht="42.75">
+      <c r="A380" s="33" t="s">
         <v>319</v>
       </c>
-      <c r="B379" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C379" s="19" t="s">
+      <c r="B380" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C380" s="19" t="s">
         <v>761</v>
-      </c>
-      <c r="D379" s="34" t="s">
-        <v>608</v>
-      </c>
-      <c r="E379" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F379" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G379" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H379" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I379" s="34" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="380" spans="1:9" s="35" customFormat="1" ht="45">
-      <c r="A380" s="33" t="s">
-        <v>609</v>
-      </c>
-      <c r="B380" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C380" s="19" t="s">
-        <v>762</v>
       </c>
       <c r="D380" s="34" t="s">
         <v>608</v>
@@ -15057,18 +15061,18 @@
         <v>661</v>
       </c>
     </row>
-    <row r="381" spans="1:9" s="35" customFormat="1" ht="75">
+    <row r="381" spans="1:9" s="35" customFormat="1" ht="42.75">
       <c r="A381" s="33" t="s">
-        <v>321</v>
+        <v>609</v>
       </c>
       <c r="B381" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="C381" s="21" t="s">
-        <v>777</v>
+      <c r="C381" s="19" t="s">
+        <v>762</v>
       </c>
       <c r="D381" s="34" t="s">
-        <v>624</v>
+        <v>608</v>
       </c>
       <c r="E381" s="33" t="s">
         <v>25</v>
@@ -15086,42 +15090,44 @@
         <v>661</v>
       </c>
     </row>
-    <row r="382" spans="1:9" s="35" customFormat="1" ht="45">
+    <row r="382" spans="1:9" s="35" customFormat="1" ht="57">
       <c r="A382" s="33" t="s">
+        <v>321</v>
+      </c>
+      <c r="B382" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C382" s="21" t="s">
+        <v>777</v>
+      </c>
+      <c r="D382" s="34" t="s">
+        <v>624</v>
+      </c>
+      <c r="E382" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F382" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G382" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H382" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I382" s="34" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9" s="35" customFormat="1" ht="42.75">
+      <c r="A383" s="33" t="s">
         <v>322</v>
       </c>
-      <c r="B382" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C382" s="21" t="s">
+      <c r="B383" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C383" s="21" t="s">
         <v>763</v>
-      </c>
-      <c r="D382" s="34" t="s">
-        <v>539</v>
-      </c>
-      <c r="E382" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F382" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G382" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H382" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I382" s="34"/>
-    </row>
-    <row r="383" spans="1:9" s="35" customFormat="1" ht="45">
-      <c r="A383" s="33" t="s">
-        <v>443</v>
-      </c>
-      <c r="B383" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C383" s="21" t="s">
-        <v>764</v>
       </c>
       <c r="D383" s="34" t="s">
         <v>539</v>
@@ -15140,15 +15146,15 @@
       </c>
       <c r="I383" s="34"/>
     </row>
-    <row r="384" spans="1:9" s="35" customFormat="1" ht="45">
+    <row r="384" spans="1:9" s="35" customFormat="1" ht="42.75">
       <c r="A384" s="33" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B384" s="34" t="s">
         <v>325</v>
       </c>
       <c r="C384" s="21" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D384" s="34" t="s">
         <v>539</v>
@@ -15167,15 +15173,15 @@
       </c>
       <c r="I384" s="34"/>
     </row>
-    <row r="385" spans="1:9" s="35" customFormat="1" ht="45">
+    <row r="385" spans="1:9" s="35" customFormat="1" ht="42.75">
       <c r="A385" s="33" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B385" s="34" t="s">
         <v>325</v>
       </c>
       <c r="C385" s="21" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D385" s="34" t="s">
         <v>539</v>
@@ -15194,15 +15200,15 @@
       </c>
       <c r="I385" s="34"/>
     </row>
-    <row r="386" spans="1:9" s="35" customFormat="1" ht="60">
+    <row r="386" spans="1:9" s="35" customFormat="1" ht="42.75">
       <c r="A386" s="33" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B386" s="34" t="s">
         <v>325</v>
       </c>
       <c r="C386" s="21" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D386" s="34" t="s">
         <v>539</v>
@@ -15221,15 +15227,15 @@
       </c>
       <c r="I386" s="34"/>
     </row>
-    <row r="387" spans="1:9" s="35" customFormat="1" ht="60">
+    <row r="387" spans="1:9" s="35" customFormat="1" ht="42.75">
       <c r="A387" s="33" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B387" s="34" t="s">
         <v>325</v>
       </c>
       <c r="C387" s="21" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="D387" s="34" t="s">
         <v>539</v>
@@ -15248,15 +15254,15 @@
       </c>
       <c r="I387" s="34"/>
     </row>
-    <row r="388" spans="1:9" s="35" customFormat="1" ht="60">
+    <row r="388" spans="1:9" s="35" customFormat="1" ht="42.75">
       <c r="A388" s="33" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B388" s="34" t="s">
         <v>325</v>
       </c>
       <c r="C388" s="21" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D388" s="34" t="s">
         <v>539</v>
@@ -15275,15 +15281,15 @@
       </c>
       <c r="I388" s="34"/>
     </row>
-    <row r="389" spans="1:9" s="35" customFormat="1" ht="45">
+    <row r="389" spans="1:9" s="35" customFormat="1" ht="42.75">
       <c r="A389" s="33" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B389" s="34" t="s">
         <v>325</v>
       </c>
       <c r="C389" s="21" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="D389" s="34" t="s">
         <v>539</v>
@@ -15302,15 +15308,15 @@
       </c>
       <c r="I389" s="34"/>
     </row>
-    <row r="390" spans="1:9" s="35" customFormat="1" ht="60">
+    <row r="390" spans="1:9" s="35" customFormat="1" ht="42.75">
       <c r="A390" s="33" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B390" s="34" t="s">
         <v>325</v>
       </c>
       <c r="C390" s="21" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D390" s="34" t="s">
         <v>539</v>
@@ -15329,15 +15335,15 @@
       </c>
       <c r="I390" s="34"/>
     </row>
-    <row r="391" spans="1:9" s="35" customFormat="1" ht="45">
+    <row r="391" spans="1:9" s="35" customFormat="1" ht="42.75">
       <c r="A391" s="33" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B391" s="34" t="s">
         <v>325</v>
       </c>
       <c r="C391" s="21" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D391" s="34" t="s">
         <v>539</v>
@@ -15356,15 +15362,15 @@
       </c>
       <c r="I391" s="34"/>
     </row>
-    <row r="392" spans="1:9" s="35" customFormat="1" ht="60">
-      <c r="A392" s="36" t="s">
-        <v>625</v>
+    <row r="392" spans="1:9" s="35" customFormat="1" ht="42.75">
+      <c r="A392" s="33" t="s">
+        <v>451</v>
       </c>
       <c r="B392" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="C392" s="37" t="s">
-        <v>771</v>
+      <c r="C392" s="21" t="s">
+        <v>770</v>
       </c>
       <c r="D392" s="34" t="s">
         <v>539</v>
@@ -15383,15 +15389,15 @@
       </c>
       <c r="I392" s="34"/>
     </row>
-    <row r="393" spans="1:9" s="35" customFormat="1" ht="45">
+    <row r="393" spans="1:9" s="35" customFormat="1" ht="42.75">
       <c r="A393" s="36" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B393" s="34" t="s">
         <v>325</v>
       </c>
       <c r="C393" s="37" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="D393" s="34" t="s">
         <v>539</v>
@@ -15410,15 +15416,15 @@
       </c>
       <c r="I393" s="34"/>
     </row>
-    <row r="394" spans="1:9" s="35" customFormat="1" ht="60">
-      <c r="A394" s="33" t="s">
-        <v>452</v>
+    <row r="394" spans="1:9" s="35" customFormat="1" ht="42.75">
+      <c r="A394" s="36" t="s">
+        <v>626</v>
       </c>
       <c r="B394" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="C394" s="21" t="s">
-        <v>775</v>
+      <c r="C394" s="37" t="s">
+        <v>774</v>
       </c>
       <c r="D394" s="34" t="s">
         <v>539</v>
@@ -15437,15 +15443,15 @@
       </c>
       <c r="I394" s="34"/>
     </row>
-    <row r="395" spans="1:9" s="35" customFormat="1" ht="60">
+    <row r="395" spans="1:9" s="35" customFormat="1" ht="57">
       <c r="A395" s="33" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B395" s="34" t="s">
         <v>325</v>
       </c>
       <c r="C395" s="21" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D395" s="34" t="s">
         <v>539</v>
@@ -15464,71 +15470,71 @@
       </c>
       <c r="I395" s="34"/>
     </row>
-    <row r="396" spans="1:9" s="35" customFormat="1" ht="75">
+    <row r="396" spans="1:9" s="35" customFormat="1" ht="42.75">
       <c r="A396" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="B396" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C396" s="21" t="s">
+        <v>776</v>
+      </c>
+      <c r="D396" s="34" t="s">
+        <v>539</v>
+      </c>
+      <c r="E396" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F396" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G396" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H396" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I396" s="34"/>
+    </row>
+    <row r="397" spans="1:9" s="35" customFormat="1" ht="57">
+      <c r="A397" s="33" t="s">
         <v>521</v>
       </c>
-      <c r="B396" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C396" s="19" t="s">
+      <c r="B397" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C397" s="19" t="s">
         <v>791</v>
       </c>
-      <c r="D396" s="34" t="s">
+      <c r="D397" s="34" t="s">
         <v>624</v>
       </c>
-      <c r="E396" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F396" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G396" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H396" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I396" s="34" t="s">
+      <c r="E397" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F397" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G397" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H397" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I397" s="34" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="397" spans="1:9" s="35" customFormat="1" ht="45">
-      <c r="A397" s="33" t="s">
+    <row r="398" spans="1:9" s="35" customFormat="1" ht="42.75">
+      <c r="A398" s="33" t="s">
         <v>323</v>
       </c>
-      <c r="B397" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C397" s="21" t="s">
+      <c r="B398" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C398" s="21" t="s">
         <v>778</v>
-      </c>
-      <c r="D397" s="34" t="s">
-        <v>540</v>
-      </c>
-      <c r="E397" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F397" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G397" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H397" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I397" s="34"/>
-    </row>
-    <row r="398" spans="1:9" s="35" customFormat="1" ht="45">
-      <c r="A398" s="33" t="s">
-        <v>454</v>
-      </c>
-      <c r="B398" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C398" s="21" t="s">
-        <v>779</v>
       </c>
       <c r="D398" s="34" t="s">
         <v>540</v>
@@ -15547,15 +15553,15 @@
       </c>
       <c r="I398" s="34"/>
     </row>
-    <row r="399" spans="1:9" s="35" customFormat="1" ht="45">
+    <row r="399" spans="1:9" s="35" customFormat="1" ht="42.75">
       <c r="A399" s="33" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B399" s="34" t="s">
         <v>325</v>
       </c>
       <c r="C399" s="21" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D399" s="34" t="s">
         <v>540</v>
@@ -15574,15 +15580,15 @@
       </c>
       <c r="I399" s="34"/>
     </row>
-    <row r="400" spans="1:9" s="35" customFormat="1" ht="45">
+    <row r="400" spans="1:9" s="35" customFormat="1" ht="42.75">
       <c r="A400" s="33" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B400" s="34" t="s">
         <v>325</v>
       </c>
       <c r="C400" s="21" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D400" s="34" t="s">
         <v>540</v>
@@ -15601,15 +15607,15 @@
       </c>
       <c r="I400" s="34"/>
     </row>
-    <row r="401" spans="1:9" s="35" customFormat="1" ht="45">
+    <row r="401" spans="1:9" s="35" customFormat="1" ht="42.75">
       <c r="A401" s="33" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B401" s="34" t="s">
         <v>325</v>
       </c>
       <c r="C401" s="21" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D401" s="34" t="s">
         <v>540</v>
@@ -15628,15 +15634,15 @@
       </c>
       <c r="I401" s="34"/>
     </row>
-    <row r="402" spans="1:9" s="35" customFormat="1" ht="45">
+    <row r="402" spans="1:9" s="35" customFormat="1" ht="42.75">
       <c r="A402" s="33" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B402" s="34" t="s">
         <v>325</v>
       </c>
       <c r="C402" s="21" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D402" s="34" t="s">
         <v>540</v>
@@ -15655,15 +15661,15 @@
       </c>
       <c r="I402" s="34"/>
     </row>
-    <row r="403" spans="1:9" s="35" customFormat="1" ht="45">
+    <row r="403" spans="1:9" s="35" customFormat="1" ht="42.75">
       <c r="A403" s="33" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B403" s="34" t="s">
         <v>325</v>
       </c>
       <c r="C403" s="21" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D403" s="34" t="s">
         <v>540</v>
@@ -15682,15 +15688,15 @@
       </c>
       <c r="I403" s="34"/>
     </row>
-    <row r="404" spans="1:9" s="35" customFormat="1" ht="45">
+    <row r="404" spans="1:9" s="35" customFormat="1" ht="42.75">
       <c r="A404" s="33" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B404" s="34" t="s">
         <v>325</v>
       </c>
       <c r="C404" s="21" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D404" s="34" t="s">
         <v>540</v>
@@ -15709,15 +15715,15 @@
       </c>
       <c r="I404" s="34"/>
     </row>
-    <row r="405" spans="1:9" s="35" customFormat="1" ht="45">
+    <row r="405" spans="1:9" s="35" customFormat="1" ht="42.75">
       <c r="A405" s="33" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B405" s="34" t="s">
         <v>325</v>
       </c>
       <c r="C405" s="21" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D405" s="34" t="s">
         <v>540</v>
@@ -15736,15 +15742,15 @@
       </c>
       <c r="I405" s="34"/>
     </row>
-    <row r="406" spans="1:9" s="35" customFormat="1" ht="45">
+    <row r="406" spans="1:9" s="35" customFormat="1" ht="42.75">
       <c r="A406" s="33" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B406" s="34" t="s">
         <v>325</v>
       </c>
       <c r="C406" s="21" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D406" s="34" t="s">
         <v>540</v>
@@ -15763,15 +15769,15 @@
       </c>
       <c r="I406" s="34"/>
     </row>
-    <row r="407" spans="1:9" s="35" customFormat="1" ht="60">
+    <row r="407" spans="1:9" s="35" customFormat="1" ht="42.75">
       <c r="A407" s="33" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B407" s="34" t="s">
         <v>325</v>
       </c>
       <c r="C407" s="21" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D407" s="34" t="s">
         <v>540</v>
@@ -15790,15 +15796,15 @@
       </c>
       <c r="I407" s="34"/>
     </row>
-    <row r="408" spans="1:9" s="35" customFormat="1" ht="60">
+    <row r="408" spans="1:9" s="35" customFormat="1" ht="57">
       <c r="A408" s="33" t="s">
-        <v>512</v>
+        <v>463</v>
       </c>
       <c r="B408" s="34" t="s">
         <v>325</v>
       </c>
       <c r="C408" s="21" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D408" s="34" t="s">
         <v>540</v>
@@ -15817,15 +15823,15 @@
       </c>
       <c r="I408" s="34"/>
     </row>
-    <row r="409" spans="1:9" s="35" customFormat="1" ht="45">
+    <row r="409" spans="1:9" s="35" customFormat="1" ht="42.75">
       <c r="A409" s="33" t="s">
-        <v>627</v>
+        <v>512</v>
       </c>
       <c r="B409" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="C409" s="19" t="s">
-        <v>790</v>
+      <c r="C409" s="21" t="s">
+        <v>789</v>
       </c>
       <c r="D409" s="34" t="s">
         <v>540</v>
@@ -15844,42 +15850,42 @@
       </c>
       <c r="I409" s="34"/>
     </row>
-    <row r="410" spans="1:9" s="35" customFormat="1" ht="60">
+    <row r="410" spans="1:9" s="35" customFormat="1" ht="42.75">
       <c r="A410" s="33" t="s">
+        <v>627</v>
+      </c>
+      <c r="B410" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C410" s="19" t="s">
+        <v>790</v>
+      </c>
+      <c r="D410" s="34" t="s">
+        <v>540</v>
+      </c>
+      <c r="E410" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F410" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G410" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H410" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I410" s="34"/>
+    </row>
+    <row r="411" spans="1:9" s="35" customFormat="1" ht="57">
+      <c r="A411" s="33" t="s">
         <v>332</v>
       </c>
-      <c r="B410" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C410" s="19" t="s">
+      <c r="B411" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C411" s="19" t="s">
         <v>904</v>
-      </c>
-      <c r="D410" s="34" t="s">
-        <v>657</v>
-      </c>
-      <c r="E410" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F410" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G410" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H410" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="I410" s="34"/>
-    </row>
-    <row r="411" spans="1:9" s="35" customFormat="1" ht="60">
-      <c r="A411" s="33" t="s">
-        <v>333</v>
-      </c>
-      <c r="B411" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C411" s="19" t="s">
-        <v>909</v>
       </c>
       <c r="D411" s="34" t="s">
         <v>657</v>
@@ -15898,15 +15904,15 @@
       </c>
       <c r="I411" s="34"/>
     </row>
-    <row r="412" spans="1:9" s="35" customFormat="1" ht="75">
+    <row r="412" spans="1:9" s="35" customFormat="1" ht="57">
       <c r="A412" s="33" t="s">
-        <v>628</v>
+        <v>333</v>
       </c>
       <c r="B412" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="C412" s="37" t="s">
-        <v>987</v>
+      <c r="C412" s="19" t="s">
+        <v>909</v>
       </c>
       <c r="D412" s="34" t="s">
         <v>657</v>
@@ -15921,21 +15927,19 @@
         <v>16</v>
       </c>
       <c r="H412" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I412" s="34" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="413" spans="1:9" s="35" customFormat="1" ht="75">
+        <v>19</v>
+      </c>
+      <c r="I412" s="34"/>
+    </row>
+    <row r="413" spans="1:9" s="35" customFormat="1" ht="57">
       <c r="A413" s="33" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B413" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="C413" s="38" t="s">
-        <v>910</v>
+      <c r="C413" s="37" t="s">
+        <v>971</v>
       </c>
       <c r="D413" s="34" t="s">
         <v>657</v>
@@ -15956,15 +15960,15 @@
         <v>661</v>
       </c>
     </row>
-    <row r="414" spans="1:9" s="35" customFormat="1" ht="60">
+    <row r="414" spans="1:9" s="35" customFormat="1" ht="57">
       <c r="A414" s="33" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B414" s="34" t="s">
         <v>325</v>
       </c>
       <c r="C414" s="38" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D414" s="34" t="s">
         <v>657</v>
@@ -15979,75 +15983,77 @@
         <v>16</v>
       </c>
       <c r="H414" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I414" s="34" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="415" spans="1:9" s="35" customFormat="1" ht="57">
+      <c r="A415" s="33" t="s">
+        <v>630</v>
+      </c>
+      <c r="B415" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C415" s="38" t="s">
+        <v>911</v>
+      </c>
+      <c r="D415" s="34" t="s">
+        <v>657</v>
+      </c>
+      <c r="E415" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F415" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G415" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H415" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="I414" s="34"/>
-    </row>
-    <row r="415" spans="1:9" s="35" customFormat="1" ht="120">
-      <c r="A415" s="33" t="s">
+      <c r="I415" s="34"/>
+    </row>
+    <row r="416" spans="1:9" s="35" customFormat="1" ht="99.75">
+      <c r="A416" s="33" t="s">
         <v>500</v>
       </c>
-      <c r="B415" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C415" s="19" t="s">
+      <c r="B416" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C416" s="19" t="s">
         <v>792</v>
       </c>
-      <c r="D415" s="34" t="s">
+      <c r="D416" s="34" t="s">
         <v>624</v>
       </c>
-      <c r="E415" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F415" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G415" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H415" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I415" s="34" t="s">
+      <c r="E416" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F416" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G416" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H416" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I416" s="34" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="416" spans="1:9" s="35" customFormat="1" ht="90">
-      <c r="A416" s="33" t="s">
+    <row r="417" spans="1:9" s="35" customFormat="1" ht="71.25">
+      <c r="A417" s="33" t="s">
         <v>334</v>
       </c>
-      <c r="B416" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C416" s="19" t="s">
+      <c r="B417" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C417" s="19" t="s">
         <v>793</v>
-      </c>
-      <c r="D416" s="34" t="s">
-        <v>658</v>
-      </c>
-      <c r="E416" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F416" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G416" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H416" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I416" s="34"/>
-    </row>
-    <row r="417" spans="1:9" s="35" customFormat="1" ht="90">
-      <c r="A417" s="33" t="s">
-        <v>631</v>
-      </c>
-      <c r="B417" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C417" s="19" t="s">
-        <v>794</v>
       </c>
       <c r="D417" s="34" t="s">
         <v>658</v>
@@ -16066,15 +16072,15 @@
       </c>
       <c r="I417" s="34"/>
     </row>
-    <row r="418" spans="1:9" s="35" customFormat="1" ht="90">
+    <row r="418" spans="1:9" s="35" customFormat="1" ht="71.25">
       <c r="A418" s="33" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B418" s="34" t="s">
         <v>325</v>
       </c>
       <c r="C418" s="19" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D418" s="34" t="s">
         <v>658</v>
@@ -16093,15 +16099,15 @@
       </c>
       <c r="I418" s="34"/>
     </row>
-    <row r="419" spans="1:9" s="35" customFormat="1" ht="90">
+    <row r="419" spans="1:9" s="35" customFormat="1" ht="71.25">
       <c r="A419" s="33" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B419" s="34" t="s">
         <v>325</v>
       </c>
       <c r="C419" s="19" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D419" s="34" t="s">
         <v>658</v>
@@ -16120,15 +16126,15 @@
       </c>
       <c r="I419" s="34"/>
     </row>
-    <row r="420" spans="1:9" s="35" customFormat="1" ht="90">
+    <row r="420" spans="1:9" s="35" customFormat="1" ht="71.25">
       <c r="A420" s="33" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B420" s="34" t="s">
         <v>325</v>
       </c>
       <c r="C420" s="19" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D420" s="34" t="s">
         <v>658</v>
@@ -16147,15 +16153,15 @@
       </c>
       <c r="I420" s="34"/>
     </row>
-    <row r="421" spans="1:9" s="35" customFormat="1" ht="90">
+    <row r="421" spans="1:9" s="35" customFormat="1" ht="71.25">
       <c r="A421" s="33" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B421" s="34" t="s">
         <v>325</v>
       </c>
       <c r="C421" s="19" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D421" s="34" t="s">
         <v>658</v>
@@ -16174,15 +16180,15 @@
       </c>
       <c r="I421" s="34"/>
     </row>
-    <row r="422" spans="1:9" s="35" customFormat="1" ht="90">
+    <row r="422" spans="1:9" s="35" customFormat="1" ht="71.25">
       <c r="A422" s="33" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B422" s="34" t="s">
         <v>325</v>
       </c>
       <c r="C422" s="19" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D422" s="34" t="s">
         <v>658</v>
@@ -16201,15 +16207,15 @@
       </c>
       <c r="I422" s="34"/>
     </row>
-    <row r="423" spans="1:9" s="35" customFormat="1" ht="90">
+    <row r="423" spans="1:9" s="35" customFormat="1" ht="71.25">
       <c r="A423" s="33" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B423" s="34" t="s">
         <v>325</v>
       </c>
       <c r="C423" s="19" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D423" s="34" t="s">
         <v>658</v>
@@ -16228,15 +16234,15 @@
       </c>
       <c r="I423" s="34"/>
     </row>
-    <row r="424" spans="1:9" s="35" customFormat="1" ht="90">
+    <row r="424" spans="1:9" s="35" customFormat="1" ht="71.25">
       <c r="A424" s="33" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B424" s="34" t="s">
         <v>325</v>
       </c>
       <c r="C424" s="19" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D424" s="34" t="s">
         <v>658</v>
@@ -16255,15 +16261,15 @@
       </c>
       <c r="I424" s="34"/>
     </row>
-    <row r="425" spans="1:9" s="35" customFormat="1" ht="90">
+    <row r="425" spans="1:9" s="35" customFormat="1" ht="71.25">
       <c r="A425" s="33" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B425" s="34" t="s">
         <v>325</v>
       </c>
       <c r="C425" s="19" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D425" s="34" t="s">
         <v>658</v>
@@ -16282,15 +16288,15 @@
       </c>
       <c r="I425" s="34"/>
     </row>
-    <row r="426" spans="1:9" s="35" customFormat="1" ht="90">
+    <row r="426" spans="1:9" s="35" customFormat="1" ht="71.25">
       <c r="A426" s="33" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B426" s="34" t="s">
         <v>325</v>
       </c>
       <c r="C426" s="19" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D426" s="34" t="s">
         <v>658</v>
@@ -16309,15 +16315,15 @@
       </c>
       <c r="I426" s="34"/>
     </row>
-    <row r="427" spans="1:9" s="35" customFormat="1" ht="90">
+    <row r="427" spans="1:9" s="35" customFormat="1" ht="71.25">
       <c r="A427" s="33" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B427" s="34" t="s">
         <v>325</v>
       </c>
       <c r="C427" s="19" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D427" s="34" t="s">
         <v>658</v>
@@ -16336,15 +16342,15 @@
       </c>
       <c r="I427" s="34"/>
     </row>
-    <row r="428" spans="1:9" s="35" customFormat="1" ht="105">
+    <row r="428" spans="1:9" s="35" customFormat="1" ht="71.25">
       <c r="A428" s="33" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B428" s="34" t="s">
         <v>325</v>
       </c>
       <c r="C428" s="19" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D428" s="34" t="s">
         <v>658</v>
@@ -16363,15 +16369,15 @@
       </c>
       <c r="I428" s="34"/>
     </row>
-    <row r="429" spans="1:9" s="35" customFormat="1" ht="105">
+    <row r="429" spans="1:9" s="35" customFormat="1" ht="85.5">
       <c r="A429" s="33" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B429" s="34" t="s">
         <v>325</v>
       </c>
       <c r="C429" s="19" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D429" s="34" t="s">
         <v>658</v>
@@ -16390,71 +16396,71 @@
       </c>
       <c r="I429" s="34"/>
     </row>
-    <row r="430" spans="1:9" s="35" customFormat="1" ht="105">
+    <row r="430" spans="1:9" s="35" customFormat="1" ht="85.5">
       <c r="A430" s="33" t="s">
+        <v>643</v>
+      </c>
+      <c r="B430" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C430" s="19" t="s">
+        <v>806</v>
+      </c>
+      <c r="D430" s="34" t="s">
+        <v>658</v>
+      </c>
+      <c r="E430" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F430" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G430" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H430" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I430" s="34"/>
+    </row>
+    <row r="431" spans="1:9" s="35" customFormat="1" ht="99.75">
+      <c r="A431" s="33" t="s">
         <v>335</v>
       </c>
-      <c r="B430" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C430" s="19" t="s">
+      <c r="B431" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C431" s="19" t="s">
         <v>820</v>
       </c>
-      <c r="D430" s="34" t="s">
+      <c r="D431" s="34" t="s">
         <v>624</v>
       </c>
-      <c r="E430" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F430" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G430" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H430" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I430" s="34" t="s">
+      <c r="E431" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F431" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G431" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H431" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I431" s="34" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="431" spans="1:9" s="35" customFormat="1" ht="90">
-      <c r="A431" s="36" t="s">
+    <row r="432" spans="1:9" s="35" customFormat="1" ht="71.25">
+      <c r="A432" s="36" t="s">
         <v>644</v>
       </c>
-      <c r="B431" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C431" s="37" t="s">
+      <c r="B432" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C432" s="37" t="s">
         <v>807</v>
-      </c>
-      <c r="D431" s="34" t="s">
-        <v>659</v>
-      </c>
-      <c r="E431" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F431" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G431" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H431" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I431" s="34"/>
-    </row>
-    <row r="432" spans="1:9" s="35" customFormat="1" ht="90">
-      <c r="A432" s="36" t="s">
-        <v>645</v>
-      </c>
-      <c r="B432" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C432" s="37" t="s">
-        <v>808</v>
       </c>
       <c r="D432" s="34" t="s">
         <v>659</v>
@@ -16473,15 +16479,15 @@
       </c>
       <c r="I432" s="34"/>
     </row>
-    <row r="433" spans="1:9" s="35" customFormat="1" ht="90">
+    <row r="433" spans="1:9" s="35" customFormat="1" ht="71.25">
       <c r="A433" s="36" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B433" s="34" t="s">
         <v>325</v>
       </c>
       <c r="C433" s="37" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D433" s="34" t="s">
         <v>659</v>
@@ -16500,15 +16506,15 @@
       </c>
       <c r="I433" s="34"/>
     </row>
-    <row r="434" spans="1:9" s="35" customFormat="1" ht="90">
+    <row r="434" spans="1:9" s="35" customFormat="1" ht="71.25">
       <c r="A434" s="36" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B434" s="34" t="s">
         <v>325</v>
       </c>
       <c r="C434" s="37" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D434" s="34" t="s">
         <v>659</v>
@@ -16527,15 +16533,15 @@
       </c>
       <c r="I434" s="34"/>
     </row>
-    <row r="435" spans="1:9" s="35" customFormat="1" ht="90">
+    <row r="435" spans="1:9" s="35" customFormat="1" ht="71.25">
       <c r="A435" s="36" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B435" s="34" t="s">
         <v>325</v>
       </c>
       <c r="C435" s="37" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D435" s="34" t="s">
         <v>659</v>
@@ -16554,15 +16560,15 @@
       </c>
       <c r="I435" s="34"/>
     </row>
-    <row r="436" spans="1:9" s="35" customFormat="1" ht="90">
+    <row r="436" spans="1:9" s="35" customFormat="1" ht="71.25">
       <c r="A436" s="36" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B436" s="34" t="s">
         <v>325</v>
       </c>
       <c r="C436" s="37" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D436" s="34" t="s">
         <v>659</v>
@@ -16581,15 +16587,15 @@
       </c>
       <c r="I436" s="34"/>
     </row>
-    <row r="437" spans="1:9" s="35" customFormat="1" ht="90">
+    <row r="437" spans="1:9" s="35" customFormat="1" ht="71.25">
       <c r="A437" s="36" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B437" s="34" t="s">
         <v>325</v>
       </c>
       <c r="C437" s="37" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D437" s="34" t="s">
         <v>659</v>
@@ -16608,15 +16614,15 @@
       </c>
       <c r="I437" s="34"/>
     </row>
-    <row r="438" spans="1:9" s="35" customFormat="1" ht="90">
+    <row r="438" spans="1:9" s="35" customFormat="1" ht="71.25">
       <c r="A438" s="36" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B438" s="34" t="s">
         <v>325</v>
       </c>
       <c r="C438" s="37" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D438" s="34" t="s">
         <v>659</v>
@@ -16635,15 +16641,15 @@
       </c>
       <c r="I438" s="34"/>
     </row>
-    <row r="439" spans="1:9" s="35" customFormat="1" ht="90">
+    <row r="439" spans="1:9" s="35" customFormat="1" ht="71.25">
       <c r="A439" s="36" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B439" s="34" t="s">
         <v>325</v>
       </c>
       <c r="C439" s="37" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D439" s="34" t="s">
         <v>659</v>
@@ -16662,15 +16668,15 @@
       </c>
       <c r="I439" s="34"/>
     </row>
-    <row r="440" spans="1:9" s="35" customFormat="1" ht="90">
+    <row r="440" spans="1:9" s="35" customFormat="1" ht="71.25">
       <c r="A440" s="36" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B440" s="34" t="s">
         <v>325</v>
       </c>
       <c r="C440" s="37" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D440" s="34" t="s">
         <v>659</v>
@@ -16689,15 +16695,15 @@
       </c>
       <c r="I440" s="34"/>
     </row>
-    <row r="441" spans="1:9" s="35" customFormat="1" ht="105">
+    <row r="441" spans="1:9" s="35" customFormat="1" ht="71.25">
       <c r="A441" s="36" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B441" s="34" t="s">
         <v>325</v>
       </c>
       <c r="C441" s="37" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D441" s="34" t="s">
         <v>659</v>
@@ -16716,15 +16722,15 @@
       </c>
       <c r="I441" s="34"/>
     </row>
-    <row r="442" spans="1:9" s="35" customFormat="1" ht="90">
+    <row r="442" spans="1:9" s="35" customFormat="1" ht="85.5">
       <c r="A442" s="36" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B442" s="34" t="s">
         <v>325</v>
       </c>
       <c r="C442" s="37" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D442" s="34" t="s">
         <v>659</v>
@@ -16743,15 +16749,15 @@
       </c>
       <c r="I442" s="34"/>
     </row>
-    <row r="443" spans="1:9" s="35" customFormat="1" ht="90">
+    <row r="443" spans="1:9" s="35" customFormat="1" ht="85.5">
       <c r="A443" s="36" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B443" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="C443" s="38" t="s">
-        <v>819</v>
+      <c r="C443" s="37" t="s">
+        <v>818</v>
       </c>
       <c r="D443" s="34" t="s">
         <v>659</v>
@@ -16769,6 +16775,33 @@
         <v>21</v>
       </c>
       <c r="I443" s="34"/>
+    </row>
+    <row r="444" spans="1:9" ht="71.25">
+      <c r="A444" s="36" t="s">
+        <v>656</v>
+      </c>
+      <c r="B444" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C444" s="38" t="s">
+        <v>819</v>
+      </c>
+      <c r="D444" s="34" t="s">
+        <v>659</v>
+      </c>
+      <c r="E444" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F444" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G444" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H444" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I444" s="34"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -16787,7 +16820,7 @@
     <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="C431:C443 F201:F241 F323:F339 B381:B409 F263:F278 F368:F429 F360:F366 F295:F305 F356:F357">
+  <conditionalFormatting sqref="C432:C444 F201:F241 F323:F339 B382:B410 F263:F278 F369:F430 F361:F367 F295:F305 F357:F358">
     <cfRule type="expression" dxfId="145" priority="158">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -16798,7 +16831,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C431:C443 F201:F241 F323:F339 B381:B409 F263:F278 F368:F429 F360:F366 F295:F305 F356:F357">
+  <conditionalFormatting sqref="C432:C444 F201:F241 F323:F339 B382:B410 F263:F278 F369:F430 F361:F367 F295:F305 F357:F358">
     <cfRule type="expression" dxfId="142" priority="155">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -16831,7 +16864,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20 F201:F241 F22:F58 F60:F87 F140:F198 F89:F136 F247:F278 F295:F339 F356:F429">
+  <conditionalFormatting sqref="F20 F201:F241 F22:F58 F60:F87 F140:F198 F89:F136 F247:F278 F295:F339 F357:F430">
     <cfRule type="expression" dxfId="133" priority="144">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
@@ -16869,7 +16902,7 @@
       <formula>(VLOOKUP(F21,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F199 F175 F367 F178 F180 F182 F184 F186 F188 F190:F194 F152 F154 F156 F158 F160 F165 F167:F168 F170 F172 F321:F322 F358 F307 F309 F311 F313 F315 F317 F319 F140 F142 F145 F249 F251 F253 F256 F258 F260 F262 F147 F149:F150">
+  <conditionalFormatting sqref="F199 F175 F368 F178 F180 F182 F184 F186 F188 F190:F194 F152 F154 F156 F158 F160 F165 F167:F168 F170 F172 F321:F322 F359 F307 F309 F311 F313 F315 F317 F319 F140 F142 F145 F249 F251 F253 F256 F258 F260 F262 F147 F149:F150">
     <cfRule type="expression" dxfId="123" priority="130">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -16880,7 +16913,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F199 F175 F367 F178 F180 F182 F184 F186 F188 F190:F194 F152 F154 F156 F158 F160 F165 F167:F168 F170 F172 F321:F322 F358 F307 F309 F311 F313 F315 F317 F319 F140 F142 F145 F249 F251 F253 F256 F258 F260 F262 F147 F149:F150">
+  <conditionalFormatting sqref="F199 F175 F368 F178 F180 F182 F184 F186 F188 F190:F194 F152 F154 F156 F158 F160 F165 F167:F168 F170 F172 F321:F322 F359 F307 F309 F311 F313 F315 F317 F319 F140 F142 F145 F249 F251 F253 F256 F258 F260 F262 F147 F149:F150">
     <cfRule type="expression" dxfId="120" priority="125">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -16899,7 +16932,7 @@
       <formula>(VLOOKUP(F199,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F200 F195:F198 F176:F177 F179 F181 F183 F185 F187 F189 F151 F153 F155 F157 F159 F161:F164 F166 F169 F171 F173:F174 F306 F359 F308 F310 F312 F314 F316 F318 F320 F141 F143:F144 F248 F250 F252 F254:F255 F257 F259 F261 F146 F148">
+  <conditionalFormatting sqref="F200 F195:F198 F176:F177 F179 F181 F183 F185 F187 F189 F151 F153 F155 F157 F159 F161:F164 F166 F169 F171 F173:F174 F306 F360 F308 F310 F312 F314 F316 F318 F320 F141 F143:F144 F248 F250 F252 F254:F255 F257 F259 F261 F146 F148">
     <cfRule type="expression" dxfId="115" priority="122">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -16910,7 +16943,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F200 F195:F198 F176:F177 F179 F181 F183 F185 F187 F189 F151 F153 F155 F157 F159 F161:F164 F166 F169 F171 F173:F174 F306 F359 F308 F310 F312 F314 F316 F318 F320 F141 F143:F144 F248 F250 F252 F254:F255 F257 F259 F261 F146 F148">
+  <conditionalFormatting sqref="F200 F195:F198 F176:F177 F179 F181 F183 F185 F187 F189 F151 F153 F155 F157 F159 F161:F164 F166 F169 F171 F173:F174 F306 F360 F308 F310 F312 F314 F316 F318 F320 F141 F143:F144 F248 F250 F252 F254:F255 F257 F259 F261 F146 F148">
     <cfRule type="expression" dxfId="112" priority="117">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -16929,7 +16962,7 @@
       <formula>(VLOOKUP(F200,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F431:F443">
+  <conditionalFormatting sqref="F432:F444">
     <cfRule type="expression" dxfId="107" priority="114">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -16940,7 +16973,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F431:F443">
+  <conditionalFormatting sqref="F432:F444">
     <cfRule type="expression" dxfId="104" priority="109">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -16951,12 +16984,12 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F431:F443">
+  <conditionalFormatting sqref="F432:F444">
     <cfRule type="expression" dxfId="101" priority="112">
-      <formula>NOT(VLOOKUP(F431,$A$12:$C$15,2,FALSE)="In")</formula>
+      <formula>NOT(VLOOKUP(F432,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="100" priority="113">
-      <formula>(VLOOKUP(F431,$A$12:$C$15,2,FALSE)="In")</formula>
+      <formula>(VLOOKUP(F432,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F137:F139">
@@ -17049,7 +17082,7 @@
       <formula>(VLOOKUP(F88,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F430">
+  <conditionalFormatting sqref="F431">
     <cfRule type="expression" dxfId="75" priority="74">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -17060,7 +17093,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F430">
+  <conditionalFormatting sqref="F431">
     <cfRule type="expression" dxfId="72" priority="69">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -17071,12 +17104,12 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F430">
+  <conditionalFormatting sqref="F431">
     <cfRule type="expression" dxfId="69" priority="72">
-      <formula>NOT(VLOOKUP(F430,$A$12:$C$15,2,FALSE)="In")</formula>
+      <formula>NOT(VLOOKUP(F431,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="68" priority="73">
-      <formula>(VLOOKUP(F430,$A$12:$C$15,2,FALSE)="In")</formula>
+      <formula>(VLOOKUP(F431,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D323">
@@ -17281,7 +17314,7 @@
       <formula>(VLOOKUP(F279,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F340:F355">
+  <conditionalFormatting sqref="F340:F356">
     <cfRule type="expression" dxfId="13" priority="12">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -17292,7 +17325,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F340:F355">
+  <conditionalFormatting sqref="F340:F356">
     <cfRule type="expression" dxfId="10" priority="9">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -17303,7 +17336,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F340:F355">
+  <conditionalFormatting sqref="F340:F356">
     <cfRule type="expression" dxfId="7" priority="7">
       <formula>NOT(VLOOKUP(F340,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
@@ -17334,26 +17367,26 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F381:F429 F89:F142 F248:F294 F236:F241 F145:F234 F431:F443 F20:F87 F367:F372 F306:F355" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F382:F430 F89:F142 F248:F294 F236:F241 F145:F234 F432:F444 F20:F87 F368:F373 F306:F356" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$A$13:$A$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E431:E443 E20:E87 E89:E241 E245:E301 E367:E429 E306:E360" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E432:E444 E20:E87 E89:E241 E245:E301 E368:E430 E306:E361" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Protocol,Product"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G431:G443 G20:G87 G89:G241 G245:G301 G367:G429 G306:G360" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G432:G444 G20:G87 G89:G241 G245:G301 G368:G430 G306:G361" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Informative,Normative"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B15" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"In, Out"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H172 H295:H301 H237 H245:H247 H356:H360 H235 H373:H380 H143:H144" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H172 H295:H301 H237 H245:H247 H357:H361 H235 H374:H381 H143:H144" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"Non-testable, Unverified, Adapter, Test Case, Deleted"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H430 H236 H20:H87 H381:H415 H89:H142 H145:H171 H238:H241 H248:H294 H173:H234 H365:H372 H306:H355" xr:uid="{00000000-0002-0000-0000-000006000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H431 H236 H20:H87 H382:H416 H89:H142 H145:H171 H238:H241 H248:H294 H173:H234 H366:H373 H306:H356" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>"Non-testable, Unverified, Adapter, Test Case"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F295:F301 F143:F144 F373:F380 F235 F356:F360 F245:F247" xr:uid="{00000000-0002-0000-0000-000007000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F295:F301 F143:F144 F374:F381 F235 F357:F361 F245:F247" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>$A$14:$A$16</formula1>
     </dataValidation>
   </dataValidations>
@@ -17363,8 +17396,8 @@
     <oddFooter>&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="B367:B443 B356:B364 B19:B294 B295:B340 B342:B355" numberStoredAsText="1"/>
-    <ignoredError sqref="F356:F360" listDataValidation="1"/>
+    <ignoredError sqref="B368:B444 B357:B365 B19:B294 B295:B340 B342:B355" numberStoredAsText="1"/>
+    <ignoredError sqref="F357:F361" listDataValidation="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>
@@ -17463,13 +17496,13 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
